--- a/spreadsheet/macrofree/waf.es.xlsx
+++ b/spreadsheet/macrofree/waf.es.xlsx
@@ -10754,7 +10754,7 @@
       </c>
       <c r="D193" s="18" t="inlineStr">
         <is>
-          <t>No use el complemento de enrutamiento de aplicaciones de AKS</t>
+          <t>No use el complemento de enrutamiento HTTP de AKS, use en su lugar la entrada NGINX administrada con el complemento de enrutamiento de aplicaciones.</t>
         </is>
       </c>
       <c r="E193" s="18" t="n"/>
@@ -10830,11 +10830,7 @@
         </is>
       </c>
       <c r="J194" s="13" t="n"/>
-      <c r="K194" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnull(properties.addonProfiles.httpApplicationRouting) or properties.addonProfiles.httpApplicationRouting.enabled==false) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K194" s="19" t="n"/>
       <c r="L194" s="19" t="inlineStr">
         <is>
           <t>7bacd7b9-c025-4a9d-a5d2-25d6bc5439d9</t>

--- a/spreadsheet/macrofree/waf.es.xlsx
+++ b/spreadsheet/macrofree/waf.es.xlsx
@@ -15033,7 +15033,7 @@
       </c>
       <c r="D274" s="18" t="inlineStr">
         <is>
-          <t>Implemente los perfiles de WAF para Front Door en modo "Prevención".</t>
+          <t>Implemente la directiva de WAF para Front Door en modo de "prevención".</t>
         </is>
       </c>
       <c r="E274" s="18" t="n"/>
@@ -15461,7 +15461,7 @@
       </c>
       <c r="D282" s="18" t="inlineStr">
         <is>
-          <t>Defina la configuración de WAF de Azure Front Door como código. Mediante el uso de código, puede adoptar más fácilmente nuevas versiones del conjunto de reglas y obtener protección adicional.</t>
+          <t>Defina la configuración de WAF de Azure Front Door como código. Mediante el uso de código, puede adoptar más fácilmente una nueva versión del conjunto de reglas y obtener protección adicional.</t>
         </is>
       </c>
       <c r="E282" s="18" t="n"/>
@@ -15716,7 +15716,7 @@
       </c>
       <c r="D287" s="18" t="inlineStr">
         <is>
-          <t>Use el modo de prevención con el WAF de Azure Front Door. El modo de prevención garantiza que el WAF bloquee las solicitudes malintencionadas.</t>
+          <t>Habilite la característica de inspección del cuerpo de la solicitud habilitada en la directiva WAF de Azure Front Door.</t>
         </is>
       </c>
       <c r="E287" s="18" t="n"/>
@@ -15818,7 +15818,7 @@
       </c>
       <c r="D289" s="18" t="inlineStr">
         <is>
-          <t>Habilite las reglas de administración de bots de WAF de Azure Front Door. Las reglas de bots detectan bots buenos y malos.</t>
+          <t>Habilite el conjunto de reglas de protección contra bots de Azure Front Door WAF. Las reglas de bots detectan bots buenos y malos.</t>
         </is>
       </c>
       <c r="E289" s="18" t="n"/>
@@ -15869,7 +15869,7 @@
       </c>
       <c r="D290" s="18" t="inlineStr">
         <is>
-          <t>Use las versiones más recientes del conjunto de reglas de Azure Front Door WAF. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
+          <t>Use la versión más reciente del conjunto de reglas de WAF de Azure Front Door. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
         </is>
       </c>
       <c r="E290" s="18" t="n"/>
@@ -16022,7 +16022,7 @@
       </c>
       <c r="D293" s="18" t="inlineStr">
         <is>
-          <t>Filtre geográficamente el tráfico mediante el WAF de Azure Front Door. Permita el tráfico solo de las regiones esperadas y bloquee el tráfico de otras regiones.</t>
+          <t>Si no espera tráfico de todas las regiones geográficas, utilice filtros geográficos para bloquear el tráfico de países no esperados.</t>
         </is>
       </c>
       <c r="E293" s="18" t="n"/>
@@ -16109,7 +16109,7 @@
     <row r="295">
       <c r="A295" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B295" s="18" t="inlineStr">
@@ -16119,12 +16119,12 @@
       </c>
       <c r="C295" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D295" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que los controladores de dominio ADDS se implementan en la suscripción de identidad en Azure nativo</t>
+          <t>Habilitación del conjunto de reglas de protección contra bots de WAF de Azure Application Gateway Las reglas de bots detectan bots buenos y malos.</t>
         </is>
       </c>
       <c r="E295" s="18" t="n"/>
@@ -16139,12 +16139,16 @@
         </is>
       </c>
       <c r="H295" s="18" t="n"/>
-      <c r="I295" s="13" t="n"/>
+      <c r="I295" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J295" s="13" t="n"/>
       <c r="K295" s="19" t="n"/>
       <c r="L295" s="19" t="inlineStr">
         <is>
-          <t>32e42e36-11c8-418b-8a0b-c510e43a18a9</t>
+          <t>2f8e81eb-8e68-4026-8b1f-70f9b05f7cf9</t>
         </is>
       </c>
       <c r="M295" s="20" t="n"/>
@@ -16156,7 +16160,7 @@
     <row r="296">
       <c r="A296" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B296" s="18" t="inlineStr">
@@ -16166,18 +16170,18 @@
       </c>
       <c r="C296" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D296" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que los sitios y servicios de ADDS están configurados para mantener las solicitudes de autenticación de los recursos basados en Azure (incluida Azure VMware Solution) locales en Azure</t>
+          <t>Habilite la característica de inspección del cuerpo de la solicitud habilitada en la directiva WAF de Azure Application Gateway.</t>
         </is>
       </c>
       <c r="E296" s="18" t="n"/>
       <c r="F296" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
@@ -16186,12 +16190,16 @@
         </is>
       </c>
       <c r="H296" s="18" t="n"/>
-      <c r="I296" s="13" t="n"/>
+      <c r="I296" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J296" s="13" t="n"/>
       <c r="K296" s="19" t="n"/>
       <c r="L296" s="19" t="inlineStr">
         <is>
-          <t>75089c20-990d-4927-b105-885576f76fc2</t>
+          <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>
         </is>
       </c>
       <c r="M296" s="20" t="n"/>
@@ -16203,7 +16211,7 @@
     <row r="297">
       <c r="A297" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B297" s="18" t="inlineStr">
@@ -16213,12 +16221,12 @@
       </c>
       <c r="C297" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D297" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que vCenter esté conectado a ADDS para habilitar la autenticación basada en "cuentas de usuario designadas"</t>
+          <t>Ajuste el WAF de Azure Application Gateway para la carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
         </is>
       </c>
       <c r="E297" s="18" t="n"/>
@@ -16233,12 +16241,16 @@
         </is>
       </c>
       <c r="H297" s="18" t="n"/>
-      <c r="I297" s="13" t="n"/>
+      <c r="I297" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J297" s="13" t="n"/>
       <c r="K297" s="19" t="n"/>
       <c r="L297" s="19" t="inlineStr">
         <is>
-          <t>de3aad1e-7c28-4ec9-9666-b7570449aa80</t>
+          <t>a4dd86d3-5ffa-408c-b660-cce073d085b8</t>
         </is>
       </c>
       <c r="M297" s="20" t="n"/>
@@ -16250,7 +16262,7 @@
     <row r="298">
       <c r="A298" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B298" s="18" t="inlineStr">
@@ -16260,18 +16272,18 @@
       </c>
       <c r="C298" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D298" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que la conexión de vCenter a ADDS utilice un protocolo seguro (LDAPS)</t>
+          <t>Implemente la directiva de WAF para Application Gateway en modo de "prevención".</t>
         </is>
       </c>
       <c r="E298" s="18" t="n"/>
       <c r="F298" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -16280,12 +16292,20 @@
         </is>
       </c>
       <c r="H298" s="18" t="n"/>
-      <c r="I298" s="13" t="n"/>
+      <c r="I298" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J298" s="13" t="n"/>
-      <c r="K298" s="19" t="n"/>
+      <c r="K298" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
+        </is>
+      </c>
       <c r="L298" s="19" t="inlineStr">
         <is>
-          <t>cd289ced-6b17-4db8-8554-61e2aee3553a</t>
+          <t>baf8e317-2397-4d49-b3d1-0dcc16d8778d</t>
         </is>
       </c>
       <c r="M298" s="20" t="n"/>
@@ -16297,7 +16317,7 @@
     <row r="299">
       <c r="A299" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B299" s="18" t="inlineStr">
@@ -16307,12 +16327,12 @@
       </c>
       <c r="C299" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D299" s="18" t="inlineStr">
         <is>
-          <t>La cuenta de CloudAdmin en vCenter IdP solo se utiliza como una cuenta de emergencia (break-glass)</t>
+          <t>Agregue limitación de velocidad al WAF de Azure Application Gateway. La limitación de velocidad bloquea a los clientes que envían accidental o intencionadamente grandes cantidades de tráfico en un corto período de tiempo.</t>
         </is>
       </c>
       <c r="E299" s="18" t="n"/>
@@ -16327,12 +16347,16 @@
         </is>
       </c>
       <c r="H299" s="18" t="n"/>
-      <c r="I299" s="13" t="n"/>
+      <c r="I299" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J299" s="13" t="n"/>
       <c r="K299" s="19" t="n"/>
       <c r="L299" s="19" t="inlineStr">
         <is>
-          <t>b9d37dac-43bc-46cd-8d79-a9b24604489a</t>
+          <t>43fae595-8a32-4299-a69e-0f32c454dcc9</t>
         </is>
       </c>
       <c r="M299" s="20" t="n"/>
@@ -16344,7 +16368,7 @@
     <row r="300">
       <c r="A300" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B300" s="18" t="inlineStr">
@@ -16354,18 +16378,18 @@
       </c>
       <c r="C300" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D300" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que NSX-Manager esté integrado con un proveedor de identidades externo (LDAPS)</t>
+          <t xml:space="preserve">Use un umbral alto para los límites de frecuencia de WAF de Azure Application Gateway. Los umbrales de límite de velocidad altos evitan el bloqueo del tráfico legítimo, a la vez que proporcionan protección contra un número extremadamente alto de solicitudes que podrían sobrecargar su infraestructura. </t>
         </is>
       </c>
       <c r="E300" s="18" t="n"/>
       <c r="F300" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
@@ -16374,12 +16398,16 @@
         </is>
       </c>
       <c r="H300" s="18" t="n"/>
-      <c r="I300" s="13" t="n"/>
+      <c r="I300" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J300" s="13" t="n"/>
       <c r="K300" s="19" t="n"/>
       <c r="L300" s="19" t="inlineStr">
         <is>
-          <t>53d88e89-d17b-473b-82a5-a67e7a9ed5b3</t>
+          <t>041e0ad8-7b12-4694-a0b7-a0e25ee2470f</t>
         </is>
       </c>
       <c r="M300" s="20" t="n"/>
@@ -16391,7 +16419,7 @@
     <row r="301">
       <c r="A301" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B301" s="18" t="inlineStr">
@@ -16401,18 +16429,18 @@
       </c>
       <c r="C301" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D301" s="18" t="inlineStr">
         <is>
-          <t>¿Se ha creado un modelo RBAC para su uso en VMware vSphere?</t>
+          <t>Si no espera tráfico de todas las regiones geográficas, utilice filtros geográficos para bloquear el tráfico de países no esperados.</t>
         </is>
       </c>
       <c r="E301" s="18" t="n"/>
       <c r="F301" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
@@ -16421,12 +16449,16 @@
         </is>
       </c>
       <c r="H301" s="18" t="n"/>
-      <c r="I301" s="13" t="n"/>
+      <c r="I301" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J301" s="13" t="n"/>
       <c r="K301" s="19" t="n"/>
       <c r="L301" s="19" t="inlineStr">
         <is>
-          <t>ae0e37ce-e297-411b-b352-caaab79b198d</t>
+          <t>99937189-ff78-492a-b9ca-18d828d82b37</t>
         </is>
       </c>
       <c r="M301" s="20" t="n"/>
@@ -16438,7 +16470,7 @@
     <row r="302">
       <c r="A302" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B302" s="18" t="inlineStr">
@@ -16448,12 +16480,12 @@
       </c>
       <c r="C302" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D302" s="18" t="inlineStr">
         <is>
-          <t>Los permisos RBAC deben concederse a grupos ADDS y no a usuarios específicos</t>
+          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con el WAF de Azure Application Gateway. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no puedan coincidir geográficamente.</t>
         </is>
       </c>
       <c r="E302" s="18" t="n"/>
@@ -16468,12 +16500,16 @@
         </is>
       </c>
       <c r="H302" s="18" t="n"/>
-      <c r="I302" s="13" t="n"/>
+      <c r="I302" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J302" s="13" t="n"/>
       <c r="K302" s="19" t="n"/>
       <c r="L302" s="19" t="inlineStr">
         <is>
-          <t>ab81932c-9fc9-4d1b-a780-36f5e6bfbb9e</t>
+          <t>349a15c1-52f4-4319-9078-3895d95ecafd</t>
         </is>
       </c>
       <c r="M302" s="20" t="n"/>
@@ -16485,7 +16521,7 @@
     <row r="303">
       <c r="A303" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B303" s="18" t="inlineStr">
@@ -16495,18 +16531,18 @@
       </c>
       <c r="C303" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D303" s="18" t="inlineStr">
         <is>
-          <t>Los permisos de RBAC en el recurso de Azure VMware Solution en Azure están "bloqueados" solo para un conjunto limitado de propietarios</t>
+          <t>Use la versión más reciente del conjunto de reglas de WAF de Azure Application Gateway. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
         </is>
       </c>
       <c r="E303" s="18" t="n"/>
       <c r="F303" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -16515,12 +16551,16 @@
         </is>
       </c>
       <c r="H303" s="18" t="n"/>
-      <c r="I303" s="13" t="n"/>
+      <c r="I303" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J303" s="13" t="n"/>
       <c r="K303" s="19" t="n"/>
       <c r="L303" s="19" t="inlineStr">
         <is>
-          <t>d503547c-c447-4e82-9128-a71f0f1cac6d</t>
+          <t>6c19dfd5-a61c-436c-9001-491b9b3d0228</t>
         </is>
       </c>
       <c r="M303" s="20" t="n"/>
@@ -16532,28 +16572,28 @@
     <row r="304">
       <c r="A304" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B304" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C304" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D304" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que todos los roles personalizados tengan el ámbito de las autorizaciones permitidas de CloudAdmin</t>
+          <t>Agregue la configuración de diagnóstico para guardar los registros de WAF de Azure Application Gateway.</t>
         </is>
       </c>
       <c r="E304" s="18" t="n"/>
       <c r="F304" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
@@ -16562,12 +16602,16 @@
         </is>
       </c>
       <c r="H304" s="18" t="n"/>
-      <c r="I304" s="13" t="n"/>
+      <c r="I304" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J304" s="13" t="n"/>
       <c r="K304" s="19" t="n"/>
       <c r="L304" s="19" t="inlineStr">
         <is>
-          <t>fd9f0df4-68dc-4976-b9a9-e6a79f7682c5</t>
+          <t>f84106a2-2e9e-42ac-add6-d3416ecfed53</t>
         </is>
       </c>
       <c r="M304" s="20" t="n"/>
@@ -16579,28 +16623,28 @@
     <row r="305">
       <c r="A305" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B305" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C305" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D305" s="18" t="inlineStr">
         <is>
-          <t>¿Se ha seleccionado el modelo de conectividad de Azure VMware Solution correcto para el caso de uso del cliente en cuestión?</t>
+          <t>Agregue la configuración de diagnóstico para guardar los registros de WAF de Azure Front Door.</t>
         </is>
       </c>
       <c r="E305" s="18" t="n"/>
       <c r="F305" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
@@ -16618,7 +16662,7 @@
       <c r="K305" s="19" t="n"/>
       <c r="L305" s="19" t="inlineStr">
         <is>
-          <t>9ef1d5e8-32e4-42e3-911c-818b0a0bc510</t>
+          <t>4cea4050-7946-4a7c-89e6-b021b73c352d</t>
         </is>
       </c>
       <c r="M305" s="20" t="n"/>
@@ -16630,7 +16674,7 @@
     <row r="306">
       <c r="A306" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B306" s="18" t="inlineStr">
@@ -16640,18 +16684,18 @@
       </c>
       <c r="C306" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D306" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que las conexiones de ExpressRoute o VPN desde el entorno local a Azure se supervisan mediante el "monitor de conexiones"</t>
+          <t>Envíe registros de WAF de Azure Application Gateway a Microsoft Sentinel.</t>
         </is>
       </c>
       <c r="E306" s="18" t="n"/>
       <c r="F306" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
@@ -16660,12 +16704,16 @@
         </is>
       </c>
       <c r="H306" s="18" t="n"/>
-      <c r="I306" s="13" t="n"/>
+      <c r="I306" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J306" s="13" t="n"/>
       <c r="K306" s="19" t="n"/>
       <c r="L306" s="19" t="inlineStr">
         <is>
-          <t>eb710a37-cbc1-4055-8dd5-a936a8bb7cf5</t>
+          <t>92664c60-47e3-4591-8b1b-8d557656e686</t>
         </is>
       </c>
       <c r="M306" s="20" t="n"/>
@@ -16677,7 +16725,7 @@
     <row r="307">
       <c r="A307" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B307" s="18" t="inlineStr">
@@ -16687,12 +16735,12 @@
       </c>
       <c r="C307" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D307" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que se crea un monitor de conexión desde un recurso nativo de Azure a una máquina virtual de Azure VMware Solution para supervisar la conexión de ExpressRoute back-end de Azure VMware Solution</t>
+          <t>Envíe registros de WAF de Azure Front Door a Microsoft Sentinel.</t>
         </is>
       </c>
       <c r="E307" s="18" t="n"/>
@@ -16707,12 +16755,16 @@
         </is>
       </c>
       <c r="H307" s="18" t="n"/>
-      <c r="I307" s="13" t="n"/>
+      <c r="I307" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J307" s="13" t="n"/>
       <c r="K307" s="19" t="n"/>
       <c r="L307" s="19" t="inlineStr">
         <is>
-          <t>976e24f2-a7f8-426c-9253-2a92a2a7ed99</t>
+          <t>845f5f91-9c21-4674-a725-5ce890850e20</t>
         </is>
       </c>
       <c r="M307" s="20" t="n"/>
@@ -16724,7 +16776,7 @@
     <row r="308">
       <c r="A308" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B308" s="18" t="inlineStr">
@@ -16734,12 +16786,12 @@
       </c>
       <c r="C308" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D308" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que se crea un monitor de conexión desde un recurso local a una máquina virtual de Azure VMware Solution para supervisar la conectividad de extremo a extremo</t>
+          <t>Defina la configuración de WAF de Azure Application Gateway como código. Mediante el uso de código, puede adoptar más fácilmente una nueva versión del conjunto de reglas y obtener protección adicional.</t>
         </is>
       </c>
       <c r="E308" s="18" t="n"/>
@@ -16754,12 +16806,16 @@
         </is>
       </c>
       <c r="H308" s="18" t="n"/>
-      <c r="I308" s="13" t="n"/>
+      <c r="I308" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J308" s="13" t="n"/>
       <c r="K308" s="19" t="n"/>
       <c r="L308" s="19" t="inlineStr">
         <is>
-          <t>f41ce6a0-64f3-4805-bc65-3ab50df01265</t>
+          <t>ba0e9b26-6e0d-4ec8-8541-023c00afd5b7</t>
         </is>
       </c>
       <c r="M308" s="20" t="n"/>
@@ -16771,7 +16827,7 @@
     <row r="309">
       <c r="A309" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B309" s="18" t="inlineStr">
@@ -16781,18 +16837,18 @@
       </c>
       <c r="C309" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D309" s="18" t="inlineStr">
         <is>
-          <t>Cuando se utiliza el servidor de rutas, asegúrese de que no se propaguen más de 1000 rutas desde el servidor de rutas a la puerta de enlace de ExR al entorno local (límite de ARS).</t>
+          <t>Utilice directivas de WAF en lugar de la configuración de WAF heredada.</t>
         </is>
       </c>
       <c r="E309" s="18" t="n"/>
       <c r="F309" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
@@ -16801,12 +16857,16 @@
         </is>
       </c>
       <c r="H309" s="18" t="n"/>
-      <c r="I309" s="13" t="n"/>
+      <c r="I309" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J309" s="13" t="n"/>
       <c r="K309" s="19" t="n"/>
       <c r="L309" s="19" t="inlineStr">
         <is>
-          <t>563b4dc7-4a74-48b6-933a-d1a0916a6649</t>
+          <t>f17ec301-8470-4afd-aabc-c1fdfe47dcc0</t>
         </is>
       </c>
       <c r="M309" s="20" t="n"/>
@@ -16818,7 +16878,7 @@
     <row r="310">
       <c r="A310" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B310" s="18" t="inlineStr">
@@ -16828,18 +16888,18 @@
       </c>
       <c r="C310" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D310" s="18" t="inlineStr">
         <is>
-          <t>¿Se ha implementado Privileged Identity Management para los roles que administran el recurso de Azure VMware Solution en Azure Portal (no se permiten permisos permanentes)?</t>
+          <t>Filtre el tráfico entrante en los back-end para que solo acepten conexiones de la subred de Application Gateway, por ejemplo, con grupos de seguridad de red.</t>
         </is>
       </c>
       <c r="E310" s="18" t="n"/>
       <c r="F310" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
@@ -16848,12 +16908,16 @@
         </is>
       </c>
       <c r="H310" s="18" t="n"/>
-      <c r="I310" s="13" t="n"/>
+      <c r="I310" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J310" s="13" t="n"/>
       <c r="K310" s="19" t="n"/>
       <c r="L310" s="19" t="inlineStr">
         <is>
-          <t>6128a71f-0f1c-4ac6-b9ef-1d5e832e42e3</t>
+          <t>d4eb8667-f8cb-4cdd-94e6-2f967ba98f88</t>
         </is>
       </c>
       <c r="M310" s="20" t="n"/>
@@ -16880,7 +16944,7 @@
       </c>
       <c r="D311" s="18" t="inlineStr">
         <is>
-          <t>Los informes de auditoría de Privileged Identity Management deben implementarse para los roles PIM de Azure VMware Solution</t>
+          <t>Asegúrese de que los controladores de dominio ADDS se implementan en la suscripción de identidad en Azure nativo</t>
         </is>
       </c>
       <c r="E311" s="18" t="n"/>
@@ -16900,7 +16964,7 @@
       <c r="K311" s="19" t="n"/>
       <c r="L311" s="19" t="inlineStr">
         <is>
-          <t>c4e2436b-b336-4d71-9f17-960eee0b9b5c</t>
+          <t>32e42e36-11c8-418b-8a0b-c510e43a18a9</t>
         </is>
       </c>
       <c r="M311" s="20" t="n"/>
@@ -16927,7 +16991,7 @@
       </c>
       <c r="D312" s="18" t="inlineStr">
         <is>
-          <t>Si se usa Privileged Identity Management, asegúrese de que se crea una cuenta válida habilitada para Entra ID con un registro SMTP válido para las notificaciones de reemplazo automático de host de Azure VMware Solution. (se requieren permisos permanentes)</t>
+          <t>Asegúrese de que los sitios y servicios de ADDS están configurados para mantener las solicitudes de autenticación de los recursos basados en Azure (incluida Azure VMware Solution) locales en Azure</t>
         </is>
       </c>
       <c r="E312" s="18" t="n"/>
@@ -16947,7 +17011,7 @@
       <c r="K312" s="19" t="n"/>
       <c r="L312" s="19" t="inlineStr">
         <is>
-          <t>78c447a8-26b2-4863-af0f-1cac599ef1d5</t>
+          <t>75089c20-990d-4927-b105-885576f76fc2</t>
         </is>
       </c>
       <c r="M312" s="20" t="n"/>
@@ -16974,7 +17038,7 @@
       </c>
       <c r="D313" s="18" t="inlineStr">
         <is>
-          <t>Limite el uso de la cuenta de CloudAdmin solo al acceso de emergencia</t>
+          <t>Asegúrese de que vCenter esté conectado a ADDS para habilitar la autenticación basada en "cuentas de usuario designadas"</t>
         </is>
       </c>
       <c r="E313" s="18" t="n"/>
@@ -16994,7 +17058,7 @@
       <c r="K313" s="19" t="n"/>
       <c r="L313" s="19" t="inlineStr">
         <is>
-          <t>8defc4d7-21d3-41d2-90fb-707ae9eab40e</t>
+          <t>de3aad1e-7c28-4ec9-9666-b7570449aa80</t>
         </is>
       </c>
       <c r="M313" s="20" t="n"/>
@@ -17021,7 +17085,7 @@
       </c>
       <c r="D314" s="18" t="inlineStr">
         <is>
-          <t>Cree funciones RBAC personalizadas en vCenter para implementar un modelo de privilegios mínimos dentro de vCenter</t>
+          <t>Asegúrese de que la conexión de vCenter a ADDS utilice un protocolo seguro (LDAPS)</t>
         </is>
       </c>
       <c r="E314" s="18" t="n"/>
@@ -17041,7 +17105,7 @@
       <c r="K314" s="19" t="n"/>
       <c r="L314" s="19" t="inlineStr">
         <is>
-          <t>d329f798-bc17-48bd-a5a0-6ca7144351d1</t>
+          <t>cd289ced-6b17-4db8-8554-61e2aee3553a</t>
         </is>
       </c>
       <c r="M314" s="20" t="n"/>
@@ -17068,7 +17132,7 @@
       </c>
       <c r="D315" s="18" t="inlineStr">
         <is>
-          <t>Es un proceso definido para rotar periódicamente las credenciales de administrador de la nube (vCenter) y administrador (NSX)</t>
+          <t>La cuenta de CloudAdmin en vCenter IdP solo se utiliza como una cuenta de emergencia (break-glass)</t>
         </is>
       </c>
       <c r="E315" s="18" t="n"/>
@@ -17088,7 +17152,7 @@
       <c r="K315" s="19" t="n"/>
       <c r="L315" s="19" t="inlineStr">
         <is>
-          <t>9dd24429-eb72-4281-97a1-51c5bb4e4f18</t>
+          <t>b9d37dac-43bc-46cd-8d79-a9b24604489a</t>
         </is>
       </c>
       <c r="M315" s="20" t="n"/>
@@ -17115,7 +17179,7 @@
       </c>
       <c r="D316" s="18" t="inlineStr">
         <is>
-          <t>Uso de un proveedor de identidades centralizado que se usará para las cargas de trabajo (VM) que se ejecutan en Azure VMware Solution</t>
+          <t>Asegúrese de que NSX-Manager esté integrado con un proveedor de identidades externo (LDAPS)</t>
         </is>
       </c>
       <c r="E316" s="18" t="n"/>
@@ -17135,7 +17199,7 @@
       <c r="K316" s="19" t="n"/>
       <c r="L316" s="19" t="inlineStr">
         <is>
-          <t>586cb291-ec16-4a1d-876e-f9f141acdce5</t>
+          <t>53d88e89-d17b-473b-82a5-a67e7a9ed5b3</t>
         </is>
       </c>
       <c r="M316" s="20" t="n"/>
@@ -17162,7 +17226,7 @@
       </c>
       <c r="D317" s="18" t="inlineStr">
         <is>
-          <t>¿Se implementa el filtrado de tráfico este-oeste en NSX-T?</t>
+          <t>¿Se ha creado un modelo RBAC para su uso en VMware vSphere?</t>
         </is>
       </c>
       <c r="E317" s="18" t="n"/>
@@ -17182,7 +17246,7 @@
       <c r="K317" s="19" t="n"/>
       <c r="L317" s="19" t="inlineStr">
         <is>
-          <t>79377bcd-b375-41ab-8ab0-ead66e15d3d4</t>
+          <t>ae0e37ce-e297-411b-b352-caaab79b198d</t>
         </is>
       </c>
       <c r="M317" s="20" t="n"/>
@@ -17209,13 +17273,13 @@
       </c>
       <c r="D318" s="18" t="inlineStr">
         <is>
-          <t>Las cargas de trabajo de Azure VMware Solution no se exponen directamente a Internet. El tráfico se filtra e inspecciona mediante Azure Application Gateway, Azure Firewall o soluciones de terceros</t>
+          <t>Los permisos RBAC deben concederse a grupos ADDS y no a usuarios específicos</t>
         </is>
       </c>
       <c r="E318" s="18" t="n"/>
       <c r="F318" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
@@ -17229,7 +17293,7 @@
       <c r="K318" s="19" t="n"/>
       <c r="L318" s="19" t="inlineStr">
         <is>
-          <t>a2adb1c3-d232-46af-825c-a44e1695fddd</t>
+          <t>ab81932c-9fc9-4d1b-a780-36f5e6bfbb9e</t>
         </is>
       </c>
       <c r="M318" s="20" t="n"/>
@@ -17256,7 +17320,7 @@
       </c>
       <c r="D319" s="18" t="inlineStr">
         <is>
-          <t>La auditoría y el registro se implementan para las solicitudes entrantes de Internet a Azure VMware Solution y a las cargas de trabajo basadas en Azure VMware Solution</t>
+          <t>Los permisos de RBAC en el recurso de Azure VMware Solution en Azure están "bloqueados" solo para un conjunto limitado de propietarios</t>
         </is>
       </c>
       <c r="E319" s="18" t="n"/>
@@ -17276,7 +17340,7 @@
       <c r="K319" s="19" t="n"/>
       <c r="L319" s="19" t="inlineStr">
         <is>
-          <t>eace4cb1-deb4-4c65-8c3f-c14eeab36938</t>
+          <t>d503547c-c447-4e82-9128-a71f0f1cac6d</t>
         </is>
       </c>
       <c r="M319" s="20" t="n"/>
@@ -17303,13 +17367,13 @@
       </c>
       <c r="D320" s="18" t="inlineStr">
         <is>
-          <t>La supervisión de sesiones se implementa para las conexiones salientes a Internet desde Azure VMware Solution o cargas de trabajo basadas en Azure VMware Solution para identificar actividades sospechosas o malintencionadas</t>
+          <t>Asegúrese de que todos los roles personalizados tengan el ámbito de las autorizaciones permitidas de CloudAdmin</t>
         </is>
       </c>
       <c r="E320" s="18" t="n"/>
       <c r="F320" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
@@ -17323,7 +17387,7 @@
       <c r="K320" s="19" t="n"/>
       <c r="L320" s="19" t="inlineStr">
         <is>
-          <t>29e3eec2-1836-487a-8077-a2b5945bda43</t>
+          <t>fd9f0df4-68dc-4976-b9a9-e6a79f7682c5</t>
         </is>
       </c>
       <c r="M320" s="20" t="n"/>
@@ -17340,7 +17404,7 @@
       </c>
       <c r="B321" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C321" s="18" t="inlineStr">
@@ -17350,13 +17414,13 @@
       </c>
       <c r="D321" s="18" t="inlineStr">
         <is>
-          <t>¿Está habilitada la protección estándar de DDoS en la subred de puerta de enlace de ExR/VPN en Azure?</t>
+          <t>¿Se ha seleccionado el modelo de conectividad de Azure VMware Solution correcto para el caso de uso del cliente en cuestión?</t>
         </is>
       </c>
       <c r="E321" s="18" t="n"/>
       <c r="F321" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
@@ -17365,12 +17429,16 @@
         </is>
       </c>
       <c r="H321" s="18" t="n"/>
-      <c r="I321" s="13" t="n"/>
+      <c r="I321" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J321" s="13" t="n"/>
       <c r="K321" s="19" t="n"/>
       <c r="L321" s="19" t="inlineStr">
         <is>
-          <t>334fdf91-c234-4182-a652-75269440b4be</t>
+          <t>9ef1d5e8-32e4-42e3-911c-818b0a0bc510</t>
         </is>
       </c>
       <c r="M321" s="20" t="n"/>
@@ -17387,7 +17455,7 @@
       </c>
       <c r="B322" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C322" s="18" t="inlineStr">
@@ -17397,13 +17465,13 @@
       </c>
       <c r="D322" s="18" t="inlineStr">
         <is>
-          <t>Use una estación de trabajo de acceso con privilegios (PAW) dedicada para administrar Azure VMware Solution, vCenter, NSX Manager y HCX Manager</t>
+          <t>Asegúrese de que las conexiones de ExpressRoute o VPN desde el entorno local a Azure se supervisan mediante el "monitor de conexiones"</t>
         </is>
       </c>
       <c r="E322" s="18" t="n"/>
       <c r="F322" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
@@ -17417,7 +17485,7 @@
       <c r="K322" s="19" t="n"/>
       <c r="L322" s="19" t="inlineStr">
         <is>
-          <t>3d3e0843-276d-44bd-a015-bcf219e4a1eb</t>
+          <t>eb710a37-cbc1-4055-8dd5-a936a8bb7cf5</t>
         </is>
       </c>
       <c r="M322" s="20" t="n"/>
@@ -17434,7 +17502,7 @@
       </c>
       <c r="B323" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C323" s="18" t="inlineStr">
@@ -17444,7 +17512,7 @@
       </c>
       <c r="D323" s="18" t="inlineStr">
         <is>
-          <t>Habilitación de la detección avanzada de amenazas (Microsoft Defender for Cloud, también conocida como ASC) para cargas de trabajo que se ejecutan en Azure VMware Solution</t>
+          <t>Asegúrese de que se crea un monitor de conexión desde un recurso nativo de Azure a una máquina virtual de Azure VMware Solution para supervisar la conexión de ExpressRoute back-end de Azure VMware Solution</t>
         </is>
       </c>
       <c r="E323" s="18" t="n"/>
@@ -17464,7 +17532,7 @@
       <c r="K323" s="19" t="n"/>
       <c r="L323" s="19" t="inlineStr">
         <is>
-          <t>9ccbd869-266a-4cca-874f-aa19bf39d95d</t>
+          <t>976e24f2-a7f8-426c-9253-2a92a2a7ed99</t>
         </is>
       </c>
       <c r="M323" s="20" t="n"/>
@@ -17481,7 +17549,7 @@
       </c>
       <c r="B324" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C324" s="18" t="inlineStr">
@@ -17491,7 +17559,7 @@
       </c>
       <c r="D324" s="18" t="inlineStr">
         <is>
-          <t>Use Azure ARC for Servers para controlar correctamente las cargas de trabajo que se ejecutan en Azure VMware Solution mediante tecnologías nativas de Azure (Azure ARC for Azure VMware Solution aún no está disponible)</t>
+          <t>Asegúrese de que se crea un monitor de conexión desde un recurso local a una máquina virtual de Azure VMware Solution para supervisar la conectividad de extremo a extremo</t>
         </is>
       </c>
       <c r="E324" s="18" t="n"/>
@@ -17511,7 +17579,7 @@
       <c r="K324" s="19" t="n"/>
       <c r="L324" s="19" t="inlineStr">
         <is>
-          <t>44c7c891-9ca1-4f6d-9315-ae524ba34d45</t>
+          <t>f41ce6a0-64f3-4805-bc65-3ab50df01265</t>
         </is>
       </c>
       <c r="M324" s="20" t="n"/>
@@ -17528,7 +17596,7 @@
       </c>
       <c r="B325" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C325" s="18" t="inlineStr">
@@ -17538,13 +17606,13 @@
       </c>
       <c r="D325" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que las cargas de trabajo de Azure VMware Solution usen suficiente cifrado de datos durante el tiempo de ejecución (como el cifrado de disco invitado y SQL TDE). (El cifrado de vSAN en reposo es el predeterminado)</t>
+          <t>Cuando se utiliza el servidor de rutas, asegúrese de que no se propaguen más de 1000 rutas desde el servidor de rutas a la puerta de enlace de ExR al entorno local (límite de ARS).</t>
         </is>
       </c>
       <c r="E325" s="18" t="n"/>
       <c r="F325" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -17558,7 +17626,7 @@
       <c r="K325" s="19" t="n"/>
       <c r="L325" s="19" t="inlineStr">
         <is>
-          <t>85e12139-bd7b-4b01-8f7b-95ef6e043e2a</t>
+          <t>563b4dc7-4a74-48b6-933a-d1a0916a6649</t>
         </is>
       </c>
       <c r="M325" s="20" t="n"/>
@@ -17585,13 +17653,13 @@
       </c>
       <c r="D326" s="18" t="inlineStr">
         <is>
-          <t>Cuando se usa el cifrado en invitado, almacene las claves de cifrado en Azure Key Vault siempre que sea posible</t>
+          <t>¿Se ha implementado Privileged Identity Management para los roles que administran el recurso de Azure VMware Solution en Azure Portal (no se permiten permisos permanentes)?</t>
         </is>
       </c>
       <c r="E326" s="18" t="n"/>
       <c r="F326" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
@@ -17605,7 +17673,7 @@
       <c r="K326" s="19" t="n"/>
       <c r="L326" s="19" t="inlineStr">
         <is>
-          <t>a3592718-e6e2-4051-9267-6ae46691e883</t>
+          <t>6128a71f-0f1c-4ac6-b9ef-1d5e832e42e3</t>
         </is>
       </c>
       <c r="M326" s="20" t="n"/>
@@ -17632,13 +17700,13 @@
       </c>
       <c r="D327" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar la compatibilidad con actualizaciones de seguridad extendidas para las cargas de trabajo que se ejecutan en Azure VMware Solution (Azure VMware Solution es apta para ESU)</t>
+          <t>Los informes de auditoría de Privileged Identity Management deben implementarse para los roles PIM de Azure VMware Solution</t>
         </is>
       </c>
       <c r="E327" s="18" t="n"/>
       <c r="F327" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
@@ -17652,7 +17720,7 @@
       <c r="K327" s="19" t="n"/>
       <c r="L327" s="19" t="inlineStr">
         <is>
-          <t>5ac94222-3e13-4810-9230-81a941741583</t>
+          <t>c4e2436b-b336-4d71-9f17-960eee0b9b5c</t>
         </is>
       </c>
       <c r="M327" s="20" t="n"/>
@@ -17669,7 +17737,7 @@
       </c>
       <c r="B328" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C328" s="18" t="inlineStr">
@@ -17679,13 +17747,13 @@
       </c>
       <c r="D328" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que se utiliza el método de redundancia de datos de vSAN adecuado (especificación RAID)</t>
+          <t>Si se usa Privileged Identity Management, asegúrese de que se crea una cuenta válida habilitada para Entra ID con un registro SMTP válido para las notificaciones de reemplazo automático de host de Azure VMware Solution. (se requieren permisos permanentes)</t>
         </is>
       </c>
       <c r="E328" s="18" t="n"/>
       <c r="F328" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -17699,7 +17767,7 @@
       <c r="K328" s="19" t="n"/>
       <c r="L328" s="19" t="inlineStr">
         <is>
-          <t>3ef7ad7c-6d37-4331-95c7-acbe44bbe609</t>
+          <t>78c447a8-26b2-4863-af0f-1cac599ef1d5</t>
         </is>
       </c>
       <c r="M328" s="20" t="n"/>
@@ -17716,7 +17784,7 @@
       </c>
       <c r="B329" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C329" s="18" t="inlineStr">
@@ -17726,7 +17794,7 @@
       </c>
       <c r="D329" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que la directiva de error de tolerancia esté implementada para satisfacer sus necesidades de almacenamiento de vSAN</t>
+          <t>Limite el uso de la cuenta de CloudAdmin solo al acceso de emergencia</t>
         </is>
       </c>
       <c r="E329" s="18" t="n"/>
@@ -17746,7 +17814,7 @@
       <c r="K329" s="19" t="n"/>
       <c r="L329" s="19" t="inlineStr">
         <is>
-          <t>d88408f3-7273-44c8-96ba-280214590146</t>
+          <t>8defc4d7-21d3-41d2-90fb-707ae9eab40e</t>
         </is>
       </c>
       <c r="M329" s="20" t="n"/>
@@ -17763,7 +17831,7 @@
       </c>
       <c r="B330" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C330" s="18" t="inlineStr">
@@ -17773,13 +17841,13 @@
       </c>
       <c r="D330" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que ha solicitado una cuota suficiente, asegurándose de que ha tenido en cuenta el crecimiento y el requisito de recuperación ante desastres</t>
+          <t>Cree funciones RBAC personalizadas en vCenter para implementar un modelo de privilegios mínimos dentro de vCenter</t>
         </is>
       </c>
       <c r="E330" s="18" t="n"/>
       <c r="F330" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
@@ -17793,7 +17861,7 @@
       <c r="K330" s="19" t="n"/>
       <c r="L330" s="19" t="inlineStr">
         <is>
-          <t>d89f2e87-7784-424d-9167-85c6fa95b96a</t>
+          <t>d329f798-bc17-48bd-a5a0-6ca7144351d1</t>
         </is>
       </c>
       <c r="M330" s="20" t="n"/>
@@ -17810,7 +17878,7 @@
       </c>
       <c r="B331" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C331" s="18" t="inlineStr">
@@ -17820,7 +17888,7 @@
       </c>
       <c r="D331" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que se comprenden las restricciones de acceso a ESXi, ya que existen límites de acceso que pueden afectar a las soluciones de terceros.</t>
+          <t>Es un proceso definido para rotar periódicamente las credenciales de administrador de la nube (vCenter) y administrador (NSX)</t>
         </is>
       </c>
       <c r="E331" s="18" t="n"/>
@@ -17840,7 +17908,7 @@
       <c r="K331" s="19" t="n"/>
       <c r="L331" s="19" t="inlineStr">
         <is>
-          <t>5d38e53f-9ccb-4d86-a266-acca274faa19</t>
+          <t>9dd24429-eb72-4281-97a1-51c5bb4e4f18</t>
         </is>
       </c>
       <c r="M331" s="20" t="n"/>
@@ -17857,7 +17925,7 @@
       </c>
       <c r="B332" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C332" s="18" t="inlineStr">
@@ -17867,13 +17935,13 @@
       </c>
       <c r="D332" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de tener una política en torno a la densidad y la eficiencia del host ESXi, teniendo en cuenta el tiempo de espera para solicitar nuevos nodos</t>
+          <t>Uso de un proveedor de identidades centralizado que se usará para las cargas de trabajo (VM) que se ejecutan en Azure VMware Solution</t>
         </is>
       </c>
       <c r="E332" s="18" t="n"/>
       <c r="F332" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
@@ -17887,7 +17955,7 @@
       <c r="K332" s="19" t="n"/>
       <c r="L332" s="19" t="inlineStr">
         <is>
-          <t>bf39d95d-44c7-4c89-89ca-1f6d5315ae52</t>
+          <t>586cb291-ec16-4a1d-876e-f9f141acdce5</t>
         </is>
       </c>
       <c r="M332" s="20" t="n"/>
@@ -17904,7 +17972,7 @@
       </c>
       <c r="B333" s="18" t="inlineStr">
         <is>
-          <t>Costar</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C333" s="18" t="inlineStr">
@@ -17914,7 +17982,7 @@
       </c>
       <c r="D333" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que existe un buen proceso de administración de costos para Azure VMware Solution: se puede usar Azure Cost Management</t>
+          <t>¿Se implementa el filtrado de tráfico este-oeste en NSX-T?</t>
         </is>
       </c>
       <c r="E333" s="18" t="n"/>
@@ -17934,7 +18002,7 @@
       <c r="K333" s="19" t="n"/>
       <c r="L333" s="19" t="inlineStr">
         <is>
-          <t>4ba34d45-85e1-4213-abd7-bb012f7b95ef</t>
+          <t>79377bcd-b375-41ab-8ab0-ead66e15d3d4</t>
         </is>
       </c>
       <c r="M333" s="20" t="n"/>
@@ -17951,7 +18019,7 @@
       </c>
       <c r="B334" s="18" t="inlineStr">
         <is>
-          <t>Costar</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C334" s="18" t="inlineStr">
@@ -17961,13 +18029,13 @@
       </c>
       <c r="D334" s="18" t="inlineStr">
         <is>
-          <t>¿Se usan instancias reservadas de Azure para optimizar el costo de uso de Azure VMware Solution?</t>
+          <t>Las cargas de trabajo de Azure VMware Solution no se exponen directamente a Internet. El tráfico se filtra e inspecciona mediante Azure Application Gateway, Azure Firewall o soluciones de terceros</t>
         </is>
       </c>
       <c r="E334" s="18" t="n"/>
       <c r="F334" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
@@ -17981,7 +18049,7 @@
       <c r="K334" s="19" t="n"/>
       <c r="L334" s="19" t="inlineStr">
         <is>
-          <t>6e043e2a-a359-4271-ae6e-205172676ae4</t>
+          <t>a2adb1c3-d232-46af-825c-a44e1695fddd</t>
         </is>
       </c>
       <c r="M334" s="20" t="n"/>
@@ -18008,13 +18076,13 @@
       </c>
       <c r="D335" s="18" t="inlineStr">
         <is>
-          <t>Tenga en cuenta el uso de Azure Private-Link cuando use otros servicios nativos de Azure</t>
+          <t>La auditoría y el registro se implementan para las solicitudes entrantes de Internet a Azure VMware Solution y a las cargas de trabajo basadas en Azure VMware Solution</t>
         </is>
       </c>
       <c r="E335" s="18" t="n"/>
       <c r="F335" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
@@ -18028,7 +18096,7 @@
       <c r="K335" s="19" t="n"/>
       <c r="L335" s="19" t="inlineStr">
         <is>
-          <t>6691e883-5ac9-4422-83e1-3810523081a9</t>
+          <t>eace4cb1-deb4-4c65-8c3f-c14eeab36938</t>
         </is>
       </c>
       <c r="M335" s="20" t="n"/>
@@ -18045,7 +18113,7 @@
       </c>
       <c r="B336" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C336" s="18" t="inlineStr">
@@ -18055,13 +18123,13 @@
       </c>
       <c r="D336" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que todos los recursos necesarios residen en las mismas zonas de disponibilidad de Azure</t>
+          <t>La supervisión de sesiones se implementa para las conexiones salientes a Internet desde Azure VMware Solution o cargas de trabajo basadas en Azure VMware Solution para identificar actividades sospechosas o malintencionadas</t>
         </is>
       </c>
       <c r="E336" s="18" t="n"/>
       <c r="F336" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
@@ -18075,7 +18143,7 @@
       <c r="K336" s="19" t="n"/>
       <c r="L336" s="19" t="inlineStr">
         <is>
-          <t>db611712-6904-40b4-aa3d-3e0803276d4b</t>
+          <t>29e3eec2-1836-487a-8077-a2b5945bda43</t>
         </is>
       </c>
       <c r="M336" s="20" t="n"/>
@@ -18102,7 +18170,7 @@
       </c>
       <c r="D337" s="18" t="inlineStr">
         <is>
-          <t>Habilitación de cargas de trabajo de máquina virtual invitada de Microsoft Defender for Cloud for Azure VMware Solution</t>
+          <t>¿Está habilitada la protección estándar de DDoS en la subred de puerta de enlace de ExR/VPN en Azure?</t>
         </is>
       </c>
       <c r="E337" s="18" t="n"/>
@@ -18122,7 +18190,7 @@
       <c r="K337" s="19" t="n"/>
       <c r="L337" s="19" t="inlineStr">
         <is>
-          <t>48b262d6-cc5f-4512-a253-98e6db9d37da</t>
+          <t>334fdf91-c234-4182-a652-75269440b4be</t>
         </is>
       </c>
       <c r="M337" s="20" t="n"/>
@@ -18149,7 +18217,7 @@
       </c>
       <c r="D338" s="18" t="inlineStr">
         <is>
-          <t>Uso de servidores habilitados para Azure Arc para administrar las cargas de trabajo de máquinas virtuales invitadas de Azure VMware Solution</t>
+          <t>Use una estación de trabajo de acceso con privilegios (PAW) dedicada para administrar Azure VMware Solution, vCenter, NSX Manager y HCX Manager</t>
         </is>
       </c>
       <c r="E338" s="18" t="n"/>
@@ -18169,7 +18237,7 @@
       <c r="K338" s="19" t="n"/>
       <c r="L338" s="19" t="inlineStr">
         <is>
-          <t>41741583-3ef7-4ad7-a6d3-733165c7acbe</t>
+          <t>3d3e0843-276d-44bd-a015-bcf219e4a1eb</t>
         </is>
       </c>
       <c r="M338" s="20" t="n"/>
@@ -18186,7 +18254,7 @@
       </c>
       <c r="B339" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C339" s="18" t="inlineStr">
@@ -18196,13 +18264,13 @@
       </c>
       <c r="D339" s="18" t="inlineStr">
         <is>
-          <t>Habilitación del registro de diagnósticos y métricas en Azure VMware Solution</t>
+          <t>Habilitación de la detección avanzada de amenazas (Microsoft Defender for Cloud, también conocida como ASC) para cargas de trabajo que se ejecutan en Azure VMware Solution</t>
         </is>
       </c>
       <c r="E339" s="18" t="n"/>
       <c r="F339" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
@@ -18216,7 +18284,7 @@
       <c r="K339" s="19" t="n"/>
       <c r="L339" s="19" t="inlineStr">
         <is>
-          <t>88f03a4d-2cd4-463c-abbc-868295abc91a</t>
+          <t>9ccbd869-266a-4cca-874f-aa19bf39d95d</t>
         </is>
       </c>
       <c r="M339" s="20" t="n"/>
@@ -18233,7 +18301,7 @@
       </c>
       <c r="B340" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C340" s="18" t="inlineStr">
@@ -18243,7 +18311,7 @@
       </c>
       <c r="D340" s="18" t="inlineStr">
         <is>
-          <t>Implementación de los agentes de Log Analytics en cargas de trabajo de máquinas virtuales invitadas de Azure VMware Solution</t>
+          <t>Use Azure ARC for Servers para controlar correctamente las cargas de trabajo que se ejecutan en Azure VMware Solution mediante tecnologías nativas de Azure (Azure ARC for Azure VMware Solution aún no está disponible)</t>
         </is>
       </c>
       <c r="E340" s="18" t="n"/>
@@ -18263,7 +18331,7 @@
       <c r="K340" s="19" t="n"/>
       <c r="L340" s="19" t="inlineStr">
         <is>
-          <t>4ed90dae-2cc8-44c4-9b6b-781cbafe6c46</t>
+          <t>44c7c891-9ca1-4f6d-9315-ae524ba34d45</t>
         </is>
       </c>
       <c r="M340" s="20" t="n"/>
@@ -18280,7 +18348,7 @@
       </c>
       <c r="B341" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C341" s="18" t="inlineStr">
@@ -18290,13 +18358,13 @@
       </c>
       <c r="D341" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que dispone de una directiva y una solución de copia de seguridad documentadas e implementadas para las cargas de trabajo de máquina virtual de Azure VMware Solution</t>
+          <t>Asegúrese de que las cargas de trabajo de Azure VMware Solution usen suficiente cifrado de datos durante el tiempo de ejecución (como el cifrado de disco invitado y SQL TDE). (El cifrado de vSAN en reposo es el predeterminado)</t>
         </is>
       </c>
       <c r="E341" s="18" t="n"/>
       <c r="F341" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
@@ -18310,7 +18378,7 @@
       <c r="K341" s="19" t="n"/>
       <c r="L341" s="19" t="inlineStr">
         <is>
-          <t>589d457a-927c-4397-9d11-02cad6aae11e</t>
+          <t>85e12139-bd7b-4b01-8f7b-95ef6e043e2a</t>
         </is>
       </c>
       <c r="M341" s="20" t="n"/>
@@ -18337,13 +18405,13 @@
       </c>
       <c r="D342" s="18" t="inlineStr">
         <is>
-          <t>Uso de Microsoft Defender for Cloud para la supervisión del cumplimiento de las cargas de trabajo que se ejecutan en Azure VMware Solution</t>
+          <t>Cuando se usa el cifrado en invitado, almacene las claves de cifrado en Azure Key Vault siempre que sea posible</t>
         </is>
       </c>
       <c r="E342" s="18" t="n"/>
       <c r="F342" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
@@ -18357,7 +18425,7 @@
       <c r="K342" s="19" t="n"/>
       <c r="L342" s="19" t="inlineStr">
         <is>
-          <t>ee29711b-d352-4caa-ab79-b198dab81932</t>
+          <t>a3592718-e6e2-4051-9267-6ae46691e883</t>
         </is>
       </c>
       <c r="M342" s="20" t="n"/>
@@ -18384,7 +18452,7 @@
       </c>
       <c r="D343" s="18" t="inlineStr">
         <is>
-          <t>¿Se agregan las líneas base de cumplimiento aplicables a Microsoft Defender for Cloud?</t>
+          <t>Considere la posibilidad de usar la compatibilidad con actualizaciones de seguridad extendidas para las cargas de trabajo que se ejecutan en Azure VMware Solution (Azure VMware Solution es apta para ESU)</t>
         </is>
       </c>
       <c r="E343" s="18" t="n"/>
@@ -18404,7 +18472,7 @@
       <c r="K343" s="19" t="n"/>
       <c r="L343" s="19" t="inlineStr">
         <is>
-          <t>c9fc9d1b-b780-436f-9e6b-fbb9ed503547</t>
+          <t>5ac94222-3e13-4810-9230-81a941741583</t>
         </is>
       </c>
       <c r="M343" s="20" t="n"/>
@@ -18421,7 +18489,7 @@
       </c>
       <c r="B344" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C344" s="18" t="inlineStr">
@@ -18431,7 +18499,7 @@
       </c>
       <c r="D344" s="18" t="inlineStr">
         <is>
-          <t>¿Se evaluó la residencia de datos al seleccionar las regiones de Azure que se usarán para la implementación de Azure VMware Solution?</t>
+          <t>Asegúrese de que se utiliza el método de redundancia de datos de vSAN adecuado (especificación RAID)</t>
         </is>
       </c>
       <c r="E344" s="18" t="n"/>
@@ -18451,7 +18519,7 @@
       <c r="K344" s="19" t="n"/>
       <c r="L344" s="19" t="inlineStr">
         <is>
-          <t>cc447e82-6128-4a71-b0f1-cac6d9ef1d5e</t>
+          <t>3ef7ad7c-6d37-4331-95c7-acbe44bbe609</t>
         </is>
       </c>
       <c r="M344" s="20" t="n"/>
@@ -18468,7 +18536,7 @@
       </c>
       <c r="B345" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C345" s="18" t="inlineStr">
@@ -18478,7 +18546,7 @@
       </c>
       <c r="D345" s="18" t="inlineStr">
         <is>
-          <t>¿Son claras y documentadas las implicaciones del procesamiento de datos (proveedor de servicios / modelo de consumidor de servicios)?</t>
+          <t>Asegúrese de que la directiva de error de tolerancia esté implementada para satisfacer sus necesidades de almacenamiento de vSAN</t>
         </is>
       </c>
       <c r="E345" s="18" t="n"/>
@@ -18498,7 +18566,7 @@
       <c r="K345" s="19" t="n"/>
       <c r="L345" s="19" t="inlineStr">
         <is>
-          <t>832e42e3-611c-4818-a0a0-bc510e43a18a</t>
+          <t>d88408f3-7273-44c8-96ba-280214590146</t>
         </is>
       </c>
       <c r="M345" s="20" t="n"/>
@@ -18515,7 +18583,7 @@
       </c>
       <c r="B346" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C346" s="18" t="inlineStr">
@@ -18525,13 +18593,13 @@
       </c>
       <c r="D346" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar CMK (clave administrada por el cliente) para vSAN solo si es necesario por motivos de cumplimiento.</t>
+          <t>Asegúrese de que ha solicitado una cuota suficiente, asegurándose de que ha tenido en cuenta el crecimiento y el requisito de recuperación ante desastres</t>
         </is>
       </c>
       <c r="E346" s="18" t="n"/>
       <c r="F346" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
@@ -18545,7 +18613,7 @@
       <c r="K346" s="19" t="n"/>
       <c r="L346" s="19" t="inlineStr">
         <is>
-          <t>547c1747-dc56-4068-a714-435cd19dd244</t>
+          <t>d89f2e87-7784-424d-9167-85c6fa95b96a</t>
         </is>
       </c>
       <c r="M346" s="20" t="n"/>
@@ -18572,13 +18640,13 @@
       </c>
       <c r="D347" s="18" t="inlineStr">
         <is>
-          <t>Creación de paneles para habilitar la información principal de supervisión de Azure VMware Solution</t>
+          <t>Asegúrese de que se comprenden las restricciones de acceso a ESXi, ya que existen límites de acceso que pueden afectar a las soluciones de terceros.</t>
         </is>
       </c>
       <c r="E347" s="18" t="n"/>
       <c r="F347" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
@@ -18592,7 +18660,7 @@
       <c r="K347" s="19" t="n"/>
       <c r="L347" s="19" t="inlineStr">
         <is>
-          <t>e43a18a9-cd28-49ce-b6b1-7db8255461e2</t>
+          <t>5d38e53f-9ccb-4d86-a266-acca274faa19</t>
         </is>
       </c>
       <c r="M347" s="20" t="n"/>
@@ -18619,13 +18687,13 @@
       </c>
       <c r="D348" s="18" t="inlineStr">
         <is>
-          <t>Creación de alertas de advertencia para umbrales críticos para alertas automáticas sobre el rendimiento de Azure VMware Solution (CPU &gt;80 %, memoria media &gt;80 %, vSAN &gt;70 %)</t>
+          <t>Asegúrese de tener una política en torno a la densidad y la eficiencia del host ESXi, teniendo en cuenta el tiempo de espera para solicitar nuevos nodos</t>
         </is>
       </c>
       <c r="E348" s="18" t="n"/>
       <c r="F348" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
@@ -18639,7 +18707,7 @@
       <c r="K348" s="19" t="n"/>
       <c r="L348" s="19" t="inlineStr">
         <is>
-          <t>6b84ee5d-f47d-42d9-8881-b1cd5d1e54a2</t>
+          <t>bf39d95d-44c7-4c89-89ca-1f6d5315ae52</t>
         </is>
       </c>
       <c r="M348" s="20" t="n"/>
@@ -18656,7 +18724,7 @@
       </c>
       <c r="B349" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Costar</t>
         </is>
       </c>
       <c r="C349" s="18" t="inlineStr">
@@ -18666,13 +18734,13 @@
       </c>
       <c r="D349" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que se crea una alerta crítica para supervisar si el consumo de vSAN es inferior al 75 %, ya que se trata de un umbral de soporte de VMware</t>
+          <t>Asegúrese de que existe un buen proceso de administración de costos para Azure VMware Solution: se puede usar Azure Cost Management</t>
         </is>
       </c>
       <c r="E349" s="18" t="n"/>
       <c r="F349" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
@@ -18686,7 +18754,7 @@
       <c r="K349" s="19" t="n"/>
       <c r="L349" s="19" t="inlineStr">
         <is>
-          <t>9659e396-80e7-4828-ac93-5657d02bff45</t>
+          <t>4ba34d45-85e1-4213-abd7-bb012f7b95ef</t>
         </is>
       </c>
       <c r="M349" s="20" t="n"/>
@@ -18703,7 +18771,7 @@
       </c>
       <c r="B350" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Costar</t>
         </is>
       </c>
       <c r="C350" s="18" t="inlineStr">
@@ -18713,13 +18781,13 @@
       </c>
       <c r="D350" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que las alertas están configuradas para las alertas y notificaciones de Azure Service Health</t>
+          <t>¿Se usan instancias reservadas de Azure para optimizar el costo de uso de Azure VMware Solution?</t>
         </is>
       </c>
       <c r="E350" s="18" t="n"/>
       <c r="F350" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
@@ -18733,7 +18801,7 @@
       <c r="K350" s="19" t="n"/>
       <c r="L350" s="19" t="inlineStr">
         <is>
-          <t>64b0d934-a348-4726-be79-d6b5c3a36495</t>
+          <t>6e043e2a-a359-4271-ae6e-205172676ae4</t>
         </is>
       </c>
       <c r="M350" s="20" t="n"/>
@@ -18750,7 +18818,7 @@
       </c>
       <c r="B351" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C351" s="18" t="inlineStr">
@@ -18760,7 +18828,7 @@
       </c>
       <c r="D351" s="18" t="inlineStr">
         <is>
-          <t>Configure el registro de Azure VMware Solution para que se envíe a una cuenta de Azure Storage o Azure EventHub para su procesamiento</t>
+          <t>Tenga en cuenta el uso de Azure Private-Link cuando use otros servicios nativos de Azure</t>
         </is>
       </c>
       <c r="E351" s="18" t="n"/>
@@ -18780,7 +18848,7 @@
       <c r="K351" s="19" t="n"/>
       <c r="L351" s="19" t="inlineStr">
         <is>
-          <t>b6abad38-aad5-43cc-99e1-d86667357c54</t>
+          <t>6691e883-5ac9-4422-83e1-3810523081a9</t>
         </is>
       </c>
       <c r="M351" s="20" t="n"/>
@@ -18797,7 +18865,7 @@
       </c>
       <c r="B352" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C352" s="18" t="inlineStr">
@@ -18807,13 +18875,13 @@
       </c>
       <c r="D352" s="18" t="inlineStr">
         <is>
-          <t>Si se requiere una visión profunda de VMware vSphere: ¿Se utiliza vRealize Operations o vRealize Network Insights en la solución?</t>
+          <t>Asegúrese de que todos los recursos necesarios residen en las mismas zonas de disponibilidad de Azure</t>
         </is>
       </c>
       <c r="E352" s="18" t="n"/>
       <c r="F352" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
@@ -18827,7 +18895,7 @@
       <c r="K352" s="19" t="n"/>
       <c r="L352" s="19" t="inlineStr">
         <is>
-          <t>9674c5ed-85b8-459c-9733-be2b1a27b775</t>
+          <t>db611712-6904-40b4-aa3d-3e0803276d4b</t>
         </is>
       </c>
       <c r="M352" s="20" t="n"/>
@@ -18844,7 +18912,7 @@
       </c>
       <c r="B353" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C353" s="18" t="inlineStr">
@@ -18854,13 +18922,13 @@
       </c>
       <c r="D353" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que la directiva de almacenamiento de vSAN para las máquinas virtuales NO sea la directiva de almacenamiento predeterminada, ya que esta directiva aplica el aprovisionamiento grueso</t>
+          <t>Habilitación de cargas de trabajo de máquina virtual invitada de Microsoft Defender for Cloud for Azure VMware Solution</t>
         </is>
       </c>
       <c r="E353" s="18" t="n"/>
       <c r="F353" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
@@ -18874,7 +18942,7 @@
       <c r="K353" s="19" t="n"/>
       <c r="L353" s="19" t="inlineStr">
         <is>
-          <t>a91be1f3-88f0-43a4-b2cd-463cbbbc8682</t>
+          <t>48b262d6-cc5f-4512-a253-98e6db9d37da</t>
         </is>
       </c>
       <c r="M353" s="20" t="n"/>
@@ -18891,7 +18959,7 @@
       </c>
       <c r="B354" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C354" s="18" t="inlineStr">
@@ -18901,7 +18969,7 @@
       </c>
       <c r="D354" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que las bibliotecas de contenido de vSphere no se coloquen en vSAN, ya que vSAN es un recurso finito</t>
+          <t>Uso de servidores habilitados para Azure Arc para administrar las cargas de trabajo de máquinas virtuales invitadas de Azure VMware Solution</t>
         </is>
       </c>
       <c r="E354" s="18" t="n"/>
@@ -18921,7 +18989,7 @@
       <c r="K354" s="19" t="n"/>
       <c r="L354" s="19" t="inlineStr">
         <is>
-          <t>d9ef1d5e-832d-442e-9611-c818b0afbc51</t>
+          <t>41741583-3ef7-4ad7-a6d3-733165c7acbe</t>
         </is>
       </c>
       <c r="M354" s="20" t="n"/>
@@ -18948,13 +19016,13 @@
       </c>
       <c r="D355" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que los repositorios de datos de la solución de copia de seguridad se almacenen fuera del almacenamiento de vSAN. Ya sea en Azure nativo o en un almacén de datos respaldado por un grupo de discos</t>
+          <t>Habilitación del registro de diagnósticos y métricas en Azure VMware Solution</t>
         </is>
       </c>
       <c r="E355" s="18" t="n"/>
       <c r="F355" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
@@ -18968,7 +19036,7 @@
       <c r="K355" s="19" t="n"/>
       <c r="L355" s="19" t="inlineStr">
         <is>
-          <t>0e43a18a-9cd2-489b-bd6b-17db8255461e</t>
+          <t>88f03a4d-2cd4-463c-abbc-868295abc91a</t>
         </is>
       </c>
       <c r="M355" s="20" t="n"/>
@@ -18995,7 +19063,7 @@
       </c>
       <c r="D356" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que las cargas de trabajo que se ejecutan en Azure VMware Solution se administran de forma híbrida mediante Azure Arc para servidores (Arc para Azure VMware Solution está en versión preliminar)</t>
+          <t>Implementación de los agentes de Log Analytics en cargas de trabajo de máquinas virtuales invitadas de Azure VMware Solution</t>
         </is>
       </c>
       <c r="E356" s="18" t="n"/>
@@ -19015,7 +19083,7 @@
       <c r="K356" s="19" t="n"/>
       <c r="L356" s="19" t="inlineStr">
         <is>
-          <t>2aee3453-aec8-4339-848b-262d6cc5f512</t>
+          <t>4ed90dae-2cc8-44c4-9b6b-781cbafe6c46</t>
         </is>
       </c>
       <c r="M356" s="20" t="n"/>
@@ -19042,7 +19110,7 @@
       </c>
       <c r="D357" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que las cargas de trabajo que se ejecutan en Azure VMware Solution se supervisan mediante Azure Log Analytics y Azure Monitor</t>
+          <t>Asegúrese de que dispone de una directiva y una solución de copia de seguridad documentadas e implementadas para las cargas de trabajo de máquina virtual de Azure VMware Solution</t>
         </is>
       </c>
       <c r="E357" s="18" t="n"/>
@@ -19062,7 +19130,7 @@
       <c r="K357" s="19" t="n"/>
       <c r="L357" s="19" t="inlineStr">
         <is>
-          <t>925398e6-da9d-437d-ac43-bc6cd1d79a9b</t>
+          <t>589d457a-927c-4397-9d11-02cad6aae11e</t>
         </is>
       </c>
       <c r="M357" s="20" t="n"/>
@@ -19079,7 +19147,7 @@
       </c>
       <c r="B358" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C358" s="18" t="inlineStr">
@@ -19089,7 +19157,7 @@
       </c>
       <c r="D358" s="18" t="inlineStr">
         <is>
-          <t>Inclusión de cargas de trabajo que se ejecutan en Azure VMware Solution en las herramientas de administración de actualizaciones existentes o en Azure Update Management</t>
+          <t>Uso de Microsoft Defender for Cloud para la supervisión del cumplimiento de las cargas de trabajo que se ejecutan en Azure VMware Solution</t>
         </is>
       </c>
       <c r="E358" s="18" t="n"/>
@@ -19109,7 +19177,7 @@
       <c r="K358" s="19" t="n"/>
       <c r="L358" s="19" t="inlineStr">
         <is>
-          <t>24604489-a8f4-42d7-ae78-cb6a33bd2a09</t>
+          <t>ee29711b-d352-4caa-ab79-b198dab81932</t>
         </is>
       </c>
       <c r="M358" s="20" t="n"/>
@@ -19126,7 +19194,7 @@
       </c>
       <c r="B359" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C359" s="18" t="inlineStr">
@@ -19136,7 +19204,7 @@
       </c>
       <c r="D359" s="18" t="inlineStr">
         <is>
-          <t>Uso de Azure Policy para incorporar cargas de trabajo de Azure VMware Solution en las soluciones de administración, supervisión y seguridad de Azure</t>
+          <t>¿Se agregan las líneas base de cumplimiento aplicables a Microsoft Defender for Cloud?</t>
         </is>
       </c>
       <c r="E359" s="18" t="n"/>
@@ -19156,7 +19224,7 @@
       <c r="K359" s="19" t="n"/>
       <c r="L359" s="19" t="inlineStr">
         <is>
-          <t>17e7a8d9-0ae0-4e27-aee2-9711bd352caa</t>
+          <t>c9fc9d1b-b780-436f-9e6b-fbb9ed503547</t>
         </is>
       </c>
       <c r="M359" s="20" t="n"/>
@@ -19183,13 +19251,13 @@
       </c>
       <c r="D360" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que las cargas de trabajo que se ejecutan en Azure VMware Solution se incorporan a Microsoft Defender for Cloud</t>
+          <t>¿Se evaluó la residencia de datos al seleccionar las regiones de Azure que se usarán para la implementación de Azure VMware Solution?</t>
         </is>
       </c>
       <c r="E360" s="18" t="n"/>
       <c r="F360" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
@@ -19203,7 +19271,7 @@
       <c r="K360" s="19" t="n"/>
       <c r="L360" s="19" t="inlineStr">
         <is>
-          <t>aee3553a-fc83-4392-98b2-62d6cc5f5129</t>
+          <t>cc447e82-6128-4a71-b0f1-cac6d9ef1d5e</t>
         </is>
       </c>
       <c r="M360" s="20" t="n"/>
@@ -19220,7 +19288,7 @@
       </c>
       <c r="B361" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C361" s="18" t="inlineStr">
@@ -19230,13 +19298,13 @@
       </c>
       <c r="D361" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que las copias de seguridad no se almacenen en vSAN, ya que vSAN es un recurso finito</t>
+          <t>¿Son claras y documentadas las implicaciones del procesamiento de datos (proveedor de servicios / modelo de consumidor de servicios)?</t>
         </is>
       </c>
       <c r="E361" s="18" t="n"/>
       <c r="F361" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
@@ -19250,7 +19318,7 @@
       <c r="K361" s="19" t="n"/>
       <c r="L361" s="19" t="inlineStr">
         <is>
-          <t>25398e6d-b9d3-47da-a43b-c6cd1d79a9b2</t>
+          <t>832e42e3-611c-4818-a0a0-bc510e43a18a</t>
         </is>
       </c>
       <c r="M361" s="20" t="n"/>
@@ -19267,7 +19335,7 @@
       </c>
       <c r="B362" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C362" s="18" t="inlineStr">
@@ -19277,7 +19345,7 @@
       </c>
       <c r="D362" s="18" t="inlineStr">
         <is>
-          <t>¿Se han considerado todas las soluciones de recuperación ante desastres y se ha decidido por la mejor solución para su negocio? [SRM/JetStream/Zerto/Veeam/...]</t>
+          <t>Considere la posibilidad de usar CMK (clave administrada por el cliente) para vSAN solo si es necesario por motivos de cumplimiento.</t>
         </is>
       </c>
       <c r="E362" s="18" t="n"/>
@@ -19297,7 +19365,7 @@
       <c r="K362" s="19" t="n"/>
       <c r="L362" s="19" t="inlineStr">
         <is>
-          <t>5e6bfbb9-ed50-4354-9cc4-47e826028a71</t>
+          <t>547c1747-dc56-4068-a714-435cd19dd244</t>
         </is>
       </c>
       <c r="M362" s="20" t="n"/>
@@ -19314,7 +19382,7 @@
       </c>
       <c r="B363" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C363" s="18" t="inlineStr">
@@ -19324,13 +19392,13 @@
       </c>
       <c r="D363" s="18" t="inlineStr">
         <is>
-          <t>Uso de Azure Site Recovery cuando la tecnología de recuperación ante desastres sea IaaS nativa de Azure</t>
+          <t>Creación de paneles para habilitar la información principal de supervisión de Azure VMware Solution</t>
         </is>
       </c>
       <c r="E363" s="18" t="n"/>
       <c r="F363" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
@@ -19344,7 +19412,7 @@
       <c r="K363" s="19" t="n"/>
       <c r="L363" s="19" t="inlineStr">
         <is>
-          <t>f0f1cac6-d9ef-41d5-b832-d42e3611c818</t>
+          <t>e43a18a9-cd28-49ce-b6b1-7db8255461e2</t>
         </is>
       </c>
       <c r="M363" s="20" t="n"/>
@@ -19361,7 +19429,7 @@
       </c>
       <c r="B364" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C364" s="18" t="inlineStr">
@@ -19371,7 +19439,7 @@
       </c>
       <c r="D364" s="18" t="inlineStr">
         <is>
-          <t>Utilice planes de recuperación automatizados con cualquiera de las soluciones ante desastres, evite las tareas manuales tanto como sea posible</t>
+          <t>Creación de alertas de advertencia para umbrales críticos para alertas automáticas sobre el rendimiento de Azure VMware Solution (CPU &gt;80 %, memoria media &gt;80 %, vSAN &gt;70 %)</t>
         </is>
       </c>
       <c r="E364" s="18" t="n"/>
@@ -19391,7 +19459,7 @@
       <c r="K364" s="19" t="n"/>
       <c r="L364" s="19" t="inlineStr">
         <is>
-          <t>b0afbc51-0e43-4a18-a9cd-289bed6b17db</t>
+          <t>6b84ee5d-f47d-42d9-8881-b1cd5d1e54a2</t>
         </is>
       </c>
       <c r="M364" s="20" t="n"/>
@@ -19408,7 +19476,7 @@
       </c>
       <c r="B365" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C365" s="18" t="inlineStr">
@@ -19418,13 +19486,13 @@
       </c>
       <c r="D365" s="18" t="inlineStr">
         <is>
-          <t>Usar el par de regiones geopolíticas como entorno secundario de recuperación ante desastres</t>
+          <t>Asegúrese de que se crea una alerta crítica para supervisar si el consumo de vSAN es inferior al 75 %, ya que se trata de un umbral de soporte de VMware</t>
         </is>
       </c>
       <c r="E365" s="18" t="n"/>
       <c r="F365" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
@@ -19438,7 +19506,7 @@
       <c r="K365" s="19" t="n"/>
       <c r="L365" s="19" t="inlineStr">
         <is>
-          <t>8255461e-2aee-4345-9aec-8339248b262d</t>
+          <t>9659e396-80e7-4828-ac93-5657d02bff45</t>
         </is>
       </c>
       <c r="M365" s="20" t="n"/>
@@ -19455,7 +19523,7 @@
       </c>
       <c r="B366" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C366" s="18" t="inlineStr">
@@ -19465,7 +19533,7 @@
       </c>
       <c r="D366" s="18" t="inlineStr">
         <is>
-          <t>Utilice 2 espacios de direcciones diferentes entre las regiones, por ejemplo: 10.0.0.0/16 y 192.168.0.0/16 para las diferentes regiones</t>
+          <t>Asegúrese de que las alertas están configuradas para las alertas y notificaciones de Azure Service Health</t>
         </is>
       </c>
       <c r="E366" s="18" t="n"/>
@@ -19485,7 +19553,7 @@
       <c r="K366" s="19" t="n"/>
       <c r="L366" s="19" t="inlineStr">
         <is>
-          <t>6cc5f512-9253-498e-9da9-d37dac43bc6c</t>
+          <t>64b0d934-a348-4726-be79-d6b5c3a36495</t>
         </is>
       </c>
       <c r="M366" s="20" t="n"/>
@@ -19502,7 +19570,7 @@
       </c>
       <c r="B367" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C367" s="18" t="inlineStr">
@@ -19512,7 +19580,7 @@
       </c>
       <c r="D367" s="18" t="inlineStr">
         <is>
-          <t>¿Se usará Global Reach de ExpressRoute para la conectividad entre las nubes privadas de Azure VMware Solution principal y secundaria, o el enrutamiento se realiza a través de aplicaciones virtuales de red?</t>
+          <t>Configure el registro de Azure VMware Solution para que se envíe a una cuenta de Azure Storage o Azure EventHub para su procesamiento</t>
         </is>
       </c>
       <c r="E367" s="18" t="n"/>
@@ -19532,7 +19600,7 @@
       <c r="K367" s="19" t="n"/>
       <c r="L367" s="19" t="inlineStr">
         <is>
-          <t>d1d79a9b-2460-4448-aa8f-42d78e78cb6a</t>
+          <t>b6abad38-aad5-43cc-99e1-d86667357c54</t>
         </is>
       </c>
       <c r="M367" s="20" t="n"/>
@@ -19549,7 +19617,7 @@
       </c>
       <c r="B368" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C368" s="18" t="inlineStr">
@@ -19559,13 +19627,13 @@
       </c>
       <c r="D368" s="18" t="inlineStr">
         <is>
-          <t>¿Se han considerado todas las soluciones de copia de seguridad y se ha decidido por la mejor solución para su negocio? [ MABS/CommVault/Metallic.io/Veeam/ . ]</t>
+          <t>Si se requiere una visión profunda de VMware vSphere: ¿Se utiliza vRealize Operations o vRealize Network Insights en la solución?</t>
         </is>
       </c>
       <c r="E368" s="18" t="n"/>
       <c r="F368" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
@@ -19579,7 +19647,7 @@
       <c r="K368" s="19" t="n"/>
       <c r="L368" s="19" t="inlineStr">
         <is>
-          <t>33bd2a09-17e7-4a8d-a0ae-0e27cee29711</t>
+          <t>9674c5ed-85b8-459c-9733-be2b1a27b775</t>
         </is>
       </c>
       <c r="M368" s="20" t="n"/>
@@ -19596,7 +19664,7 @@
       </c>
       <c r="B369" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C369" s="18" t="inlineStr">
@@ -19606,13 +19674,13 @@
       </c>
       <c r="D369" s="18" t="inlineStr">
         <is>
-          <t>Implemente la solución de copia de seguridad en la misma región que la nube privada de Azure VMware Solution</t>
+          <t>Asegúrese de que la directiva de almacenamiento de vSAN para las máquinas virtuales NO sea la directiva de almacenamiento predeterminada, ya que esta directiva aplica el aprovisionamiento grueso</t>
         </is>
       </c>
       <c r="E369" s="18" t="n"/>
       <c r="F369" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
@@ -19626,7 +19694,7 @@
       <c r="K369" s="19" t="n"/>
       <c r="L369" s="19" t="inlineStr">
         <is>
-          <t>bd352caa-ab79-4b18-adab-81932c9fc9d1</t>
+          <t>a91be1f3-88f0-43a4-b2cd-463cbbbc8682</t>
         </is>
       </c>
       <c r="M369" s="20" t="n"/>
@@ -19643,7 +19711,7 @@
       </c>
       <c r="B370" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C370" s="18" t="inlineStr">
@@ -19653,7 +19721,7 @@
       </c>
       <c r="D370" s="18" t="inlineStr">
         <is>
-          <t>Implementación de la solución de copia de seguridad fuera de vSan, en componentes nativos de Azure</t>
+          <t>Asegúrese de que las bibliotecas de contenido de vSphere no se coloquen en vSAN, ya que vSAN es un recurso finito</t>
         </is>
       </c>
       <c r="E370" s="18" t="n"/>
@@ -19673,7 +19741,7 @@
       <c r="K370" s="19" t="n"/>
       <c r="L370" s="19" t="inlineStr">
         <is>
-          <t>bb77036f-5e6b-4fbb-aed5-03547cc447e8</t>
+          <t>d9ef1d5e-832d-442e-9611-c818b0afbc51</t>
         </is>
       </c>
       <c r="M370" s="20" t="n"/>
@@ -19690,7 +19758,7 @@
       </c>
       <c r="B371" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C371" s="18" t="inlineStr">
@@ -19700,13 +19768,13 @@
       </c>
       <c r="D371" s="18" t="inlineStr">
         <is>
-          <t>¿Existe un proceso para solicitar una restauración de los componentes de VMware administrados por la plataforma Azure?</t>
+          <t>Asegúrese de que los repositorios de datos de la solución de copia de seguridad se almacenen fuera del almacenamiento de vSAN. Ya sea en Azure nativo o en un almacén de datos respaldado por un grupo de discos</t>
         </is>
       </c>
       <c r="E371" s="18" t="n"/>
       <c r="F371" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
@@ -19720,7 +19788,7 @@
       <c r="K371" s="19" t="n"/>
       <c r="L371" s="19" t="inlineStr">
         <is>
-          <t>26028a71-f0f1-4cac-9d9e-f1d5e832d42e</t>
+          <t>0e43a18a-9cd2-489b-bd6b-17db8255461e</t>
         </is>
       </c>
       <c r="M371" s="20" t="n"/>
@@ -19747,13 +19815,13 @@
       </c>
       <c r="D372" s="18" t="inlineStr">
         <is>
-          <t>En el caso de las implementaciones manuales, se deben documentar todas las configuraciones e implementaciones</t>
+          <t>Asegúrese de que las cargas de trabajo que se ejecutan en Azure VMware Solution se administran de forma híbrida mediante Azure Arc para servidores (Arc para Azure VMware Solution está en versión preliminar)</t>
         </is>
       </c>
       <c r="E372" s="18" t="n"/>
       <c r="F372" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
@@ -19767,7 +19835,7 @@
       <c r="K372" s="19" t="n"/>
       <c r="L372" s="19" t="inlineStr">
         <is>
-          <t>4604489a-8f42-4d78-b78c-b7a33bd2a0a1</t>
+          <t>2aee3453-aec8-4339-848b-262d6cc5f512</t>
         </is>
       </c>
       <c r="M372" s="20" t="n"/>
@@ -19794,13 +19862,13 @@
       </c>
       <c r="D373" s="18" t="inlineStr">
         <is>
-          <t>En el caso de las implementaciones manuales, considere la posibilidad de implementar bloqueos de recursos para evitar acciones accidentales en la nube privada de Azure VMware Solution</t>
+          <t>Asegúrese de que las cargas de trabajo que se ejecutan en Azure VMware Solution se supervisan mediante Azure Log Analytics y Azure Monitor</t>
         </is>
       </c>
       <c r="E373" s="18" t="n"/>
       <c r="F373" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
@@ -19814,7 +19882,7 @@
       <c r="K373" s="19" t="n"/>
       <c r="L373" s="19" t="inlineStr">
         <is>
-          <t>7e7a8d90-ae0e-437c-be29-711bd352caaa</t>
+          <t>925398e6-da9d-437d-ac43-bc6cd1d79a9b</t>
         </is>
       </c>
       <c r="M373" s="20" t="n"/>
@@ -19841,13 +19909,13 @@
       </c>
       <c r="D374" s="18" t="inlineStr">
         <is>
-          <t>Para implementaciones automatizadas, implemente una nube privada mínima y escale según sea necesario</t>
+          <t>Inclusión de cargas de trabajo que se ejecutan en Azure VMware Solution en las herramientas de administración de actualizaciones existentes o en Azure Update Management</t>
         </is>
       </c>
       <c r="E374" s="18" t="n"/>
       <c r="F374" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
@@ -19861,7 +19929,7 @@
       <c r="K374" s="19" t="n"/>
       <c r="L374" s="19" t="inlineStr">
         <is>
-          <t>b79b198d-ab81-4932-a9fc-9d1bb78036f5</t>
+          <t>24604489-a8f4-42d7-ae78-cb6a33bd2a09</t>
         </is>
       </c>
       <c r="M374" s="20" t="n"/>
@@ -19888,13 +19956,13 @@
       </c>
       <c r="D375" s="18" t="inlineStr">
         <is>
-          <t>En el caso de las implementaciones automatizadas, solicite o reserve una cuota antes de iniciar la implementación</t>
+          <t>Uso de Azure Policy para incorporar cargas de trabajo de Azure VMware Solution en las soluciones de administración, supervisión y seguridad de Azure</t>
         </is>
       </c>
       <c r="E375" s="18" t="n"/>
       <c r="F375" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
@@ -19908,7 +19976,7 @@
       <c r="K375" s="19" t="n"/>
       <c r="L375" s="19" t="inlineStr">
         <is>
-          <t>e6bfbb9e-d503-4547-ac44-7e826128a71f</t>
+          <t>17e7a8d9-0ae0-4e27-aee2-9711bd352caa</t>
         </is>
       </c>
       <c r="M375" s="20" t="n"/>
@@ -19925,7 +19993,7 @@
       </c>
       <c r="B376" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C376" s="18" t="inlineStr">
@@ -19935,13 +20003,13 @@
       </c>
       <c r="D376" s="18" t="inlineStr">
         <is>
-          <t>En el caso de la implementación automatizada, asegúrese de que se crean bloqueos de recursos relevantes a través de la automatización o a través de Azure Policy para una gobernanza adecuada</t>
+          <t>Asegúrese de que las cargas de trabajo que se ejecutan en Azure VMware Solution se incorporan a Microsoft Defender for Cloud</t>
         </is>
       </c>
       <c r="E376" s="18" t="n"/>
       <c r="F376" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
@@ -19955,7 +20023,7 @@
       <c r="K376" s="19" t="n"/>
       <c r="L376" s="19" t="inlineStr">
         <is>
-          <t>0f1cac6d-9ef1-4d5e-a32e-42e3611c818b</t>
+          <t>aee3553a-fc83-4392-98b2-62d6cc5f5129</t>
         </is>
       </c>
       <c r="M376" s="20" t="n"/>
@@ -19972,7 +20040,7 @@
       </c>
       <c r="B377" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C377" s="18" t="inlineStr">
@@ -19982,13 +20050,13 @@
       </c>
       <c r="D377" s="18" t="inlineStr">
         <is>
-          <t>Implemente nombres comprensibles para las claves de autorización ExR para permitir una fácil identificación del propósito y uso de las claves.</t>
+          <t>Asegúrese de que las copias de seguridad no se almacenen en vSAN, ya que vSAN es un recurso finito</t>
         </is>
       </c>
       <c r="E377" s="18" t="n"/>
       <c r="F377" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
@@ -20002,7 +20070,7 @@
       <c r="K377" s="19" t="n"/>
       <c r="L377" s="19" t="inlineStr">
         <is>
-          <t>e2cc95d4-8c6b-4791-bca0-f6c56589e558</t>
+          <t>25398e6d-b9d3-47da-a43b-c6cd1d79a9b2</t>
         </is>
       </c>
       <c r="M377" s="20" t="n"/>
@@ -20019,7 +20087,7 @@
       </c>
       <c r="B378" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C378" s="18" t="inlineStr">
@@ -20029,13 +20097,13 @@
       </c>
       <c r="D378" s="18" t="inlineStr">
         <is>
-          <t>Uso de Key Vault para almacenar secretos y claves de autorización cuando se usan principios de servicio independientes para implementar Azure VMware Solution y ExpressRoute</t>
+          <t>¿Se han considerado todas las soluciones de recuperación ante desastres y se ha decidido por la mejor solución para su negocio? [SRM/JetStream/Zerto/Veeam/...]</t>
         </is>
       </c>
       <c r="E378" s="18" t="n"/>
       <c r="F378" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
@@ -20049,7 +20117,7 @@
       <c r="K378" s="19" t="n"/>
       <c r="L378" s="19" t="inlineStr">
         <is>
-          <t>255461e2-aee3-4553-afc8-339248b262d6</t>
+          <t>5e6bfbb9-ed50-4354-9cc4-47e826028a71</t>
         </is>
       </c>
       <c r="M378" s="20" t="n"/>
@@ -20066,7 +20134,7 @@
       </c>
       <c r="B379" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C379" s="18" t="inlineStr">
@@ -20076,13 +20144,13 @@
       </c>
       <c r="D379" s="18" t="inlineStr">
         <is>
-          <t>Defina dependencias de recursos para serializar acciones en IaC cuando sea necesario implementar muchos recursos en Azure VMware Solution, ya que Azure VMware Solution solo admite un número limitado de operaciones paralelas.</t>
+          <t>Uso de Azure Site Recovery cuando la tecnología de recuperación ante desastres sea IaaS nativa de Azure</t>
         </is>
       </c>
       <c r="E379" s="18" t="n"/>
       <c r="F379" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
@@ -20096,7 +20164,7 @@
       <c r="K379" s="19" t="n"/>
       <c r="L379" s="19" t="inlineStr">
         <is>
-          <t>cc5f5129-2539-48e6-bb9d-37dac43bc6cd</t>
+          <t>f0f1cac6-d9ef-41d5-b832-d42e3611c818</t>
         </is>
       </c>
       <c r="M379" s="20" t="n"/>
@@ -20113,7 +20181,7 @@
       </c>
       <c r="B380" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C380" s="18" t="inlineStr">
@@ -20123,13 +20191,13 @@
       </c>
       <c r="D380" s="18" t="inlineStr">
         <is>
-          <t>Al realizar la configuración automatizada de segmentos de NSX-T con una única puerta de enlace de nivel 1, use las API de Azure Portal en lugar de las API de NSX-Manager</t>
+          <t>Utilice planes de recuperación automatizados con cualquiera de las soluciones ante desastres, evite las tareas manuales tanto como sea posible</t>
         </is>
       </c>
       <c r="E380" s="18" t="n"/>
       <c r="F380" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
@@ -20143,7 +20211,7 @@
       <c r="K380" s="19" t="n"/>
       <c r="L380" s="19" t="inlineStr">
         <is>
-          <t>1d79a9b2-4604-4489-a8f4-2d78e78cb7a3</t>
+          <t>b0afbc51-0e43-4a18-a9cd-289bed6b17db</t>
         </is>
       </c>
       <c r="M380" s="20" t="n"/>
@@ -20160,7 +20228,7 @@
       </c>
       <c r="B381" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C381" s="18" t="inlineStr">
@@ -20170,7 +20238,7 @@
       </c>
       <c r="D381" s="18" t="inlineStr">
         <is>
-          <t>Si tiene la intención de usar el escalado horizontal automatizado, asegúrese de solicitar una cuota suficiente de Azure VMware Solution para las suscripciones que ejecutan Azure VMware Solution</t>
+          <t>Usar el par de regiones geopolíticas como entorno secundario de recuperación ante desastres</t>
         </is>
       </c>
       <c r="E381" s="18" t="n"/>
@@ -20190,7 +20258,7 @@
       <c r="K381" s="19" t="n"/>
       <c r="L381" s="19" t="inlineStr">
         <is>
-          <t>3bd2a0a1-7e7a-48d9-8ae0-e37cee29711b</t>
+          <t>8255461e-2aee-4345-9aec-8339248b262d</t>
         </is>
       </c>
       <c r="M381" s="20" t="n"/>
@@ -20207,7 +20275,7 @@
       </c>
       <c r="B382" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C382" s="18" t="inlineStr">
@@ -20217,13 +20285,13 @@
       </c>
       <c r="D382" s="18" t="inlineStr">
         <is>
-          <t>Cuando tenga la intención de usar la reducción horizontal automatizada, asegúrese de tener en cuenta los requisitos de la directiva de almacenamiento antes de realizar dicha acción</t>
+          <t>Utilice 2 espacios de direcciones diferentes entre las regiones, por ejemplo: 10.0.0.0/16 y 192.168.0.0/16 para las diferentes regiones</t>
         </is>
       </c>
       <c r="E382" s="18" t="n"/>
       <c r="F382" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
@@ -20237,7 +20305,7 @@
       <c r="K382" s="19" t="n"/>
       <c r="L382" s="19" t="inlineStr">
         <is>
-          <t>d352caaa-b79b-4198-bab8-1932c9fc9d1b</t>
+          <t>6cc5f512-9253-498e-9da9-d37dac43bc6c</t>
         </is>
       </c>
       <c r="M382" s="20" t="n"/>
@@ -20254,7 +20322,7 @@
       </c>
       <c r="B383" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C383" s="18" t="inlineStr">
@@ -20264,7 +20332,7 @@
       </c>
       <c r="D383" s="18" t="inlineStr">
         <is>
-          <t>Las operaciones de escalado siempre deben serializarse dentro de un único SDDC, ya que solo se puede realizar una operación de escalado a la vez (incluso cuando se utilizan varios clústeres)</t>
+          <t>¿Se usará Global Reach de ExpressRoute para la conectividad entre las nubes privadas de Azure VMware Solution principal y secundaria, o el enrutamiento se realiza a través de aplicaciones virtuales de red?</t>
         </is>
       </c>
       <c r="E383" s="18" t="n"/>
@@ -20284,7 +20352,7 @@
       <c r="K383" s="19" t="n"/>
       <c r="L383" s="19" t="inlineStr">
         <is>
-          <t>b78036f5-e6bf-4bb9-bd50-3547cc447e82</t>
+          <t>d1d79a9b-2460-4448-aa8f-42d78e78cb6a</t>
         </is>
       </c>
       <c r="M383" s="20" t="n"/>
@@ -20301,7 +20369,7 @@
       </c>
       <c r="B384" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C384" s="18" t="inlineStr">
@@ -20311,7 +20379,7 @@
       </c>
       <c r="D384" s="18" t="inlineStr">
         <is>
-          <t>Considerar y validar las operaciones de escalado en soluciones de terceros utilizadas en la arquitectura (compatibles o no)</t>
+          <t>¿Se han considerado todas las soluciones de copia de seguridad y se ha decidido por la mejor solución para su negocio? [ MABS/CommVault/Metallic.io/Veeam/ . ]</t>
         </is>
       </c>
       <c r="E384" s="18" t="n"/>
@@ -20331,7 +20399,7 @@
       <c r="K384" s="19" t="n"/>
       <c r="L384" s="19" t="inlineStr">
         <is>
-          <t>bf15bce2-19e4-4a0e-a588-79424d226786</t>
+          <t>33bd2a09-17e7-4a8d-a0ae-0e27cee29711</t>
         </is>
       </c>
       <c r="M384" s="20" t="n"/>
@@ -20348,7 +20416,7 @@
       </c>
       <c r="B385" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C385" s="18" t="inlineStr">
@@ -20358,7 +20426,7 @@
       </c>
       <c r="D385" s="18" t="inlineStr">
         <is>
-          <t>Defina y aplique límites máximos de escalado vertical y horizontal para su entorno en las automatizaciones</t>
+          <t>Implemente la solución de copia de seguridad en la misma región que la nube privada de Azure VMware Solution</t>
         </is>
       </c>
       <c r="E385" s="18" t="n"/>
@@ -20378,7 +20446,7 @@
       <c r="K385" s="19" t="n"/>
       <c r="L385" s="19" t="inlineStr">
         <is>
-          <t>d20b56c5-7be5-4851-a0f8-3835c586cb29</t>
+          <t>bd352caa-ab79-4b18-adab-81932c9fc9d1</t>
         </is>
       </c>
       <c r="M385" s="20" t="n"/>
@@ -20395,7 +20463,7 @@
       </c>
       <c r="B386" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C386" s="18" t="inlineStr">
@@ -20405,7 +20473,7 @@
       </c>
       <c r="D386" s="18" t="inlineStr">
         <is>
-          <t>Implemente reglas de supervisión para supervisar las operaciones de escalado automatizadas y supervisar el éxito y el fracaso para permitir respuestas adecuadas (automatizadas)</t>
+          <t>Implementación de la solución de copia de seguridad fuera de vSan, en componentes nativos de Azure</t>
         </is>
       </c>
       <c r="E386" s="18" t="n"/>
@@ -20425,7 +20493,7 @@
       <c r="K386" s="19" t="n"/>
       <c r="L386" s="19" t="inlineStr">
         <is>
-          <t>1dc15a1c-075e-4e9f-841a-cccd579376bc</t>
+          <t>bb77036f-5e6b-4fbb-aed5-03547cc447e8</t>
         </is>
       </c>
       <c r="M386" s="20" t="n"/>
@@ -20452,13 +20520,13 @@
       </c>
       <c r="D387" s="18" t="inlineStr">
         <is>
-          <t>Al usar MON, tenga en cuenta los límites de las máquinas virtuales configuradas simultáneamente (límite de MON para HCX [400 - estándar, 1000 - dispositivo más grande])</t>
+          <t>¿Existe un proceso para solicitar una restauración de los componentes de VMware administrados por la plataforma Azure?</t>
         </is>
       </c>
       <c r="E387" s="18" t="n"/>
       <c r="F387" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
@@ -20467,20 +20535,12 @@
         </is>
       </c>
       <c r="H387" s="18" t="n"/>
-      <c r="I387" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
-      <c r="J387" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
-        </is>
-      </c>
+      <c r="I387" s="13" t="n"/>
+      <c r="J387" s="13" t="n"/>
       <c r="K387" s="19" t="n"/>
       <c r="L387" s="19" t="inlineStr">
         <is>
-          <t>c5972cd4-cd21-4b07-9036-f5e6b4bfd3d5</t>
+          <t>26028a71-f0f1-4cac-9d9e-f1d5e832d42e</t>
         </is>
       </c>
       <c r="M387" s="20" t="n"/>
@@ -20497,7 +20557,7 @@
       </c>
       <c r="B388" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C388" s="18" t="inlineStr">
@@ -20507,13 +20567,13 @@
       </c>
       <c r="D388" s="18" t="inlineStr">
         <is>
-          <t>Al usar MON, no puede habilitar MON en más de 100 extensiones de red</t>
+          <t>En el caso de las implementaciones manuales, se deben documentar todas las configuraciones e implementaciones</t>
         </is>
       </c>
       <c r="E388" s="18" t="n"/>
       <c r="F388" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
@@ -20522,20 +20582,12 @@
         </is>
       </c>
       <c r="H388" s="18" t="n"/>
-      <c r="I388" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
-      <c r="J388" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
+      <c r="I388" s="13" t="n"/>
+      <c r="J388" s="13" t="n"/>
       <c r="K388" s="19" t="n"/>
       <c r="L388" s="19" t="inlineStr">
         <is>
-          <t>be1f38cf-03a8-422b-b463-cbbbc8ac299e</t>
+          <t>4604489a-8f42-4d78-b78c-b7a33bd2a0a1</t>
         </is>
       </c>
       <c r="M388" s="20" t="n"/>
@@ -20552,7 +20604,7 @@
       </c>
       <c r="B389" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C389" s="18" t="inlineStr">
@@ -20562,13 +20614,13 @@
       </c>
       <c r="D389" s="18" t="inlineStr">
         <is>
-          <t>Si utiliza una conexión VPN para migraciones, ajuste el tamaño de su MTU en consecuencia.</t>
+          <t>En el caso de las implementaciones manuales, considere la posibilidad de implementar bloqueos de recursos para evitar acciones accidentales en la nube privada de Azure VMware Solution</t>
         </is>
       </c>
       <c r="E389" s="18" t="n"/>
       <c r="F389" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
@@ -20582,7 +20634,7 @@
       <c r="K389" s="19" t="n"/>
       <c r="L389" s="19" t="inlineStr">
         <is>
-          <t>bc91a43d-90da-4e2c-a881-4706f7c1cbaf</t>
+          <t>7e7a8d90-ae0e-437c-be29-711bd352caaa</t>
         </is>
       </c>
       <c r="M389" s="20" t="n"/>
@@ -20599,7 +20651,7 @@
       </c>
       <c r="B390" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C390" s="18" t="inlineStr">
@@ -20609,13 +20661,13 @@
       </c>
       <c r="D390" s="18" t="inlineStr">
         <is>
-          <t>En el caso de las regiones de baja conectividad que se conectan a Azure (500 Mbps o menos), considere la posibilidad de implementar el dispositivo de optimización de WAN de HCX</t>
+          <t>Para implementaciones automatizadas, implemente una nube privada mínima y escale según sea necesario</t>
         </is>
       </c>
       <c r="E390" s="18" t="n"/>
       <c r="F390" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
@@ -20629,7 +20681,7 @@
       <c r="K390" s="19" t="n"/>
       <c r="L390" s="19" t="inlineStr">
         <is>
-          <t>e614658d-d457-4e92-9139-b821102cad6e</t>
+          <t>b79b198d-ab81-4932-a9fc-9d1bb78036f5</t>
         </is>
       </c>
       <c r="M390" s="20" t="n"/>
@@ -20646,7 +20698,7 @@
       </c>
       <c r="B391" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C391" s="18" t="inlineStr">
@@ -20656,13 +20708,13 @@
       </c>
       <c r="D391" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que las migraciones se inicien desde el dispositivo local y NO desde el dispositivo en la nube (NO realice una migración inversa)</t>
+          <t>En el caso de las implementaciones automatizadas, solicite o reserve una cuota antes de iniciar la implementación</t>
         </is>
       </c>
       <c r="E391" s="18" t="n"/>
       <c r="F391" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
@@ -20676,7 +20728,7 @@
       <c r="K391" s="19" t="n"/>
       <c r="L391" s="19" t="inlineStr">
         <is>
-          <t>ae01e6e8-43e5-42f4-922d-928c1b1cd521</t>
+          <t>e6bfbb9e-d503-4547-ac44-7e826128a71f</t>
         </is>
       </c>
       <c r="M391" s="20" t="n"/>
@@ -20693,7 +20745,7 @@
       </c>
       <c r="B392" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C392" s="18" t="inlineStr">
@@ -20703,13 +20755,13 @@
       </c>
       <c r="D392" s="18" t="inlineStr">
         <is>
-          <t>Cuando se usa Azure NetApp Files para ampliar el almacenamiento de Azure VMware Solution, considere la posibilidad de usarlo como almacén de datos de VMware en lugar de adjuntarlo directamente a una máquina virtual.</t>
+          <t>En el caso de la implementación automatizada, asegúrese de que se crean bloqueos de recursos relevantes a través de la automatización o a través de Azure Policy para una gobernanza adecuada</t>
         </is>
       </c>
       <c r="E392" s="18" t="n"/>
       <c r="F392" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
@@ -20718,16 +20770,12 @@
         </is>
       </c>
       <c r="H392" s="18" t="n"/>
-      <c r="I392" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I392" s="13" t="n"/>
       <c r="J392" s="13" t="n"/>
       <c r="K392" s="19" t="n"/>
       <c r="L392" s="19" t="inlineStr">
         <is>
-          <t>e54a29a9-de39-4ac0-b7c2-8dc935657202</t>
+          <t>0f1cac6d-9ef1-4d5e-a32e-42e3611c818b</t>
         </is>
       </c>
       <c r="M392" s="20" t="n"/>
@@ -20744,7 +20792,7 @@
       </c>
       <c r="B393" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C393" s="18" t="inlineStr">
@@ -20754,13 +20802,13 @@
       </c>
       <c r="D393" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que se usa una puerta de enlace de ExpressRoute dedicada para soluciones de almacenamiento de datos externos</t>
+          <t>Implemente nombres comprensibles para las claves de autorización ExR para permitir una fácil identificación del propósito y uso de las claves.</t>
         </is>
       </c>
       <c r="E393" s="18" t="n"/>
       <c r="F393" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
@@ -20769,16 +20817,12 @@
         </is>
       </c>
       <c r="H393" s="18" t="n"/>
-      <c r="I393" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I393" s="13" t="n"/>
       <c r="J393" s="13" t="n"/>
       <c r="K393" s="19" t="n"/>
       <c r="L393" s="19" t="inlineStr">
         <is>
-          <t>bff4564b-0d93-44a3-98b2-63e7dd60513a</t>
+          <t>e2cc95d4-8c6b-4791-bca0-f6c56589e558</t>
         </is>
       </c>
       <c r="M393" s="20" t="n"/>
@@ -20795,7 +20839,7 @@
       </c>
       <c r="B394" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C394" s="18" t="inlineStr">
@@ -20805,13 +20849,13 @@
       </c>
       <c r="D394" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que FastPath está habilitado en la puerta de enlace de ExpressRoute que se usa para las soluciones de almacenamiento de datos externos</t>
+          <t>Uso de Key Vault para almacenar secretos y claves de autorización cuando se usan principios de servicio independientes para implementar Azure VMware Solution y ExpressRoute</t>
         </is>
       </c>
       <c r="E394" s="18" t="n"/>
       <c r="F394" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
@@ -20820,16 +20864,12 @@
         </is>
       </c>
       <c r="H394" s="18" t="n"/>
-      <c r="I394" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I394" s="13" t="n"/>
       <c r="J394" s="13" t="n"/>
       <c r="K394" s="19" t="n"/>
       <c r="L394" s="19" t="inlineStr">
         <is>
-          <t>3649906e-bad3-48ea-b53c-c7de1d8aaab3</t>
+          <t>255461e2-aee3-4553-afc8-339248b262d6</t>
         </is>
       </c>
       <c r="M394" s="20" t="n"/>
@@ -20846,7 +20886,7 @@
       </c>
       <c r="B395" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C395" s="18" t="inlineStr">
@@ -20856,13 +20896,13 @@
       </c>
       <c r="D395" s="18" t="inlineStr">
         <is>
-          <t>Si utiliza un clúster ampliado, asegúrese de que la solución de recuperación ante desastres seleccionada sea compatible con el proveedor</t>
+          <t>Defina dependencias de recursos para serializar acciones en IaC cuando sea necesario implementar muchos recursos en Azure VMware Solution, ya que Azure VMware Solution solo admite un número limitado de operaciones paralelas.</t>
         </is>
       </c>
       <c r="E395" s="18" t="n"/>
       <c r="F395" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
@@ -20871,16 +20911,12 @@
         </is>
       </c>
       <c r="H395" s="18" t="n"/>
-      <c r="I395" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I395" s="13" t="n"/>
       <c r="J395" s="13" t="n"/>
       <c r="K395" s="19" t="n"/>
       <c r="L395" s="19" t="inlineStr">
         <is>
-          <t>571549ab-8153-4d89-b89d-c7b33be2b1a2</t>
+          <t>cc5f5129-2539-48e6-bb9d-37dac43bc6cd</t>
         </is>
       </c>
       <c r="M395" s="20" t="n"/>
@@ -20897,7 +20933,7 @@
       </c>
       <c r="B396" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C396" s="18" t="inlineStr">
@@ -20907,13 +20943,13 @@
       </c>
       <c r="D396" s="18" t="inlineStr">
         <is>
-          <t>Si utiliza un clúster ampliado, asegúrese de que el Acuerdo de Nivel de Servicio proporcionado cumpla sus requisitos</t>
+          <t>Al realizar la configuración automatizada de segmentos de NSX-T con una única puerta de enlace de nivel 1, use las API de Azure Portal en lugar de las API de NSX-Manager</t>
         </is>
       </c>
       <c r="E396" s="18" t="n"/>
       <c r="F396" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
@@ -20922,16 +20958,12 @@
         </is>
       </c>
       <c r="H396" s="18" t="n"/>
-      <c r="I396" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I396" s="13" t="n"/>
       <c r="J396" s="13" t="n"/>
       <c r="K396" s="19" t="n"/>
       <c r="L396" s="19" t="inlineStr">
         <is>
-          <t>4c486b6d-8bdc-4059-acf7-5ee8a1309888</t>
+          <t>1d79a9b2-4604-4489-a8f4-2d78e78cb7a3</t>
         </is>
       </c>
       <c r="M396" s="20" t="n"/>
@@ -20948,7 +20980,7 @@
       </c>
       <c r="B397" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C397" s="18" t="inlineStr">
@@ -20958,13 +20990,13 @@
       </c>
       <c r="D397" s="18" t="inlineStr">
         <is>
-          <t>Si usa un clúster extendido, asegúrese de que ambos circuitos ExpressRoute están conectados al centro de conectividad.</t>
+          <t>Si tiene la intención de usar el escalado horizontal automatizado, asegúrese de solicitar una cuota suficiente de Azure VMware Solution para las suscripciones que ejecutan Azure VMware Solution</t>
         </is>
       </c>
       <c r="E397" s="18" t="n"/>
       <c r="F397" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
@@ -20973,16 +21005,12 @@
         </is>
       </c>
       <c r="H397" s="18" t="n"/>
-      <c r="I397" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I397" s="13" t="n"/>
       <c r="J397" s="13" t="n"/>
       <c r="K397" s="19" t="n"/>
       <c r="L397" s="19" t="inlineStr">
         <is>
-          <t>9579d66b-896d-471f-a6ca-7be9955d04c3</t>
+          <t>3bd2a0a1-7e7a-48d9-8ae0-e37cee29711b</t>
         </is>
       </c>
       <c r="M397" s="20" t="n"/>
@@ -20999,7 +21027,7 @@
       </c>
       <c r="B398" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C398" s="18" t="inlineStr">
@@ -21009,13 +21037,13 @@
       </c>
       <c r="D398" s="18" t="inlineStr">
         <is>
-          <t>Si usa un clúster extendido, asegúrese de que ambos circuitos ExpressRoute tengan habilitado GlobalReach.</t>
+          <t>Cuando tenga la intención de usar la reducción horizontal automatizada, asegúrese de tener en cuenta los requisitos de la directiva de almacenamiento antes de realizar dicha acción</t>
         </is>
       </c>
       <c r="E398" s="18" t="n"/>
       <c r="F398" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
@@ -21024,16 +21052,12 @@
         </is>
       </c>
       <c r="H398" s="18" t="n"/>
-      <c r="I398" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I398" s="13" t="n"/>
       <c r="J398" s="13" t="n"/>
       <c r="K398" s="19" t="n"/>
       <c r="L398" s="19" t="inlineStr">
         <is>
-          <t>c49d987c-b3d1-4325-aa12-4b6e4d0685ed</t>
+          <t>d352caaa-b79b-4198-bab8-1932c9fc9d1b</t>
         </is>
       </c>
       <c r="M398" s="20" t="n"/>
@@ -21050,7 +21074,7 @@
       </c>
       <c r="B399" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C399" s="18" t="inlineStr">
@@ -21060,13 +21084,13 @@
       </c>
       <c r="D399" s="18" t="inlineStr">
         <is>
-          <t>Haga que la configuración de tolerancia ante desastres del sitio se considere y cambie correctamente para su negocio si es necesario.</t>
+          <t>Las operaciones de escalado siempre deben serializarse dentro de un único SDDC, ya que solo se puede realizar una operación de escalado a la vez (incluso cuando se utilizan varios clústeres)</t>
         </is>
       </c>
       <c r="E399" s="18" t="n"/>
       <c r="F399" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
@@ -21075,16 +21099,12 @@
         </is>
       </c>
       <c r="H399" s="18" t="n"/>
-      <c r="I399" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I399" s="13" t="n"/>
       <c r="J399" s="13" t="n"/>
       <c r="K399" s="19" t="n"/>
       <c r="L399" s="19" t="inlineStr">
         <is>
-          <t>dce9793b-7bcd-4b3b-91eb-2ec14eea6e59</t>
+          <t>b78036f5-e6bf-4bb9-bd50-3547cc447e82</t>
         </is>
       </c>
       <c r="M399" s="20" t="n"/>
@@ -21096,29 +21116,25 @@
     <row r="400">
       <c r="A400" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure VMware Solution Design Review</t>
         </is>
       </c>
       <c r="B400" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C400" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="D400" s="18" t="inlineStr">
         <is>
-          <t>Tenga en cuenta la "línea base de seguridad de Azure para el almacenamiento"</t>
-        </is>
-      </c>
-      <c r="E400" s="18" t="inlineStr">
-        <is>
-          <t>Aplicación de las instrucciones de la prueba comparativa de seguridad en la nube de Microsoft relacionadas con el almacenamiento</t>
-        </is>
-      </c>
+          <t>Considerar y validar las operaciones de escalado en soluciones de terceros utilizadas en la arquitectura (compatibles o no)</t>
+        </is>
+      </c>
+      <c r="E400" s="18" t="n"/>
       <c r="F400" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -21130,16 +21146,12 @@
         </is>
       </c>
       <c r="H400" s="18" t="n"/>
-      <c r="I400" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I400" s="13" t="n"/>
       <c r="J400" s="13" t="n"/>
       <c r="K400" s="19" t="n"/>
       <c r="L400" s="19" t="inlineStr">
         <is>
-          <t>d237de14-3b16-4c21-b7aa-9b64604489a8</t>
+          <t>bf15bce2-19e4-4a0e-a588-79424d226786</t>
         </is>
       </c>
       <c r="M400" s="20" t="n"/>
@@ -21151,32 +21163,28 @@
     <row r="401">
       <c r="A401" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure VMware Solution Design Review</t>
         </is>
       </c>
       <c r="B401" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C401" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="D401" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar puntos de conexión privados para Azure Storage</t>
-        </is>
-      </c>
-      <c r="E401" s="18" t="inlineStr">
-        <is>
-          <t>De forma predeterminada, Azure Storage tiene una dirección IP pública y es accesible desde Internet. Los puntos de conexión privados permiten exponer de forma segura Azure Storage solo a los recursos de proceso de Azure que necesitan acceso, lo que elimina la exposición a la Internet pública</t>
-        </is>
-      </c>
+          <t>Defina y aplique límites máximos de escalado vertical y horizontal para su entorno en las automatizaciones</t>
+        </is>
+      </c>
+      <c r="E401" s="18" t="n"/>
       <c r="F401" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
@@ -21185,16 +21193,12 @@
         </is>
       </c>
       <c r="H401" s="18" t="n"/>
-      <c r="I401" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I401" s="13" t="n"/>
       <c r="J401" s="13" t="n"/>
       <c r="K401" s="19" t="n"/>
       <c r="L401" s="19" t="inlineStr">
         <is>
-          <t>f42d78e7-9d17-4a73-a22a-5a67e7a8ed4b</t>
+          <t>d20b56c5-7be5-4851-a0f8-3835c586cb29</t>
         </is>
       </c>
       <c r="M401" s="20" t="n"/>
@@ -21206,29 +21210,25 @@
     <row r="402">
       <c r="A402" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure VMware Solution Design Review</t>
         </is>
       </c>
       <c r="B402" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C402" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="D402" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que las cuentas de almacenamiento más antiguas no usan el "modelo de implementación clásica"</t>
-        </is>
-      </c>
-      <c r="E402" s="18" t="inlineStr">
-        <is>
-          <t>Las cuentas de almacenamiento recién creadas se crean mediante el modelo de implementación de ARM, de modo que RBAC, auditoría, etc. están habilitados. Asegúrese de que no hay cuentas de almacenamiento antiguas con el modelo de implementación clásica en una suscripción</t>
-        </is>
-      </c>
+          <t>Implemente reglas de supervisión para supervisar las operaciones de escalado automatizadas y supervisar el éxito y el fracaso para permitir respuestas adecuadas (automatizadas)</t>
+        </is>
+      </c>
+      <c r="E402" s="18" t="n"/>
       <c r="F402" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -21240,16 +21240,12 @@
         </is>
       </c>
       <c r="H402" s="18" t="n"/>
-      <c r="I402" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I402" s="13" t="n"/>
       <c r="J402" s="13" t="n"/>
       <c r="K402" s="19" t="n"/>
       <c r="L402" s="19" t="inlineStr">
         <is>
-          <t>30e37c3e-2971-41b2-963c-eee079b598de</t>
+          <t>1dc15a1c-075e-4e9f-841a-cccd579376bc</t>
         </is>
       </c>
       <c r="M402" s="20" t="n"/>
@@ -21261,29 +21257,25 @@
     <row r="403">
       <c r="A403" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure VMware Solution Design Review</t>
         </is>
       </c>
       <c r="B403" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C403" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="D403" s="18" t="inlineStr">
         <is>
-          <t>Habilitación de Microsoft Defender para todas las cuentas de almacenamiento</t>
-        </is>
-      </c>
-      <c r="E403" s="18" t="inlineStr">
-        <is>
-          <t>Aproveche Microsoft Defender para obtener información sobre la actividad sospechosa y los errores de configuración.</t>
-        </is>
-      </c>
+          <t>Al usar MON, tenga en cuenta los límites de las máquinas virtuales configuradas simultáneamente (límite de MON para HCX [400 - estándar, 1000 - dispositivo más grande])</t>
+        </is>
+      </c>
+      <c r="E403" s="18" t="n"/>
       <c r="F403" s="18" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -21300,11 +21292,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J403" s="13" t="n"/>
+      <c r="J403" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+        </is>
+      </c>
       <c r="K403" s="19" t="n"/>
       <c r="L403" s="19" t="inlineStr">
         <is>
-          <t>fc5972cd-4cd2-41b0-a803-7f5e6b4bfd3d</t>
+          <t>c5972cd4-cd21-4b07-9036-f5e6b4bfd3d5</t>
         </is>
       </c>
       <c r="M403" s="20" t="n"/>
@@ -21316,32 +21312,28 @@
     <row r="404">
       <c r="A404" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure VMware Solution Design Review</t>
         </is>
       </c>
       <c r="B404" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C404" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="D404" s="18" t="inlineStr">
         <is>
-          <t>Habilitación de la "eliminación temporal" para blobs</t>
-        </is>
-      </c>
-      <c r="E404" s="18" t="inlineStr">
-        <is>
-          <t>El mecanismo de eliminación temporal permite recuperar blobs eliminados accidentalmente.</t>
-        </is>
-      </c>
+          <t>Al usar MON, no puede habilitar MON en más de 100 extensiones de red</t>
+        </is>
+      </c>
+      <c r="E404" s="18" t="n"/>
       <c r="F404" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
@@ -21355,11 +21347,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J404" s="13" t="n"/>
+      <c r="J404" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="K404" s="19" t="n"/>
       <c r="L404" s="19" t="inlineStr">
         <is>
-          <t>503547c1-447e-4c66-828a-7100f1ce16dd</t>
+          <t>be1f38cf-03a8-422b-b463-cbbbc8ac299e</t>
         </is>
       </c>
       <c r="M404" s="20" t="n"/>
@@ -21371,29 +21367,25 @@
     <row r="405">
       <c r="A405" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure VMware Solution Design Review</t>
         </is>
       </c>
       <c r="B405" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C405" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="D405" s="18" t="inlineStr">
         <is>
-          <t>Deshabilitación de la "eliminación temporal" de blobs</t>
-        </is>
-      </c>
-      <c r="E405" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Considere la posibilidad de deshabilitar de forma selectiva la "eliminación temporal" para determinados contenedores de blobs, por ejemplo, si la aplicación debe asegurarse de que la información eliminada se elimina inmediatamente, por ejemplo, por motivos de confidencialidad, privacidad o cumplimiento. </t>
-        </is>
-      </c>
+          <t>Si utiliza una conexión VPN para migraciones, ajuste el tamaño de su MTU en consecuencia.</t>
+        </is>
+      </c>
+      <c r="E405" s="18" t="n"/>
       <c r="F405" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -21405,16 +21397,12 @@
         </is>
       </c>
       <c r="H405" s="18" t="n"/>
-      <c r="I405" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I405" s="13" t="n"/>
       <c r="J405" s="13" t="n"/>
       <c r="K405" s="19" t="n"/>
       <c r="L405" s="19" t="inlineStr">
         <is>
-          <t>3f1d5e87-2e52-4e36-81cc-58b4a4b1510e</t>
+          <t>bc91a43d-90da-4e2c-a881-4706f7c1cbaf</t>
         </is>
       </c>
       <c r="M405" s="20" t="n"/>
@@ -21426,32 +21414,28 @@
     <row r="406">
       <c r="A406" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure VMware Solution Design Review</t>
         </is>
       </c>
       <c r="B406" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C406" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="D406" s="18" t="inlineStr">
         <is>
-          <t>Habilitación de la "eliminación temporal" para los contenedores</t>
-        </is>
-      </c>
-      <c r="E406" s="18" t="inlineStr">
-        <is>
-          <t>La eliminación temporal de contenedores permite recuperar un contenedor después de que se haya eliminado, por ejemplo, recuperarse de una operación de eliminación accidental.</t>
-        </is>
-      </c>
+          <t>En el caso de las regiones de baja conectividad que se conectan a Azure (500 Mbps o menos), considere la posibilidad de implementar el dispositivo de optimización de WAN de HCX</t>
+        </is>
+      </c>
+      <c r="E406" s="18" t="n"/>
       <c r="F406" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
@@ -21460,16 +21444,12 @@
         </is>
       </c>
       <c r="H406" s="18" t="n"/>
-      <c r="I406" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I406" s="13" t="n"/>
       <c r="J406" s="13" t="n"/>
       <c r="K406" s="19" t="n"/>
       <c r="L406" s="19" t="inlineStr">
         <is>
-          <t>43a58a9c-2289-4c3d-9b57-d0c655462f2a</t>
+          <t>e614658d-d457-4e92-9139-b821102cad6e</t>
         </is>
       </c>
       <c r="M406" s="20" t="n"/>
@@ -21481,29 +21461,25 @@
     <row r="407">
       <c r="A407" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure VMware Solution Design Review</t>
         </is>
       </c>
       <c r="B407" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C407" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="D407" s="18" t="inlineStr">
         <is>
-          <t>Deshabilitación de la "eliminación temporal" para contenedores</t>
-        </is>
-      </c>
-      <c r="E407" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Considere la posibilidad de deshabilitar de forma selectiva la "eliminación temporal" para determinados contenedores de blobs, por ejemplo, si la aplicación debe asegurarse de que la información eliminada se elimina inmediatamente, por ejemplo, por motivos de confidencialidad, privacidad o cumplimiento. </t>
-        </is>
-      </c>
+          <t>Asegúrese de que las migraciones se inicien desde el dispositivo local y NO desde el dispositivo en la nube (NO realice una migración inversa)</t>
+        </is>
+      </c>
+      <c r="E407" s="18" t="n"/>
       <c r="F407" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -21515,16 +21491,12 @@
         </is>
       </c>
       <c r="H407" s="18" t="n"/>
-      <c r="I407" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I407" s="13" t="n"/>
       <c r="J407" s="13" t="n"/>
       <c r="K407" s="19" t="n"/>
       <c r="L407" s="19" t="inlineStr">
         <is>
-          <t>3e3453a3-c863-4964-ab65-2d6c15f51296</t>
+          <t>ae01e6e8-43e5-42f4-922d-928c1b1cd521</t>
         </is>
       </c>
       <c r="M407" s="20" t="n"/>
@@ -21536,32 +21508,28 @@
     <row r="408">
       <c r="A408" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure VMware Solution Design Review</t>
         </is>
       </c>
       <c r="B408" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C408" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="D408" s="18" t="inlineStr">
         <is>
-          <t>Habilitación de bloqueos de recursos en cuentas de almacenamiento</t>
-        </is>
-      </c>
-      <c r="E408" s="18" t="inlineStr">
-        <is>
-          <t>Evita la eliminación accidental de una cuenta de almacenamiento, obligando al usuario a quitar primero el bloqueo de eliminación, antes de la eliminación</t>
-        </is>
-      </c>
+          <t>Cuando se usa Azure NetApp Files para ampliar el almacenamiento de Azure VMware Solution, considere la posibilidad de usarlo como almacén de datos de VMware en lugar de adjuntarlo directamente a una máquina virtual.</t>
+        </is>
+      </c>
+      <c r="E408" s="18" t="n"/>
       <c r="F408" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G408" t="inlineStr">
@@ -21579,7 +21547,7 @@
       <c r="K408" s="19" t="n"/>
       <c r="L408" s="19" t="inlineStr">
         <is>
-          <t>5398e6de-d227-4dd1-92b0-6c21d7999a64</t>
+          <t>e54a29a9-de39-4ac0-b7c2-8dc935657202</t>
         </is>
       </c>
       <c r="M408" s="20" t="n"/>
@@ -21591,32 +21559,28 @@
     <row r="409">
       <c r="A409" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure VMware Solution Design Review</t>
         </is>
       </c>
       <c r="B409" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C409" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="D409" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de blobs inmutables</t>
-        </is>
-      </c>
-      <c r="E409" s="18" t="inlineStr">
-        <is>
-          <t>Considere la posibilidad de aplicar directivas de "retención legal" o "retención basada en el tiempo" para los blobs, de modo que sea imposible eliminar el blob, el contenedor o la cuenta de almacenamiento. Tenga en cuenta que 'imposible' en realidad significa 'imposible'; una vez que una cuenta de almacenamiento contiene un blob inmutable, la única manera de "deshacerse" de esa cuenta de almacenamiento es cancelando la suscripción de Azure.</t>
-        </is>
-      </c>
+          <t>Asegúrese de que se usa una puerta de enlace de ExpressRoute dedicada para soluciones de almacenamiento de datos externos</t>
+        </is>
+      </c>
+      <c r="E409" s="18" t="n"/>
       <c r="F409" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G409" t="inlineStr">
@@ -21634,7 +21598,7 @@
       <c r="K409" s="19" t="n"/>
       <c r="L409" s="19" t="inlineStr">
         <is>
-          <t>6f4389a8-f42c-478e-98c0-6a73a22a4956</t>
+          <t>bff4564b-0d93-44a3-98b2-63e7dd60513a</t>
         </is>
       </c>
       <c r="M409" s="20" t="n"/>
@@ -21646,32 +21610,28 @@
     <row r="410">
       <c r="A410" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure VMware Solution Design Review</t>
         </is>
       </c>
       <c r="B410" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C410" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="D410" s="18" t="inlineStr">
         <is>
-          <t>Requerir HTTPS, es decir, deshabilitar el puerto 80 en la cuenta de almacenamiento</t>
-        </is>
-      </c>
-      <c r="E410" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Considere la posibilidad de deshabilitar el acceso HTTP/80 sin protección a la cuenta de almacenamiento, de modo que todas las transferencias de datos estén cifradas, protegidas por integridad y el servidor esté autenticado. </t>
-        </is>
-      </c>
+          <t>Asegúrese de que FastPath está habilitado en la puerta de enlace de ExpressRoute que se usa para las soluciones de almacenamiento de datos externos</t>
+        </is>
+      </c>
+      <c r="E410" s="18" t="n"/>
       <c r="F410" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G410" t="inlineStr">
@@ -21689,7 +21649,7 @@
       <c r="K410" s="19" t="n"/>
       <c r="L410" s="19" t="inlineStr">
         <is>
-          <t>e7a8dc4a-20e2-47c3-b297-11b1352beee0</t>
+          <t>3649906e-bad3-48ea-b53c-c7de1d8aaab3</t>
         </is>
       </c>
       <c r="M410" s="20" t="n"/>
@@ -21701,29 +21661,25 @@
     <row r="411">
       <c r="A411" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure VMware Solution Design Review</t>
         </is>
       </c>
       <c r="B411" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C411" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="D411" s="18" t="inlineStr">
         <is>
-          <t>Al aplicar HTTPS (deshabilitar HTTP), compruebe que no usa dominios personalizados (CNAME) para la cuenta de almacenamiento.</t>
-        </is>
-      </c>
-      <c r="E411" s="18" t="inlineStr">
-        <is>
-          <t>Al configurar un dominio personalizado (nombre de host) en una cuenta de almacenamiento, compruebe si necesita TLS/HTTPS; si es así, es posible que tenga que colocar Azure CDN delante de la cuenta de almacenamiento.</t>
-        </is>
-      </c>
+          <t>Si utiliza un clúster ampliado, asegúrese de que la solución de recuperación ante desastres seleccionada sea compatible con el proveedor</t>
+        </is>
+      </c>
+      <c r="E411" s="18" t="n"/>
       <c r="F411" s="18" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -21744,7 +21700,7 @@
       <c r="K411" s="19" t="n"/>
       <c r="L411" s="19" t="inlineStr">
         <is>
-          <t>79b588de-fc49-472c-b3cd-21bf77036e5e</t>
+          <t>571549ab-8153-4d89-b89d-c7b33be2b1a2</t>
         </is>
       </c>
       <c r="M411" s="20" t="n"/>
@@ -21756,32 +21712,28 @@
     <row r="412">
       <c r="A412" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure VMware Solution Design Review</t>
         </is>
       </c>
       <c r="B412" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C412" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="D412" s="18" t="inlineStr">
         <is>
-          <t>Limitar los tokens de firma de acceso compartido (SAS) solo a las conexiones HTTPS</t>
-        </is>
-      </c>
-      <c r="E412" s="18" t="inlineStr">
-        <is>
-          <t>Requerir HTTPS cuando un cliente usa un token de SAS para acceder a los datos de blobs ayuda a minimizar el riesgo de pérdida de credenciales.</t>
-        </is>
-      </c>
+          <t>Si utiliza un clúster ampliado, asegúrese de que el Acuerdo de Nivel de Servicio proporcionado cumpla sus requisitos</t>
+        </is>
+      </c>
+      <c r="E412" s="18" t="n"/>
       <c r="F412" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G412" t="inlineStr">
@@ -21799,7 +21751,7 @@
       <c r="K412" s="19" t="n"/>
       <c r="L412" s="19" t="inlineStr">
         <is>
-          <t>6b4bed3d-5035-447c-8347-dc56028a71ff</t>
+          <t>4c486b6d-8bdc-4059-acf7-5ee8a1309888</t>
         </is>
       </c>
       <c r="M412" s="20" t="n"/>
@@ -21811,29 +21763,25 @@
     <row r="413">
       <c r="A413" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure VMware Solution Design Review</t>
         </is>
       </c>
       <c r="B413" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C413" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="D413" s="18" t="inlineStr">
         <is>
-          <t>Uso de tokens de Azure Active Directory (Azure AD) para el acceso a blobs</t>
-        </is>
-      </c>
-      <c r="E413" s="18" t="inlineStr">
-        <is>
-          <t>Los tokens de AAD deben favorecerse sobre las firmas de acceso compartido, siempre que sea posible</t>
-        </is>
-      </c>
+          <t>Si usa un clúster extendido, asegúrese de que ambos circuitos ExpressRoute están conectados al centro de conectividad.</t>
+        </is>
+      </c>
+      <c r="E413" s="18" t="n"/>
       <c r="F413" s="18" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -21854,7 +21802,7 @@
       <c r="K413" s="19" t="n"/>
       <c r="L413" s="19" t="inlineStr">
         <is>
-          <t>e1ce15dd-3f0d-45e7-92d4-1e3611cc57b4</t>
+          <t>9579d66b-896d-471f-a6ca-7be9955d04c3</t>
         </is>
       </c>
       <c r="M413" s="20" t="n"/>
@@ -21866,32 +21814,28 @@
     <row r="414">
       <c r="A414" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure VMware Solution Design Review</t>
         </is>
       </c>
       <c r="B414" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C414" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="D414" s="18" t="inlineStr">
         <is>
-          <t>Privilegios mínimos en los permisos de IaM</t>
-        </is>
-      </c>
-      <c r="E414" s="18" t="inlineStr">
-        <is>
-          <t>Al asignar un rol a un usuario, grupo o aplicación, conceda a esa entidad de seguridad solo los permisos necesarios para que pueda realizar sus tareas. Limitar el acceso a los recursos ayuda a evitar el uso indebido no intencionado y malintencionado de los datos.</t>
-        </is>
-      </c>
+          <t>Si usa un clúster extendido, asegúrese de que ambos circuitos ExpressRoute tengan habilitado GlobalReach.</t>
+        </is>
+      </c>
+      <c r="E414" s="18" t="n"/>
       <c r="F414" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G414" t="inlineStr">
@@ -21900,12 +21844,16 @@
         </is>
       </c>
       <c r="H414" s="18" t="n"/>
-      <c r="I414" s="13" t="n"/>
+      <c r="I414" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J414" s="13" t="n"/>
       <c r="K414" s="19" t="n"/>
       <c r="L414" s="19" t="inlineStr">
         <is>
-          <t>a4b1410d-4395-48a8-a228-9b3d6b57cfc6</t>
+          <t>c49d987c-b3d1-4325-aa12-4b6e4d0685ed</t>
         </is>
       </c>
       <c r="M414" s="20" t="n"/>
@@ -21917,29 +21865,25 @@
     <row r="415">
       <c r="A415" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure VMware Solution Design Review</t>
         </is>
       </c>
       <c r="B415" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C415" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="D415" s="18" t="inlineStr">
         <is>
-          <t>Al usar SAS, prefiera "SAS de delegación de usuarios" en lugar de SAS basada en claves de cuenta de almacenamiento.</t>
-        </is>
-      </c>
-      <c r="E415" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Una SAS de delegación de usuarios está protegida con credenciales de Azure Active Directory (Azure AD) y también con los permisos especificados para la SAS. Una SAS de delegación de usuarios es análoga a una SAS de servicio en cuanto a su ámbito y función, pero ofrece ventajas de seguridad sobre la SAS de servicio. </t>
-        </is>
-      </c>
+          <t>Haga que la configuración de tolerancia ante desastres del sitio se considere y cambie correctamente para su negocio si es necesario.</t>
+        </is>
+      </c>
+      <c r="E415" s="18" t="n"/>
       <c r="F415" s="18" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -21960,7 +21904,7 @@
       <c r="K415" s="19" t="n"/>
       <c r="L415" s="19" t="inlineStr">
         <is>
-          <t>55461e1a-3e34-453a-9c86-39648b652d6c</t>
+          <t>dce9793b-7bcd-4b3b-91eb-2ec14eea6e59</t>
         </is>
       </c>
       <c r="M415" s="20" t="n"/>
@@ -21987,17 +21931,17 @@
       </c>
       <c r="D416" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de deshabilitar las claves de la cuenta de almacenamiento, de modo que solo se admita el acceso a AAD (y la SAS de delegación de usuarios).</t>
+          <t>Tenga en cuenta la "línea base de seguridad de Azure para el almacenamiento"</t>
         </is>
       </c>
       <c r="E416" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Las claves de la cuenta de almacenamiento ("claves compartidas") tienen muy pocas funcionalidades de auditoría. Si bien se puede monitorear quién o cuándo obtuvo una copia de las claves, una vez que las claves están en manos de varias personas, es imposible atribuir el uso a un usuario específico. Confiar únicamente en la autenticación de AAD facilita la vinculación del acceso al almacenamiento a un usuario. </t>
+          <t>Aplicación de las instrucciones de la prueba comparativa de seguridad en la nube de Microsoft relacionadas con el almacenamiento</t>
         </is>
       </c>
       <c r="F416" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G416" t="inlineStr">
@@ -22015,7 +21959,7 @@
       <c r="K416" s="19" t="n"/>
       <c r="L416" s="19" t="inlineStr">
         <is>
-          <t>15f51296-5398-4e6d-bd22-7dd142b06c21</t>
+          <t>d237de14-3b16-4c21-b7aa-9b64604489a8</t>
         </is>
       </c>
       <c r="M416" s="20" t="n"/>
@@ -22042,12 +21986,12 @@
       </c>
       <c r="D417" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar Azure Monitor para auditar las operaciones del plano de control en la cuenta de almacenamiento</t>
+          <t>Considere la posibilidad de usar puntos de conexión privados para Azure Storage</t>
         </is>
       </c>
       <c r="E417" s="18" t="inlineStr">
         <is>
-          <t>Use los datos del registro de actividad para identificar "cuándo", "quién", "qué" y "cómo" se está viendo o cambiando la seguridad de la cuenta de almacenamiento (es decir, claves de cuenta de almacenamiento, directivas de acceso, etc.).</t>
+          <t>De forma predeterminada, Azure Storage tiene una dirección IP pública y es accesible desde Internet. Los puntos de conexión privados permiten exponer de forma segura Azure Storage solo a los recursos de proceso de Azure que necesitan acceso, lo que elimina la exposición a la Internet pública</t>
         </is>
       </c>
       <c r="F417" s="18" t="inlineStr">
@@ -22070,7 +22014,7 @@
       <c r="K417" s="19" t="n"/>
       <c r="L417" s="19" t="inlineStr">
         <is>
-          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
+          <t>f42d78e7-9d17-4a73-a22a-5a67e7a8ed4b</t>
         </is>
       </c>
       <c r="M417" s="20" t="n"/>
@@ -22097,12 +22041,12 @@
       </c>
       <c r="D418" s="18" t="inlineStr">
         <is>
-          <t>Al usar claves de cuenta de almacenamiento, considere la posibilidad de habilitar una "directiva de expiración de claves"</t>
+          <t>Asegúrese de que las cuentas de almacenamiento más antiguas no usan el "modelo de implementación clásica"</t>
         </is>
       </c>
       <c r="E418" s="18" t="inlineStr">
         <is>
-          <t>Una directiva de expiración de claves le permite establecer un recordatorio para la rotación de las claves de acceso a la cuenta. El recordatorio se muestra si ha transcurrido el intervalo especificado y las teclas aún no se han girado.</t>
+          <t>Las cuentas de almacenamiento recién creadas se crean mediante el modelo de implementación de ARM, de modo que RBAC, auditoría, etc. están habilitados. Asegúrese de que no hay cuentas de almacenamiento antiguas con el modelo de implementación clásica en una suscripción</t>
         </is>
       </c>
       <c r="F418" s="18" t="inlineStr">
@@ -22125,7 +22069,7 @@
       <c r="K418" s="19" t="n"/>
       <c r="L418" s="19" t="inlineStr">
         <is>
-          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
+          <t>30e37c3e-2971-41b2-963c-eee079b598de</t>
         </is>
       </c>
       <c r="M418" s="20" t="n"/>
@@ -22152,17 +22096,17 @@
       </c>
       <c r="D419" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de configurar una directiva de expiración de SAS</t>
+          <t>Habilitación de Microsoft Defender para todas las cuentas de almacenamiento</t>
         </is>
       </c>
       <c r="E419" s="18" t="inlineStr">
         <is>
-          <t>Una directiva de expiración de SAS especifica un intervalo recomendado durante el cual la SAS es válida. Las directivas de expiración de SAS se aplican a una SAS de servicio o a una SAS de cuenta. Cuando un usuario genera una SAS de servicio o una SAS de cuenta con un intervalo de validez mayor que el intervalo recomendado, verá una advertencia.</t>
+          <t>Aproveche Microsoft Defender para obtener información sobre la actividad sospechosa y los errores de configuración.</t>
         </is>
       </c>
       <c r="F419" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G419" t="inlineStr">
@@ -22180,7 +22124,7 @@
       <c r="K419" s="19" t="n"/>
       <c r="L419" s="19" t="inlineStr">
         <is>
-          <t>352beee0-79b5-488d-bfc4-972cd3cd21bf</t>
+          <t>fc5972cd-4cd2-41b0-a803-7f5e6b4bfd3d</t>
         </is>
       </c>
       <c r="M419" s="20" t="n"/>
@@ -22207,12 +22151,12 @@
       </c>
       <c r="D420" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de vincular SAS a una directiva de acceso almacenada</t>
+          <t>Habilitación de la "eliminación temporal" para blobs</t>
         </is>
       </c>
       <c r="E420" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Las directivas de acceso almacenadas ofrecen la opción de revocar los permisos de una SAS de servicio sin tener que volver a generar las claves de la cuenta de almacenamiento. </t>
+          <t>El mecanismo de eliminación temporal permite recuperar blobs eliminados accidentalmente.</t>
         </is>
       </c>
       <c r="F420" s="18" t="inlineStr">
@@ -22235,7 +22179,7 @@
       <c r="K420" s="19" t="n"/>
       <c r="L420" s="19" t="inlineStr">
         <is>
-          <t>77036e5e-6b4b-4ed3-b503-547c1347dc56</t>
+          <t>503547c1-447e-4c66-828a-7100f1ce16dd</t>
         </is>
       </c>
       <c r="M420" s="20" t="n"/>
@@ -22262,10 +22206,14 @@
       </c>
       <c r="D421" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de configurar el repositorio de código fuente de la aplicación para detectar cadenas de conexión protegidas y claves de cuenta de almacenamiento.</t>
-        </is>
-      </c>
-      <c r="E421" s="18" t="n"/>
+          <t>Deshabilitación de la "eliminación temporal" de blobs</t>
+        </is>
+      </c>
+      <c r="E421" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Considere la posibilidad de deshabilitar de forma selectiva la "eliminación temporal" para determinados contenedores de blobs, por ejemplo, si la aplicación debe asegurarse de que la información eliminada se elimina inmediatamente, por ejemplo, por motivos de confidencialidad, privacidad o cumplimiento. </t>
+        </is>
+      </c>
       <c r="F421" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -22286,7 +22234,7 @@
       <c r="K421" s="19" t="n"/>
       <c r="L421" s="19" t="inlineStr">
         <is>
-          <t>028a71ff-e1ce-415d-b3f0-d5e772d41e36</t>
+          <t>3f1d5e87-2e52-4e36-81cc-58b4a4b1510e</t>
         </is>
       </c>
       <c r="M421" s="20" t="n"/>
@@ -22313,12 +22261,12 @@
       </c>
       <c r="D422" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de almacenar cadenas de conexión en Azure KeyVault (en escenarios en los que las identidades administradas no son posibles)</t>
+          <t>Habilitación de la "eliminación temporal" para los contenedores</t>
         </is>
       </c>
       <c r="E422" s="18" t="inlineStr">
         <is>
-          <t>Lo ideal es que la aplicación use una identidad administrada para autenticarse en Azure Storage. Si esto no es posible, considere la posibilidad de tener la credencial de almacenamiento (cadena de conexión, clave de cuenta de almacenamiento, SAS, credencial de entidad de servicio) en Azure KeyVault o un servicio equivalente.</t>
+          <t>La eliminación temporal de contenedores permite recuperar un contenedor después de que se haya eliminado, por ejemplo, recuperarse de una operación de eliminación accidental.</t>
         </is>
       </c>
       <c r="F422" s="18" t="inlineStr">
@@ -22341,7 +22289,7 @@
       <c r="K422" s="19" t="n"/>
       <c r="L422" s="19" t="inlineStr">
         <is>
-          <t>11cc57b4-a4b1-4410-b439-58a8c2289b3d</t>
+          <t>43a58a9c-2289-4c3d-9b57-d0c655462f2a</t>
         </is>
       </c>
       <c r="M422" s="20" t="n"/>
@@ -22368,17 +22316,17 @@
       </c>
       <c r="D423" s="18" t="inlineStr">
         <is>
-          <t>Esfuércese por obtener períodos de validez cortos para SAS ad-hoc</t>
+          <t>Deshabilitación de la "eliminación temporal" para contenedores</t>
         </is>
       </c>
       <c r="E423" s="18" t="inlineStr">
         <is>
-          <t>Use los tiempos de expiración a corto plazo en una SAS de servicio SAS ad hoc o en una SAS de cuenta. De esta manera, incluso si una SAS se ve comprometida, es válida solo por un corto tiempo. Esta práctica es especialmente importante si no puede hacer referencia a una directiva de acceso almacenada. Los tiempos de expiración a corto plazo también limitan la cantidad de datos que se pueden escribir en un blob al limitar el tiempo disponible para cargarlo.</t>
+          <t xml:space="preserve">Considere la posibilidad de deshabilitar de forma selectiva la "eliminación temporal" para determinados contenedores de blobs, por ejemplo, si la aplicación debe asegurarse de que la información eliminada se elimina inmediatamente, por ejemplo, por motivos de confidencialidad, privacidad o cumplimiento. </t>
         </is>
       </c>
       <c r="F423" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G423" t="inlineStr">
@@ -22396,7 +22344,7 @@
       <c r="K423" s="19" t="n"/>
       <c r="L423" s="19" t="inlineStr">
         <is>
-          <t>27138b82-1102-4cac-9eae-01e6e842e52f</t>
+          <t>3e3453a3-c863-4964-ab65-2d6c15f51296</t>
         </is>
       </c>
       <c r="M423" s="20" t="n"/>
@@ -22423,17 +22371,17 @@
       </c>
       <c r="D424" s="18" t="inlineStr">
         <is>
-          <t>Aplicación de un ámbito limitado a una SAS</t>
+          <t>Habilitación de bloqueos de recursos en cuentas de almacenamiento</t>
         </is>
       </c>
       <c r="E424" s="18" t="inlineStr">
         <is>
-          <t>Al crear una SAS, sea lo más específico y restrictivo posible. Prefiera una SAS para un solo recurso y operación en lugar de una SAS que proporciona un acceso mucho más amplio.</t>
+          <t>Evita la eliminación accidental de una cuenta de almacenamiento, obligando al usuario a quitar primero el bloqueo de eliminación, antes de la eliminación</t>
         </is>
       </c>
       <c r="F424" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G424" t="inlineStr">
@@ -22451,7 +22399,7 @@
       <c r="K424" s="19" t="n"/>
       <c r="L424" s="19" t="inlineStr">
         <is>
-          <t>4721d928-c1b1-4cd5-81e5-4a29a9de399c</t>
+          <t>5398e6de-d227-4dd1-92b0-6c21d7999a64</t>
         </is>
       </c>
       <c r="M424" s="20" t="n"/>
@@ -22478,17 +22426,17 @@
       </c>
       <c r="D425" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de definir el ámbito de SAS en una dirección IP de cliente específica, siempre que sea posible</t>
+          <t>Considere la posibilidad de blobs inmutables</t>
         </is>
       </c>
       <c r="E425" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Una SAS puede incluir parámetros en los que las direcciones IP de cliente o los intervalos de direcciones están autorizados a solicitar un recurso mediante la SAS. </t>
+          <t>Considere la posibilidad de aplicar directivas de "retención legal" o "retención basada en el tiempo" para los blobs, de modo que sea imposible eliminar el blob, el contenedor o la cuenta de almacenamiento. Tenga en cuenta que 'imposible' en realidad significa 'imposible'; una vez que una cuenta de almacenamiento contiene un blob inmutable, la única manera de "deshacerse" de esa cuenta de almacenamiento es cancelando la suscripción de Azure.</t>
         </is>
       </c>
       <c r="F425" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G425" t="inlineStr">
@@ -22506,7 +22454,7 @@
       <c r="K425" s="19" t="n"/>
       <c r="L425" s="19" t="inlineStr">
         <is>
-          <t>fd7b28dc-9355-4562-82bf-e4564b0d834a</t>
+          <t>6f4389a8-f42c-478e-98c0-6a73a22a4956</t>
         </is>
       </c>
       <c r="M425" s="20" t="n"/>
@@ -22533,17 +22481,17 @@
       </c>
       <c r="D426" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere la posibilidad de comprobar los datos cargados, después de que los clientes hayan usado una SAS para cargar un archivo. </t>
+          <t>Requerir HTTPS, es decir, deshabilitar el puerto 80 en la cuenta de almacenamiento</t>
         </is>
       </c>
       <c r="E426" s="18" t="inlineStr">
         <is>
-          <t>Una SAS no puede restringir la cantidad de datos que carga un cliente; Dado el modelo de precios de la cantidad de almacenamiento a lo largo del tiempo, podría tener sentido validar si los clientes cargaron contenido de gran tamaño malintencionado.</t>
+          <t xml:space="preserve">Considere la posibilidad de deshabilitar el acceso HTTP/80 sin protección a la cuenta de almacenamiento, de modo que todas las transferencias de datos estén cifradas, protegidas por integridad y el servidor esté autenticado. </t>
         </is>
       </c>
       <c r="F426" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G426" t="inlineStr">
@@ -22552,12 +22500,16 @@
         </is>
       </c>
       <c r="H426" s="18" t="n"/>
-      <c r="I426" s="13" t="n"/>
+      <c r="I426" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J426" s="13" t="n"/>
       <c r="K426" s="19" t="n"/>
       <c r="L426" s="19" t="inlineStr">
         <is>
-          <t>348b263e-6dd6-4051-8a36-498f6dbad38e</t>
+          <t>e7a8dc4a-20e2-47c3-b297-11b1352beee0</t>
         </is>
       </c>
       <c r="M426" s="20" t="n"/>
@@ -22584,12 +22536,12 @@
       </c>
       <c r="D427" s="18" t="inlineStr">
         <is>
-          <t>SFTP: Limite la cantidad de "usuarios locales" para el acceso SFTP y audite si el acceso es necesario a lo largo del tiempo.</t>
+          <t>Al aplicar HTTPS (deshabilitar HTTP), compruebe que no usa dominios personalizados (CNAME) para la cuenta de almacenamiento.</t>
         </is>
       </c>
       <c r="E427" s="18" t="inlineStr">
         <is>
-          <t>Al acceder a Blob Storage a través de SFTP mediante una "cuenta de usuario local", no se aplican los controles RBAC "habituales". El acceso a blobs a través de NFS o REST puede ser más restrictivo que el acceso SFTP. Desafortunadamente, a partir de principios de 2023, los usuarios locales son la única forma de administración de identidades que actualmente se admite para el punto de conexión SFTP</t>
+          <t>Al configurar un dominio personalizado (nombre de host) en una cuenta de almacenamiento, compruebe si necesita TLS/HTTPS; si es así, es posible que tenga que colocar Azure CDN delante de la cuenta de almacenamiento.</t>
         </is>
       </c>
       <c r="F427" s="18" t="inlineStr">
@@ -22612,7 +22564,7 @@
       <c r="K427" s="19" t="n"/>
       <c r="L427" s="19" t="inlineStr">
         <is>
-          <t>ad53cc7c-e1d7-4aaa-a357-1449ab8053d8</t>
+          <t>79b588de-fc49-472c-b3cd-21bf77036e5e</t>
         </is>
       </c>
       <c r="M427" s="20" t="n"/>
@@ -22639,10 +22591,14 @@
       </c>
       <c r="D428" s="18" t="inlineStr">
         <is>
-          <t>SFTP: El punto de conexión SFTP no admite ACL similares a POSIX.</t>
-        </is>
-      </c>
-      <c r="E428" s="18" t="n"/>
+          <t>Limitar los tokens de firma de acceso compartido (SAS) solo a las conexiones HTTPS</t>
+        </is>
+      </c>
+      <c r="E428" s="18" t="inlineStr">
+        <is>
+          <t>Requerir HTTPS cuando un cliente usa un token de SAS para acceder a los datos de blobs ayuda a minimizar el riesgo de pérdida de credenciales.</t>
+        </is>
+      </c>
       <c r="F428" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -22663,7 +22619,7 @@
       <c r="K428" s="19" t="n"/>
       <c r="L428" s="19" t="inlineStr">
         <is>
-          <t>9f89dc7b-33be-42a1-a27f-7b9e91be1f38</t>
+          <t>6b4bed3d-5035-447c-8347-dc56028a71ff</t>
         </is>
       </c>
       <c r="M428" s="20" t="n"/>
@@ -22690,12 +22646,12 @@
       </c>
       <c r="D429" s="18" t="inlineStr">
         <is>
-          <t>Evite las políticas de CORS demasiado amplias</t>
+          <t>Uso de tokens de Azure Active Directory (Azure AD) para el acceso a blobs</t>
         </is>
       </c>
       <c r="E429" s="18" t="inlineStr">
         <is>
-          <t>El almacenamiento es compatible con CORS (Cross-Origin Resource Sharing), es decir, una función HTTP que permite a las aplicaciones web de un dominio diferente relajar la política del mismo origen. Al habilitar CORS, mantenga CorsRules con el mínimo privilegio.</t>
+          <t>Los tokens de AAD deben favorecerse sobre las firmas de acceso compartido, siempre que sea posible</t>
         </is>
       </c>
       <c r="F429" s="18" t="inlineStr">
@@ -22718,7 +22674,7 @@
       <c r="K429" s="19" t="n"/>
       <c r="L429" s="19" t="inlineStr">
         <is>
-          <t>cef39812-bd46-43cb-aac8-ac199ebb91a3</t>
+          <t>e1ce15dd-3f0d-45e7-92d4-1e3611cc57b4</t>
         </is>
       </c>
       <c r="M429" s="20" t="n"/>
@@ -22745,17 +22701,17 @@
       </c>
       <c r="D430" s="18" t="inlineStr">
         <is>
-          <t>Determine cómo se deben cifrar los datos en reposo. Comprender el modelo de subprocesos para los datos.</t>
+          <t>Privilegios mínimos en los permisos de IaM</t>
         </is>
       </c>
       <c r="E430" s="18" t="inlineStr">
         <is>
-          <t>Los datos en reposo siempre están cifrados en el lado del servidor y, además, también pueden estar cifrados en el lado del cliente. El cifrado del lado del servidor puede realizarse mediante una clave administrada por la plataforma (predeterminada) o una clave administrada por el cliente. El cifrado del lado cliente puede producirse haciendo que el cliente proporcione una clave de cifrado y descifrado por blob a Azure Storage o controlando completamente el cifrado en el lado cliente. por lo tanto, no depende en absoluto de Azure Storage para obtener garantías de confidencialidad.</t>
+          <t>Al asignar un rol a un usuario, grupo o aplicación, conceda a esa entidad de seguridad solo los permisos necesarios para que pueda realizar sus tareas. Limitar el acceso a los recursos ayuda a evitar el uso indebido no intencionado y malintencionado de los datos.</t>
         </is>
       </c>
       <c r="F430" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G430" t="inlineStr">
@@ -22764,16 +22720,12 @@
         </is>
       </c>
       <c r="H430" s="18" t="n"/>
-      <c r="I430" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I430" s="13" t="n"/>
       <c r="J430" s="13" t="n"/>
       <c r="K430" s="19" t="n"/>
       <c r="L430" s="19" t="inlineStr">
         <is>
-          <t>3d90cae2-cc88-4137-86f7-c0cbafe61464</t>
+          <t>a4b1410d-4395-48a8-a228-9b3d6b57cfc6</t>
         </is>
       </c>
       <c r="M430" s="20" t="n"/>
@@ -22800,13 +22752,17 @@
       </c>
       <c r="D431" s="18" t="inlineStr">
         <is>
-          <t>Determine qué cifrado de plataforma se debe usar o si se debe usar.</t>
-        </is>
-      </c>
-      <c r="E431" s="18" t="n"/>
+          <t>Al usar SAS, prefiera "SAS de delegación de usuarios" en lugar de SAS basada en claves de cuenta de almacenamiento.</t>
+        </is>
+      </c>
+      <c r="E431" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Una SAS de delegación de usuarios está protegida con credenciales de Azure Active Directory (Azure AD) y también con los permisos especificados para la SAS. Una SAS de delegación de usuarios es análoga a una SAS de servicio en cuanto a su ámbito y función, pero ofrece ventajas de seguridad sobre la SAS de servicio. </t>
+        </is>
+      </c>
       <c r="F431" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G431" t="inlineStr">
@@ -22824,7 +22780,7 @@
       <c r="K431" s="19" t="n"/>
       <c r="L431" s="19" t="inlineStr">
         <is>
-          <t>8dd457e9-2713-48b8-8110-2cac6eae01e6</t>
+          <t>55461e1a-3e34-453a-9c86-39648b652d6c</t>
         </is>
       </c>
       <c r="M431" s="20" t="n"/>
@@ -22851,13 +22807,17 @@
       </c>
       <c r="D432" s="18" t="inlineStr">
         <is>
-          <t>Determine qué cifrado del lado del cliente se debe usar o si.</t>
-        </is>
-      </c>
-      <c r="E432" s="18" t="n"/>
+          <t>Considere la posibilidad de deshabilitar las claves de la cuenta de almacenamiento, de modo que solo se admita el acceso a AAD (y la SAS de delegación de usuarios).</t>
+        </is>
+      </c>
+      <c r="E432" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Las claves de la cuenta de almacenamiento ("claves compartidas") tienen muy pocas funcionalidades de auditoría. Si bien se puede monitorear quién o cuándo obtuvo una copia de las claves, una vez que las claves están en manos de varias personas, es imposible atribuir el uso a un usuario específico. Confiar únicamente en la autenticación de AAD facilita la vinculación del acceso al almacenamiento a un usuario. </t>
+        </is>
+      </c>
       <c r="F432" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G432" t="inlineStr">
@@ -22875,7 +22835,7 @@
       <c r="K432" s="19" t="n"/>
       <c r="L432" s="19" t="inlineStr">
         <is>
-          <t>e842e52f-4721-4d92-ac1b-1cd521e54a29</t>
+          <t>15f51296-5398-4e6d-bd22-7dd142b06c21</t>
         </is>
       </c>
       <c r="M432" s="20" t="n"/>
@@ -22902,12 +22862,12 @@
       </c>
       <c r="D433" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere si se necesita acceso público a blobs o si se puede deshabilitar para determinadas cuentas de almacenamiento. </t>
+          <t>Considere la posibilidad de usar Azure Monitor para auditar las operaciones del plano de control en la cuenta de almacenamiento</t>
         </is>
       </c>
       <c r="E433" s="18" t="inlineStr">
         <is>
-          <t>Aproveche el Explorador de Resource Graph (resources | where type == 'microsoft.storage/storageaccounts' | where properties['allowBlobPublicAccess'] == true) para buscar cuentas de almacenamiento que permitan el acceso anónimo a blobs.</t>
+          <t>Use los datos del registro de actividad para identificar "cuándo", "quién", "qué" y "cómo" se está viendo o cambiando la seguridad de la cuenta de almacenamiento (es decir, claves de cuenta de almacenamiento, directivas de acceso, etc.).</t>
         </is>
       </c>
       <c r="F433" s="18" t="inlineStr">
@@ -22930,7 +22890,7 @@
       <c r="K433" s="19" t="n"/>
       <c r="L433" s="19" t="inlineStr">
         <is>
-          <t>659ae558-b937-4d49-a5e1-112dbd7ba012</t>
+          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
         </is>
       </c>
       <c r="M433" s="20" t="n"/>
@@ -22942,25 +22902,29 @@
     <row r="434">
       <c r="A434" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Blob Storage Review</t>
         </is>
       </c>
       <c r="B434" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C434" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D434" s="18" t="inlineStr">
         <is>
-          <t>Implementar una política de control de errores a nivel global</t>
-        </is>
-      </c>
-      <c r="E434" s="18" t="n"/>
+          <t>Al usar claves de cuenta de almacenamiento, considere la posibilidad de habilitar una "directiva de expiración de claves"</t>
+        </is>
+      </c>
+      <c r="E434" s="18" t="inlineStr">
+        <is>
+          <t>Una directiva de expiración de claves le permite establecer un recordatorio para la rotación de las claves de acceso a la cuenta. El recordatorio se muestra si ha transcurrido el intervalo especificado y las teclas aún no se han girado.</t>
+        </is>
+      </c>
       <c r="F434" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -22981,7 +22945,7 @@
       <c r="K434" s="19" t="n"/>
       <c r="L434" s="19" t="inlineStr">
         <is>
-          <t>d7941d4a-7b6f-458f-8714-2f8f8c059ad4</t>
+          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
         </is>
       </c>
       <c r="M434" s="20" t="n"/>
@@ -22993,25 +22957,29 @@
     <row r="435">
       <c r="A435" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Blob Storage Review</t>
         </is>
       </c>
       <c r="B435" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C435" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D435" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que todas las políticas de API incluyan un &lt;base/&gt; elemento.</t>
-        </is>
-      </c>
-      <c r="E435" s="18" t="n"/>
+          <t>Considere la posibilidad de configurar una directiva de expiración de SAS</t>
+        </is>
+      </c>
+      <c r="E435" s="18" t="inlineStr">
+        <is>
+          <t>Una directiva de expiración de SAS especifica un intervalo recomendado durante el cual la SAS es válida. Las directivas de expiración de SAS se aplican a una SAS de servicio o a una SAS de cuenta. Cuando un usuario genera una SAS de servicio o una SAS de cuenta con un intervalo de validez mayor que el intervalo recomendado, verá una advertencia.</t>
+        </is>
+      </c>
       <c r="F435" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -23032,7 +23000,7 @@
       <c r="K435" s="19" t="n"/>
       <c r="L435" s="19" t="inlineStr">
         <is>
-          <t>0b0c0765-ff37-4369-90bd-3eb23ce71b08</t>
+          <t>352beee0-79b5-488d-bfc4-972cd3cd21bf</t>
         </is>
       </c>
       <c r="M435" s="20" t="n"/>
@@ -23044,25 +23012,29 @@
     <row r="436">
       <c r="A436" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Blob Storage Review</t>
         </is>
       </c>
       <c r="B436" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C436" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D436" s="18" t="inlineStr">
         <is>
-          <t>Uso de fragmentos de políticas para evitar repetir las mismas definiciones de políticas en varias API</t>
-        </is>
-      </c>
-      <c r="E436" s="18" t="n"/>
+          <t>Considere la posibilidad de vincular SAS a una directiva de acceso almacenada</t>
+        </is>
+      </c>
+      <c r="E436" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Las directivas de acceso almacenadas ofrecen la opción de revocar los permisos de una SAS de servicio sin tener que volver a generar las claves de la cuenta de almacenamiento. </t>
+        </is>
+      </c>
       <c r="F436" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -23083,7 +23055,7 @@
       <c r="K436" s="19" t="n"/>
       <c r="L436" s="19" t="inlineStr">
         <is>
-          <t>a5c45b03-93b6-42fe-b16b-8fccb6a79902</t>
+          <t>77036e5e-6b4b-4ed3-b503-547c1347dc56</t>
         </is>
       </c>
       <c r="M436" s="20" t="n"/>
@@ -23095,22 +23067,22 @@
     <row r="437">
       <c r="A437" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Blob Storage Review</t>
         </is>
       </c>
       <c r="B437" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C437" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D437" s="18" t="inlineStr">
         <is>
-          <t>Si planeas monetizar tus API, revisa el artículo "Soporte de monetización" para conocer las prácticas recomendadas</t>
+          <t>Considere la posibilidad de configurar el repositorio de código fuente de la aplicación para detectar cadenas de conexión protegidas y claves de cuenta de almacenamiento.</t>
         </is>
       </c>
       <c r="E437" s="18" t="n"/>
@@ -23134,7 +23106,7 @@
       <c r="K437" s="19" t="n"/>
       <c r="L437" s="19" t="inlineStr">
         <is>
-          <t>c3818a95-6ff3-4474-88dc-e809b46dad6a</t>
+          <t>028a71ff-e1ce-415d-b3f0-d5e772d41e36</t>
         </is>
       </c>
       <c r="M437" s="20" t="n"/>
@@ -23146,25 +23118,29 @@
     <row r="438">
       <c r="A438" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Blob Storage Review</t>
         </is>
       </c>
       <c r="B438" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C438" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D438" s="18" t="inlineStr">
         <is>
-          <t>Habilitación de la configuración de diagnóstico para exportar registros a Azure Monitor</t>
-        </is>
-      </c>
-      <c r="E438" s="18" t="n"/>
+          <t>Considere la posibilidad de almacenar cadenas de conexión en Azure KeyVault (en escenarios en los que las identidades administradas no son posibles)</t>
+        </is>
+      </c>
+      <c r="E438" s="18" t="inlineStr">
+        <is>
+          <t>Lo ideal es que la aplicación use una identidad administrada para autenticarse en Azure Storage. Si esto no es posible, considere la posibilidad de tener la credencial de almacenamiento (cadena de conexión, clave de cuenta de almacenamiento, SAS, credencial de entidad de servicio) en Azure KeyVault o un servicio equivalente.</t>
+        </is>
+      </c>
       <c r="F438" s="18" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -23185,7 +23161,7 @@
       <c r="K438" s="19" t="n"/>
       <c r="L438" s="19" t="inlineStr">
         <is>
-          <t>a7d0840a-c8c4-4e83-adec-5ca578eb4049</t>
+          <t>11cc57b4-a4b1-4410-b439-58a8c2289b3d</t>
         </is>
       </c>
       <c r="M438" s="20" t="n"/>
@@ -23197,28 +23173,32 @@
     <row r="439">
       <c r="A439" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Blob Storage Review</t>
         </is>
       </c>
       <c r="B439" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C439" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D439" s="18" t="inlineStr">
         <is>
-          <t>Habilitación de Application Insights para obtener telemetría más detallada</t>
-        </is>
-      </c>
-      <c r="E439" s="18" t="n"/>
+          <t>Esfuércese por obtener períodos de validez cortos para SAS ad-hoc</t>
+        </is>
+      </c>
+      <c r="E439" s="18" t="inlineStr">
+        <is>
+          <t>Use los tiempos de expiración a corto plazo en una SAS de servicio SAS ad hoc o en una SAS de cuenta. De esta manera, incluso si una SAS se ve comprometida, es válida solo por un corto tiempo. Esta práctica es especialmente importante si no puede hacer referencia a una directiva de acceso almacenada. Los tiempos de expiración a corto plazo también limitan la cantidad de datos que se pueden escribir en un blob al limitar el tiempo disponible para cargarlo.</t>
+        </is>
+      </c>
       <c r="F439" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G439" t="inlineStr">
@@ -23236,7 +23216,7 @@
       <c r="K439" s="19" t="n"/>
       <c r="L439" s="19" t="inlineStr">
         <is>
-          <t>8691fa38-45ed-4299-a247-fecd98d35deb</t>
+          <t>27138b82-1102-4cac-9eae-01e6e842e52f</t>
         </is>
       </c>
       <c r="M439" s="20" t="n"/>
@@ -23248,28 +23228,32 @@
     <row r="440">
       <c r="A440" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Blob Storage Review</t>
         </is>
       </c>
       <c r="B440" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C440" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D440" s="18" t="inlineStr">
         <is>
-          <t>Configurar alertas sobre las métricas más críticas</t>
-        </is>
-      </c>
-      <c r="E440" s="18" t="n"/>
+          <t>Aplicación de un ámbito limitado a una SAS</t>
+        </is>
+      </c>
+      <c r="E440" s="18" t="inlineStr">
+        <is>
+          <t>Al crear una SAS, sea lo más específico y restrictivo posible. Prefiera una SAS para un solo recurso y operación en lugar de una SAS que proporciona un acceso mucho más amplio.</t>
+        </is>
+      </c>
       <c r="F440" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G440" t="inlineStr">
@@ -23287,7 +23271,7 @@
       <c r="K440" s="19" t="n"/>
       <c r="L440" s="19" t="inlineStr">
         <is>
-          <t>55fd27bb-76ac-4a91-bc37-049e885be6b7</t>
+          <t>4721d928-c1b1-4cd5-81e5-4a29a9de399c</t>
         </is>
       </c>
       <c r="M440" s="20" t="n"/>
@@ -23299,7 +23283,7 @@
     <row r="441">
       <c r="A441" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Blob Storage Review</t>
         </is>
       </c>
       <c r="B441" s="18" t="inlineStr">
@@ -23309,18 +23293,22 @@
       </c>
       <c r="C441" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D441" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que los certificados SSL personalizados se almacenan en Azure Key Vault para que se pueda acceder a ellos y actualizarlos de forma segura</t>
-        </is>
-      </c>
-      <c r="E441" s="18" t="n"/>
+          <t>Considere la posibilidad de definir el ámbito de SAS en una dirección IP de cliente específica, siempre que sea posible</t>
+        </is>
+      </c>
+      <c r="E441" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Una SAS puede incluir parámetros en los que las direcciones IP de cliente o los intervalos de direcciones están autorizados a solicitar un recurso mediante la SAS. </t>
+        </is>
+      </c>
       <c r="F441" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G441" t="inlineStr">
@@ -23338,7 +23326,7 @@
       <c r="K441" s="19" t="n"/>
       <c r="L441" s="19" t="inlineStr">
         <is>
-          <t>39460bdb-156f-4dc2-a87f-1e8c11ab0998</t>
+          <t>fd7b28dc-9355-4562-82bf-e4564b0d834a</t>
         </is>
       </c>
       <c r="M441" s="20" t="n"/>
@@ -23350,7 +23338,7 @@
     <row r="442">
       <c r="A442" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Blob Storage Review</t>
         </is>
       </c>
       <c r="B442" s="18" t="inlineStr">
@@ -23360,18 +23348,22 @@
       </c>
       <c r="C442" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D442" s="18" t="inlineStr">
         <is>
-          <t>Protección de las solicitudes entrantes a las API (plano de datos) con Azure AD</t>
-        </is>
-      </c>
-      <c r="E442" s="18" t="n"/>
+          <t xml:space="preserve">Considere la posibilidad de comprobar los datos cargados, después de que los clientes hayan usado una SAS para cargar un archivo. </t>
+        </is>
+      </c>
+      <c r="E442" s="18" t="inlineStr">
+        <is>
+          <t>Una SAS no puede restringir la cantidad de datos que carga un cliente; Dado el modelo de precios de la cantidad de almacenamiento a lo largo del tiempo, podría tener sentido validar si los clientes cargaron contenido de gran tamaño malintencionado.</t>
+        </is>
+      </c>
       <c r="F442" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G442" t="inlineStr">
@@ -23380,16 +23372,12 @@
         </is>
       </c>
       <c r="H442" s="18" t="n"/>
-      <c r="I442" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I442" s="13" t="n"/>
       <c r="J442" s="13" t="n"/>
       <c r="K442" s="19" t="n"/>
       <c r="L442" s="19" t="inlineStr">
         <is>
-          <t>e9217997-5f6c-479d-8576-8f2adf706ec8</t>
+          <t>348b263e-6dd6-4051-8a36-498f6dbad38e</t>
         </is>
       </c>
       <c r="M442" s="20" t="n"/>
@@ -23401,7 +23389,7 @@
     <row r="443">
       <c r="A443" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Blob Storage Review</t>
         </is>
       </c>
       <c r="B443" s="18" t="inlineStr">
@@ -23411,18 +23399,22 @@
       </c>
       <c r="C443" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D443" s="18" t="inlineStr">
         <is>
-          <t>Uso de Azure AD para autenticar usuarios en el Portal de desarrollador</t>
-        </is>
-      </c>
-      <c r="E443" s="18" t="n"/>
+          <t>SFTP: Limite la cantidad de "usuarios locales" para el acceso SFTP y audite si el acceso es necesario a lo largo del tiempo.</t>
+        </is>
+      </c>
+      <c r="E443" s="18" t="inlineStr">
+        <is>
+          <t>Al acceder a Blob Storage a través de SFTP mediante una "cuenta de usuario local", no se aplican los controles RBAC "habituales". El acceso a blobs a través de NFS o REST puede ser más restrictivo que el acceso SFTP. Desafortunadamente, a partir de principios de 2023, los usuarios locales son la única forma de administración de identidades que actualmente se admite para el punto de conexión SFTP</t>
+        </is>
+      </c>
       <c r="F443" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G443" t="inlineStr">
@@ -23440,7 +23432,7 @@
       <c r="K443" s="19" t="n"/>
       <c r="L443" s="19" t="inlineStr">
         <is>
-          <t>5e5f64ba-c90e-480e-8888-398d96cf0bfb</t>
+          <t>ad53cc7c-e1d7-4aaa-a357-1449ab8053d8</t>
         </is>
       </c>
       <c r="M443" s="20" t="n"/>
@@ -23452,7 +23444,7 @@
     <row r="444">
       <c r="A444" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Blob Storage Review</t>
         </is>
       </c>
       <c r="B444" s="18" t="inlineStr">
@@ -23462,12 +23454,12 @@
       </c>
       <c r="C444" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D444" s="18" t="inlineStr">
         <is>
-          <t>Crear grupos adecuados para controlar la visibilidad de los productos</t>
+          <t>SFTP: El punto de conexión SFTP no admite ACL similares a POSIX.</t>
         </is>
       </c>
       <c r="E444" s="18" t="n"/>
@@ -23491,7 +23483,7 @@
       <c r="K444" s="19" t="n"/>
       <c r="L444" s="19" t="inlineStr">
         <is>
-          <t>f8e574ce-280f-49c8-b2ef-68279b081cf3</t>
+          <t>9f89dc7b-33be-42a1-a27f-7b9e91be1f38</t>
         </is>
       </c>
       <c r="M444" s="20" t="n"/>
@@ -23503,28 +23495,32 @@
     <row r="445">
       <c r="A445" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Blob Storage Review</t>
         </is>
       </c>
       <c r="B445" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C445" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D445" s="18" t="inlineStr">
         <is>
-          <t>Utilice la función Backends para eliminar las configuraciones redundantes de back-end de la API</t>
-        </is>
-      </c>
-      <c r="E445" s="18" t="n"/>
+          <t>Evite las políticas de CORS demasiado amplias</t>
+        </is>
+      </c>
+      <c r="E445" s="18" t="inlineStr">
+        <is>
+          <t>El almacenamiento es compatible con CORS (Cross-Origin Resource Sharing), es decir, una función HTTP que permite a las aplicaciones web de un dominio diferente relajar la política del mismo origen. Al habilitar CORS, mantenga CorsRules con el mínimo privilegio.</t>
+        </is>
+      </c>
       <c r="F445" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G445" t="inlineStr">
@@ -23542,7 +23538,7 @@
       <c r="K445" s="19" t="n"/>
       <c r="L445" s="19" t="inlineStr">
         <is>
-          <t>06862505-2d9a-4874-9491-2837b00a3475</t>
+          <t>cef39812-bd46-43cb-aac8-ac199ebb91a3</t>
         </is>
       </c>
       <c r="M445" s="20" t="n"/>
@@ -23554,28 +23550,32 @@
     <row r="446">
       <c r="A446" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Blob Storage Review</t>
         </is>
       </c>
       <c r="B446" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C446" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D446" s="18" t="inlineStr">
         <is>
-          <t>Usar valores con nombre para almacenar valores comunes que se pueden usar en políticas</t>
-        </is>
-      </c>
-      <c r="E446" s="18" t="n"/>
+          <t>Determine cómo se deben cifrar los datos en reposo. Comprender el modelo de subprocesos para los datos.</t>
+        </is>
+      </c>
+      <c r="E446" s="18" t="inlineStr">
+        <is>
+          <t>Los datos en reposo siempre están cifrados en el lado del servidor y, además, también pueden estar cifrados en el lado del cliente. El cifrado del lado del servidor puede realizarse mediante una clave administrada por la plataforma (predeterminada) o una clave administrada por el cliente. El cifrado del lado cliente puede producirse haciendo que el cliente proporcione una clave de cifrado y descifrado por blob a Azure Storage o controlando completamente el cifrado en el lado cliente. por lo tanto, no depende en absoluto de Azure Storage para obtener garantías de confidencialidad.</t>
+        </is>
+      </c>
       <c r="F446" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G446" t="inlineStr">
@@ -23593,7 +23593,7 @@
       <c r="K446" s="19" t="n"/>
       <c r="L446" s="19" t="inlineStr">
         <is>
-          <t>03b125d5-b69b-4739-b7fd-84b86da4933e</t>
+          <t>3d90cae2-cc88-4137-86f7-c0cbafe61464</t>
         </is>
       </c>
       <c r="M446" s="20" t="n"/>
@@ -23605,22 +23605,22 @@
     <row r="447">
       <c r="A447" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Blob Storage Review</t>
         </is>
       </c>
       <c r="B447" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C447" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D447" s="18" t="inlineStr">
         <is>
-          <t>Implementación en varias regiones de Azure</t>
+          <t>Determine qué cifrado de plataforma se debe usar o si se debe usar.</t>
         </is>
       </c>
       <c r="E447" s="18" t="n"/>
@@ -23644,7 +23644,7 @@
       <c r="K447" s="19" t="n"/>
       <c r="L447" s="19" t="inlineStr">
         <is>
-          <t>beae759e-4ddb-4326-bf26-47f87d3454b6</t>
+          <t>8dd457e9-2713-48b8-8110-2cac6eae01e6</t>
         </is>
       </c>
       <c r="M447" s="20" t="n"/>
@@ -23656,22 +23656,22 @@
     <row r="448">
       <c r="A448" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Blob Storage Review</t>
         </is>
       </c>
       <c r="B448" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C448" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D448" s="18" t="inlineStr">
         <is>
-          <t>Implemente al menos dos unidades de escalado distribuidas en dos zonas de disponibilidad por región para obtener la mejor disponibilidad y rendimiento</t>
+          <t>Determine qué cifrado del lado del cliente se debe usar o si.</t>
         </is>
       </c>
       <c r="E448" s="18" t="n"/>
@@ -23695,7 +23695,7 @@
       <c r="K448" s="19" t="n"/>
       <c r="L448" s="19" t="inlineStr">
         <is>
-          <t>9c8d1664-dd9a-49d4-bd83-950af0af4044</t>
+          <t>e842e52f-4721-4d92-ac1b-1cd521e54a29</t>
         </is>
       </c>
       <c r="M448" s="20" t="n"/>
@@ -23707,25 +23707,29 @@
     <row r="449">
       <c r="A449" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Blob Storage Review</t>
         </is>
       </c>
       <c r="B449" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C449" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D449" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que haya una rutina de copia de seguridad automatizada</t>
-        </is>
-      </c>
-      <c r="E449" s="18" t="n"/>
+          <t xml:space="preserve">Considere si se necesita acceso público a blobs o si se puede deshabilitar para determinadas cuentas de almacenamiento. </t>
+        </is>
+      </c>
+      <c r="E449" s="18" t="inlineStr">
+        <is>
+          <t>Aproveche el Explorador de Resource Graph (resources | where type == 'microsoft.storage/storageaccounts' | where properties['allowBlobPublicAccess'] == true) para buscar cuentas de almacenamiento que permitan el acceso anónimo a blobs.</t>
+        </is>
+      </c>
       <c r="F449" s="18" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -23746,7 +23750,7 @@
       <c r="K449" s="19" t="n"/>
       <c r="L449" s="19" t="inlineStr">
         <is>
-          <t>8d2db6e8-85c6-4118-a52c-ae76a4f27934</t>
+          <t>659ae558-b937-4d49-a5e1-112dbd7ba012</t>
         </is>
       </c>
       <c r="M449" s="20" t="n"/>
@@ -23773,13 +23777,13 @@
       </c>
       <c r="D450" s="18" t="inlineStr">
         <is>
-          <t>Si necesita iniciar sesión en niveles de alto rendimiento, tenga en cuenta la directiva de Event Hubs</t>
+          <t>Implementar una política de control de errores a nivel global</t>
         </is>
       </c>
       <c r="E450" s="18" t="n"/>
       <c r="F450" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G450" t="inlineStr">
@@ -23797,7 +23801,7 @@
       <c r="K450" s="19" t="n"/>
       <c r="L450" s="19" t="inlineStr">
         <is>
-          <t>8210699f-8d43-45c2-8f19-57e54134bd8f</t>
+          <t>d7941d4a-7b6f-458f-8714-2f8f8c059ad4</t>
         </is>
       </c>
       <c r="M450" s="20" t="n"/>
@@ -23814,7 +23818,7 @@
       </c>
       <c r="B451" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C451" s="18" t="inlineStr">
@@ -23824,7 +23828,7 @@
       </c>
       <c r="D451" s="18" t="inlineStr">
         <is>
-          <t>Aplicación de directivas de limitación para controlar el número de solicitudes por segundo</t>
+          <t>Asegúrese de que todas las políticas de API incluyan un &lt;base/&gt; elemento.</t>
         </is>
       </c>
       <c r="E451" s="18" t="n"/>
@@ -23844,15 +23848,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J451" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/protect-apis-on-api-management/</t>
-        </is>
-      </c>
+      <c r="J451" s="13" t="n"/>
       <c r="K451" s="19" t="n"/>
       <c r="L451" s="19" t="inlineStr">
         <is>
-          <t>121bfc39-fa7b-4096-b93b-ab56c1bc0bed</t>
+          <t>0b0c0765-ff37-4369-90bd-3eb23ce71b08</t>
         </is>
       </c>
       <c r="M451" s="20" t="n"/>
@@ -23869,7 +23869,7 @@
       </c>
       <c r="B452" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C452" s="18" t="inlineStr">
@@ -23879,7 +23879,7 @@
       </c>
       <c r="D452" s="18" t="inlineStr">
         <is>
-          <t>Configurar el escalado automático para escalar horizontalmente el número de instancias cuando aumenta la carga</t>
+          <t>Uso de fragmentos de políticas para evitar repetir las mismas definiciones de políticas en varias API</t>
         </is>
       </c>
       <c r="E452" s="18" t="n"/>
@@ -23903,7 +23903,7 @@
       <c r="K452" s="19" t="n"/>
       <c r="L452" s="19" t="inlineStr">
         <is>
-          <t>bb5f356b-3daf-47a2-a9ee-867a8100bbd5</t>
+          <t>a5c45b03-93b6-42fe-b16b-8fccb6a79902</t>
         </is>
       </c>
       <c r="M452" s="20" t="n"/>
@@ -23920,7 +23920,7 @@
       </c>
       <c r="B453" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C453" s="18" t="inlineStr">
@@ -23930,7 +23930,7 @@
       </c>
       <c r="D453" s="18" t="inlineStr">
         <is>
-          <t>Implemente puertas de enlace autohospedadas en las que Azure no tenga una región cercana a las API de back-end.</t>
+          <t>Si planeas monetizar tus API, revisa el artículo "Soporte de monetización" para conocer las prácticas recomendadas</t>
         </is>
       </c>
       <c r="E453" s="18" t="n"/>
@@ -23954,7 +23954,7 @@
       <c r="K453" s="19" t="n"/>
       <c r="L453" s="19" t="inlineStr">
         <is>
-          <t>84b94abb-59b6-4b9d-8587-3413669468e8</t>
+          <t>c3818a95-6ff3-4474-88dc-e809b46dad6a</t>
         </is>
       </c>
       <c r="M453" s="20" t="n"/>
@@ -23971,7 +23971,7 @@
       </c>
       <c r="B454" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C454" s="18" t="inlineStr">
@@ -23981,13 +23981,13 @@
       </c>
       <c r="D454" s="18" t="inlineStr">
         <is>
-          <t>Uso de Azure Front Door delante de APIM para la implementación en varias regiones</t>
+          <t>Habilitación de la configuración de diagnóstico para exportar registros a Azure Monitor</t>
         </is>
       </c>
       <c r="E454" s="18" t="n"/>
       <c r="F454" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G454" t="inlineStr">
@@ -24005,7 +24005,7 @@
       <c r="K454" s="19" t="n"/>
       <c r="L454" s="19" t="inlineStr">
         <is>
-          <t>7519e385-a88b-4d34-966b-6269d686e890</t>
+          <t>a7d0840a-c8c4-4e83-adec-5ca578eb4049</t>
         </is>
       </c>
       <c r="M454" s="20" t="n"/>
@@ -24022,7 +24022,7 @@
       </c>
       <c r="B455" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C455" s="18" t="inlineStr">
@@ -24032,7 +24032,7 @@
       </c>
       <c r="D455" s="18" t="inlineStr">
         <is>
-          <t>Implementación del servicio dentro de una red virtual (VNet)</t>
+          <t>Habilitación de Application Insights para obtener telemetría más detallada</t>
         </is>
       </c>
       <c r="E455" s="18" t="n"/>
@@ -24056,7 +24056,7 @@
       <c r="K455" s="19" t="n"/>
       <c r="L455" s="19" t="inlineStr">
         <is>
-          <t>cd45c90e-7690-4753-930b-bf290c69c074</t>
+          <t>8691fa38-45ed-4299-a247-fecd98d35deb</t>
         </is>
       </c>
       <c r="M455" s="20" t="n"/>
@@ -24073,7 +24073,7 @@
       </c>
       <c r="B456" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C456" s="18" t="inlineStr">
@@ -24083,13 +24083,13 @@
       </c>
       <c r="D456" s="18" t="inlineStr">
         <is>
-          <t>Implemente grupos de seguridad de red (NSG) en las subredes para restringir o supervisar el tráfico hacia/desde APIM.</t>
+          <t>Configurar alertas sobre las métricas más críticas</t>
         </is>
       </c>
       <c r="E456" s="18" t="n"/>
       <c r="F456" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G456" t="inlineStr">
@@ -24107,7 +24107,7 @@
       <c r="K456" s="19" t="n"/>
       <c r="L456" s="19" t="inlineStr">
         <is>
-          <t>02661582-b3d1-48d1-9d7b-c6a918a0ca33</t>
+          <t>55fd27bb-76ac-4a91-bc37-049e885be6b7</t>
         </is>
       </c>
       <c r="M456" s="20" t="n"/>
@@ -24134,13 +24134,13 @@
       </c>
       <c r="D457" s="18" t="inlineStr">
         <is>
-          <t>Implemente puntos de conexión privados para filtrar el tráfico entrante cuando APIM no se implemente en una red virtual.</t>
+          <t>Asegúrese de que los certificados SSL personalizados se almacenan en Azure Key Vault para que se pueda acceder a ellos y actualizarlos de forma segura</t>
         </is>
       </c>
       <c r="E457" s="18" t="n"/>
       <c r="F457" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G457" t="inlineStr">
@@ -24158,7 +24158,7 @@
       <c r="K457" s="19" t="n"/>
       <c r="L457" s="19" t="inlineStr">
         <is>
-          <t>67437a28-2721-4a2c-becd-caa54c8237a5</t>
+          <t>39460bdb-156f-4dc2-a87f-1e8c11ab0998</t>
         </is>
       </c>
       <c r="M457" s="20" t="n"/>
@@ -24185,7 +24185,7 @@
       </c>
       <c r="D458" s="18" t="inlineStr">
         <is>
-          <t>Deshabilitar el acceso a la red pública</t>
+          <t>Protección de las solicitudes entrantes a las API (plano de datos) con Azure AD</t>
         </is>
       </c>
       <c r="E458" s="18" t="n"/>
@@ -24209,7 +24209,7 @@
       <c r="K458" s="19" t="n"/>
       <c r="L458" s="19" t="inlineStr">
         <is>
-          <t>d698adbd-3288-44cb-b10a-9b572da395ae</t>
+          <t>e9217997-5f6c-479d-8576-8f2adf706ec8</t>
         </is>
       </c>
       <c r="M458" s="20" t="n"/>
@@ -24226,7 +24226,7 @@
       </c>
       <c r="B459" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C459" s="18" t="inlineStr">
@@ -24236,7 +24236,7 @@
       </c>
       <c r="D459" s="18" t="inlineStr">
         <is>
-          <t>Simplifique la administración con scripts de automatización de PowerShell</t>
+          <t>Uso de Azure AD para autenticar usuarios en el Portal de desarrollador</t>
         </is>
       </c>
       <c r="E459" s="18" t="n"/>
@@ -24260,7 +24260,7 @@
       <c r="K459" s="19" t="n"/>
       <c r="L459" s="19" t="inlineStr">
         <is>
-          <t>0674d750-0c6f-4ac0-8717-ceec04d0bdbd</t>
+          <t>5e5f64ba-c90e-480e-8888-398d96cf0bfb</t>
         </is>
       </c>
       <c r="M459" s="20" t="n"/>
@@ -24277,7 +24277,7 @@
       </c>
       <c r="B460" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C460" s="18" t="inlineStr">
@@ -24287,7 +24287,7 @@
       </c>
       <c r="D460" s="18" t="inlineStr">
         <is>
-          <t>Revise las prácticas recomendadas de DevOps desde el acelerador de zonas de aterrizaje de API de Cloud Adaption Framework</t>
+          <t>Crear grupos adecuados para controlar la visibilidad de los productos</t>
         </is>
       </c>
       <c r="E460" s="18" t="n"/>
@@ -24311,7 +24311,7 @@
       <c r="K460" s="19" t="n"/>
       <c r="L460" s="19" t="inlineStr">
         <is>
-          <t>c385bfcd-49fd-4786-81ba-cedbb4c57345</t>
+          <t>f8e574ce-280f-49c8-b2ef-68279b081cf3</t>
         </is>
       </c>
       <c r="M460" s="20" t="n"/>
@@ -24338,7 +24338,7 @@
       </c>
       <c r="D461" s="18" t="inlineStr">
         <is>
-          <t>Promover el uso de la extensión APIM de Visual Studio Code para un desarrollo de API más rápido</t>
+          <t>Utilice la función Backends para eliminar las configuraciones redundantes de back-end de la API</t>
         </is>
       </c>
       <c r="E461" s="18" t="n"/>
@@ -24362,7 +24362,7 @@
       <c r="K461" s="19" t="n"/>
       <c r="L461" s="19" t="inlineStr">
         <is>
-          <t>6c3a27c0-197f-426c-9ffa-86fed51d9ab6</t>
+          <t>06862505-2d9a-4874-9491-2837b00a3475</t>
         </is>
       </c>
       <c r="M461" s="20" t="n"/>
@@ -24389,7 +24389,7 @@
       </c>
       <c r="D462" s="18" t="inlineStr">
         <is>
-          <t>Implemente DevOps y CI/CD en su flujo de trabajo</t>
+          <t>Usar valores con nombre para almacenar valores comunes que se pueden usar en políticas</t>
         </is>
       </c>
       <c r="E462" s="18" t="n"/>
@@ -24413,7 +24413,7 @@
       <c r="K462" s="19" t="n"/>
       <c r="L462" s="19" t="inlineStr">
         <is>
-          <t>354f1c03-8112-4965-85ad-c0074bddf231</t>
+          <t>03b125d5-b69b-4739-b7fd-84b86da4933e</t>
         </is>
       </c>
       <c r="M462" s="20" t="n"/>
@@ -24430,7 +24430,7 @@
       </c>
       <c r="B463" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C463" s="18" t="inlineStr">
@@ -24440,7 +24440,7 @@
       </c>
       <c r="D463" s="18" t="inlineStr">
         <is>
-          <t>API seguras mediante la autenticación de certificados de cliente</t>
+          <t>Implementación en varias regiones de Azure</t>
         </is>
       </c>
       <c r="E463" s="18" t="n"/>
@@ -24464,7 +24464,7 @@
       <c r="K463" s="19" t="n"/>
       <c r="L463" s="19" t="inlineStr">
         <is>
-          <t>b6439493-426a-45f3-9697-cf65baee208d</t>
+          <t>beae759e-4ddb-4326-bf26-47f87d3454b6</t>
         </is>
       </c>
       <c r="M463" s="20" t="n"/>
@@ -24481,7 +24481,7 @@
       </c>
       <c r="B464" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C464" s="18" t="inlineStr">
@@ -24491,7 +24491,7 @@
       </c>
       <c r="D464" s="18" t="inlineStr">
         <is>
-          <t>Servicios de back-end seguros mediante la autenticación de certificados de cliente</t>
+          <t>Implemente al menos dos unidades de escalado distribuidas en dos zonas de disponibilidad por región para obtener la mejor disponibilidad y rendimiento</t>
         </is>
       </c>
       <c r="E464" s="18" t="n"/>
@@ -24515,7 +24515,7 @@
       <c r="K464" s="19" t="n"/>
       <c r="L464" s="19" t="inlineStr">
         <is>
-          <t>2a67d143-1033-4c0a-8732-680896478f08</t>
+          <t>9c8d1664-dd9a-49d4-bd83-950af0af4044</t>
         </is>
       </c>
       <c r="M464" s="20" t="n"/>
@@ -24532,7 +24532,7 @@
       </c>
       <c r="B465" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C465" s="18" t="inlineStr">
@@ -24542,13 +24542,13 @@
       </c>
       <c r="D465" s="18" t="inlineStr">
         <is>
-          <t>Revise el artículo "Recomendaciones para mitigar las 10 principales amenazas de seguridad de la API de OWASP" y compruebe qué es aplicable a sus API</t>
+          <t>Asegúrese de que haya una rutina de copia de seguridad automatizada</t>
         </is>
       </c>
       <c r="E465" s="18" t="n"/>
       <c r="F465" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G465" t="inlineStr">
@@ -24566,7 +24566,7 @@
       <c r="K465" s="19" t="n"/>
       <c r="L465" s="19" t="inlineStr">
         <is>
-          <t>074435f5-4a46-41ac-b521-d6114cb5d845</t>
+          <t>8d2db6e8-85c6-4118-a52c-ae76a4f27934</t>
         </is>
       </c>
       <c r="M465" s="20" t="n"/>
@@ -24583,7 +24583,7 @@
       </c>
       <c r="B466" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C466" s="18" t="inlineStr">
@@ -24593,13 +24593,13 @@
       </c>
       <c r="D466" s="18" t="inlineStr">
         <is>
-          <t>Utilice la función Autorizaciones para simplificar la administración del token de OAuth 2.0 para las API de back-end</t>
+          <t>Si necesita iniciar sesión en niveles de alto rendimiento, tenga en cuenta la directiva de Event Hubs</t>
         </is>
       </c>
       <c r="E466" s="18" t="n"/>
       <c r="F466" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G466" t="inlineStr">
@@ -24617,7 +24617,7 @@
       <c r="K466" s="19" t="n"/>
       <c r="L466" s="19" t="inlineStr">
         <is>
-          <t>5507c4b8-a7f8-41d6-9661-418c987100c9</t>
+          <t>8210699f-8d43-45c2-8f19-57e54134bd8f</t>
         </is>
       </c>
       <c r="M466" s="20" t="n"/>
@@ -24634,7 +24634,7 @@
       </c>
       <c r="B467" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C467" s="18" t="inlineStr">
@@ -24644,13 +24644,13 @@
       </c>
       <c r="D467" s="18" t="inlineStr">
         <is>
-          <t>Utilice la versión más reciente de TLS al cifrar la información en tránsito. Deshabilite los protocolos y cifrados obsoletos e innecesarios cuando sea posible.</t>
+          <t>Aplicación de directivas de limitación para controlar el número de solicitudes por segundo</t>
         </is>
       </c>
       <c r="E467" s="18" t="n"/>
       <c r="F467" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G467" t="inlineStr">
@@ -24664,11 +24664,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J467" s="13" t="n"/>
+      <c r="J467" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/protect-apis-on-api-management/</t>
+        </is>
+      </c>
       <c r="K467" s="19" t="n"/>
       <c r="L467" s="19" t="inlineStr">
         <is>
-          <t>2deee033-b906-4bc2-9f26-c8d3699fe091</t>
+          <t>121bfc39-fa7b-4096-b93b-ab56c1bc0bed</t>
         </is>
       </c>
       <c r="M467" s="20" t="n"/>
@@ -24685,7 +24689,7 @@
       </c>
       <c r="B468" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C468" s="18" t="inlineStr">
@@ -24695,13 +24699,13 @@
       </c>
       <c r="D468" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que los secretos (valores con nombre) se almacenan en Azure Key Vault para que se pueda acceder a ellos y actualizarlos de forma segura</t>
+          <t>Configurar el escalado automático para escalar horizontalmente el número de instancias cuando aumenta la carga</t>
         </is>
       </c>
       <c r="E468" s="18" t="n"/>
       <c r="F468" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G468" t="inlineStr">
@@ -24719,7 +24723,7 @@
       <c r="K468" s="19" t="n"/>
       <c r="L468" s="19" t="inlineStr">
         <is>
-          <t>f8af3d94-1d2b-4070-846f-849197524258</t>
+          <t>bb5f356b-3daf-47a2-a9ee-867a8100bbd5</t>
         </is>
       </c>
       <c r="M468" s="20" t="n"/>
@@ -24736,7 +24740,7 @@
       </c>
       <c r="B469" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C469" s="18" t="inlineStr">
@@ -24746,7 +24750,7 @@
       </c>
       <c r="D469" s="18" t="inlineStr">
         <is>
-          <t>Uso de identidades administradas para autenticarse en otros recursos de Azure siempre que sea posible</t>
+          <t>Implemente puertas de enlace autohospedadas en las que Azure no tenga una región cercana a las API de back-end.</t>
         </is>
       </c>
       <c r="E469" s="18" t="n"/>
@@ -24770,7 +24774,7 @@
       <c r="K469" s="19" t="n"/>
       <c r="L469" s="19" t="inlineStr">
         <is>
-          <t>791abd8b-7706-4e31-9569-afefde724be3</t>
+          <t>84b94abb-59b6-4b9d-8587-3413669468e8</t>
         </is>
       </c>
       <c r="M469" s="20" t="n"/>
@@ -24787,7 +24791,7 @@
       </c>
       <c r="B470" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C470" s="18" t="inlineStr">
@@ -24797,13 +24801,13 @@
       </c>
       <c r="D470" s="18" t="inlineStr">
         <is>
-          <t>Uso del firewall de aplicaciones web (WAF) mediante la implementación de Application Gateway delante de APIM</t>
+          <t>Uso de Azure Front Door delante de APIM para la implementación en varias regiones</t>
         </is>
       </c>
       <c r="E470" s="18" t="n"/>
       <c r="F470" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G470" t="inlineStr">
@@ -24821,7 +24825,7 @@
       <c r="K470" s="19" t="n"/>
       <c r="L470" s="19" t="inlineStr">
         <is>
-          <t>220c4ca6-6688-476b-b2b5-425a78e6fb87</t>
+          <t>7519e385-a88b-4d34-966b-6269d686e890</t>
         </is>
       </c>
       <c r="M470" s="20" t="n"/>
@@ -24833,26 +24837,30 @@
     <row r="471">
       <c r="A471" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B471" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C471" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D471" s="18" t="inlineStr">
         <is>
-          <t>Azure Cache for Redis admite configuraciones con redundancia de zona en los niveles Premium y Enterprise. Una caché con redundancia de zona puede colocar sus nodos en diferentes zonas de disponibilidad de Azure en la misma región. Elimina la interrupción del centro de datos o de la zona de disponibilidad como único punto de error y aumenta la disponibilidad general de la memoria caché.</t>
+          <t>Implementación del servicio dentro de una red virtual (VNet)</t>
         </is>
       </c>
       <c r="E471" s="18" t="n"/>
-      <c r="F471" s="18" t="n"/>
+      <c r="F471" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="G471" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -24868,7 +24876,7 @@
       <c r="K471" s="19" t="n"/>
       <c r="L471" s="19" t="inlineStr">
         <is>
-          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
+          <t>cd45c90e-7690-4753-930b-bf290c69c074</t>
         </is>
       </c>
       <c r="M471" s="20" t="n"/>
@@ -24880,26 +24888,30 @@
     <row r="472">
       <c r="A472" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B472" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C472" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D472" s="18" t="inlineStr">
         <is>
-          <t>Dado que los datos de caché se almacenan en la memoria, un error poco frecuente y no planeado de varios nodos puede hacer que se eliminen todos los datos. Para evitar la pérdida completa de datos, la persistencia de Redis permite tomar instantáneas periódicas de los datos en memoria y almacenarlas en la cuenta de almacenamiento.</t>
+          <t>Implemente grupos de seguridad de red (NSG) en las subredes para restringir o supervisar el tráfico hacia/desde APIM.</t>
         </is>
       </c>
       <c r="E472" s="18" t="n"/>
-      <c r="F472" s="18" t="n"/>
+      <c r="F472" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="G472" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -24915,7 +24927,7 @@
       <c r="K472" s="19" t="n"/>
       <c r="L472" s="19" t="inlineStr">
         <is>
-          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
+          <t>02661582-b3d1-48d1-9d7b-c6a918a0ca33</t>
         </is>
       </c>
       <c r="M472" s="20" t="n"/>
@@ -24927,26 +24939,30 @@
     <row r="473">
       <c r="A473" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B473" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C473" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D473" s="18" t="inlineStr">
         <is>
-          <t>Use una cuenta de almacenamiento con redundancia geográfica para conservar los datos de Azure Cache for Redis o con redundancia zonal donde la redundancia geográfica no esté disponible</t>
+          <t>Implemente puntos de conexión privados para filtrar el tráfico entrante cuando APIM no se implemente en una red virtual.</t>
         </is>
       </c>
       <c r="E473" s="18" t="n"/>
-      <c r="F473" s="18" t="n"/>
+      <c r="F473" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="G473" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -24962,7 +24978,7 @@
       <c r="K473" s="19" t="n"/>
       <c r="L473" s="19" t="inlineStr">
         <is>
-          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
+          <t>67437a28-2721-4a2c-becd-caa54c8237a5</t>
         </is>
       </c>
       <c r="M473" s="20" t="n"/>
@@ -24974,26 +24990,30 @@
     <row r="474">
       <c r="A474" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B474" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C474" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D474" s="18" t="inlineStr">
         <is>
-          <t>La replicación geográfica es un mecanismo para vincular dos o más instancias de Azure Cache for Redis, que normalmente abarcan dos regiones de Azure. La replicación geográfica está diseñada principalmente para la recuperación ante desastres entre regiones. Dos instancias de caché de nivel Premium se conectan a través de la replicación geográfica de una manera que proporciona lecturas y escrituras en la caché principal, y esos datos se replican en la caché secundaria.</t>
+          <t>Deshabilitar el acceso a la red pública</t>
         </is>
       </c>
       <c r="E474" s="18" t="n"/>
-      <c r="F474" s="18" t="n"/>
+      <c r="F474" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
       <c r="G474" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -25009,7 +25029,7 @@
       <c r="K474" s="19" t="n"/>
       <c r="L474" s="19" t="inlineStr">
         <is>
-          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
+          <t>d698adbd-3288-44cb-b10a-9b572da395ae</t>
         </is>
       </c>
       <c r="M474" s="20" t="n"/>
@@ -25019,17 +25039,50 @@
       <c r="Q474" s="20" t="n"/>
     </row>
     <row r="475">
-      <c r="A475" s="18" t="n"/>
-      <c r="B475" s="18" t="n"/>
-      <c r="C475" s="18" t="n"/>
-      <c r="D475" s="18" t="n"/>
+      <c r="A475" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B475" s="18" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="C475" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D475" s="18" t="inlineStr">
+        <is>
+          <t>Simplifique la administración con scripts de automatización de PowerShell</t>
+        </is>
+      </c>
       <c r="E475" s="18" t="n"/>
-      <c r="F475" s="18" t="n"/>
+      <c r="F475" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H475" s="18" t="n"/>
-      <c r="I475" s="13" t="n"/>
+      <c r="I475" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J475" s="13" t="n"/>
       <c r="K475" s="19" t="n"/>
-      <c r="L475" s="19" t="n"/>
+      <c r="L475" s="19" t="inlineStr">
+        <is>
+          <t>0674d750-0c6f-4ac0-8717-ceec04d0bdbd</t>
+        </is>
+      </c>
       <c r="M475" s="20" t="n"/>
       <c r="N475" s="20" t="n"/>
       <c r="O475" s="20" t="n"/>
@@ -25037,17 +25090,50 @@
       <c r="Q475" s="20" t="n"/>
     </row>
     <row r="476">
-      <c r="A476" s="18" t="n"/>
-      <c r="B476" s="18" t="n"/>
-      <c r="C476" s="18" t="n"/>
-      <c r="D476" s="18" t="n"/>
+      <c r="A476" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B476" s="18" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="C476" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D476" s="18" t="inlineStr">
+        <is>
+          <t>Revise las prácticas recomendadas de DevOps desde el acelerador de zonas de aterrizaje de API de Cloud Adaption Framework</t>
+        </is>
+      </c>
       <c r="E476" s="18" t="n"/>
-      <c r="F476" s="18" t="n"/>
+      <c r="F476" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H476" s="18" t="n"/>
-      <c r="I476" s="13" t="n"/>
+      <c r="I476" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J476" s="13" t="n"/>
       <c r="K476" s="19" t="n"/>
-      <c r="L476" s="19" t="n"/>
+      <c r="L476" s="19" t="inlineStr">
+        <is>
+          <t>c385bfcd-49fd-4786-81ba-cedbb4c57345</t>
+        </is>
+      </c>
       <c r="M476" s="20" t="n"/>
       <c r="N476" s="20" t="n"/>
       <c r="O476" s="20" t="n"/>
@@ -25055,17 +25141,50 @@
       <c r="Q476" s="20" t="n"/>
     </row>
     <row r="477">
-      <c r="A477" s="18" t="n"/>
-      <c r="B477" s="18" t="n"/>
-      <c r="C477" s="18" t="n"/>
-      <c r="D477" s="18" t="n"/>
+      <c r="A477" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B477" s="18" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="C477" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D477" s="18" t="inlineStr">
+        <is>
+          <t>Promover el uso de la extensión APIM de Visual Studio Code para un desarrollo de API más rápido</t>
+        </is>
+      </c>
       <c r="E477" s="18" t="n"/>
-      <c r="F477" s="18" t="n"/>
+      <c r="F477" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H477" s="18" t="n"/>
-      <c r="I477" s="13" t="n"/>
+      <c r="I477" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J477" s="13" t="n"/>
       <c r="K477" s="19" t="n"/>
-      <c r="L477" s="19" t="n"/>
+      <c r="L477" s="19" t="inlineStr">
+        <is>
+          <t>6c3a27c0-197f-426c-9ffa-86fed51d9ab6</t>
+        </is>
+      </c>
       <c r="M477" s="20" t="n"/>
       <c r="N477" s="20" t="n"/>
       <c r="O477" s="20" t="n"/>
@@ -25073,17 +25192,50 @@
       <c r="Q477" s="20" t="n"/>
     </row>
     <row r="478">
-      <c r="A478" s="18" t="n"/>
-      <c r="B478" s="18" t="n"/>
-      <c r="C478" s="18" t="n"/>
-      <c r="D478" s="18" t="n"/>
+      <c r="A478" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B478" s="18" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="C478" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D478" s="18" t="inlineStr">
+        <is>
+          <t>Implemente DevOps y CI/CD en su flujo de trabajo</t>
+        </is>
+      </c>
       <c r="E478" s="18" t="n"/>
-      <c r="F478" s="18" t="n"/>
+      <c r="F478" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H478" s="18" t="n"/>
-      <c r="I478" s="13" t="n"/>
+      <c r="I478" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J478" s="13" t="n"/>
       <c r="K478" s="19" t="n"/>
-      <c r="L478" s="19" t="n"/>
+      <c r="L478" s="19" t="inlineStr">
+        <is>
+          <t>354f1c03-8112-4965-85ad-c0074bddf231</t>
+        </is>
+      </c>
       <c r="M478" s="20" t="n"/>
       <c r="N478" s="20" t="n"/>
       <c r="O478" s="20" t="n"/>
@@ -25091,17 +25243,50 @@
       <c r="Q478" s="20" t="n"/>
     </row>
     <row r="479">
-      <c r="A479" s="18" t="n"/>
-      <c r="B479" s="18" t="n"/>
-      <c r="C479" s="18" t="n"/>
-      <c r="D479" s="18" t="n"/>
+      <c r="A479" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B479" s="18" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C479" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D479" s="18" t="inlineStr">
+        <is>
+          <t>API seguras mediante la autenticación de certificados de cliente</t>
+        </is>
+      </c>
       <c r="E479" s="18" t="n"/>
-      <c r="F479" s="18" t="n"/>
+      <c r="F479" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H479" s="18" t="n"/>
-      <c r="I479" s="13" t="n"/>
+      <c r="I479" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J479" s="13" t="n"/>
       <c r="K479" s="19" t="n"/>
-      <c r="L479" s="19" t="n"/>
+      <c r="L479" s="19" t="inlineStr">
+        <is>
+          <t>b6439493-426a-45f3-9697-cf65baee208d</t>
+        </is>
+      </c>
       <c r="M479" s="20" t="n"/>
       <c r="N479" s="20" t="n"/>
       <c r="O479" s="20" t="n"/>
@@ -25109,17 +25294,50 @@
       <c r="Q479" s="20" t="n"/>
     </row>
     <row r="480">
-      <c r="A480" s="18" t="n"/>
-      <c r="B480" s="18" t="n"/>
-      <c r="C480" s="18" t="n"/>
-      <c r="D480" s="18" t="n"/>
+      <c r="A480" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B480" s="18" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C480" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D480" s="18" t="inlineStr">
+        <is>
+          <t>Servicios de back-end seguros mediante la autenticación de certificados de cliente</t>
+        </is>
+      </c>
       <c r="E480" s="18" t="n"/>
-      <c r="F480" s="18" t="n"/>
+      <c r="F480" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H480" s="18" t="n"/>
-      <c r="I480" s="13" t="n"/>
+      <c r="I480" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J480" s="13" t="n"/>
       <c r="K480" s="19" t="n"/>
-      <c r="L480" s="19" t="n"/>
+      <c r="L480" s="19" t="inlineStr">
+        <is>
+          <t>2a67d143-1033-4c0a-8732-680896478f08</t>
+        </is>
+      </c>
       <c r="M480" s="20" t="n"/>
       <c r="N480" s="20" t="n"/>
       <c r="O480" s="20" t="n"/>
@@ -25127,17 +25345,50 @@
       <c r="Q480" s="20" t="n"/>
     </row>
     <row r="481">
-      <c r="A481" s="18" t="n"/>
-      <c r="B481" s="18" t="n"/>
-      <c r="C481" s="18" t="n"/>
-      <c r="D481" s="18" t="n"/>
+      <c r="A481" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B481" s="18" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C481" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D481" s="18" t="inlineStr">
+        <is>
+          <t>Revise el artículo "Recomendaciones para mitigar las 10 principales amenazas de seguridad de la API de OWASP" y compruebe qué es aplicable a sus API</t>
+        </is>
+      </c>
       <c r="E481" s="18" t="n"/>
-      <c r="F481" s="18" t="n"/>
+      <c r="F481" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H481" s="18" t="n"/>
-      <c r="I481" s="13" t="n"/>
+      <c r="I481" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J481" s="13" t="n"/>
       <c r="K481" s="19" t="n"/>
-      <c r="L481" s="19" t="n"/>
+      <c r="L481" s="19" t="inlineStr">
+        <is>
+          <t>074435f5-4a46-41ac-b521-d6114cb5d845</t>
+        </is>
+      </c>
       <c r="M481" s="20" t="n"/>
       <c r="N481" s="20" t="n"/>
       <c r="O481" s="20" t="n"/>
@@ -25145,17 +25396,50 @@
       <c r="Q481" s="20" t="n"/>
     </row>
     <row r="482">
-      <c r="A482" s="18" t="n"/>
-      <c r="B482" s="18" t="n"/>
-      <c r="C482" s="18" t="n"/>
-      <c r="D482" s="18" t="n"/>
+      <c r="A482" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B482" s="18" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C482" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D482" s="18" t="inlineStr">
+        <is>
+          <t>Utilice la función Autorizaciones para simplificar la administración del token de OAuth 2.0 para las API de back-end</t>
+        </is>
+      </c>
       <c r="E482" s="18" t="n"/>
-      <c r="F482" s="18" t="n"/>
+      <c r="F482" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H482" s="18" t="n"/>
-      <c r="I482" s="13" t="n"/>
+      <c r="I482" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J482" s="13" t="n"/>
       <c r="K482" s="19" t="n"/>
-      <c r="L482" s="19" t="n"/>
+      <c r="L482" s="19" t="inlineStr">
+        <is>
+          <t>5507c4b8-a7f8-41d6-9661-418c987100c9</t>
+        </is>
+      </c>
       <c r="M482" s="20" t="n"/>
       <c r="N482" s="20" t="n"/>
       <c r="O482" s="20" t="n"/>
@@ -25163,17 +25447,50 @@
       <c r="Q482" s="20" t="n"/>
     </row>
     <row r="483">
-      <c r="A483" s="18" t="n"/>
-      <c r="B483" s="18" t="n"/>
-      <c r="C483" s="18" t="n"/>
-      <c r="D483" s="18" t="n"/>
+      <c r="A483" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B483" s="18" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C483" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D483" s="18" t="inlineStr">
+        <is>
+          <t>Utilice la versión más reciente de TLS al cifrar la información en tránsito. Deshabilite los protocolos y cifrados obsoletos e innecesarios cuando sea posible.</t>
+        </is>
+      </c>
       <c r="E483" s="18" t="n"/>
-      <c r="F483" s="18" t="n"/>
+      <c r="F483" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H483" s="18" t="n"/>
-      <c r="I483" s="13" t="n"/>
+      <c r="I483" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J483" s="13" t="n"/>
       <c r="K483" s="19" t="n"/>
-      <c r="L483" s="19" t="n"/>
+      <c r="L483" s="19" t="inlineStr">
+        <is>
+          <t>2deee033-b906-4bc2-9f26-c8d3699fe091</t>
+        </is>
+      </c>
       <c r="M483" s="20" t="n"/>
       <c r="N483" s="20" t="n"/>
       <c r="O483" s="20" t="n"/>
@@ -25181,17 +25498,50 @@
       <c r="Q483" s="20" t="n"/>
     </row>
     <row r="484">
-      <c r="A484" s="18" t="n"/>
-      <c r="B484" s="18" t="n"/>
-      <c r="C484" s="18" t="n"/>
-      <c r="D484" s="18" t="n"/>
+      <c r="A484" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B484" s="18" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C484" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D484" s="18" t="inlineStr">
+        <is>
+          <t>Asegúrese de que los secretos (valores con nombre) se almacenan en Azure Key Vault para que se pueda acceder a ellos y actualizarlos de forma segura</t>
+        </is>
+      </c>
       <c r="E484" s="18" t="n"/>
-      <c r="F484" s="18" t="n"/>
+      <c r="F484" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H484" s="18" t="n"/>
-      <c r="I484" s="13" t="n"/>
+      <c r="I484" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J484" s="13" t="n"/>
       <c r="K484" s="19" t="n"/>
-      <c r="L484" s="19" t="n"/>
+      <c r="L484" s="19" t="inlineStr">
+        <is>
+          <t>f8af3d94-1d2b-4070-846f-849197524258</t>
+        </is>
+      </c>
       <c r="M484" s="20" t="n"/>
       <c r="N484" s="20" t="n"/>
       <c r="O484" s="20" t="n"/>
@@ -25199,17 +25549,50 @@
       <c r="Q484" s="20" t="n"/>
     </row>
     <row r="485">
-      <c r="A485" s="18" t="n"/>
-      <c r="B485" s="18" t="n"/>
-      <c r="C485" s="18" t="n"/>
-      <c r="D485" s="18" t="n"/>
+      <c r="A485" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B485" s="18" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C485" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D485" s="18" t="inlineStr">
+        <is>
+          <t>Uso de identidades administradas para autenticarse en otros recursos de Azure siempre que sea posible</t>
+        </is>
+      </c>
       <c r="E485" s="18" t="n"/>
-      <c r="F485" s="18" t="n"/>
+      <c r="F485" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H485" s="18" t="n"/>
-      <c r="I485" s="13" t="n"/>
+      <c r="I485" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J485" s="13" t="n"/>
       <c r="K485" s="19" t="n"/>
-      <c r="L485" s="19" t="n"/>
+      <c r="L485" s="19" t="inlineStr">
+        <is>
+          <t>791abd8b-7706-4e31-9569-afefde724be3</t>
+        </is>
+      </c>
       <c r="M485" s="20" t="n"/>
       <c r="N485" s="20" t="n"/>
       <c r="O485" s="20" t="n"/>
@@ -25217,17 +25600,50 @@
       <c r="Q485" s="20" t="n"/>
     </row>
     <row r="486">
-      <c r="A486" s="18" t="n"/>
-      <c r="B486" s="18" t="n"/>
-      <c r="C486" s="18" t="n"/>
-      <c r="D486" s="18" t="n"/>
+      <c r="A486" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B486" s="18" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C486" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D486" s="18" t="inlineStr">
+        <is>
+          <t>Uso del firewall de aplicaciones web (WAF) mediante la implementación de Application Gateway delante de APIM</t>
+        </is>
+      </c>
       <c r="E486" s="18" t="n"/>
-      <c r="F486" s="18" t="n"/>
+      <c r="F486" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H486" s="18" t="n"/>
-      <c r="I486" s="13" t="n"/>
+      <c r="I486" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J486" s="13" t="n"/>
       <c r="K486" s="19" t="n"/>
-      <c r="L486" s="19" t="n"/>
+      <c r="L486" s="19" t="inlineStr">
+        <is>
+          <t>220c4ca6-6688-476b-b2b5-425a78e6fb87</t>
+        </is>
+      </c>
       <c r="M486" s="20" t="n"/>
       <c r="N486" s="20" t="n"/>
       <c r="O486" s="20" t="n"/>
@@ -25235,17 +25651,46 @@
       <c r="Q486" s="20" t="n"/>
     </row>
     <row r="487">
-      <c r="A487" s="18" t="n"/>
-      <c r="B487" s="18" t="n"/>
-      <c r="C487" s="18" t="n"/>
-      <c r="D487" s="18" t="n"/>
+      <c r="A487" s="18" t="inlineStr">
+        <is>
+          <t>Redis Resiliency checklist</t>
+        </is>
+      </c>
+      <c r="B487" s="18" t="inlineStr">
+        <is>
+          <t>Fiabilidad</t>
+        </is>
+      </c>
+      <c r="C487" s="18" t="inlineStr">
+        <is>
+          <t>Redis</t>
+        </is>
+      </c>
+      <c r="D487" s="18" t="inlineStr">
+        <is>
+          <t>Azure Cache for Redis admite configuraciones con redundancia de zona en los niveles Premium y Enterprise. Una caché con redundancia de zona puede colocar sus nodos en diferentes zonas de disponibilidad de Azure en la misma región. Elimina la interrupción del centro de datos o de la zona de disponibilidad como único punto de error y aumenta la disponibilidad general de la memoria caché.</t>
+        </is>
+      </c>
       <c r="E487" s="18" t="n"/>
       <c r="F487" s="18" t="n"/>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H487" s="18" t="n"/>
-      <c r="I487" s="13" t="n"/>
+      <c r="I487" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J487" s="13" t="n"/>
       <c r="K487" s="19" t="n"/>
-      <c r="L487" s="19" t="n"/>
+      <c r="L487" s="19" t="inlineStr">
+        <is>
+          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
+        </is>
+      </c>
       <c r="M487" s="20" t="n"/>
       <c r="N487" s="20" t="n"/>
       <c r="O487" s="20" t="n"/>
@@ -25253,17 +25698,46 @@
       <c r="Q487" s="20" t="n"/>
     </row>
     <row r="488">
-      <c r="A488" s="18" t="n"/>
-      <c r="B488" s="18" t="n"/>
-      <c r="C488" s="18" t="n"/>
-      <c r="D488" s="18" t="n"/>
+      <c r="A488" s="18" t="inlineStr">
+        <is>
+          <t>Redis Resiliency checklist</t>
+        </is>
+      </c>
+      <c r="B488" s="18" t="inlineStr">
+        <is>
+          <t>Fiabilidad</t>
+        </is>
+      </c>
+      <c r="C488" s="18" t="inlineStr">
+        <is>
+          <t>Redis</t>
+        </is>
+      </c>
+      <c r="D488" s="18" t="inlineStr">
+        <is>
+          <t>Dado que los datos de caché se almacenan en la memoria, un error poco frecuente y no planeado de varios nodos puede hacer que se eliminen todos los datos. Para evitar la pérdida completa de datos, la persistencia de Redis permite tomar instantáneas periódicas de los datos en memoria y almacenarlas en la cuenta de almacenamiento.</t>
+        </is>
+      </c>
       <c r="E488" s="18" t="n"/>
       <c r="F488" s="18" t="n"/>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H488" s="18" t="n"/>
-      <c r="I488" s="13" t="n"/>
+      <c r="I488" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J488" s="13" t="n"/>
       <c r="K488" s="19" t="n"/>
-      <c r="L488" s="19" t="n"/>
+      <c r="L488" s="19" t="inlineStr">
+        <is>
+          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
+        </is>
+      </c>
       <c r="M488" s="20" t="n"/>
       <c r="N488" s="20" t="n"/>
       <c r="O488" s="20" t="n"/>
@@ -25271,17 +25745,46 @@
       <c r="Q488" s="20" t="n"/>
     </row>
     <row r="489">
-      <c r="A489" s="18" t="n"/>
-      <c r="B489" s="18" t="n"/>
-      <c r="C489" s="18" t="n"/>
-      <c r="D489" s="18" t="n"/>
+      <c r="A489" s="18" t="inlineStr">
+        <is>
+          <t>Redis Resiliency checklist</t>
+        </is>
+      </c>
+      <c r="B489" s="18" t="inlineStr">
+        <is>
+          <t>Fiabilidad</t>
+        </is>
+      </c>
+      <c r="C489" s="18" t="inlineStr">
+        <is>
+          <t>Redis</t>
+        </is>
+      </c>
+      <c r="D489" s="18" t="inlineStr">
+        <is>
+          <t>Use una cuenta de almacenamiento con redundancia geográfica para conservar los datos de Azure Cache for Redis o con redundancia zonal donde la redundancia geográfica no esté disponible</t>
+        </is>
+      </c>
       <c r="E489" s="18" t="n"/>
       <c r="F489" s="18" t="n"/>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H489" s="18" t="n"/>
-      <c r="I489" s="13" t="n"/>
+      <c r="I489" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J489" s="13" t="n"/>
       <c r="K489" s="19" t="n"/>
-      <c r="L489" s="19" t="n"/>
+      <c r="L489" s="19" t="inlineStr">
+        <is>
+          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
+        </is>
+      </c>
       <c r="M489" s="20" t="n"/>
       <c r="N489" s="20" t="n"/>
       <c r="O489" s="20" t="n"/>
@@ -25289,17 +25792,46 @@
       <c r="Q489" s="20" t="n"/>
     </row>
     <row r="490">
-      <c r="A490" s="18" t="n"/>
-      <c r="B490" s="18" t="n"/>
-      <c r="C490" s="18" t="n"/>
-      <c r="D490" s="18" t="n"/>
+      <c r="A490" s="18" t="inlineStr">
+        <is>
+          <t>Redis Resiliency checklist</t>
+        </is>
+      </c>
+      <c r="B490" s="18" t="inlineStr">
+        <is>
+          <t>Fiabilidad</t>
+        </is>
+      </c>
+      <c r="C490" s="18" t="inlineStr">
+        <is>
+          <t>Redis</t>
+        </is>
+      </c>
+      <c r="D490" s="18" t="inlineStr">
+        <is>
+          <t>La replicación geográfica es un mecanismo para vincular dos o más instancias de Azure Cache for Redis, que normalmente abarcan dos regiones de Azure. La replicación geográfica está diseñada principalmente para la recuperación ante desastres entre regiones. Dos instancias de caché de nivel Premium se conectan a través de la replicación geográfica de una manera que proporciona lecturas y escrituras en la caché principal, y esos datos se replican en la caché secundaria.</t>
+        </is>
+      </c>
       <c r="E490" s="18" t="n"/>
       <c r="F490" s="18" t="n"/>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H490" s="18" t="n"/>
-      <c r="I490" s="13" t="n"/>
+      <c r="I490" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J490" s="13" t="n"/>
       <c r="K490" s="19" t="n"/>
-      <c r="L490" s="19" t="n"/>
+      <c r="L490" s="19" t="inlineStr">
+        <is>
+          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
+        </is>
+      </c>
       <c r="M490" s="20" t="n"/>
       <c r="N490" s="20" t="n"/>
       <c r="O490" s="20" t="n"/>
@@ -38321,7 +38853,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G475" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G491" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -38611,58 +39143,58 @@
     <hyperlink ref="I292" r:id="rId283"/>
     <hyperlink ref="I293" r:id="rId284"/>
     <hyperlink ref="I294" r:id="rId285"/>
-    <hyperlink ref="I305" r:id="rId286"/>
-    <hyperlink ref="I387" r:id="rId287"/>
-    <hyperlink ref="I388" r:id="rId288"/>
-    <hyperlink ref="I392" r:id="rId289"/>
-    <hyperlink ref="I393" r:id="rId290"/>
-    <hyperlink ref="I394" r:id="rId291"/>
-    <hyperlink ref="I395" r:id="rId292"/>
-    <hyperlink ref="I396" r:id="rId293"/>
-    <hyperlink ref="I397" r:id="rId294"/>
-    <hyperlink ref="I398" r:id="rId295"/>
-    <hyperlink ref="I399" r:id="rId296"/>
-    <hyperlink ref="I400" r:id="rId297"/>
-    <hyperlink ref="I401" r:id="rId298"/>
-    <hyperlink ref="I402" r:id="rId299"/>
-    <hyperlink ref="I403" r:id="rId300"/>
-    <hyperlink ref="I404" r:id="rId301"/>
-    <hyperlink ref="I405" r:id="rId302"/>
-    <hyperlink ref="I406" r:id="rId303"/>
-    <hyperlink ref="I407" r:id="rId304"/>
+    <hyperlink ref="I295" r:id="rId286"/>
+    <hyperlink ref="I296" r:id="rId287"/>
+    <hyperlink ref="I297" r:id="rId288"/>
+    <hyperlink ref="I298" r:id="rId289"/>
+    <hyperlink ref="I299" r:id="rId290"/>
+    <hyperlink ref="I300" r:id="rId291"/>
+    <hyperlink ref="I301" r:id="rId292"/>
+    <hyperlink ref="I302" r:id="rId293"/>
+    <hyperlink ref="I303" r:id="rId294"/>
+    <hyperlink ref="I304" r:id="rId295"/>
+    <hyperlink ref="I305" r:id="rId296"/>
+    <hyperlink ref="I306" r:id="rId297"/>
+    <hyperlink ref="I307" r:id="rId298"/>
+    <hyperlink ref="I308" r:id="rId299"/>
+    <hyperlink ref="I309" r:id="rId300"/>
+    <hyperlink ref="I310" r:id="rId301"/>
+    <hyperlink ref="I321" r:id="rId302"/>
+    <hyperlink ref="I403" r:id="rId303"/>
+    <hyperlink ref="I404" r:id="rId304"/>
     <hyperlink ref="I408" r:id="rId305"/>
     <hyperlink ref="I409" r:id="rId306"/>
     <hyperlink ref="I410" r:id="rId307"/>
     <hyperlink ref="I411" r:id="rId308"/>
     <hyperlink ref="I412" r:id="rId309"/>
     <hyperlink ref="I413" r:id="rId310"/>
-    <hyperlink ref="I415" r:id="rId311"/>
-    <hyperlink ref="I416" r:id="rId312"/>
-    <hyperlink ref="I417" r:id="rId313"/>
-    <hyperlink ref="I418" r:id="rId314"/>
-    <hyperlink ref="I419" r:id="rId315"/>
-    <hyperlink ref="I420" r:id="rId316"/>
-    <hyperlink ref="I421" r:id="rId317"/>
-    <hyperlink ref="I422" r:id="rId318"/>
-    <hyperlink ref="I423" r:id="rId319"/>
-    <hyperlink ref="I424" r:id="rId320"/>
-    <hyperlink ref="I425" r:id="rId321"/>
-    <hyperlink ref="I427" r:id="rId322"/>
-    <hyperlink ref="I428" r:id="rId323"/>
-    <hyperlink ref="I429" r:id="rId324"/>
-    <hyperlink ref="I430" r:id="rId325"/>
-    <hyperlink ref="I431" r:id="rId326"/>
-    <hyperlink ref="I432" r:id="rId327"/>
-    <hyperlink ref="I433" r:id="rId328"/>
-    <hyperlink ref="I434" r:id="rId329"/>
-    <hyperlink ref="I435" r:id="rId330"/>
-    <hyperlink ref="I436" r:id="rId331"/>
-    <hyperlink ref="I437" r:id="rId332"/>
-    <hyperlink ref="I438" r:id="rId333"/>
-    <hyperlink ref="I439" r:id="rId334"/>
-    <hyperlink ref="I440" r:id="rId335"/>
-    <hyperlink ref="I441" r:id="rId336"/>
-    <hyperlink ref="I442" r:id="rId337"/>
+    <hyperlink ref="I414" r:id="rId311"/>
+    <hyperlink ref="I415" r:id="rId312"/>
+    <hyperlink ref="I416" r:id="rId313"/>
+    <hyperlink ref="I417" r:id="rId314"/>
+    <hyperlink ref="I418" r:id="rId315"/>
+    <hyperlink ref="I419" r:id="rId316"/>
+    <hyperlink ref="I420" r:id="rId317"/>
+    <hyperlink ref="I421" r:id="rId318"/>
+    <hyperlink ref="I422" r:id="rId319"/>
+    <hyperlink ref="I423" r:id="rId320"/>
+    <hyperlink ref="I424" r:id="rId321"/>
+    <hyperlink ref="I425" r:id="rId322"/>
+    <hyperlink ref="I426" r:id="rId323"/>
+    <hyperlink ref="I427" r:id="rId324"/>
+    <hyperlink ref="I428" r:id="rId325"/>
+    <hyperlink ref="I429" r:id="rId326"/>
+    <hyperlink ref="I431" r:id="rId327"/>
+    <hyperlink ref="I432" r:id="rId328"/>
+    <hyperlink ref="I433" r:id="rId329"/>
+    <hyperlink ref="I434" r:id="rId330"/>
+    <hyperlink ref="I435" r:id="rId331"/>
+    <hyperlink ref="I436" r:id="rId332"/>
+    <hyperlink ref="I437" r:id="rId333"/>
+    <hyperlink ref="I438" r:id="rId334"/>
+    <hyperlink ref="I439" r:id="rId335"/>
+    <hyperlink ref="I440" r:id="rId336"/>
+    <hyperlink ref="I441" r:id="rId337"/>
     <hyperlink ref="I443" r:id="rId338"/>
     <hyperlink ref="I444" r:id="rId339"/>
     <hyperlink ref="I445" r:id="rId340"/>
@@ -38695,6 +39227,22 @@
     <hyperlink ref="I472" r:id="rId367"/>
     <hyperlink ref="I473" r:id="rId368"/>
     <hyperlink ref="I474" r:id="rId369"/>
+    <hyperlink ref="I475" r:id="rId370"/>
+    <hyperlink ref="I476" r:id="rId371"/>
+    <hyperlink ref="I477" r:id="rId372"/>
+    <hyperlink ref="I478" r:id="rId373"/>
+    <hyperlink ref="I479" r:id="rId374"/>
+    <hyperlink ref="I480" r:id="rId375"/>
+    <hyperlink ref="I481" r:id="rId376"/>
+    <hyperlink ref="I482" r:id="rId377"/>
+    <hyperlink ref="I483" r:id="rId378"/>
+    <hyperlink ref="I484" r:id="rId379"/>
+    <hyperlink ref="I485" r:id="rId380"/>
+    <hyperlink ref="I486" r:id="rId381"/>
+    <hyperlink ref="I487" r:id="rId382"/>
+    <hyperlink ref="I488" r:id="rId383"/>
+    <hyperlink ref="I489" r:id="rId384"/>
+    <hyperlink ref="I490" r:id="rId385"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf.es.xlsx
+++ b/spreadsheet/macrofree/waf.es.xlsx
@@ -16929,7 +16929,7 @@
     <row r="311">
       <c r="A311" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B311" s="18" t="inlineStr">
@@ -16939,18 +16939,18 @@
       </c>
       <c r="C311" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D311" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que los controladores de dominio ADDS se implementan en la suscripción de identidad en Azure nativo</t>
+          <t>Asegúrese de que los orígenes solo toman tráfico de la instancia de Azure Front Door.</t>
         </is>
       </c>
       <c r="E311" s="18" t="n"/>
       <c r="F311" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
@@ -16959,12 +16959,16 @@
         </is>
       </c>
       <c r="H311" s="18" t="n"/>
-      <c r="I311" s="13" t="n"/>
+      <c r="I311" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J311" s="13" t="n"/>
       <c r="K311" s="19" t="n"/>
       <c r="L311" s="19" t="inlineStr">
         <is>
-          <t>32e42e36-11c8-418b-8a0b-c510e43a18a9</t>
+          <t>7d3df025-59a3-447d-ac25-3f5750d35de1</t>
         </is>
       </c>
       <c r="M311" s="20" t="n"/>
@@ -16991,13 +16995,13 @@
       </c>
       <c r="D312" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que los sitios y servicios de ADDS están configurados para mantener las solicitudes de autenticación de los recursos basados en Azure (incluida Azure VMware Solution) locales en Azure</t>
+          <t>Asegúrese de que los controladores de dominio ADDS se implementan en la suscripción de identidad en Azure nativo</t>
         </is>
       </c>
       <c r="E312" s="18" t="n"/>
       <c r="F312" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
@@ -17011,7 +17015,7 @@
       <c r="K312" s="19" t="n"/>
       <c r="L312" s="19" t="inlineStr">
         <is>
-          <t>75089c20-990d-4927-b105-885576f76fc2</t>
+          <t>32e42e36-11c8-418b-8a0b-c510e43a18a9</t>
         </is>
       </c>
       <c r="M312" s="20" t="n"/>
@@ -17038,13 +17042,13 @@
       </c>
       <c r="D313" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que vCenter esté conectado a ADDS para habilitar la autenticación basada en "cuentas de usuario designadas"</t>
+          <t>Asegúrese de que los sitios y servicios de ADDS están configurados para mantener las solicitudes de autenticación de los recursos basados en Azure (incluida Azure VMware Solution) locales en Azure</t>
         </is>
       </c>
       <c r="E313" s="18" t="n"/>
       <c r="F313" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
@@ -17058,7 +17062,7 @@
       <c r="K313" s="19" t="n"/>
       <c r="L313" s="19" t="inlineStr">
         <is>
-          <t>de3aad1e-7c28-4ec9-9666-b7570449aa80</t>
+          <t>75089c20-990d-4927-b105-885576f76fc2</t>
         </is>
       </c>
       <c r="M313" s="20" t="n"/>
@@ -17085,13 +17089,13 @@
       </c>
       <c r="D314" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que la conexión de vCenter a ADDS utilice un protocolo seguro (LDAPS)</t>
+          <t>Asegúrese de que vCenter esté conectado a ADDS para habilitar la autenticación basada en "cuentas de usuario designadas"</t>
         </is>
       </c>
       <c r="E314" s="18" t="n"/>
       <c r="F314" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
@@ -17105,7 +17109,7 @@
       <c r="K314" s="19" t="n"/>
       <c r="L314" s="19" t="inlineStr">
         <is>
-          <t>cd289ced-6b17-4db8-8554-61e2aee3553a</t>
+          <t>de3aad1e-7c28-4ec9-9666-b7570449aa80</t>
         </is>
       </c>
       <c r="M314" s="20" t="n"/>
@@ -17132,7 +17136,7 @@
       </c>
       <c r="D315" s="18" t="inlineStr">
         <is>
-          <t>La cuenta de CloudAdmin en vCenter IdP solo se utiliza como una cuenta de emergencia (break-glass)</t>
+          <t>Asegúrese de que la conexión de vCenter a ADDS utilice un protocolo seguro (LDAPS)</t>
         </is>
       </c>
       <c r="E315" s="18" t="n"/>
@@ -17152,7 +17156,7 @@
       <c r="K315" s="19" t="n"/>
       <c r="L315" s="19" t="inlineStr">
         <is>
-          <t>b9d37dac-43bc-46cd-8d79-a9b24604489a</t>
+          <t>cd289ced-6b17-4db8-8554-61e2aee3553a</t>
         </is>
       </c>
       <c r="M315" s="20" t="n"/>
@@ -17179,13 +17183,13 @@
       </c>
       <c r="D316" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que NSX-Manager esté integrado con un proveedor de identidades externo (LDAPS)</t>
+          <t>La cuenta de CloudAdmin en vCenter IdP solo se utiliza como una cuenta de emergencia (break-glass)</t>
         </is>
       </c>
       <c r="E316" s="18" t="n"/>
       <c r="F316" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
@@ -17199,7 +17203,7 @@
       <c r="K316" s="19" t="n"/>
       <c r="L316" s="19" t="inlineStr">
         <is>
-          <t>53d88e89-d17b-473b-82a5-a67e7a9ed5b3</t>
+          <t>b9d37dac-43bc-46cd-8d79-a9b24604489a</t>
         </is>
       </c>
       <c r="M316" s="20" t="n"/>
@@ -17226,13 +17230,13 @@
       </c>
       <c r="D317" s="18" t="inlineStr">
         <is>
-          <t>¿Se ha creado un modelo RBAC para su uso en VMware vSphere?</t>
+          <t>Asegúrese de que NSX-Manager esté integrado con un proveedor de identidades externo (LDAPS)</t>
         </is>
       </c>
       <c r="E317" s="18" t="n"/>
       <c r="F317" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
@@ -17246,7 +17250,7 @@
       <c r="K317" s="19" t="n"/>
       <c r="L317" s="19" t="inlineStr">
         <is>
-          <t>ae0e37ce-e297-411b-b352-caaab79b198d</t>
+          <t>53d88e89-d17b-473b-82a5-a67e7a9ed5b3</t>
         </is>
       </c>
       <c r="M317" s="20" t="n"/>
@@ -17273,7 +17277,7 @@
       </c>
       <c r="D318" s="18" t="inlineStr">
         <is>
-          <t>Los permisos RBAC deben concederse a grupos ADDS y no a usuarios específicos</t>
+          <t>¿Se ha creado un modelo RBAC para su uso en VMware vSphere?</t>
         </is>
       </c>
       <c r="E318" s="18" t="n"/>
@@ -17293,7 +17297,7 @@
       <c r="K318" s="19" t="n"/>
       <c r="L318" s="19" t="inlineStr">
         <is>
-          <t>ab81932c-9fc9-4d1b-a780-36f5e6bfbb9e</t>
+          <t>ae0e37ce-e297-411b-b352-caaab79b198d</t>
         </is>
       </c>
       <c r="M318" s="20" t="n"/>
@@ -17320,13 +17324,13 @@
       </c>
       <c r="D319" s="18" t="inlineStr">
         <is>
-          <t>Los permisos de RBAC en el recurso de Azure VMware Solution en Azure están "bloqueados" solo para un conjunto limitado de propietarios</t>
+          <t>Los permisos RBAC deben concederse a grupos ADDS y no a usuarios específicos</t>
         </is>
       </c>
       <c r="E319" s="18" t="n"/>
       <c r="F319" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
@@ -17340,7 +17344,7 @@
       <c r="K319" s="19" t="n"/>
       <c r="L319" s="19" t="inlineStr">
         <is>
-          <t>d503547c-c447-4e82-9128-a71f0f1cac6d</t>
+          <t>ab81932c-9fc9-4d1b-a780-36f5e6bfbb9e</t>
         </is>
       </c>
       <c r="M319" s="20" t="n"/>
@@ -17367,7 +17371,7 @@
       </c>
       <c r="D320" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que todos los roles personalizados tengan el ámbito de las autorizaciones permitidas de CloudAdmin</t>
+          <t>Los permisos de RBAC en el recurso de Azure VMware Solution en Azure están "bloqueados" solo para un conjunto limitado de propietarios</t>
         </is>
       </c>
       <c r="E320" s="18" t="n"/>
@@ -17387,7 +17391,7 @@
       <c r="K320" s="19" t="n"/>
       <c r="L320" s="19" t="inlineStr">
         <is>
-          <t>fd9f0df4-68dc-4976-b9a9-e6a79f7682c5</t>
+          <t>d503547c-c447-4e82-9128-a71f0f1cac6d</t>
         </is>
       </c>
       <c r="M320" s="20" t="n"/>
@@ -17404,7 +17408,7 @@
       </c>
       <c r="B321" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C321" s="18" t="inlineStr">
@@ -17414,7 +17418,7 @@
       </c>
       <c r="D321" s="18" t="inlineStr">
         <is>
-          <t>¿Se ha seleccionado el modelo de conectividad de Azure VMware Solution correcto para el caso de uso del cliente en cuestión?</t>
+          <t>Asegúrese de que todos los roles personalizados tengan el ámbito de las autorizaciones permitidas de CloudAdmin</t>
         </is>
       </c>
       <c r="E321" s="18" t="n"/>
@@ -17429,16 +17433,12 @@
         </is>
       </c>
       <c r="H321" s="18" t="n"/>
-      <c r="I321" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I321" s="13" t="n"/>
       <c r="J321" s="13" t="n"/>
       <c r="K321" s="19" t="n"/>
       <c r="L321" s="19" t="inlineStr">
         <is>
-          <t>9ef1d5e8-32e4-42e3-911c-818b0a0bc510</t>
+          <t>fd9f0df4-68dc-4976-b9a9-e6a79f7682c5</t>
         </is>
       </c>
       <c r="M321" s="20" t="n"/>
@@ -17455,7 +17455,7 @@
       </c>
       <c r="B322" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C322" s="18" t="inlineStr">
@@ -17465,7 +17465,7 @@
       </c>
       <c r="D322" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que las conexiones de ExpressRoute o VPN desde el entorno local a Azure se supervisan mediante el "monitor de conexiones"</t>
+          <t>¿Se ha seleccionado el modelo de conectividad de Azure VMware Solution correcto para el caso de uso del cliente en cuestión?</t>
         </is>
       </c>
       <c r="E322" s="18" t="n"/>
@@ -17480,12 +17480,16 @@
         </is>
       </c>
       <c r="H322" s="18" t="n"/>
-      <c r="I322" s="13" t="n"/>
+      <c r="I322" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J322" s="13" t="n"/>
       <c r="K322" s="19" t="n"/>
       <c r="L322" s="19" t="inlineStr">
         <is>
-          <t>eb710a37-cbc1-4055-8dd5-a936a8bb7cf5</t>
+          <t>9ef1d5e8-32e4-42e3-911c-818b0a0bc510</t>
         </is>
       </c>
       <c r="M322" s="20" t="n"/>
@@ -17512,13 +17516,13 @@
       </c>
       <c r="D323" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que se crea un monitor de conexión desde un recurso nativo de Azure a una máquina virtual de Azure VMware Solution para supervisar la conexión de ExpressRoute back-end de Azure VMware Solution</t>
+          <t>Asegúrese de que las conexiones de ExpressRoute o VPN desde el entorno local a Azure se supervisan mediante el "monitor de conexiones"</t>
         </is>
       </c>
       <c r="E323" s="18" t="n"/>
       <c r="F323" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
@@ -17532,7 +17536,7 @@
       <c r="K323" s="19" t="n"/>
       <c r="L323" s="19" t="inlineStr">
         <is>
-          <t>976e24f2-a7f8-426c-9253-2a92a2a7ed99</t>
+          <t>eb710a37-cbc1-4055-8dd5-a936a8bb7cf5</t>
         </is>
       </c>
       <c r="M323" s="20" t="n"/>
@@ -17559,7 +17563,7 @@
       </c>
       <c r="D324" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que se crea un monitor de conexión desde un recurso local a una máquina virtual de Azure VMware Solution para supervisar la conectividad de extremo a extremo</t>
+          <t>Asegúrese de que se crea un monitor de conexión desde un recurso nativo de Azure a una máquina virtual de Azure VMware Solution para supervisar la conexión de ExpressRoute back-end de Azure VMware Solution</t>
         </is>
       </c>
       <c r="E324" s="18" t="n"/>
@@ -17579,7 +17583,7 @@
       <c r="K324" s="19" t="n"/>
       <c r="L324" s="19" t="inlineStr">
         <is>
-          <t>f41ce6a0-64f3-4805-bc65-3ab50df01265</t>
+          <t>976e24f2-a7f8-426c-9253-2a92a2a7ed99</t>
         </is>
       </c>
       <c r="M324" s="20" t="n"/>
@@ -17606,13 +17610,13 @@
       </c>
       <c r="D325" s="18" t="inlineStr">
         <is>
-          <t>Cuando se utiliza el servidor de rutas, asegúrese de que no se propaguen más de 1000 rutas desde el servidor de rutas a la puerta de enlace de ExR al entorno local (límite de ARS).</t>
+          <t>Asegúrese de que se crea un monitor de conexión desde un recurso local a una máquina virtual de Azure VMware Solution para supervisar la conectividad de extremo a extremo</t>
         </is>
       </c>
       <c r="E325" s="18" t="n"/>
       <c r="F325" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -17626,7 +17630,7 @@
       <c r="K325" s="19" t="n"/>
       <c r="L325" s="19" t="inlineStr">
         <is>
-          <t>563b4dc7-4a74-48b6-933a-d1a0916a6649</t>
+          <t>f41ce6a0-64f3-4805-bc65-3ab50df01265</t>
         </is>
       </c>
       <c r="M325" s="20" t="n"/>
@@ -17643,7 +17647,7 @@
       </c>
       <c r="B326" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C326" s="18" t="inlineStr">
@@ -17653,7 +17657,7 @@
       </c>
       <c r="D326" s="18" t="inlineStr">
         <is>
-          <t>¿Se ha implementado Privileged Identity Management para los roles que administran el recurso de Azure VMware Solution en Azure Portal (no se permiten permisos permanentes)?</t>
+          <t>Cuando se utiliza el servidor de rutas, asegúrese de que no se propaguen más de 1000 rutas desde el servidor de rutas a la puerta de enlace de ExR al entorno local (límite de ARS).</t>
         </is>
       </c>
       <c r="E326" s="18" t="n"/>
@@ -17673,7 +17677,7 @@
       <c r="K326" s="19" t="n"/>
       <c r="L326" s="19" t="inlineStr">
         <is>
-          <t>6128a71f-0f1c-4ac6-b9ef-1d5e832e42e3</t>
+          <t>563b4dc7-4a74-48b6-933a-d1a0916a6649</t>
         </is>
       </c>
       <c r="M326" s="20" t="n"/>
@@ -17700,7 +17704,7 @@
       </c>
       <c r="D327" s="18" t="inlineStr">
         <is>
-          <t>Los informes de auditoría de Privileged Identity Management deben implementarse para los roles PIM de Azure VMware Solution</t>
+          <t>¿Se ha implementado Privileged Identity Management para los roles que administran el recurso de Azure VMware Solution en Azure Portal (no se permiten permisos permanentes)?</t>
         </is>
       </c>
       <c r="E327" s="18" t="n"/>
@@ -17720,7 +17724,7 @@
       <c r="K327" s="19" t="n"/>
       <c r="L327" s="19" t="inlineStr">
         <is>
-          <t>c4e2436b-b336-4d71-9f17-960eee0b9b5c</t>
+          <t>6128a71f-0f1c-4ac6-b9ef-1d5e832e42e3</t>
         </is>
       </c>
       <c r="M327" s="20" t="n"/>
@@ -17747,13 +17751,13 @@
       </c>
       <c r="D328" s="18" t="inlineStr">
         <is>
-          <t>Si se usa Privileged Identity Management, asegúrese de que se crea una cuenta válida habilitada para Entra ID con un registro SMTP válido para las notificaciones de reemplazo automático de host de Azure VMware Solution. (se requieren permisos permanentes)</t>
+          <t>Los informes de auditoría de Privileged Identity Management deben implementarse para los roles PIM de Azure VMware Solution</t>
         </is>
       </c>
       <c r="E328" s="18" t="n"/>
       <c r="F328" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -17767,7 +17771,7 @@
       <c r="K328" s="19" t="n"/>
       <c r="L328" s="19" t="inlineStr">
         <is>
-          <t>78c447a8-26b2-4863-af0f-1cac599ef1d5</t>
+          <t>c4e2436b-b336-4d71-9f17-960eee0b9b5c</t>
         </is>
       </c>
       <c r="M328" s="20" t="n"/>
@@ -17794,13 +17798,13 @@
       </c>
       <c r="D329" s="18" t="inlineStr">
         <is>
-          <t>Limite el uso de la cuenta de CloudAdmin solo al acceso de emergencia</t>
+          <t>Si se usa Privileged Identity Management, asegúrese de que se crea una cuenta válida habilitada para Entra ID con un registro SMTP válido para las notificaciones de reemplazo automático de host de Azure VMware Solution. (se requieren permisos permanentes)</t>
         </is>
       </c>
       <c r="E329" s="18" t="n"/>
       <c r="F329" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -17814,7 +17818,7 @@
       <c r="K329" s="19" t="n"/>
       <c r="L329" s="19" t="inlineStr">
         <is>
-          <t>8defc4d7-21d3-41d2-90fb-707ae9eab40e</t>
+          <t>78c447a8-26b2-4863-af0f-1cac599ef1d5</t>
         </is>
       </c>
       <c r="M329" s="20" t="n"/>
@@ -17841,13 +17845,13 @@
       </c>
       <c r="D330" s="18" t="inlineStr">
         <is>
-          <t>Cree funciones RBAC personalizadas en vCenter para implementar un modelo de privilegios mínimos dentro de vCenter</t>
+          <t>Limite el uso de la cuenta de CloudAdmin solo al acceso de emergencia</t>
         </is>
       </c>
       <c r="E330" s="18" t="n"/>
       <c r="F330" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
@@ -17861,7 +17865,7 @@
       <c r="K330" s="19" t="n"/>
       <c r="L330" s="19" t="inlineStr">
         <is>
-          <t>d329f798-bc17-48bd-a5a0-6ca7144351d1</t>
+          <t>8defc4d7-21d3-41d2-90fb-707ae9eab40e</t>
         </is>
       </c>
       <c r="M330" s="20" t="n"/>
@@ -17888,7 +17892,7 @@
       </c>
       <c r="D331" s="18" t="inlineStr">
         <is>
-          <t>Es un proceso definido para rotar periódicamente las credenciales de administrador de la nube (vCenter) y administrador (NSX)</t>
+          <t>Cree funciones RBAC personalizadas en vCenter para implementar un modelo de privilegios mínimos dentro de vCenter</t>
         </is>
       </c>
       <c r="E331" s="18" t="n"/>
@@ -17908,7 +17912,7 @@
       <c r="K331" s="19" t="n"/>
       <c r="L331" s="19" t="inlineStr">
         <is>
-          <t>9dd24429-eb72-4281-97a1-51c5bb4e4f18</t>
+          <t>d329f798-bc17-48bd-a5a0-6ca7144351d1</t>
         </is>
       </c>
       <c r="M331" s="20" t="n"/>
@@ -17935,13 +17939,13 @@
       </c>
       <c r="D332" s="18" t="inlineStr">
         <is>
-          <t>Uso de un proveedor de identidades centralizado que se usará para las cargas de trabajo (VM) que se ejecutan en Azure VMware Solution</t>
+          <t>Es un proceso definido para rotar periódicamente las credenciales de administrador de la nube (vCenter) y administrador (NSX)</t>
         </is>
       </c>
       <c r="E332" s="18" t="n"/>
       <c r="F332" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
@@ -17955,7 +17959,7 @@
       <c r="K332" s="19" t="n"/>
       <c r="L332" s="19" t="inlineStr">
         <is>
-          <t>586cb291-ec16-4a1d-876e-f9f141acdce5</t>
+          <t>9dd24429-eb72-4281-97a1-51c5bb4e4f18</t>
         </is>
       </c>
       <c r="M332" s="20" t="n"/>
@@ -17982,13 +17986,13 @@
       </c>
       <c r="D333" s="18" t="inlineStr">
         <is>
-          <t>¿Se implementa el filtrado de tráfico este-oeste en NSX-T?</t>
+          <t>Uso de un proveedor de identidades centralizado que se usará para las cargas de trabajo (VM) que se ejecutan en Azure VMware Solution</t>
         </is>
       </c>
       <c r="E333" s="18" t="n"/>
       <c r="F333" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
@@ -18002,7 +18006,7 @@
       <c r="K333" s="19" t="n"/>
       <c r="L333" s="19" t="inlineStr">
         <is>
-          <t>79377bcd-b375-41ab-8ab0-ead66e15d3d4</t>
+          <t>586cb291-ec16-4a1d-876e-f9f141acdce5</t>
         </is>
       </c>
       <c r="M333" s="20" t="n"/>
@@ -18029,13 +18033,13 @@
       </c>
       <c r="D334" s="18" t="inlineStr">
         <is>
-          <t>Las cargas de trabajo de Azure VMware Solution no se exponen directamente a Internet. El tráfico se filtra e inspecciona mediante Azure Application Gateway, Azure Firewall o soluciones de terceros</t>
+          <t>¿Se implementa el filtrado de tráfico este-oeste en NSX-T?</t>
         </is>
       </c>
       <c r="E334" s="18" t="n"/>
       <c r="F334" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
@@ -18049,7 +18053,7 @@
       <c r="K334" s="19" t="n"/>
       <c r="L334" s="19" t="inlineStr">
         <is>
-          <t>a2adb1c3-d232-46af-825c-a44e1695fddd</t>
+          <t>79377bcd-b375-41ab-8ab0-ead66e15d3d4</t>
         </is>
       </c>
       <c r="M334" s="20" t="n"/>
@@ -18076,7 +18080,7 @@
       </c>
       <c r="D335" s="18" t="inlineStr">
         <is>
-          <t>La auditoría y el registro se implementan para las solicitudes entrantes de Internet a Azure VMware Solution y a las cargas de trabajo basadas en Azure VMware Solution</t>
+          <t>Las cargas de trabajo de Azure VMware Solution no se exponen directamente a Internet. El tráfico se filtra e inspecciona mediante Azure Application Gateway, Azure Firewall o soluciones de terceros</t>
         </is>
       </c>
       <c r="E335" s="18" t="n"/>
@@ -18096,7 +18100,7 @@
       <c r="K335" s="19" t="n"/>
       <c r="L335" s="19" t="inlineStr">
         <is>
-          <t>eace4cb1-deb4-4c65-8c3f-c14eeab36938</t>
+          <t>a2adb1c3-d232-46af-825c-a44e1695fddd</t>
         </is>
       </c>
       <c r="M335" s="20" t="n"/>
@@ -18123,13 +18127,13 @@
       </c>
       <c r="D336" s="18" t="inlineStr">
         <is>
-          <t>La supervisión de sesiones se implementa para las conexiones salientes a Internet desde Azure VMware Solution o cargas de trabajo basadas en Azure VMware Solution para identificar actividades sospechosas o malintencionadas</t>
+          <t>La auditoría y el registro se implementan para las solicitudes entrantes de Internet a Azure VMware Solution y a las cargas de trabajo basadas en Azure VMware Solution</t>
         </is>
       </c>
       <c r="E336" s="18" t="n"/>
       <c r="F336" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
@@ -18143,7 +18147,7 @@
       <c r="K336" s="19" t="n"/>
       <c r="L336" s="19" t="inlineStr">
         <is>
-          <t>29e3eec2-1836-487a-8077-a2b5945bda43</t>
+          <t>eace4cb1-deb4-4c65-8c3f-c14eeab36938</t>
         </is>
       </c>
       <c r="M336" s="20" t="n"/>
@@ -18170,7 +18174,7 @@
       </c>
       <c r="D337" s="18" t="inlineStr">
         <is>
-          <t>¿Está habilitada la protección estándar de DDoS en la subred de puerta de enlace de ExR/VPN en Azure?</t>
+          <t>La supervisión de sesiones se implementa para las conexiones salientes a Internet desde Azure VMware Solution o cargas de trabajo basadas en Azure VMware Solution para identificar actividades sospechosas o malintencionadas</t>
         </is>
       </c>
       <c r="E337" s="18" t="n"/>
@@ -18190,7 +18194,7 @@
       <c r="K337" s="19" t="n"/>
       <c r="L337" s="19" t="inlineStr">
         <is>
-          <t>334fdf91-c234-4182-a652-75269440b4be</t>
+          <t>29e3eec2-1836-487a-8077-a2b5945bda43</t>
         </is>
       </c>
       <c r="M337" s="20" t="n"/>
@@ -18217,7 +18221,7 @@
       </c>
       <c r="D338" s="18" t="inlineStr">
         <is>
-          <t>Use una estación de trabajo de acceso con privilegios (PAW) dedicada para administrar Azure VMware Solution, vCenter, NSX Manager y HCX Manager</t>
+          <t>¿Está habilitada la protección estándar de DDoS en la subred de puerta de enlace de ExR/VPN en Azure?</t>
         </is>
       </c>
       <c r="E338" s="18" t="n"/>
@@ -18237,7 +18241,7 @@
       <c r="K338" s="19" t="n"/>
       <c r="L338" s="19" t="inlineStr">
         <is>
-          <t>3d3e0843-276d-44bd-a015-bcf219e4a1eb</t>
+          <t>334fdf91-c234-4182-a652-75269440b4be</t>
         </is>
       </c>
       <c r="M338" s="20" t="n"/>
@@ -18264,7 +18268,7 @@
       </c>
       <c r="D339" s="18" t="inlineStr">
         <is>
-          <t>Habilitación de la detección avanzada de amenazas (Microsoft Defender for Cloud, también conocida como ASC) para cargas de trabajo que se ejecutan en Azure VMware Solution</t>
+          <t>Use una estación de trabajo de acceso con privilegios (PAW) dedicada para administrar Azure VMware Solution, vCenter, NSX Manager y HCX Manager</t>
         </is>
       </c>
       <c r="E339" s="18" t="n"/>
@@ -18284,7 +18288,7 @@
       <c r="K339" s="19" t="n"/>
       <c r="L339" s="19" t="inlineStr">
         <is>
-          <t>9ccbd869-266a-4cca-874f-aa19bf39d95d</t>
+          <t>3d3e0843-276d-44bd-a015-bcf219e4a1eb</t>
         </is>
       </c>
       <c r="M339" s="20" t="n"/>
@@ -18311,7 +18315,7 @@
       </c>
       <c r="D340" s="18" t="inlineStr">
         <is>
-          <t>Use Azure ARC for Servers para controlar correctamente las cargas de trabajo que se ejecutan en Azure VMware Solution mediante tecnologías nativas de Azure (Azure ARC for Azure VMware Solution aún no está disponible)</t>
+          <t>Habilitación de la detección avanzada de amenazas (Microsoft Defender for Cloud, también conocida como ASC) para cargas de trabajo que se ejecutan en Azure VMware Solution</t>
         </is>
       </c>
       <c r="E340" s="18" t="n"/>
@@ -18331,7 +18335,7 @@
       <c r="K340" s="19" t="n"/>
       <c r="L340" s="19" t="inlineStr">
         <is>
-          <t>44c7c891-9ca1-4f6d-9315-ae524ba34d45</t>
+          <t>9ccbd869-266a-4cca-874f-aa19bf39d95d</t>
         </is>
       </c>
       <c r="M340" s="20" t="n"/>
@@ -18358,13 +18362,13 @@
       </c>
       <c r="D341" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que las cargas de trabajo de Azure VMware Solution usen suficiente cifrado de datos durante el tiempo de ejecución (como el cifrado de disco invitado y SQL TDE). (El cifrado de vSAN en reposo es el predeterminado)</t>
+          <t>Use Azure ARC for Servers para controlar correctamente las cargas de trabajo que se ejecutan en Azure VMware Solution mediante tecnologías nativas de Azure (Azure ARC for Azure VMware Solution aún no está disponible)</t>
         </is>
       </c>
       <c r="E341" s="18" t="n"/>
       <c r="F341" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
@@ -18378,7 +18382,7 @@
       <c r="K341" s="19" t="n"/>
       <c r="L341" s="19" t="inlineStr">
         <is>
-          <t>85e12139-bd7b-4b01-8f7b-95ef6e043e2a</t>
+          <t>44c7c891-9ca1-4f6d-9315-ae524ba34d45</t>
         </is>
       </c>
       <c r="M341" s="20" t="n"/>
@@ -18405,7 +18409,7 @@
       </c>
       <c r="D342" s="18" t="inlineStr">
         <is>
-          <t>Cuando se usa el cifrado en invitado, almacene las claves de cifrado en Azure Key Vault siempre que sea posible</t>
+          <t>Asegúrese de que las cargas de trabajo de Azure VMware Solution usen suficiente cifrado de datos durante el tiempo de ejecución (como el cifrado de disco invitado y SQL TDE). (El cifrado de vSAN en reposo es el predeterminado)</t>
         </is>
       </c>
       <c r="E342" s="18" t="n"/>
@@ -18425,7 +18429,7 @@
       <c r="K342" s="19" t="n"/>
       <c r="L342" s="19" t="inlineStr">
         <is>
-          <t>a3592718-e6e2-4051-9267-6ae46691e883</t>
+          <t>85e12139-bd7b-4b01-8f7b-95ef6e043e2a</t>
         </is>
       </c>
       <c r="M342" s="20" t="n"/>
@@ -18452,13 +18456,13 @@
       </c>
       <c r="D343" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar la compatibilidad con actualizaciones de seguridad extendidas para las cargas de trabajo que se ejecutan en Azure VMware Solution (Azure VMware Solution es apta para ESU)</t>
+          <t>Cuando se usa el cifrado en invitado, almacene las claves de cifrado en Azure Key Vault siempre que sea posible</t>
         </is>
       </c>
       <c r="E343" s="18" t="n"/>
       <c r="F343" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
@@ -18472,7 +18476,7 @@
       <c r="K343" s="19" t="n"/>
       <c r="L343" s="19" t="inlineStr">
         <is>
-          <t>5ac94222-3e13-4810-9230-81a941741583</t>
+          <t>a3592718-e6e2-4051-9267-6ae46691e883</t>
         </is>
       </c>
       <c r="M343" s="20" t="n"/>
@@ -18489,7 +18493,7 @@
       </c>
       <c r="B344" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C344" s="18" t="inlineStr">
@@ -18499,13 +18503,13 @@
       </c>
       <c r="D344" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que se utiliza el método de redundancia de datos de vSAN adecuado (especificación RAID)</t>
+          <t>Considere la posibilidad de usar la compatibilidad con actualizaciones de seguridad extendidas para las cargas de trabajo que se ejecutan en Azure VMware Solution (Azure VMware Solution es apta para ESU)</t>
         </is>
       </c>
       <c r="E344" s="18" t="n"/>
       <c r="F344" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
@@ -18519,7 +18523,7 @@
       <c r="K344" s="19" t="n"/>
       <c r="L344" s="19" t="inlineStr">
         <is>
-          <t>3ef7ad7c-6d37-4331-95c7-acbe44bbe609</t>
+          <t>5ac94222-3e13-4810-9230-81a941741583</t>
         </is>
       </c>
       <c r="M344" s="20" t="n"/>
@@ -18546,7 +18550,7 @@
       </c>
       <c r="D345" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que la directiva de error de tolerancia esté implementada para satisfacer sus necesidades de almacenamiento de vSAN</t>
+          <t>Asegúrese de que se utiliza el método de redundancia de datos de vSAN adecuado (especificación RAID)</t>
         </is>
       </c>
       <c r="E345" s="18" t="n"/>
@@ -18566,7 +18570,7 @@
       <c r="K345" s="19" t="n"/>
       <c r="L345" s="19" t="inlineStr">
         <is>
-          <t>d88408f3-7273-44c8-96ba-280214590146</t>
+          <t>3ef7ad7c-6d37-4331-95c7-acbe44bbe609</t>
         </is>
       </c>
       <c r="M345" s="20" t="n"/>
@@ -18593,7 +18597,7 @@
       </c>
       <c r="D346" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que ha solicitado una cuota suficiente, asegurándose de que ha tenido en cuenta el crecimiento y el requisito de recuperación ante desastres</t>
+          <t>Asegúrese de que la directiva de error de tolerancia esté implementada para satisfacer sus necesidades de almacenamiento de vSAN</t>
         </is>
       </c>
       <c r="E346" s="18" t="n"/>
@@ -18613,7 +18617,7 @@
       <c r="K346" s="19" t="n"/>
       <c r="L346" s="19" t="inlineStr">
         <is>
-          <t>d89f2e87-7784-424d-9167-85c6fa95b96a</t>
+          <t>d88408f3-7273-44c8-96ba-280214590146</t>
         </is>
       </c>
       <c r="M346" s="20" t="n"/>
@@ -18630,7 +18634,7 @@
       </c>
       <c r="B347" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C347" s="18" t="inlineStr">
@@ -18640,13 +18644,13 @@
       </c>
       <c r="D347" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que se comprenden las restricciones de acceso a ESXi, ya que existen límites de acceso que pueden afectar a las soluciones de terceros.</t>
+          <t>Asegúrese de que ha solicitado una cuota suficiente, asegurándose de que ha tenido en cuenta el crecimiento y el requisito de recuperación ante desastres</t>
         </is>
       </c>
       <c r="E347" s="18" t="n"/>
       <c r="F347" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
@@ -18660,7 +18664,7 @@
       <c r="K347" s="19" t="n"/>
       <c r="L347" s="19" t="inlineStr">
         <is>
-          <t>5d38e53f-9ccb-4d86-a266-acca274faa19</t>
+          <t>d89f2e87-7784-424d-9167-85c6fa95b96a</t>
         </is>
       </c>
       <c r="M347" s="20" t="n"/>
@@ -18687,7 +18691,7 @@
       </c>
       <c r="D348" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de tener una política en torno a la densidad y la eficiencia del host ESXi, teniendo en cuenta el tiempo de espera para solicitar nuevos nodos</t>
+          <t>Asegúrese de que se comprenden las restricciones de acceso a ESXi, ya que existen límites de acceso que pueden afectar a las soluciones de terceros.</t>
         </is>
       </c>
       <c r="E348" s="18" t="n"/>
@@ -18707,7 +18711,7 @@
       <c r="K348" s="19" t="n"/>
       <c r="L348" s="19" t="inlineStr">
         <is>
-          <t>bf39d95d-44c7-4c89-89ca-1f6d5315ae52</t>
+          <t>5d38e53f-9ccb-4d86-a266-acca274faa19</t>
         </is>
       </c>
       <c r="M348" s="20" t="n"/>
@@ -18724,7 +18728,7 @@
       </c>
       <c r="B349" s="18" t="inlineStr">
         <is>
-          <t>Costar</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C349" s="18" t="inlineStr">
@@ -18734,7 +18738,7 @@
       </c>
       <c r="D349" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que existe un buen proceso de administración de costos para Azure VMware Solution: se puede usar Azure Cost Management</t>
+          <t>Asegúrese de tener una política en torno a la densidad y la eficiencia del host ESXi, teniendo en cuenta el tiempo de espera para solicitar nuevos nodos</t>
         </is>
       </c>
       <c r="E349" s="18" t="n"/>
@@ -18754,7 +18758,7 @@
       <c r="K349" s="19" t="n"/>
       <c r="L349" s="19" t="inlineStr">
         <is>
-          <t>4ba34d45-85e1-4213-abd7-bb012f7b95ef</t>
+          <t>bf39d95d-44c7-4c89-89ca-1f6d5315ae52</t>
         </is>
       </c>
       <c r="M349" s="20" t="n"/>
@@ -18781,13 +18785,13 @@
       </c>
       <c r="D350" s="18" t="inlineStr">
         <is>
-          <t>¿Se usan instancias reservadas de Azure para optimizar el costo de uso de Azure VMware Solution?</t>
+          <t>Asegúrese de que existe un buen proceso de administración de costos para Azure VMware Solution: se puede usar Azure Cost Management</t>
         </is>
       </c>
       <c r="E350" s="18" t="n"/>
       <c r="F350" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
@@ -18801,7 +18805,7 @@
       <c r="K350" s="19" t="n"/>
       <c r="L350" s="19" t="inlineStr">
         <is>
-          <t>6e043e2a-a359-4271-ae6e-205172676ae4</t>
+          <t>4ba34d45-85e1-4213-abd7-bb012f7b95ef</t>
         </is>
       </c>
       <c r="M350" s="20" t="n"/>
@@ -18818,7 +18822,7 @@
       </c>
       <c r="B351" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Costar</t>
         </is>
       </c>
       <c r="C351" s="18" t="inlineStr">
@@ -18828,13 +18832,13 @@
       </c>
       <c r="D351" s="18" t="inlineStr">
         <is>
-          <t>Tenga en cuenta el uso de Azure Private-Link cuando use otros servicios nativos de Azure</t>
+          <t>¿Se usan instancias reservadas de Azure para optimizar el costo de uso de Azure VMware Solution?</t>
         </is>
       </c>
       <c r="E351" s="18" t="n"/>
       <c r="F351" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
@@ -18848,7 +18852,7 @@
       <c r="K351" s="19" t="n"/>
       <c r="L351" s="19" t="inlineStr">
         <is>
-          <t>6691e883-5ac9-4422-83e1-3810523081a9</t>
+          <t>6e043e2a-a359-4271-ae6e-205172676ae4</t>
         </is>
       </c>
       <c r="M351" s="20" t="n"/>
@@ -18865,7 +18869,7 @@
       </c>
       <c r="B352" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C352" s="18" t="inlineStr">
@@ -18875,13 +18879,13 @@
       </c>
       <c r="D352" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que todos los recursos necesarios residen en las mismas zonas de disponibilidad de Azure</t>
+          <t>Tenga en cuenta el uso de Azure Private-Link cuando use otros servicios nativos de Azure</t>
         </is>
       </c>
       <c r="E352" s="18" t="n"/>
       <c r="F352" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
@@ -18895,7 +18899,7 @@
       <c r="K352" s="19" t="n"/>
       <c r="L352" s="19" t="inlineStr">
         <is>
-          <t>db611712-6904-40b4-aa3d-3e0803276d4b</t>
+          <t>6691e883-5ac9-4422-83e1-3810523081a9</t>
         </is>
       </c>
       <c r="M352" s="20" t="n"/>
@@ -18912,7 +18916,7 @@
       </c>
       <c r="B353" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C353" s="18" t="inlineStr">
@@ -18922,13 +18926,13 @@
       </c>
       <c r="D353" s="18" t="inlineStr">
         <is>
-          <t>Habilitación de cargas de trabajo de máquina virtual invitada de Microsoft Defender for Cloud for Azure VMware Solution</t>
+          <t>Asegúrese de que todos los recursos necesarios residen en las mismas zonas de disponibilidad de Azure</t>
         </is>
       </c>
       <c r="E353" s="18" t="n"/>
       <c r="F353" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
@@ -18942,7 +18946,7 @@
       <c r="K353" s="19" t="n"/>
       <c r="L353" s="19" t="inlineStr">
         <is>
-          <t>48b262d6-cc5f-4512-a253-98e6db9d37da</t>
+          <t>db611712-6904-40b4-aa3d-3e0803276d4b</t>
         </is>
       </c>
       <c r="M353" s="20" t="n"/>
@@ -18969,7 +18973,7 @@
       </c>
       <c r="D354" s="18" t="inlineStr">
         <is>
-          <t>Uso de servidores habilitados para Azure Arc para administrar las cargas de trabajo de máquinas virtuales invitadas de Azure VMware Solution</t>
+          <t>Habilitación de cargas de trabajo de máquina virtual invitada de Microsoft Defender for Cloud for Azure VMware Solution</t>
         </is>
       </c>
       <c r="E354" s="18" t="n"/>
@@ -18989,7 +18993,7 @@
       <c r="K354" s="19" t="n"/>
       <c r="L354" s="19" t="inlineStr">
         <is>
-          <t>41741583-3ef7-4ad7-a6d3-733165c7acbe</t>
+          <t>48b262d6-cc5f-4512-a253-98e6db9d37da</t>
         </is>
       </c>
       <c r="M354" s="20" t="n"/>
@@ -19006,7 +19010,7 @@
       </c>
       <c r="B355" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C355" s="18" t="inlineStr">
@@ -19016,13 +19020,13 @@
       </c>
       <c r="D355" s="18" t="inlineStr">
         <is>
-          <t>Habilitación del registro de diagnósticos y métricas en Azure VMware Solution</t>
+          <t>Uso de servidores habilitados para Azure Arc para administrar las cargas de trabajo de máquinas virtuales invitadas de Azure VMware Solution</t>
         </is>
       </c>
       <c r="E355" s="18" t="n"/>
       <c r="F355" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
@@ -19036,7 +19040,7 @@
       <c r="K355" s="19" t="n"/>
       <c r="L355" s="19" t="inlineStr">
         <is>
-          <t>88f03a4d-2cd4-463c-abbc-868295abc91a</t>
+          <t>41741583-3ef7-4ad7-a6d3-733165c7acbe</t>
         </is>
       </c>
       <c r="M355" s="20" t="n"/>
@@ -19063,13 +19067,13 @@
       </c>
       <c r="D356" s="18" t="inlineStr">
         <is>
-          <t>Implementación de los agentes de Log Analytics en cargas de trabajo de máquinas virtuales invitadas de Azure VMware Solution</t>
+          <t>Habilitación del registro de diagnósticos y métricas en Azure VMware Solution</t>
         </is>
       </c>
       <c r="E356" s="18" t="n"/>
       <c r="F356" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
@@ -19083,7 +19087,7 @@
       <c r="K356" s="19" t="n"/>
       <c r="L356" s="19" t="inlineStr">
         <is>
-          <t>4ed90dae-2cc8-44c4-9b6b-781cbafe6c46</t>
+          <t>88f03a4d-2cd4-463c-abbc-868295abc91a</t>
         </is>
       </c>
       <c r="M356" s="20" t="n"/>
@@ -19110,7 +19114,7 @@
       </c>
       <c r="D357" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que dispone de una directiva y una solución de copia de seguridad documentadas e implementadas para las cargas de trabajo de máquina virtual de Azure VMware Solution</t>
+          <t>Implementación de los agentes de Log Analytics en cargas de trabajo de máquinas virtuales invitadas de Azure VMware Solution</t>
         </is>
       </c>
       <c r="E357" s="18" t="n"/>
@@ -19130,7 +19134,7 @@
       <c r="K357" s="19" t="n"/>
       <c r="L357" s="19" t="inlineStr">
         <is>
-          <t>589d457a-927c-4397-9d11-02cad6aae11e</t>
+          <t>4ed90dae-2cc8-44c4-9b6b-781cbafe6c46</t>
         </is>
       </c>
       <c r="M357" s="20" t="n"/>
@@ -19147,7 +19151,7 @@
       </c>
       <c r="B358" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C358" s="18" t="inlineStr">
@@ -19157,7 +19161,7 @@
       </c>
       <c r="D358" s="18" t="inlineStr">
         <is>
-          <t>Uso de Microsoft Defender for Cloud para la supervisión del cumplimiento de las cargas de trabajo que se ejecutan en Azure VMware Solution</t>
+          <t>Asegúrese de que dispone de una directiva y una solución de copia de seguridad documentadas e implementadas para las cargas de trabajo de máquina virtual de Azure VMware Solution</t>
         </is>
       </c>
       <c r="E358" s="18" t="n"/>
@@ -19177,7 +19181,7 @@
       <c r="K358" s="19" t="n"/>
       <c r="L358" s="19" t="inlineStr">
         <is>
-          <t>ee29711b-d352-4caa-ab79-b198dab81932</t>
+          <t>589d457a-927c-4397-9d11-02cad6aae11e</t>
         </is>
       </c>
       <c r="M358" s="20" t="n"/>
@@ -19204,7 +19208,7 @@
       </c>
       <c r="D359" s="18" t="inlineStr">
         <is>
-          <t>¿Se agregan las líneas base de cumplimiento aplicables a Microsoft Defender for Cloud?</t>
+          <t>Uso de Microsoft Defender for Cloud para la supervisión del cumplimiento de las cargas de trabajo que se ejecutan en Azure VMware Solution</t>
         </is>
       </c>
       <c r="E359" s="18" t="n"/>
@@ -19224,7 +19228,7 @@
       <c r="K359" s="19" t="n"/>
       <c r="L359" s="19" t="inlineStr">
         <is>
-          <t>c9fc9d1b-b780-436f-9e6b-fbb9ed503547</t>
+          <t>ee29711b-d352-4caa-ab79-b198dab81932</t>
         </is>
       </c>
       <c r="M359" s="20" t="n"/>
@@ -19251,13 +19255,13 @@
       </c>
       <c r="D360" s="18" t="inlineStr">
         <is>
-          <t>¿Se evaluó la residencia de datos al seleccionar las regiones de Azure que se usarán para la implementación de Azure VMware Solution?</t>
+          <t>¿Se agregan las líneas base de cumplimiento aplicables a Microsoft Defender for Cloud?</t>
         </is>
       </c>
       <c r="E360" s="18" t="n"/>
       <c r="F360" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
@@ -19271,7 +19275,7 @@
       <c r="K360" s="19" t="n"/>
       <c r="L360" s="19" t="inlineStr">
         <is>
-          <t>cc447e82-6128-4a71-b0f1-cac6d9ef1d5e</t>
+          <t>c9fc9d1b-b780-436f-9e6b-fbb9ed503547</t>
         </is>
       </c>
       <c r="M360" s="20" t="n"/>
@@ -19298,7 +19302,7 @@
       </c>
       <c r="D361" s="18" t="inlineStr">
         <is>
-          <t>¿Son claras y documentadas las implicaciones del procesamiento de datos (proveedor de servicios / modelo de consumidor de servicios)?</t>
+          <t>¿Se evaluó la residencia de datos al seleccionar las regiones de Azure que se usarán para la implementación de Azure VMware Solution?</t>
         </is>
       </c>
       <c r="E361" s="18" t="n"/>
@@ -19318,7 +19322,7 @@
       <c r="K361" s="19" t="n"/>
       <c r="L361" s="19" t="inlineStr">
         <is>
-          <t>832e42e3-611c-4818-a0a0-bc510e43a18a</t>
+          <t>cc447e82-6128-4a71-b0f1-cac6d9ef1d5e</t>
         </is>
       </c>
       <c r="M361" s="20" t="n"/>
@@ -19345,13 +19349,13 @@
       </c>
       <c r="D362" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar CMK (clave administrada por el cliente) para vSAN solo si es necesario por motivos de cumplimiento.</t>
+          <t>¿Son claras y documentadas las implicaciones del procesamiento de datos (proveedor de servicios / modelo de consumidor de servicios)?</t>
         </is>
       </c>
       <c r="E362" s="18" t="n"/>
       <c r="F362" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
@@ -19365,7 +19369,7 @@
       <c r="K362" s="19" t="n"/>
       <c r="L362" s="19" t="inlineStr">
         <is>
-          <t>547c1747-dc56-4068-a714-435cd19dd244</t>
+          <t>832e42e3-611c-4818-a0a0-bc510e43a18a</t>
         </is>
       </c>
       <c r="M362" s="20" t="n"/>
@@ -19382,7 +19386,7 @@
       </c>
       <c r="B363" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C363" s="18" t="inlineStr">
@@ -19392,13 +19396,13 @@
       </c>
       <c r="D363" s="18" t="inlineStr">
         <is>
-          <t>Creación de paneles para habilitar la información principal de supervisión de Azure VMware Solution</t>
+          <t>Considere la posibilidad de usar CMK (clave administrada por el cliente) para vSAN solo si es necesario por motivos de cumplimiento.</t>
         </is>
       </c>
       <c r="E363" s="18" t="n"/>
       <c r="F363" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
@@ -19412,7 +19416,7 @@
       <c r="K363" s="19" t="n"/>
       <c r="L363" s="19" t="inlineStr">
         <is>
-          <t>e43a18a9-cd28-49ce-b6b1-7db8255461e2</t>
+          <t>547c1747-dc56-4068-a714-435cd19dd244</t>
         </is>
       </c>
       <c r="M363" s="20" t="n"/>
@@ -19439,7 +19443,7 @@
       </c>
       <c r="D364" s="18" t="inlineStr">
         <is>
-          <t>Creación de alertas de advertencia para umbrales críticos para alertas automáticas sobre el rendimiento de Azure VMware Solution (CPU &gt;80 %, memoria media &gt;80 %, vSAN &gt;70 %)</t>
+          <t>Creación de paneles para habilitar la información principal de supervisión de Azure VMware Solution</t>
         </is>
       </c>
       <c r="E364" s="18" t="n"/>
@@ -19459,7 +19463,7 @@
       <c r="K364" s="19" t="n"/>
       <c r="L364" s="19" t="inlineStr">
         <is>
-          <t>6b84ee5d-f47d-42d9-8881-b1cd5d1e54a2</t>
+          <t>e43a18a9-cd28-49ce-b6b1-7db8255461e2</t>
         </is>
       </c>
       <c r="M364" s="20" t="n"/>
@@ -19486,7 +19490,7 @@
       </c>
       <c r="D365" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que se crea una alerta crítica para supervisar si el consumo de vSAN es inferior al 75 %, ya que se trata de un umbral de soporte de VMware</t>
+          <t>Creación de alertas de advertencia para umbrales críticos para alertas automáticas sobre el rendimiento de Azure VMware Solution (CPU &gt;80 %, memoria media &gt;80 %, vSAN &gt;70 %)</t>
         </is>
       </c>
       <c r="E365" s="18" t="n"/>
@@ -19506,7 +19510,7 @@
       <c r="K365" s="19" t="n"/>
       <c r="L365" s="19" t="inlineStr">
         <is>
-          <t>9659e396-80e7-4828-ac93-5657d02bff45</t>
+          <t>6b84ee5d-f47d-42d9-8881-b1cd5d1e54a2</t>
         </is>
       </c>
       <c r="M365" s="20" t="n"/>
@@ -19533,7 +19537,7 @@
       </c>
       <c r="D366" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que las alertas están configuradas para las alertas y notificaciones de Azure Service Health</t>
+          <t>Asegúrese de que se crea una alerta crítica para supervisar si el consumo de vSAN es inferior al 75 %, ya que se trata de un umbral de soporte de VMware</t>
         </is>
       </c>
       <c r="E366" s="18" t="n"/>
@@ -19553,7 +19557,7 @@
       <c r="K366" s="19" t="n"/>
       <c r="L366" s="19" t="inlineStr">
         <is>
-          <t>64b0d934-a348-4726-be79-d6b5c3a36495</t>
+          <t>9659e396-80e7-4828-ac93-5657d02bff45</t>
         </is>
       </c>
       <c r="M366" s="20" t="n"/>
@@ -19580,13 +19584,13 @@
       </c>
       <c r="D367" s="18" t="inlineStr">
         <is>
-          <t>Configure el registro de Azure VMware Solution para que se envíe a una cuenta de Azure Storage o Azure EventHub para su procesamiento</t>
+          <t>Asegúrese de que las alertas están configuradas para las alertas y notificaciones de Azure Service Health</t>
         </is>
       </c>
       <c r="E367" s="18" t="n"/>
       <c r="F367" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
@@ -19600,7 +19604,7 @@
       <c r="K367" s="19" t="n"/>
       <c r="L367" s="19" t="inlineStr">
         <is>
-          <t>b6abad38-aad5-43cc-99e1-d86667357c54</t>
+          <t>64b0d934-a348-4726-be79-d6b5c3a36495</t>
         </is>
       </c>
       <c r="M367" s="20" t="n"/>
@@ -19627,13 +19631,13 @@
       </c>
       <c r="D368" s="18" t="inlineStr">
         <is>
-          <t>Si se requiere una visión profunda de VMware vSphere: ¿Se utiliza vRealize Operations o vRealize Network Insights en la solución?</t>
+          <t>Configure el registro de Azure VMware Solution para que se envíe a una cuenta de Azure Storage o Azure EventHub para su procesamiento</t>
         </is>
       </c>
       <c r="E368" s="18" t="n"/>
       <c r="F368" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
@@ -19647,7 +19651,7 @@
       <c r="K368" s="19" t="n"/>
       <c r="L368" s="19" t="inlineStr">
         <is>
-          <t>9674c5ed-85b8-459c-9733-be2b1a27b775</t>
+          <t>b6abad38-aad5-43cc-99e1-d86667357c54</t>
         </is>
       </c>
       <c r="M368" s="20" t="n"/>
@@ -19674,13 +19678,13 @@
       </c>
       <c r="D369" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que la directiva de almacenamiento de vSAN para las máquinas virtuales NO sea la directiva de almacenamiento predeterminada, ya que esta directiva aplica el aprovisionamiento grueso</t>
+          <t>Si se requiere una visión profunda de VMware vSphere: ¿Se utiliza vRealize Operations o vRealize Network Insights en la solución?</t>
         </is>
       </c>
       <c r="E369" s="18" t="n"/>
       <c r="F369" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
@@ -19694,7 +19698,7 @@
       <c r="K369" s="19" t="n"/>
       <c r="L369" s="19" t="inlineStr">
         <is>
-          <t>a91be1f3-88f0-43a4-b2cd-463cbbbc8682</t>
+          <t>9674c5ed-85b8-459c-9733-be2b1a27b775</t>
         </is>
       </c>
       <c r="M369" s="20" t="n"/>
@@ -19721,13 +19725,13 @@
       </c>
       <c r="D370" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que las bibliotecas de contenido de vSphere no se coloquen en vSAN, ya que vSAN es un recurso finito</t>
+          <t>Asegúrese de que la directiva de almacenamiento de vSAN para las máquinas virtuales NO sea la directiva de almacenamiento predeterminada, ya que esta directiva aplica el aprovisionamiento grueso</t>
         </is>
       </c>
       <c r="E370" s="18" t="n"/>
       <c r="F370" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
@@ -19741,7 +19745,7 @@
       <c r="K370" s="19" t="n"/>
       <c r="L370" s="19" t="inlineStr">
         <is>
-          <t>d9ef1d5e-832d-442e-9611-c818b0afbc51</t>
+          <t>a91be1f3-88f0-43a4-b2cd-463cbbbc8682</t>
         </is>
       </c>
       <c r="M370" s="20" t="n"/>
@@ -19768,7 +19772,7 @@
       </c>
       <c r="D371" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que los repositorios de datos de la solución de copia de seguridad se almacenen fuera del almacenamiento de vSAN. Ya sea en Azure nativo o en un almacén de datos respaldado por un grupo de discos</t>
+          <t>Asegúrese de que las bibliotecas de contenido de vSphere no se coloquen en vSAN, ya que vSAN es un recurso finito</t>
         </is>
       </c>
       <c r="E371" s="18" t="n"/>
@@ -19788,7 +19792,7 @@
       <c r="K371" s="19" t="n"/>
       <c r="L371" s="19" t="inlineStr">
         <is>
-          <t>0e43a18a-9cd2-489b-bd6b-17db8255461e</t>
+          <t>d9ef1d5e-832d-442e-9611-c818b0afbc51</t>
         </is>
       </c>
       <c r="M371" s="20" t="n"/>
@@ -19815,7 +19819,7 @@
       </c>
       <c r="D372" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que las cargas de trabajo que se ejecutan en Azure VMware Solution se administran de forma híbrida mediante Azure Arc para servidores (Arc para Azure VMware Solution está en versión preliminar)</t>
+          <t>Asegúrese de que los repositorios de datos de la solución de copia de seguridad se almacenen fuera del almacenamiento de vSAN. Ya sea en Azure nativo o en un almacén de datos respaldado por un grupo de discos</t>
         </is>
       </c>
       <c r="E372" s="18" t="n"/>
@@ -19835,7 +19839,7 @@
       <c r="K372" s="19" t="n"/>
       <c r="L372" s="19" t="inlineStr">
         <is>
-          <t>2aee3453-aec8-4339-848b-262d6cc5f512</t>
+          <t>0e43a18a-9cd2-489b-bd6b-17db8255461e</t>
         </is>
       </c>
       <c r="M372" s="20" t="n"/>
@@ -19862,7 +19866,7 @@
       </c>
       <c r="D373" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que las cargas de trabajo que se ejecutan en Azure VMware Solution se supervisan mediante Azure Log Analytics y Azure Monitor</t>
+          <t>Asegúrese de que las cargas de trabajo que se ejecutan en Azure VMware Solution se administran de forma híbrida mediante Azure Arc para servidores (Arc para Azure VMware Solution está en versión preliminar)</t>
         </is>
       </c>
       <c r="E373" s="18" t="n"/>
@@ -19882,7 +19886,7 @@
       <c r="K373" s="19" t="n"/>
       <c r="L373" s="19" t="inlineStr">
         <is>
-          <t>925398e6-da9d-437d-ac43-bc6cd1d79a9b</t>
+          <t>2aee3453-aec8-4339-848b-262d6cc5f512</t>
         </is>
       </c>
       <c r="M373" s="20" t="n"/>
@@ -19909,7 +19913,7 @@
       </c>
       <c r="D374" s="18" t="inlineStr">
         <is>
-          <t>Inclusión de cargas de trabajo que se ejecutan en Azure VMware Solution en las herramientas de administración de actualizaciones existentes o en Azure Update Management</t>
+          <t>Asegúrese de que las cargas de trabajo que se ejecutan en Azure VMware Solution se supervisan mediante Azure Log Analytics y Azure Monitor</t>
         </is>
       </c>
       <c r="E374" s="18" t="n"/>
@@ -19929,7 +19933,7 @@
       <c r="K374" s="19" t="n"/>
       <c r="L374" s="19" t="inlineStr">
         <is>
-          <t>24604489-a8f4-42d7-ae78-cb6a33bd2a09</t>
+          <t>925398e6-da9d-437d-ac43-bc6cd1d79a9b</t>
         </is>
       </c>
       <c r="M374" s="20" t="n"/>
@@ -19956,7 +19960,7 @@
       </c>
       <c r="D375" s="18" t="inlineStr">
         <is>
-          <t>Uso de Azure Policy para incorporar cargas de trabajo de Azure VMware Solution en las soluciones de administración, supervisión y seguridad de Azure</t>
+          <t>Inclusión de cargas de trabajo que se ejecutan en Azure VMware Solution en las herramientas de administración de actualizaciones existentes o en Azure Update Management</t>
         </is>
       </c>
       <c r="E375" s="18" t="n"/>
@@ -19976,7 +19980,7 @@
       <c r="K375" s="19" t="n"/>
       <c r="L375" s="19" t="inlineStr">
         <is>
-          <t>17e7a8d9-0ae0-4e27-aee2-9711bd352caa</t>
+          <t>24604489-a8f4-42d7-ae78-cb6a33bd2a09</t>
         </is>
       </c>
       <c r="M375" s="20" t="n"/>
@@ -19993,7 +19997,7 @@
       </c>
       <c r="B376" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C376" s="18" t="inlineStr">
@@ -20003,7 +20007,7 @@
       </c>
       <c r="D376" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que las cargas de trabajo que se ejecutan en Azure VMware Solution se incorporan a Microsoft Defender for Cloud</t>
+          <t>Uso de Azure Policy para incorporar cargas de trabajo de Azure VMware Solution en las soluciones de administración, supervisión y seguridad de Azure</t>
         </is>
       </c>
       <c r="E376" s="18" t="n"/>
@@ -20023,7 +20027,7 @@
       <c r="K376" s="19" t="n"/>
       <c r="L376" s="19" t="inlineStr">
         <is>
-          <t>aee3553a-fc83-4392-98b2-62d6cc5f5129</t>
+          <t>17e7a8d9-0ae0-4e27-aee2-9711bd352caa</t>
         </is>
       </c>
       <c r="M376" s="20" t="n"/>
@@ -20040,7 +20044,7 @@
       </c>
       <c r="B377" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C377" s="18" t="inlineStr">
@@ -20050,7 +20054,7 @@
       </c>
       <c r="D377" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que las copias de seguridad no se almacenen en vSAN, ya que vSAN es un recurso finito</t>
+          <t>Asegúrese de que las cargas de trabajo que se ejecutan en Azure VMware Solution se incorporan a Microsoft Defender for Cloud</t>
         </is>
       </c>
       <c r="E377" s="18" t="n"/>
@@ -20070,7 +20074,7 @@
       <c r="K377" s="19" t="n"/>
       <c r="L377" s="19" t="inlineStr">
         <is>
-          <t>25398e6d-b9d3-47da-a43b-c6cd1d79a9b2</t>
+          <t>aee3553a-fc83-4392-98b2-62d6cc5f5129</t>
         </is>
       </c>
       <c r="M377" s="20" t="n"/>
@@ -20097,7 +20101,7 @@
       </c>
       <c r="D378" s="18" t="inlineStr">
         <is>
-          <t>¿Se han considerado todas las soluciones de recuperación ante desastres y se ha decidido por la mejor solución para su negocio? [SRM/JetStream/Zerto/Veeam/...]</t>
+          <t>Asegúrese de que las copias de seguridad no se almacenen en vSAN, ya que vSAN es un recurso finito</t>
         </is>
       </c>
       <c r="E378" s="18" t="n"/>
@@ -20117,7 +20121,7 @@
       <c r="K378" s="19" t="n"/>
       <c r="L378" s="19" t="inlineStr">
         <is>
-          <t>5e6bfbb9-ed50-4354-9cc4-47e826028a71</t>
+          <t>25398e6d-b9d3-47da-a43b-c6cd1d79a9b2</t>
         </is>
       </c>
       <c r="M378" s="20" t="n"/>
@@ -20144,7 +20148,7 @@
       </c>
       <c r="D379" s="18" t="inlineStr">
         <is>
-          <t>Uso de Azure Site Recovery cuando la tecnología de recuperación ante desastres sea IaaS nativa de Azure</t>
+          <t>¿Se han considerado todas las soluciones de recuperación ante desastres y se ha decidido por la mejor solución para su negocio? [SRM/JetStream/Zerto/Veeam/...]</t>
         </is>
       </c>
       <c r="E379" s="18" t="n"/>
@@ -20164,7 +20168,7 @@
       <c r="K379" s="19" t="n"/>
       <c r="L379" s="19" t="inlineStr">
         <is>
-          <t>f0f1cac6-d9ef-41d5-b832-d42e3611c818</t>
+          <t>5e6bfbb9-ed50-4354-9cc4-47e826028a71</t>
         </is>
       </c>
       <c r="M379" s="20" t="n"/>
@@ -20191,13 +20195,13 @@
       </c>
       <c r="D380" s="18" t="inlineStr">
         <is>
-          <t>Utilice planes de recuperación automatizados con cualquiera de las soluciones ante desastres, evite las tareas manuales tanto como sea posible</t>
+          <t>Uso de Azure Site Recovery cuando la tecnología de recuperación ante desastres sea IaaS nativa de Azure</t>
         </is>
       </c>
       <c r="E380" s="18" t="n"/>
       <c r="F380" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
@@ -20211,7 +20215,7 @@
       <c r="K380" s="19" t="n"/>
       <c r="L380" s="19" t="inlineStr">
         <is>
-          <t>b0afbc51-0e43-4a18-a9cd-289bed6b17db</t>
+          <t>f0f1cac6-d9ef-41d5-b832-d42e3611c818</t>
         </is>
       </c>
       <c r="M380" s="20" t="n"/>
@@ -20238,13 +20242,13 @@
       </c>
       <c r="D381" s="18" t="inlineStr">
         <is>
-          <t>Usar el par de regiones geopolíticas como entorno secundario de recuperación ante desastres</t>
+          <t>Utilice planes de recuperación automatizados con cualquiera de las soluciones ante desastres, evite las tareas manuales tanto como sea posible</t>
         </is>
       </c>
       <c r="E381" s="18" t="n"/>
       <c r="F381" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
@@ -20258,7 +20262,7 @@
       <c r="K381" s="19" t="n"/>
       <c r="L381" s="19" t="inlineStr">
         <is>
-          <t>8255461e-2aee-4345-9aec-8339248b262d</t>
+          <t>b0afbc51-0e43-4a18-a9cd-289bed6b17db</t>
         </is>
       </c>
       <c r="M381" s="20" t="n"/>
@@ -20285,13 +20289,13 @@
       </c>
       <c r="D382" s="18" t="inlineStr">
         <is>
-          <t>Utilice 2 espacios de direcciones diferentes entre las regiones, por ejemplo: 10.0.0.0/16 y 192.168.0.0/16 para las diferentes regiones</t>
+          <t>Usar el par de regiones geopolíticas como entorno secundario de recuperación ante desastres</t>
         </is>
       </c>
       <c r="E382" s="18" t="n"/>
       <c r="F382" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
@@ -20305,7 +20309,7 @@
       <c r="K382" s="19" t="n"/>
       <c r="L382" s="19" t="inlineStr">
         <is>
-          <t>6cc5f512-9253-498e-9da9-d37dac43bc6c</t>
+          <t>8255461e-2aee-4345-9aec-8339248b262d</t>
         </is>
       </c>
       <c r="M382" s="20" t="n"/>
@@ -20332,13 +20336,13 @@
       </c>
       <c r="D383" s="18" t="inlineStr">
         <is>
-          <t>¿Se usará Global Reach de ExpressRoute para la conectividad entre las nubes privadas de Azure VMware Solution principal y secundaria, o el enrutamiento se realiza a través de aplicaciones virtuales de red?</t>
+          <t>Utilice 2 espacios de direcciones diferentes entre las regiones, por ejemplo: 10.0.0.0/16 y 192.168.0.0/16 para las diferentes regiones</t>
         </is>
       </c>
       <c r="E383" s="18" t="n"/>
       <c r="F383" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
@@ -20352,7 +20356,7 @@
       <c r="K383" s="19" t="n"/>
       <c r="L383" s="19" t="inlineStr">
         <is>
-          <t>d1d79a9b-2460-4448-aa8f-42d78e78cb6a</t>
+          <t>6cc5f512-9253-498e-9da9-d37dac43bc6c</t>
         </is>
       </c>
       <c r="M383" s="20" t="n"/>
@@ -20379,7 +20383,7 @@
       </c>
       <c r="D384" s="18" t="inlineStr">
         <is>
-          <t>¿Se han considerado todas las soluciones de copia de seguridad y se ha decidido por la mejor solución para su negocio? [ MABS/CommVault/Metallic.io/Veeam/ . ]</t>
+          <t>¿Se usará Global Reach de ExpressRoute para la conectividad entre las nubes privadas de Azure VMware Solution principal y secundaria, o el enrutamiento se realiza a través de aplicaciones virtuales de red?</t>
         </is>
       </c>
       <c r="E384" s="18" t="n"/>
@@ -20399,7 +20403,7 @@
       <c r="K384" s="19" t="n"/>
       <c r="L384" s="19" t="inlineStr">
         <is>
-          <t>33bd2a09-17e7-4a8d-a0ae-0e27cee29711</t>
+          <t>d1d79a9b-2460-4448-aa8f-42d78e78cb6a</t>
         </is>
       </c>
       <c r="M384" s="20" t="n"/>
@@ -20426,7 +20430,7 @@
       </c>
       <c r="D385" s="18" t="inlineStr">
         <is>
-          <t>Implemente la solución de copia de seguridad en la misma región que la nube privada de Azure VMware Solution</t>
+          <t>¿Se han considerado todas las soluciones de copia de seguridad y se ha decidido por la mejor solución para su negocio? [ MABS/CommVault/Metallic.io/Veeam/ . ]</t>
         </is>
       </c>
       <c r="E385" s="18" t="n"/>
@@ -20446,7 +20450,7 @@
       <c r="K385" s="19" t="n"/>
       <c r="L385" s="19" t="inlineStr">
         <is>
-          <t>bd352caa-ab79-4b18-adab-81932c9fc9d1</t>
+          <t>33bd2a09-17e7-4a8d-a0ae-0e27cee29711</t>
         </is>
       </c>
       <c r="M385" s="20" t="n"/>
@@ -20473,7 +20477,7 @@
       </c>
       <c r="D386" s="18" t="inlineStr">
         <is>
-          <t>Implementación de la solución de copia de seguridad fuera de vSan, en componentes nativos de Azure</t>
+          <t>Implemente la solución de copia de seguridad en la misma región que la nube privada de Azure VMware Solution</t>
         </is>
       </c>
       <c r="E386" s="18" t="n"/>
@@ -20493,7 +20497,7 @@
       <c r="K386" s="19" t="n"/>
       <c r="L386" s="19" t="inlineStr">
         <is>
-          <t>bb77036f-5e6b-4fbb-aed5-03547cc447e8</t>
+          <t>bd352caa-ab79-4b18-adab-81932c9fc9d1</t>
         </is>
       </c>
       <c r="M386" s="20" t="n"/>
@@ -20520,13 +20524,13 @@
       </c>
       <c r="D387" s="18" t="inlineStr">
         <is>
-          <t>¿Existe un proceso para solicitar una restauración de los componentes de VMware administrados por la plataforma Azure?</t>
+          <t>Implementación de la solución de copia de seguridad fuera de vSan, en componentes nativos de Azure</t>
         </is>
       </c>
       <c r="E387" s="18" t="n"/>
       <c r="F387" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
@@ -20540,7 +20544,7 @@
       <c r="K387" s="19" t="n"/>
       <c r="L387" s="19" t="inlineStr">
         <is>
-          <t>26028a71-f0f1-4cac-9d9e-f1d5e832d42e</t>
+          <t>bb77036f-5e6b-4fbb-aed5-03547cc447e8</t>
         </is>
       </c>
       <c r="M387" s="20" t="n"/>
@@ -20557,7 +20561,7 @@
       </c>
       <c r="B388" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C388" s="18" t="inlineStr">
@@ -20567,7 +20571,7 @@
       </c>
       <c r="D388" s="18" t="inlineStr">
         <is>
-          <t>En el caso de las implementaciones manuales, se deben documentar todas las configuraciones e implementaciones</t>
+          <t>¿Existe un proceso para solicitar una restauración de los componentes de VMware administrados por la plataforma Azure?</t>
         </is>
       </c>
       <c r="E388" s="18" t="n"/>
@@ -20587,7 +20591,7 @@
       <c r="K388" s="19" t="n"/>
       <c r="L388" s="19" t="inlineStr">
         <is>
-          <t>4604489a-8f42-4d78-b78c-b7a33bd2a0a1</t>
+          <t>26028a71-f0f1-4cac-9d9e-f1d5e832d42e</t>
         </is>
       </c>
       <c r="M388" s="20" t="n"/>
@@ -20614,7 +20618,7 @@
       </c>
       <c r="D389" s="18" t="inlineStr">
         <is>
-          <t>En el caso de las implementaciones manuales, considere la posibilidad de implementar bloqueos de recursos para evitar acciones accidentales en la nube privada de Azure VMware Solution</t>
+          <t>En el caso de las implementaciones manuales, se deben documentar todas las configuraciones e implementaciones</t>
         </is>
       </c>
       <c r="E389" s="18" t="n"/>
@@ -20634,7 +20638,7 @@
       <c r="K389" s="19" t="n"/>
       <c r="L389" s="19" t="inlineStr">
         <is>
-          <t>7e7a8d90-ae0e-437c-be29-711bd352caaa</t>
+          <t>4604489a-8f42-4d78-b78c-b7a33bd2a0a1</t>
         </is>
       </c>
       <c r="M389" s="20" t="n"/>
@@ -20661,7 +20665,7 @@
       </c>
       <c r="D390" s="18" t="inlineStr">
         <is>
-          <t>Para implementaciones automatizadas, implemente una nube privada mínima y escale según sea necesario</t>
+          <t>En el caso de las implementaciones manuales, considere la posibilidad de implementar bloqueos de recursos para evitar acciones accidentales en la nube privada de Azure VMware Solution</t>
         </is>
       </c>
       <c r="E390" s="18" t="n"/>
@@ -20681,7 +20685,7 @@
       <c r="K390" s="19" t="n"/>
       <c r="L390" s="19" t="inlineStr">
         <is>
-          <t>b79b198d-ab81-4932-a9fc-9d1bb78036f5</t>
+          <t>7e7a8d90-ae0e-437c-be29-711bd352caaa</t>
         </is>
       </c>
       <c r="M390" s="20" t="n"/>
@@ -20708,7 +20712,7 @@
       </c>
       <c r="D391" s="18" t="inlineStr">
         <is>
-          <t>En el caso de las implementaciones automatizadas, solicite o reserve una cuota antes de iniciar la implementación</t>
+          <t>Para implementaciones automatizadas, implemente una nube privada mínima y escale según sea necesario</t>
         </is>
       </c>
       <c r="E391" s="18" t="n"/>
@@ -20728,7 +20732,7 @@
       <c r="K391" s="19" t="n"/>
       <c r="L391" s="19" t="inlineStr">
         <is>
-          <t>e6bfbb9e-d503-4547-ac44-7e826128a71f</t>
+          <t>b79b198d-ab81-4932-a9fc-9d1bb78036f5</t>
         </is>
       </c>
       <c r="M391" s="20" t="n"/>
@@ -20755,7 +20759,7 @@
       </c>
       <c r="D392" s="18" t="inlineStr">
         <is>
-          <t>En el caso de la implementación automatizada, asegúrese de que se crean bloqueos de recursos relevantes a través de la automatización o a través de Azure Policy para una gobernanza adecuada</t>
+          <t>En el caso de las implementaciones automatizadas, solicite o reserve una cuota antes de iniciar la implementación</t>
         </is>
       </c>
       <c r="E392" s="18" t="n"/>
@@ -20775,7 +20779,7 @@
       <c r="K392" s="19" t="n"/>
       <c r="L392" s="19" t="inlineStr">
         <is>
-          <t>0f1cac6d-9ef1-4d5e-a32e-42e3611c818b</t>
+          <t>e6bfbb9e-d503-4547-ac44-7e826128a71f</t>
         </is>
       </c>
       <c r="M392" s="20" t="n"/>
@@ -20802,7 +20806,7 @@
       </c>
       <c r="D393" s="18" t="inlineStr">
         <is>
-          <t>Implemente nombres comprensibles para las claves de autorización ExR para permitir una fácil identificación del propósito y uso de las claves.</t>
+          <t>En el caso de la implementación automatizada, asegúrese de que se crean bloqueos de recursos relevantes a través de la automatización o a través de Azure Policy para una gobernanza adecuada</t>
         </is>
       </c>
       <c r="E393" s="18" t="n"/>
@@ -20822,7 +20826,7 @@
       <c r="K393" s="19" t="n"/>
       <c r="L393" s="19" t="inlineStr">
         <is>
-          <t>e2cc95d4-8c6b-4791-bca0-f6c56589e558</t>
+          <t>0f1cac6d-9ef1-4d5e-a32e-42e3611c818b</t>
         </is>
       </c>
       <c r="M393" s="20" t="n"/>
@@ -20849,7 +20853,7 @@
       </c>
       <c r="D394" s="18" t="inlineStr">
         <is>
-          <t>Uso de Key Vault para almacenar secretos y claves de autorización cuando se usan principios de servicio independientes para implementar Azure VMware Solution y ExpressRoute</t>
+          <t>Implemente nombres comprensibles para las claves de autorización ExR para permitir una fácil identificación del propósito y uso de las claves.</t>
         </is>
       </c>
       <c r="E394" s="18" t="n"/>
@@ -20869,7 +20873,7 @@
       <c r="K394" s="19" t="n"/>
       <c r="L394" s="19" t="inlineStr">
         <is>
-          <t>255461e2-aee3-4553-afc8-339248b262d6</t>
+          <t>e2cc95d4-8c6b-4791-bca0-f6c56589e558</t>
         </is>
       </c>
       <c r="M394" s="20" t="n"/>
@@ -20896,7 +20900,7 @@
       </c>
       <c r="D395" s="18" t="inlineStr">
         <is>
-          <t>Defina dependencias de recursos para serializar acciones en IaC cuando sea necesario implementar muchos recursos en Azure VMware Solution, ya que Azure VMware Solution solo admite un número limitado de operaciones paralelas.</t>
+          <t>Uso de Key Vault para almacenar secretos y claves de autorización cuando se usan principios de servicio independientes para implementar Azure VMware Solution y ExpressRoute</t>
         </is>
       </c>
       <c r="E395" s="18" t="n"/>
@@ -20916,7 +20920,7 @@
       <c r="K395" s="19" t="n"/>
       <c r="L395" s="19" t="inlineStr">
         <is>
-          <t>cc5f5129-2539-48e6-bb9d-37dac43bc6cd</t>
+          <t>255461e2-aee3-4553-afc8-339248b262d6</t>
         </is>
       </c>
       <c r="M395" s="20" t="n"/>
@@ -20943,7 +20947,7 @@
       </c>
       <c r="D396" s="18" t="inlineStr">
         <is>
-          <t>Al realizar la configuración automatizada de segmentos de NSX-T con una única puerta de enlace de nivel 1, use las API de Azure Portal en lugar de las API de NSX-Manager</t>
+          <t>Defina dependencias de recursos para serializar acciones en IaC cuando sea necesario implementar muchos recursos en Azure VMware Solution, ya que Azure VMware Solution solo admite un número limitado de operaciones paralelas.</t>
         </is>
       </c>
       <c r="E396" s="18" t="n"/>
@@ -20963,7 +20967,7 @@
       <c r="K396" s="19" t="n"/>
       <c r="L396" s="19" t="inlineStr">
         <is>
-          <t>1d79a9b2-4604-4489-a8f4-2d78e78cb7a3</t>
+          <t>cc5f5129-2539-48e6-bb9d-37dac43bc6cd</t>
         </is>
       </c>
       <c r="M396" s="20" t="n"/>
@@ -20980,7 +20984,7 @@
       </c>
       <c r="B397" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C397" s="18" t="inlineStr">
@@ -20990,13 +20994,13 @@
       </c>
       <c r="D397" s="18" t="inlineStr">
         <is>
-          <t>Si tiene la intención de usar el escalado horizontal automatizado, asegúrese de solicitar una cuota suficiente de Azure VMware Solution para las suscripciones que ejecutan Azure VMware Solution</t>
+          <t>Al realizar la configuración automatizada de segmentos de NSX-T con una única puerta de enlace de nivel 1, use las API de Azure Portal en lugar de las API de NSX-Manager</t>
         </is>
       </c>
       <c r="E397" s="18" t="n"/>
       <c r="F397" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
@@ -21010,7 +21014,7 @@
       <c r="K397" s="19" t="n"/>
       <c r="L397" s="19" t="inlineStr">
         <is>
-          <t>3bd2a0a1-7e7a-48d9-8ae0-e37cee29711b</t>
+          <t>1d79a9b2-4604-4489-a8f4-2d78e78cb7a3</t>
         </is>
       </c>
       <c r="M397" s="20" t="n"/>
@@ -21037,7 +21041,7 @@
       </c>
       <c r="D398" s="18" t="inlineStr">
         <is>
-          <t>Cuando tenga la intención de usar la reducción horizontal automatizada, asegúrese de tener en cuenta los requisitos de la directiva de almacenamiento antes de realizar dicha acción</t>
+          <t>Si tiene la intención de usar el escalado horizontal automatizado, asegúrese de solicitar una cuota suficiente de Azure VMware Solution para las suscripciones que ejecutan Azure VMware Solution</t>
         </is>
       </c>
       <c r="E398" s="18" t="n"/>
@@ -21057,7 +21061,7 @@
       <c r="K398" s="19" t="n"/>
       <c r="L398" s="19" t="inlineStr">
         <is>
-          <t>d352caaa-b79b-4198-bab8-1932c9fc9d1b</t>
+          <t>3bd2a0a1-7e7a-48d9-8ae0-e37cee29711b</t>
         </is>
       </c>
       <c r="M398" s="20" t="n"/>
@@ -21084,7 +21088,7 @@
       </c>
       <c r="D399" s="18" t="inlineStr">
         <is>
-          <t>Las operaciones de escalado siempre deben serializarse dentro de un único SDDC, ya que solo se puede realizar una operación de escalado a la vez (incluso cuando se utilizan varios clústeres)</t>
+          <t>Cuando tenga la intención de usar la reducción horizontal automatizada, asegúrese de tener en cuenta los requisitos de la directiva de almacenamiento antes de realizar dicha acción</t>
         </is>
       </c>
       <c r="E399" s="18" t="n"/>
@@ -21104,7 +21108,7 @@
       <c r="K399" s="19" t="n"/>
       <c r="L399" s="19" t="inlineStr">
         <is>
-          <t>b78036f5-e6bf-4bb9-bd50-3547cc447e82</t>
+          <t>d352caaa-b79b-4198-bab8-1932c9fc9d1b</t>
         </is>
       </c>
       <c r="M399" s="20" t="n"/>
@@ -21131,7 +21135,7 @@
       </c>
       <c r="D400" s="18" t="inlineStr">
         <is>
-          <t>Considerar y validar las operaciones de escalado en soluciones de terceros utilizadas en la arquitectura (compatibles o no)</t>
+          <t>Las operaciones de escalado siempre deben serializarse dentro de un único SDDC, ya que solo se puede realizar una operación de escalado a la vez (incluso cuando se utilizan varios clústeres)</t>
         </is>
       </c>
       <c r="E400" s="18" t="n"/>
@@ -21151,7 +21155,7 @@
       <c r="K400" s="19" t="n"/>
       <c r="L400" s="19" t="inlineStr">
         <is>
-          <t>bf15bce2-19e4-4a0e-a588-79424d226786</t>
+          <t>b78036f5-e6bf-4bb9-bd50-3547cc447e82</t>
         </is>
       </c>
       <c r="M400" s="20" t="n"/>
@@ -21178,7 +21182,7 @@
       </c>
       <c r="D401" s="18" t="inlineStr">
         <is>
-          <t>Defina y aplique límites máximos de escalado vertical y horizontal para su entorno en las automatizaciones</t>
+          <t>Considerar y validar las operaciones de escalado en soluciones de terceros utilizadas en la arquitectura (compatibles o no)</t>
         </is>
       </c>
       <c r="E401" s="18" t="n"/>
@@ -21198,7 +21202,7 @@
       <c r="K401" s="19" t="n"/>
       <c r="L401" s="19" t="inlineStr">
         <is>
-          <t>d20b56c5-7be5-4851-a0f8-3835c586cb29</t>
+          <t>bf15bce2-19e4-4a0e-a588-79424d226786</t>
         </is>
       </c>
       <c r="M401" s="20" t="n"/>
@@ -21215,7 +21219,7 @@
       </c>
       <c r="B402" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C402" s="18" t="inlineStr">
@@ -21225,7 +21229,7 @@
       </c>
       <c r="D402" s="18" t="inlineStr">
         <is>
-          <t>Implemente reglas de supervisión para supervisar las operaciones de escalado automatizadas y supervisar el éxito y el fracaso para permitir respuestas adecuadas (automatizadas)</t>
+          <t>Defina y aplique límites máximos de escalado vertical y horizontal para su entorno en las automatizaciones</t>
         </is>
       </c>
       <c r="E402" s="18" t="n"/>
@@ -21245,7 +21249,7 @@
       <c r="K402" s="19" t="n"/>
       <c r="L402" s="19" t="inlineStr">
         <is>
-          <t>1dc15a1c-075e-4e9f-841a-cccd579376bc</t>
+          <t>d20b56c5-7be5-4851-a0f8-3835c586cb29</t>
         </is>
       </c>
       <c r="M402" s="20" t="n"/>
@@ -21262,7 +21266,7 @@
       </c>
       <c r="B403" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C403" s="18" t="inlineStr">
@@ -21272,13 +21276,13 @@
       </c>
       <c r="D403" s="18" t="inlineStr">
         <is>
-          <t>Al usar MON, tenga en cuenta los límites de las máquinas virtuales configuradas simultáneamente (límite de MON para HCX [400 - estándar, 1000 - dispositivo más grande])</t>
+          <t>Implemente reglas de supervisión para supervisar las operaciones de escalado automatizadas y supervisar el éxito y el fracaso para permitir respuestas adecuadas (automatizadas)</t>
         </is>
       </c>
       <c r="E403" s="18" t="n"/>
       <c r="F403" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
@@ -21287,20 +21291,12 @@
         </is>
       </c>
       <c r="H403" s="18" t="n"/>
-      <c r="I403" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
-      <c r="J403" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
-        </is>
-      </c>
+      <c r="I403" s="13" t="n"/>
+      <c r="J403" s="13" t="n"/>
       <c r="K403" s="19" t="n"/>
       <c r="L403" s="19" t="inlineStr">
         <is>
-          <t>c5972cd4-cd21-4b07-9036-f5e6b4bfd3d5</t>
+          <t>1dc15a1c-075e-4e9f-841a-cccd579376bc</t>
         </is>
       </c>
       <c r="M403" s="20" t="n"/>
@@ -21327,7 +21323,7 @@
       </c>
       <c r="D404" s="18" t="inlineStr">
         <is>
-          <t>Al usar MON, no puede habilitar MON en más de 100 extensiones de red</t>
+          <t>Al usar MON, tenga en cuenta los límites de las máquinas virtuales configuradas simultáneamente (límite de MON para HCX [400 - estándar, 1000 - dispositivo más grande])</t>
         </is>
       </c>
       <c r="E404" s="18" t="n"/>
@@ -21349,13 +21345,13 @@
       </c>
       <c r="J404" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="K404" s="19" t="n"/>
       <c r="L404" s="19" t="inlineStr">
         <is>
-          <t>be1f38cf-03a8-422b-b463-cbbbc8ac299e</t>
+          <t>c5972cd4-cd21-4b07-9036-f5e6b4bfd3d5</t>
         </is>
       </c>
       <c r="M404" s="20" t="n"/>
@@ -21372,7 +21368,7 @@
       </c>
       <c r="B405" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C405" s="18" t="inlineStr">
@@ -21382,13 +21378,13 @@
       </c>
       <c r="D405" s="18" t="inlineStr">
         <is>
-          <t>Si utiliza una conexión VPN para migraciones, ajuste el tamaño de su MTU en consecuencia.</t>
+          <t>Al usar MON, no puede habilitar MON en más de 100 extensiones de red</t>
         </is>
       </c>
       <c r="E405" s="18" t="n"/>
       <c r="F405" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
@@ -21397,12 +21393,20 @@
         </is>
       </c>
       <c r="H405" s="18" t="n"/>
-      <c r="I405" s="13" t="n"/>
-      <c r="J405" s="13" t="n"/>
+      <c r="I405" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J405" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="K405" s="19" t="n"/>
       <c r="L405" s="19" t="inlineStr">
         <is>
-          <t>bc91a43d-90da-4e2c-a881-4706f7c1cbaf</t>
+          <t>be1f38cf-03a8-422b-b463-cbbbc8ac299e</t>
         </is>
       </c>
       <c r="M405" s="20" t="n"/>
@@ -21429,7 +21433,7 @@
       </c>
       <c r="D406" s="18" t="inlineStr">
         <is>
-          <t>En el caso de las regiones de baja conectividad que se conectan a Azure (500 Mbps o menos), considere la posibilidad de implementar el dispositivo de optimización de WAN de HCX</t>
+          <t>Si utiliza una conexión VPN para migraciones, ajuste el tamaño de su MTU en consecuencia.</t>
         </is>
       </c>
       <c r="E406" s="18" t="n"/>
@@ -21449,7 +21453,7 @@
       <c r="K406" s="19" t="n"/>
       <c r="L406" s="19" t="inlineStr">
         <is>
-          <t>e614658d-d457-4e92-9139-b821102cad6e</t>
+          <t>bc91a43d-90da-4e2c-a881-4706f7c1cbaf</t>
         </is>
       </c>
       <c r="M406" s="20" t="n"/>
@@ -21466,7 +21470,7 @@
       </c>
       <c r="B407" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C407" s="18" t="inlineStr">
@@ -21476,7 +21480,7 @@
       </c>
       <c r="D407" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que las migraciones se inicien desde el dispositivo local y NO desde el dispositivo en la nube (NO realice una migración inversa)</t>
+          <t>En el caso de las regiones de baja conectividad que se conectan a Azure (500 Mbps o menos), considere la posibilidad de implementar el dispositivo de optimización de WAN de HCX</t>
         </is>
       </c>
       <c r="E407" s="18" t="n"/>
@@ -21496,7 +21500,7 @@
       <c r="K407" s="19" t="n"/>
       <c r="L407" s="19" t="inlineStr">
         <is>
-          <t>ae01e6e8-43e5-42f4-922d-928c1b1cd521</t>
+          <t>e614658d-d457-4e92-9139-b821102cad6e</t>
         </is>
       </c>
       <c r="M407" s="20" t="n"/>
@@ -21523,7 +21527,7 @@
       </c>
       <c r="D408" s="18" t="inlineStr">
         <is>
-          <t>Cuando se usa Azure NetApp Files para ampliar el almacenamiento de Azure VMware Solution, considere la posibilidad de usarlo como almacén de datos de VMware en lugar de adjuntarlo directamente a una máquina virtual.</t>
+          <t>Asegúrese de que las migraciones se inicien desde el dispositivo local y NO desde el dispositivo en la nube (NO realice una migración inversa)</t>
         </is>
       </c>
       <c r="E408" s="18" t="n"/>
@@ -21538,16 +21542,12 @@
         </is>
       </c>
       <c r="H408" s="18" t="n"/>
-      <c r="I408" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I408" s="13" t="n"/>
       <c r="J408" s="13" t="n"/>
       <c r="K408" s="19" t="n"/>
       <c r="L408" s="19" t="inlineStr">
         <is>
-          <t>e54a29a9-de39-4ac0-b7c2-8dc935657202</t>
+          <t>ae01e6e8-43e5-42f4-922d-928c1b1cd521</t>
         </is>
       </c>
       <c r="M408" s="20" t="n"/>
@@ -21574,7 +21574,7 @@
       </c>
       <c r="D409" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que se usa una puerta de enlace de ExpressRoute dedicada para soluciones de almacenamiento de datos externos</t>
+          <t>Cuando se usa Azure NetApp Files para ampliar el almacenamiento de Azure VMware Solution, considere la posibilidad de usarlo como almacén de datos de VMware en lugar de adjuntarlo directamente a una máquina virtual.</t>
         </is>
       </c>
       <c r="E409" s="18" t="n"/>
@@ -21598,7 +21598,7 @@
       <c r="K409" s="19" t="n"/>
       <c r="L409" s="19" t="inlineStr">
         <is>
-          <t>bff4564b-0d93-44a3-98b2-63e7dd60513a</t>
+          <t>e54a29a9-de39-4ac0-b7c2-8dc935657202</t>
         </is>
       </c>
       <c r="M409" s="20" t="n"/>
@@ -21625,7 +21625,7 @@
       </c>
       <c r="D410" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que FastPath está habilitado en la puerta de enlace de ExpressRoute que se usa para las soluciones de almacenamiento de datos externos</t>
+          <t>Asegúrese de que se usa una puerta de enlace de ExpressRoute dedicada para soluciones de almacenamiento de datos externos</t>
         </is>
       </c>
       <c r="E410" s="18" t="n"/>
@@ -21649,7 +21649,7 @@
       <c r="K410" s="19" t="n"/>
       <c r="L410" s="19" t="inlineStr">
         <is>
-          <t>3649906e-bad3-48ea-b53c-c7de1d8aaab3</t>
+          <t>bff4564b-0d93-44a3-98b2-63e7dd60513a</t>
         </is>
       </c>
       <c r="M410" s="20" t="n"/>
@@ -21676,13 +21676,13 @@
       </c>
       <c r="D411" s="18" t="inlineStr">
         <is>
-          <t>Si utiliza un clúster ampliado, asegúrese de que la solución de recuperación ante desastres seleccionada sea compatible con el proveedor</t>
+          <t>Asegúrese de que FastPath está habilitado en la puerta de enlace de ExpressRoute que se usa para las soluciones de almacenamiento de datos externos</t>
         </is>
       </c>
       <c r="E411" s="18" t="n"/>
       <c r="F411" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G411" t="inlineStr">
@@ -21700,7 +21700,7 @@
       <c r="K411" s="19" t="n"/>
       <c r="L411" s="19" t="inlineStr">
         <is>
-          <t>571549ab-8153-4d89-b89d-c7b33be2b1a2</t>
+          <t>3649906e-bad3-48ea-b53c-c7de1d8aaab3</t>
         </is>
       </c>
       <c r="M411" s="20" t="n"/>
@@ -21727,7 +21727,7 @@
       </c>
       <c r="D412" s="18" t="inlineStr">
         <is>
-          <t>Si utiliza un clúster ampliado, asegúrese de que el Acuerdo de Nivel de Servicio proporcionado cumpla sus requisitos</t>
+          <t>Si utiliza un clúster ampliado, asegúrese de que la solución de recuperación ante desastres seleccionada sea compatible con el proveedor</t>
         </is>
       </c>
       <c r="E412" s="18" t="n"/>
@@ -21751,7 +21751,7 @@
       <c r="K412" s="19" t="n"/>
       <c r="L412" s="19" t="inlineStr">
         <is>
-          <t>4c486b6d-8bdc-4059-acf7-5ee8a1309888</t>
+          <t>571549ab-8153-4d89-b89d-c7b33be2b1a2</t>
         </is>
       </c>
       <c r="M412" s="20" t="n"/>
@@ -21778,7 +21778,7 @@
       </c>
       <c r="D413" s="18" t="inlineStr">
         <is>
-          <t>Si usa un clúster extendido, asegúrese de que ambos circuitos ExpressRoute están conectados al centro de conectividad.</t>
+          <t>Si utiliza un clúster ampliado, asegúrese de que el Acuerdo de Nivel de Servicio proporcionado cumpla sus requisitos</t>
         </is>
       </c>
       <c r="E413" s="18" t="n"/>
@@ -21802,7 +21802,7 @@
       <c r="K413" s="19" t="n"/>
       <c r="L413" s="19" t="inlineStr">
         <is>
-          <t>9579d66b-896d-471f-a6ca-7be9955d04c3</t>
+          <t>4c486b6d-8bdc-4059-acf7-5ee8a1309888</t>
         </is>
       </c>
       <c r="M413" s="20" t="n"/>
@@ -21829,7 +21829,7 @@
       </c>
       <c r="D414" s="18" t="inlineStr">
         <is>
-          <t>Si usa un clúster extendido, asegúrese de que ambos circuitos ExpressRoute tengan habilitado GlobalReach.</t>
+          <t>Si usa un clúster extendido, asegúrese de que ambos circuitos ExpressRoute están conectados al centro de conectividad.</t>
         </is>
       </c>
       <c r="E414" s="18" t="n"/>
@@ -21853,7 +21853,7 @@
       <c r="K414" s="19" t="n"/>
       <c r="L414" s="19" t="inlineStr">
         <is>
-          <t>c49d987c-b3d1-4325-aa12-4b6e4d0685ed</t>
+          <t>9579d66b-896d-471f-a6ca-7be9955d04c3</t>
         </is>
       </c>
       <c r="M414" s="20" t="n"/>
@@ -21880,7 +21880,7 @@
       </c>
       <c r="D415" s="18" t="inlineStr">
         <is>
-          <t>Haga que la configuración de tolerancia ante desastres del sitio se considere y cambie correctamente para su negocio si es necesario.</t>
+          <t>Si usa un clúster extendido, asegúrese de que ambos circuitos ExpressRoute tengan habilitado GlobalReach.</t>
         </is>
       </c>
       <c r="E415" s="18" t="n"/>
@@ -21904,7 +21904,7 @@
       <c r="K415" s="19" t="n"/>
       <c r="L415" s="19" t="inlineStr">
         <is>
-          <t>dce9793b-7bcd-4b3b-91eb-2ec14eea6e59</t>
+          <t>c49d987c-b3d1-4325-aa12-4b6e4d0685ed</t>
         </is>
       </c>
       <c r="M415" s="20" t="n"/>
@@ -21916,32 +21916,28 @@
     <row r="416">
       <c r="A416" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure VMware Solution Design Review</t>
         </is>
       </c>
       <c r="B416" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C416" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="D416" s="18" t="inlineStr">
         <is>
-          <t>Tenga en cuenta la "línea base de seguridad de Azure para el almacenamiento"</t>
-        </is>
-      </c>
-      <c r="E416" s="18" t="inlineStr">
-        <is>
-          <t>Aplicación de las instrucciones de la prueba comparativa de seguridad en la nube de Microsoft relacionadas con el almacenamiento</t>
-        </is>
-      </c>
+          <t>Haga que la configuración de tolerancia ante desastres del sitio se considere y cambie correctamente para su negocio si es necesario.</t>
+        </is>
+      </c>
+      <c r="E416" s="18" t="n"/>
       <c r="F416" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G416" t="inlineStr">
@@ -21959,7 +21955,7 @@
       <c r="K416" s="19" t="n"/>
       <c r="L416" s="19" t="inlineStr">
         <is>
-          <t>d237de14-3b16-4c21-b7aa-9b64604489a8</t>
+          <t>dce9793b-7bcd-4b3b-91eb-2ec14eea6e59</t>
         </is>
       </c>
       <c r="M416" s="20" t="n"/>
@@ -21986,17 +21982,17 @@
       </c>
       <c r="D417" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar puntos de conexión privados para Azure Storage</t>
+          <t>Tenga en cuenta la "línea base de seguridad de Azure para el almacenamiento"</t>
         </is>
       </c>
       <c r="E417" s="18" t="inlineStr">
         <is>
-          <t>De forma predeterminada, Azure Storage tiene una dirección IP pública y es accesible desde Internet. Los puntos de conexión privados permiten exponer de forma segura Azure Storage solo a los recursos de proceso de Azure que necesitan acceso, lo que elimina la exposición a la Internet pública</t>
+          <t>Aplicación de las instrucciones de la prueba comparativa de seguridad en la nube de Microsoft relacionadas con el almacenamiento</t>
         </is>
       </c>
       <c r="F417" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G417" t="inlineStr">
@@ -22014,7 +22010,7 @@
       <c r="K417" s="19" t="n"/>
       <c r="L417" s="19" t="inlineStr">
         <is>
-          <t>f42d78e7-9d17-4a73-a22a-5a67e7a8ed4b</t>
+          <t>d237de14-3b16-4c21-b7aa-9b64604489a8</t>
         </is>
       </c>
       <c r="M417" s="20" t="n"/>
@@ -22041,17 +22037,17 @@
       </c>
       <c r="D418" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que las cuentas de almacenamiento más antiguas no usan el "modelo de implementación clásica"</t>
+          <t>Considere la posibilidad de usar puntos de conexión privados para Azure Storage</t>
         </is>
       </c>
       <c r="E418" s="18" t="inlineStr">
         <is>
-          <t>Las cuentas de almacenamiento recién creadas se crean mediante el modelo de implementación de ARM, de modo que RBAC, auditoría, etc. están habilitados. Asegúrese de que no hay cuentas de almacenamiento antiguas con el modelo de implementación clásica en una suscripción</t>
+          <t>De forma predeterminada, Azure Storage tiene una dirección IP pública y es accesible desde Internet. Los puntos de conexión privados permiten exponer de forma segura Azure Storage solo a los recursos de proceso de Azure que necesitan acceso, lo que elimina la exposición a la Internet pública</t>
         </is>
       </c>
       <c r="F418" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G418" t="inlineStr">
@@ -22069,7 +22065,7 @@
       <c r="K418" s="19" t="n"/>
       <c r="L418" s="19" t="inlineStr">
         <is>
-          <t>30e37c3e-2971-41b2-963c-eee079b598de</t>
+          <t>f42d78e7-9d17-4a73-a22a-5a67e7a8ed4b</t>
         </is>
       </c>
       <c r="M418" s="20" t="n"/>
@@ -22096,17 +22092,17 @@
       </c>
       <c r="D419" s="18" t="inlineStr">
         <is>
-          <t>Habilitación de Microsoft Defender para todas las cuentas de almacenamiento</t>
+          <t>Asegúrese de que las cuentas de almacenamiento más antiguas no usan el "modelo de implementación clásica"</t>
         </is>
       </c>
       <c r="E419" s="18" t="inlineStr">
         <is>
-          <t>Aproveche Microsoft Defender para obtener información sobre la actividad sospechosa y los errores de configuración.</t>
+          <t>Las cuentas de almacenamiento recién creadas se crean mediante el modelo de implementación de ARM, de modo que RBAC, auditoría, etc. están habilitados. Asegúrese de que no hay cuentas de almacenamiento antiguas con el modelo de implementación clásica en una suscripción</t>
         </is>
       </c>
       <c r="F419" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G419" t="inlineStr">
@@ -22124,7 +22120,7 @@
       <c r="K419" s="19" t="n"/>
       <c r="L419" s="19" t="inlineStr">
         <is>
-          <t>fc5972cd-4cd2-41b0-a803-7f5e6b4bfd3d</t>
+          <t>30e37c3e-2971-41b2-963c-eee079b598de</t>
         </is>
       </c>
       <c r="M419" s="20" t="n"/>
@@ -22151,17 +22147,17 @@
       </c>
       <c r="D420" s="18" t="inlineStr">
         <is>
-          <t>Habilitación de la "eliminación temporal" para blobs</t>
+          <t>Habilitación de Microsoft Defender para todas las cuentas de almacenamiento</t>
         </is>
       </c>
       <c r="E420" s="18" t="inlineStr">
         <is>
-          <t>El mecanismo de eliminación temporal permite recuperar blobs eliminados accidentalmente.</t>
+          <t>Aproveche Microsoft Defender para obtener información sobre la actividad sospechosa y los errores de configuración.</t>
         </is>
       </c>
       <c r="F420" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G420" t="inlineStr">
@@ -22179,7 +22175,7 @@
       <c r="K420" s="19" t="n"/>
       <c r="L420" s="19" t="inlineStr">
         <is>
-          <t>503547c1-447e-4c66-828a-7100f1ce16dd</t>
+          <t>fc5972cd-4cd2-41b0-a803-7f5e6b4bfd3d</t>
         </is>
       </c>
       <c r="M420" s="20" t="n"/>
@@ -22206,12 +22202,12 @@
       </c>
       <c r="D421" s="18" t="inlineStr">
         <is>
-          <t>Deshabilitación de la "eliminación temporal" de blobs</t>
+          <t>Habilitación de la "eliminación temporal" para blobs</t>
         </is>
       </c>
       <c r="E421" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere la posibilidad de deshabilitar de forma selectiva la "eliminación temporal" para determinados contenedores de blobs, por ejemplo, si la aplicación debe asegurarse de que la información eliminada se elimina inmediatamente, por ejemplo, por motivos de confidencialidad, privacidad o cumplimiento. </t>
+          <t>El mecanismo de eliminación temporal permite recuperar blobs eliminados accidentalmente.</t>
         </is>
       </c>
       <c r="F421" s="18" t="inlineStr">
@@ -22234,7 +22230,7 @@
       <c r="K421" s="19" t="n"/>
       <c r="L421" s="19" t="inlineStr">
         <is>
-          <t>3f1d5e87-2e52-4e36-81cc-58b4a4b1510e</t>
+          <t>503547c1-447e-4c66-828a-7100f1ce16dd</t>
         </is>
       </c>
       <c r="M421" s="20" t="n"/>
@@ -22261,17 +22257,17 @@
       </c>
       <c r="D422" s="18" t="inlineStr">
         <is>
-          <t>Habilitación de la "eliminación temporal" para los contenedores</t>
+          <t>Deshabilitación de la "eliminación temporal" de blobs</t>
         </is>
       </c>
       <c r="E422" s="18" t="inlineStr">
         <is>
-          <t>La eliminación temporal de contenedores permite recuperar un contenedor después de que se haya eliminado, por ejemplo, recuperarse de una operación de eliminación accidental.</t>
+          <t xml:space="preserve">Considere la posibilidad de deshabilitar de forma selectiva la "eliminación temporal" para determinados contenedores de blobs, por ejemplo, si la aplicación debe asegurarse de que la información eliminada se elimina inmediatamente, por ejemplo, por motivos de confidencialidad, privacidad o cumplimiento. </t>
         </is>
       </c>
       <c r="F422" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G422" t="inlineStr">
@@ -22289,7 +22285,7 @@
       <c r="K422" s="19" t="n"/>
       <c r="L422" s="19" t="inlineStr">
         <is>
-          <t>43a58a9c-2289-4c3d-9b57-d0c655462f2a</t>
+          <t>3f1d5e87-2e52-4e36-81cc-58b4a4b1510e</t>
         </is>
       </c>
       <c r="M422" s="20" t="n"/>
@@ -22316,17 +22312,17 @@
       </c>
       <c r="D423" s="18" t="inlineStr">
         <is>
-          <t>Deshabilitación de la "eliminación temporal" para contenedores</t>
+          <t>Habilitación de la "eliminación temporal" para los contenedores</t>
         </is>
       </c>
       <c r="E423" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere la posibilidad de deshabilitar de forma selectiva la "eliminación temporal" para determinados contenedores de blobs, por ejemplo, si la aplicación debe asegurarse de que la información eliminada se elimina inmediatamente, por ejemplo, por motivos de confidencialidad, privacidad o cumplimiento. </t>
+          <t>La eliminación temporal de contenedores permite recuperar un contenedor después de que se haya eliminado, por ejemplo, recuperarse de una operación de eliminación accidental.</t>
         </is>
       </c>
       <c r="F423" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G423" t="inlineStr">
@@ -22344,7 +22340,7 @@
       <c r="K423" s="19" t="n"/>
       <c r="L423" s="19" t="inlineStr">
         <is>
-          <t>3e3453a3-c863-4964-ab65-2d6c15f51296</t>
+          <t>43a58a9c-2289-4c3d-9b57-d0c655462f2a</t>
         </is>
       </c>
       <c r="M423" s="20" t="n"/>
@@ -22371,17 +22367,17 @@
       </c>
       <c r="D424" s="18" t="inlineStr">
         <is>
-          <t>Habilitación de bloqueos de recursos en cuentas de almacenamiento</t>
+          <t>Deshabilitación de la "eliminación temporal" para contenedores</t>
         </is>
       </c>
       <c r="E424" s="18" t="inlineStr">
         <is>
-          <t>Evita la eliminación accidental de una cuenta de almacenamiento, obligando al usuario a quitar primero el bloqueo de eliminación, antes de la eliminación</t>
+          <t xml:space="preserve">Considere la posibilidad de deshabilitar de forma selectiva la "eliminación temporal" para determinados contenedores de blobs, por ejemplo, si la aplicación debe asegurarse de que la información eliminada se elimina inmediatamente, por ejemplo, por motivos de confidencialidad, privacidad o cumplimiento. </t>
         </is>
       </c>
       <c r="F424" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G424" t="inlineStr">
@@ -22399,7 +22395,7 @@
       <c r="K424" s="19" t="n"/>
       <c r="L424" s="19" t="inlineStr">
         <is>
-          <t>5398e6de-d227-4dd1-92b0-6c21d7999a64</t>
+          <t>3e3453a3-c863-4964-ab65-2d6c15f51296</t>
         </is>
       </c>
       <c r="M424" s="20" t="n"/>
@@ -22426,12 +22422,12 @@
       </c>
       <c r="D425" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de blobs inmutables</t>
+          <t>Habilitación de bloqueos de recursos en cuentas de almacenamiento</t>
         </is>
       </c>
       <c r="E425" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de aplicar directivas de "retención legal" o "retención basada en el tiempo" para los blobs, de modo que sea imposible eliminar el blob, el contenedor o la cuenta de almacenamiento. Tenga en cuenta que 'imposible' en realidad significa 'imposible'; una vez que una cuenta de almacenamiento contiene un blob inmutable, la única manera de "deshacerse" de esa cuenta de almacenamiento es cancelando la suscripción de Azure.</t>
+          <t>Evita la eliminación accidental de una cuenta de almacenamiento, obligando al usuario a quitar primero el bloqueo de eliminación, antes de la eliminación</t>
         </is>
       </c>
       <c r="F425" s="18" t="inlineStr">
@@ -22454,7 +22450,7 @@
       <c r="K425" s="19" t="n"/>
       <c r="L425" s="19" t="inlineStr">
         <is>
-          <t>6f4389a8-f42c-478e-98c0-6a73a22a4956</t>
+          <t>5398e6de-d227-4dd1-92b0-6c21d7999a64</t>
         </is>
       </c>
       <c r="M425" s="20" t="n"/>
@@ -22481,12 +22477,12 @@
       </c>
       <c r="D426" s="18" t="inlineStr">
         <is>
-          <t>Requerir HTTPS, es decir, deshabilitar el puerto 80 en la cuenta de almacenamiento</t>
+          <t>Considere la posibilidad de blobs inmutables</t>
         </is>
       </c>
       <c r="E426" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere la posibilidad de deshabilitar el acceso HTTP/80 sin protección a la cuenta de almacenamiento, de modo que todas las transferencias de datos estén cifradas, protegidas por integridad y el servidor esté autenticado. </t>
+          <t>Considere la posibilidad de aplicar directivas de "retención legal" o "retención basada en el tiempo" para los blobs, de modo que sea imposible eliminar el blob, el contenedor o la cuenta de almacenamiento. Tenga en cuenta que 'imposible' en realidad significa 'imposible'; una vez que una cuenta de almacenamiento contiene un blob inmutable, la única manera de "deshacerse" de esa cuenta de almacenamiento es cancelando la suscripción de Azure.</t>
         </is>
       </c>
       <c r="F426" s="18" t="inlineStr">
@@ -22509,7 +22505,7 @@
       <c r="K426" s="19" t="n"/>
       <c r="L426" s="19" t="inlineStr">
         <is>
-          <t>e7a8dc4a-20e2-47c3-b297-11b1352beee0</t>
+          <t>6f4389a8-f42c-478e-98c0-6a73a22a4956</t>
         </is>
       </c>
       <c r="M426" s="20" t="n"/>
@@ -22536,12 +22532,12 @@
       </c>
       <c r="D427" s="18" t="inlineStr">
         <is>
-          <t>Al aplicar HTTPS (deshabilitar HTTP), compruebe que no usa dominios personalizados (CNAME) para la cuenta de almacenamiento.</t>
+          <t>Requerir HTTPS, es decir, deshabilitar el puerto 80 en la cuenta de almacenamiento</t>
         </is>
       </c>
       <c r="E427" s="18" t="inlineStr">
         <is>
-          <t>Al configurar un dominio personalizado (nombre de host) en una cuenta de almacenamiento, compruebe si necesita TLS/HTTPS; si es así, es posible que tenga que colocar Azure CDN delante de la cuenta de almacenamiento.</t>
+          <t xml:space="preserve">Considere la posibilidad de deshabilitar el acceso HTTP/80 sin protección a la cuenta de almacenamiento, de modo que todas las transferencias de datos estén cifradas, protegidas por integridad y el servidor esté autenticado. </t>
         </is>
       </c>
       <c r="F427" s="18" t="inlineStr">
@@ -22564,7 +22560,7 @@
       <c r="K427" s="19" t="n"/>
       <c r="L427" s="19" t="inlineStr">
         <is>
-          <t>79b588de-fc49-472c-b3cd-21bf77036e5e</t>
+          <t>e7a8dc4a-20e2-47c3-b297-11b1352beee0</t>
         </is>
       </c>
       <c r="M427" s="20" t="n"/>
@@ -22591,17 +22587,17 @@
       </c>
       <c r="D428" s="18" t="inlineStr">
         <is>
-          <t>Limitar los tokens de firma de acceso compartido (SAS) solo a las conexiones HTTPS</t>
+          <t>Al aplicar HTTPS (deshabilitar HTTP), compruebe que no usa dominios personalizados (CNAME) para la cuenta de almacenamiento.</t>
         </is>
       </c>
       <c r="E428" s="18" t="inlineStr">
         <is>
-          <t>Requerir HTTPS cuando un cliente usa un token de SAS para acceder a los datos de blobs ayuda a minimizar el riesgo de pérdida de credenciales.</t>
+          <t>Al configurar un dominio personalizado (nombre de host) en una cuenta de almacenamiento, compruebe si necesita TLS/HTTPS; si es así, es posible que tenga que colocar Azure CDN delante de la cuenta de almacenamiento.</t>
         </is>
       </c>
       <c r="F428" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G428" t="inlineStr">
@@ -22619,7 +22615,7 @@
       <c r="K428" s="19" t="n"/>
       <c r="L428" s="19" t="inlineStr">
         <is>
-          <t>6b4bed3d-5035-447c-8347-dc56028a71ff</t>
+          <t>79b588de-fc49-472c-b3cd-21bf77036e5e</t>
         </is>
       </c>
       <c r="M428" s="20" t="n"/>
@@ -22646,17 +22642,17 @@
       </c>
       <c r="D429" s="18" t="inlineStr">
         <is>
-          <t>Uso de tokens de Azure Active Directory (Azure AD) para el acceso a blobs</t>
+          <t>Limitar los tokens de firma de acceso compartido (SAS) solo a las conexiones HTTPS</t>
         </is>
       </c>
       <c r="E429" s="18" t="inlineStr">
         <is>
-          <t>Los tokens de AAD deben favorecerse sobre las firmas de acceso compartido, siempre que sea posible</t>
+          <t>Requerir HTTPS cuando un cliente usa un token de SAS para acceder a los datos de blobs ayuda a minimizar el riesgo de pérdida de credenciales.</t>
         </is>
       </c>
       <c r="F429" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G429" t="inlineStr">
@@ -22674,7 +22670,7 @@
       <c r="K429" s="19" t="n"/>
       <c r="L429" s="19" t="inlineStr">
         <is>
-          <t>e1ce15dd-3f0d-45e7-92d4-1e3611cc57b4</t>
+          <t>6b4bed3d-5035-447c-8347-dc56028a71ff</t>
         </is>
       </c>
       <c r="M429" s="20" t="n"/>
@@ -22701,17 +22697,17 @@
       </c>
       <c r="D430" s="18" t="inlineStr">
         <is>
-          <t>Privilegios mínimos en los permisos de IaM</t>
+          <t>Uso de tokens de Azure Active Directory (Azure AD) para el acceso a blobs</t>
         </is>
       </c>
       <c r="E430" s="18" t="inlineStr">
         <is>
-          <t>Al asignar un rol a un usuario, grupo o aplicación, conceda a esa entidad de seguridad solo los permisos necesarios para que pueda realizar sus tareas. Limitar el acceso a los recursos ayuda a evitar el uso indebido no intencionado y malintencionado de los datos.</t>
+          <t>Los tokens de AAD deben favorecerse sobre las firmas de acceso compartido, siempre que sea posible</t>
         </is>
       </c>
       <c r="F430" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G430" t="inlineStr">
@@ -22720,12 +22716,16 @@
         </is>
       </c>
       <c r="H430" s="18" t="n"/>
-      <c r="I430" s="13" t="n"/>
+      <c r="I430" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J430" s="13" t="n"/>
       <c r="K430" s="19" t="n"/>
       <c r="L430" s="19" t="inlineStr">
         <is>
-          <t>a4b1410d-4395-48a8-a228-9b3d6b57cfc6</t>
+          <t>e1ce15dd-3f0d-45e7-92d4-1e3611cc57b4</t>
         </is>
       </c>
       <c r="M430" s="20" t="n"/>
@@ -22752,17 +22752,17 @@
       </c>
       <c r="D431" s="18" t="inlineStr">
         <is>
-          <t>Al usar SAS, prefiera "SAS de delegación de usuarios" en lugar de SAS basada en claves de cuenta de almacenamiento.</t>
+          <t>Privilegios mínimos en los permisos de IaM</t>
         </is>
       </c>
       <c r="E431" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Una SAS de delegación de usuarios está protegida con credenciales de Azure Active Directory (Azure AD) y también con los permisos especificados para la SAS. Una SAS de delegación de usuarios es análoga a una SAS de servicio en cuanto a su ámbito y función, pero ofrece ventajas de seguridad sobre la SAS de servicio. </t>
+          <t>Al asignar un rol a un usuario, grupo o aplicación, conceda a esa entidad de seguridad solo los permisos necesarios para que pueda realizar sus tareas. Limitar el acceso a los recursos ayuda a evitar el uso indebido no intencionado y malintencionado de los datos.</t>
         </is>
       </c>
       <c r="F431" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G431" t="inlineStr">
@@ -22771,16 +22771,12 @@
         </is>
       </c>
       <c r="H431" s="18" t="n"/>
-      <c r="I431" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I431" s="13" t="n"/>
       <c r="J431" s="13" t="n"/>
       <c r="K431" s="19" t="n"/>
       <c r="L431" s="19" t="inlineStr">
         <is>
-          <t>55461e1a-3e34-453a-9c86-39648b652d6c</t>
+          <t>a4b1410d-4395-48a8-a228-9b3d6b57cfc6</t>
         </is>
       </c>
       <c r="M431" s="20" t="n"/>
@@ -22807,12 +22803,12 @@
       </c>
       <c r="D432" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de deshabilitar las claves de la cuenta de almacenamiento, de modo que solo se admita el acceso a AAD (y la SAS de delegación de usuarios).</t>
+          <t>Al usar SAS, prefiera "SAS de delegación de usuarios" en lugar de SAS basada en claves de cuenta de almacenamiento.</t>
         </is>
       </c>
       <c r="E432" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Las claves de la cuenta de almacenamiento ("claves compartidas") tienen muy pocas funcionalidades de auditoría. Si bien se puede monitorear quién o cuándo obtuvo una copia de las claves, una vez que las claves están en manos de varias personas, es imposible atribuir el uso a un usuario específico. Confiar únicamente en la autenticación de AAD facilita la vinculación del acceso al almacenamiento a un usuario. </t>
+          <t xml:space="preserve">Una SAS de delegación de usuarios está protegida con credenciales de Azure Active Directory (Azure AD) y también con los permisos especificados para la SAS. Una SAS de delegación de usuarios es análoga a una SAS de servicio en cuanto a su ámbito y función, pero ofrece ventajas de seguridad sobre la SAS de servicio. </t>
         </is>
       </c>
       <c r="F432" s="18" t="inlineStr">
@@ -22835,7 +22831,7 @@
       <c r="K432" s="19" t="n"/>
       <c r="L432" s="19" t="inlineStr">
         <is>
-          <t>15f51296-5398-4e6d-bd22-7dd142b06c21</t>
+          <t>55461e1a-3e34-453a-9c86-39648b652d6c</t>
         </is>
       </c>
       <c r="M432" s="20" t="n"/>
@@ -22862,12 +22858,12 @@
       </c>
       <c r="D433" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar Azure Monitor para auditar las operaciones del plano de control en la cuenta de almacenamiento</t>
+          <t>Considere la posibilidad de deshabilitar las claves de la cuenta de almacenamiento, de modo que solo se admita el acceso a AAD (y la SAS de delegación de usuarios).</t>
         </is>
       </c>
       <c r="E433" s="18" t="inlineStr">
         <is>
-          <t>Use los datos del registro de actividad para identificar "cuándo", "quién", "qué" y "cómo" se está viendo o cambiando la seguridad de la cuenta de almacenamiento (es decir, claves de cuenta de almacenamiento, directivas de acceso, etc.).</t>
+          <t xml:space="preserve">Las claves de la cuenta de almacenamiento ("claves compartidas") tienen muy pocas funcionalidades de auditoría. Si bien se puede monitorear quién o cuándo obtuvo una copia de las claves, una vez que las claves están en manos de varias personas, es imposible atribuir el uso a un usuario específico. Confiar únicamente en la autenticación de AAD facilita la vinculación del acceso al almacenamiento a un usuario. </t>
         </is>
       </c>
       <c r="F433" s="18" t="inlineStr">
@@ -22890,7 +22886,7 @@
       <c r="K433" s="19" t="n"/>
       <c r="L433" s="19" t="inlineStr">
         <is>
-          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
+          <t>15f51296-5398-4e6d-bd22-7dd142b06c21</t>
         </is>
       </c>
       <c r="M433" s="20" t="n"/>
@@ -22917,17 +22913,17 @@
       </c>
       <c r="D434" s="18" t="inlineStr">
         <is>
-          <t>Al usar claves de cuenta de almacenamiento, considere la posibilidad de habilitar una "directiva de expiración de claves"</t>
+          <t>Considere la posibilidad de usar Azure Monitor para auditar las operaciones del plano de control en la cuenta de almacenamiento</t>
         </is>
       </c>
       <c r="E434" s="18" t="inlineStr">
         <is>
-          <t>Una directiva de expiración de claves le permite establecer un recordatorio para la rotación de las claves de acceso a la cuenta. El recordatorio se muestra si ha transcurrido el intervalo especificado y las teclas aún no se han girado.</t>
+          <t>Use los datos del registro de actividad para identificar "cuándo", "quién", "qué" y "cómo" se está viendo o cambiando la seguridad de la cuenta de almacenamiento (es decir, claves de cuenta de almacenamiento, directivas de acceso, etc.).</t>
         </is>
       </c>
       <c r="F434" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G434" t="inlineStr">
@@ -22945,7 +22941,7 @@
       <c r="K434" s="19" t="n"/>
       <c r="L434" s="19" t="inlineStr">
         <is>
-          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
+          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
         </is>
       </c>
       <c r="M434" s="20" t="n"/>
@@ -22972,12 +22968,12 @@
       </c>
       <c r="D435" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de configurar una directiva de expiración de SAS</t>
+          <t>Al usar claves de cuenta de almacenamiento, considere la posibilidad de habilitar una "directiva de expiración de claves"</t>
         </is>
       </c>
       <c r="E435" s="18" t="inlineStr">
         <is>
-          <t>Una directiva de expiración de SAS especifica un intervalo recomendado durante el cual la SAS es válida. Las directivas de expiración de SAS se aplican a una SAS de servicio o a una SAS de cuenta. Cuando un usuario genera una SAS de servicio o una SAS de cuenta con un intervalo de validez mayor que el intervalo recomendado, verá una advertencia.</t>
+          <t>Una directiva de expiración de claves le permite establecer un recordatorio para la rotación de las claves de acceso a la cuenta. El recordatorio se muestra si ha transcurrido el intervalo especificado y las teclas aún no se han girado.</t>
         </is>
       </c>
       <c r="F435" s="18" t="inlineStr">
@@ -23000,7 +22996,7 @@
       <c r="K435" s="19" t="n"/>
       <c r="L435" s="19" t="inlineStr">
         <is>
-          <t>352beee0-79b5-488d-bfc4-972cd3cd21bf</t>
+          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
         </is>
       </c>
       <c r="M435" s="20" t="n"/>
@@ -23027,12 +23023,12 @@
       </c>
       <c r="D436" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de vincular SAS a una directiva de acceso almacenada</t>
+          <t>Considere la posibilidad de configurar una directiva de expiración de SAS</t>
         </is>
       </c>
       <c r="E436" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Las directivas de acceso almacenadas ofrecen la opción de revocar los permisos de una SAS de servicio sin tener que volver a generar las claves de la cuenta de almacenamiento. </t>
+          <t>Una directiva de expiración de SAS especifica un intervalo recomendado durante el cual la SAS es válida. Las directivas de expiración de SAS se aplican a una SAS de servicio o a una SAS de cuenta. Cuando un usuario genera una SAS de servicio o una SAS de cuenta con un intervalo de validez mayor que el intervalo recomendado, verá una advertencia.</t>
         </is>
       </c>
       <c r="F436" s="18" t="inlineStr">
@@ -23055,7 +23051,7 @@
       <c r="K436" s="19" t="n"/>
       <c r="L436" s="19" t="inlineStr">
         <is>
-          <t>77036e5e-6b4b-4ed3-b503-547c1347dc56</t>
+          <t>352beee0-79b5-488d-bfc4-972cd3cd21bf</t>
         </is>
       </c>
       <c r="M436" s="20" t="n"/>
@@ -23082,10 +23078,14 @@
       </c>
       <c r="D437" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de configurar el repositorio de código fuente de la aplicación para detectar cadenas de conexión protegidas y claves de cuenta de almacenamiento.</t>
-        </is>
-      </c>
-      <c r="E437" s="18" t="n"/>
+          <t>Considere la posibilidad de vincular SAS a una directiva de acceso almacenada</t>
+        </is>
+      </c>
+      <c r="E437" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Las directivas de acceso almacenadas ofrecen la opción de revocar los permisos de una SAS de servicio sin tener que volver a generar las claves de la cuenta de almacenamiento. </t>
+        </is>
+      </c>
       <c r="F437" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -23106,7 +23106,7 @@
       <c r="K437" s="19" t="n"/>
       <c r="L437" s="19" t="inlineStr">
         <is>
-          <t>028a71ff-e1ce-415d-b3f0-d5e772d41e36</t>
+          <t>77036e5e-6b4b-4ed3-b503-547c1347dc56</t>
         </is>
       </c>
       <c r="M437" s="20" t="n"/>
@@ -23133,17 +23133,13 @@
       </c>
       <c r="D438" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de almacenar cadenas de conexión en Azure KeyVault (en escenarios en los que las identidades administradas no son posibles)</t>
-        </is>
-      </c>
-      <c r="E438" s="18" t="inlineStr">
-        <is>
-          <t>Lo ideal es que la aplicación use una identidad administrada para autenticarse en Azure Storage. Si esto no es posible, considere la posibilidad de tener la credencial de almacenamiento (cadena de conexión, clave de cuenta de almacenamiento, SAS, credencial de entidad de servicio) en Azure KeyVault o un servicio equivalente.</t>
-        </is>
-      </c>
+          <t>Considere la posibilidad de configurar el repositorio de código fuente de la aplicación para detectar cadenas de conexión protegidas y claves de cuenta de almacenamiento.</t>
+        </is>
+      </c>
+      <c r="E438" s="18" t="n"/>
       <c r="F438" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G438" t="inlineStr">
@@ -23161,7 +23157,7 @@
       <c r="K438" s="19" t="n"/>
       <c r="L438" s="19" t="inlineStr">
         <is>
-          <t>11cc57b4-a4b1-4410-b439-58a8c2289b3d</t>
+          <t>028a71ff-e1ce-415d-b3f0-d5e772d41e36</t>
         </is>
       </c>
       <c r="M438" s="20" t="n"/>
@@ -23188,12 +23184,12 @@
       </c>
       <c r="D439" s="18" t="inlineStr">
         <is>
-          <t>Esfuércese por obtener períodos de validez cortos para SAS ad-hoc</t>
+          <t>Considere la posibilidad de almacenar cadenas de conexión en Azure KeyVault (en escenarios en los que las identidades administradas no son posibles)</t>
         </is>
       </c>
       <c r="E439" s="18" t="inlineStr">
         <is>
-          <t>Use los tiempos de expiración a corto plazo en una SAS de servicio SAS ad hoc o en una SAS de cuenta. De esta manera, incluso si una SAS se ve comprometida, es válida solo por un corto tiempo. Esta práctica es especialmente importante si no puede hacer referencia a una directiva de acceso almacenada. Los tiempos de expiración a corto plazo también limitan la cantidad de datos que se pueden escribir en un blob al limitar el tiempo disponible para cargarlo.</t>
+          <t>Lo ideal es que la aplicación use una identidad administrada para autenticarse en Azure Storage. Si esto no es posible, considere la posibilidad de tener la credencial de almacenamiento (cadena de conexión, clave de cuenta de almacenamiento, SAS, credencial de entidad de servicio) en Azure KeyVault o un servicio equivalente.</t>
         </is>
       </c>
       <c r="F439" s="18" t="inlineStr">
@@ -23216,7 +23212,7 @@
       <c r="K439" s="19" t="n"/>
       <c r="L439" s="19" t="inlineStr">
         <is>
-          <t>27138b82-1102-4cac-9eae-01e6e842e52f</t>
+          <t>11cc57b4-a4b1-4410-b439-58a8c2289b3d</t>
         </is>
       </c>
       <c r="M439" s="20" t="n"/>
@@ -23243,17 +23239,17 @@
       </c>
       <c r="D440" s="18" t="inlineStr">
         <is>
-          <t>Aplicación de un ámbito limitado a una SAS</t>
+          <t>Esfuércese por obtener períodos de validez cortos para SAS ad-hoc</t>
         </is>
       </c>
       <c r="E440" s="18" t="inlineStr">
         <is>
-          <t>Al crear una SAS, sea lo más específico y restrictivo posible. Prefiera una SAS para un solo recurso y operación en lugar de una SAS que proporciona un acceso mucho más amplio.</t>
+          <t>Use los tiempos de expiración a corto plazo en una SAS de servicio SAS ad hoc o en una SAS de cuenta. De esta manera, incluso si una SAS se ve comprometida, es válida solo por un corto tiempo. Esta práctica es especialmente importante si no puede hacer referencia a una directiva de acceso almacenada. Los tiempos de expiración a corto plazo también limitan la cantidad de datos que se pueden escribir en un blob al limitar el tiempo disponible para cargarlo.</t>
         </is>
       </c>
       <c r="F440" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G440" t="inlineStr">
@@ -23271,7 +23267,7 @@
       <c r="K440" s="19" t="n"/>
       <c r="L440" s="19" t="inlineStr">
         <is>
-          <t>4721d928-c1b1-4cd5-81e5-4a29a9de399c</t>
+          <t>27138b82-1102-4cac-9eae-01e6e842e52f</t>
         </is>
       </c>
       <c r="M440" s="20" t="n"/>
@@ -23298,12 +23294,12 @@
       </c>
       <c r="D441" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de definir el ámbito de SAS en una dirección IP de cliente específica, siempre que sea posible</t>
+          <t>Aplicación de un ámbito limitado a una SAS</t>
         </is>
       </c>
       <c r="E441" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Una SAS puede incluir parámetros en los que las direcciones IP de cliente o los intervalos de direcciones están autorizados a solicitar un recurso mediante la SAS. </t>
+          <t>Al crear una SAS, sea lo más específico y restrictivo posible. Prefiera una SAS para un solo recurso y operación en lugar de una SAS que proporciona un acceso mucho más amplio.</t>
         </is>
       </c>
       <c r="F441" s="18" t="inlineStr">
@@ -23326,7 +23322,7 @@
       <c r="K441" s="19" t="n"/>
       <c r="L441" s="19" t="inlineStr">
         <is>
-          <t>fd7b28dc-9355-4562-82bf-e4564b0d834a</t>
+          <t>4721d928-c1b1-4cd5-81e5-4a29a9de399c</t>
         </is>
       </c>
       <c r="M441" s="20" t="n"/>
@@ -23353,17 +23349,17 @@
       </c>
       <c r="D442" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere la posibilidad de comprobar los datos cargados, después de que los clientes hayan usado una SAS para cargar un archivo. </t>
+          <t>Considere la posibilidad de definir el ámbito de SAS en una dirección IP de cliente específica, siempre que sea posible</t>
         </is>
       </c>
       <c r="E442" s="18" t="inlineStr">
         <is>
-          <t>Una SAS no puede restringir la cantidad de datos que carga un cliente; Dado el modelo de precios de la cantidad de almacenamiento a lo largo del tiempo, podría tener sentido validar si los clientes cargaron contenido de gran tamaño malintencionado.</t>
+          <t xml:space="preserve">Una SAS puede incluir parámetros en los que las direcciones IP de cliente o los intervalos de direcciones están autorizados a solicitar un recurso mediante la SAS. </t>
         </is>
       </c>
       <c r="F442" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G442" t="inlineStr">
@@ -23372,12 +23368,16 @@
         </is>
       </c>
       <c r="H442" s="18" t="n"/>
-      <c r="I442" s="13" t="n"/>
+      <c r="I442" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J442" s="13" t="n"/>
       <c r="K442" s="19" t="n"/>
       <c r="L442" s="19" t="inlineStr">
         <is>
-          <t>348b263e-6dd6-4051-8a36-498f6dbad38e</t>
+          <t>fd7b28dc-9355-4562-82bf-e4564b0d834a</t>
         </is>
       </c>
       <c r="M442" s="20" t="n"/>
@@ -23404,17 +23404,17 @@
       </c>
       <c r="D443" s="18" t="inlineStr">
         <is>
-          <t>SFTP: Limite la cantidad de "usuarios locales" para el acceso SFTP y audite si el acceso es necesario a lo largo del tiempo.</t>
+          <t xml:space="preserve">Considere la posibilidad de comprobar los datos cargados, después de que los clientes hayan usado una SAS para cargar un archivo. </t>
         </is>
       </c>
       <c r="E443" s="18" t="inlineStr">
         <is>
-          <t>Al acceder a Blob Storage a través de SFTP mediante una "cuenta de usuario local", no se aplican los controles RBAC "habituales". El acceso a blobs a través de NFS o REST puede ser más restrictivo que el acceso SFTP. Desafortunadamente, a partir de principios de 2023, los usuarios locales son la única forma de administración de identidades que actualmente se admite para el punto de conexión SFTP</t>
+          <t>Una SAS no puede restringir la cantidad de datos que carga un cliente; Dado el modelo de precios de la cantidad de almacenamiento a lo largo del tiempo, podría tener sentido validar si los clientes cargaron contenido de gran tamaño malintencionado.</t>
         </is>
       </c>
       <c r="F443" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G443" t="inlineStr">
@@ -23423,16 +23423,12 @@
         </is>
       </c>
       <c r="H443" s="18" t="n"/>
-      <c r="I443" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I443" s="13" t="n"/>
       <c r="J443" s="13" t="n"/>
       <c r="K443" s="19" t="n"/>
       <c r="L443" s="19" t="inlineStr">
         <is>
-          <t>ad53cc7c-e1d7-4aaa-a357-1449ab8053d8</t>
+          <t>348b263e-6dd6-4051-8a36-498f6dbad38e</t>
         </is>
       </c>
       <c r="M443" s="20" t="n"/>
@@ -23459,13 +23455,17 @@
       </c>
       <c r="D444" s="18" t="inlineStr">
         <is>
-          <t>SFTP: El punto de conexión SFTP no admite ACL similares a POSIX.</t>
-        </is>
-      </c>
-      <c r="E444" s="18" t="n"/>
+          <t>SFTP: Limite la cantidad de "usuarios locales" para el acceso SFTP y audite si el acceso es necesario a lo largo del tiempo.</t>
+        </is>
+      </c>
+      <c r="E444" s="18" t="inlineStr">
+        <is>
+          <t>Al acceder a Blob Storage a través de SFTP mediante una "cuenta de usuario local", no se aplican los controles RBAC "habituales". El acceso a blobs a través de NFS o REST puede ser más restrictivo que el acceso SFTP. Desafortunadamente, a partir de principios de 2023, los usuarios locales son la única forma de administración de identidades que actualmente se admite para el punto de conexión SFTP</t>
+        </is>
+      </c>
       <c r="F444" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G444" t="inlineStr">
@@ -23483,7 +23483,7 @@
       <c r="K444" s="19" t="n"/>
       <c r="L444" s="19" t="inlineStr">
         <is>
-          <t>9f89dc7b-33be-42a1-a27f-7b9e91be1f38</t>
+          <t>ad53cc7c-e1d7-4aaa-a357-1449ab8053d8</t>
         </is>
       </c>
       <c r="M444" s="20" t="n"/>
@@ -23510,17 +23510,13 @@
       </c>
       <c r="D445" s="18" t="inlineStr">
         <is>
-          <t>Evite las políticas de CORS demasiado amplias</t>
-        </is>
-      </c>
-      <c r="E445" s="18" t="inlineStr">
-        <is>
-          <t>El almacenamiento es compatible con CORS (Cross-Origin Resource Sharing), es decir, una función HTTP que permite a las aplicaciones web de un dominio diferente relajar la política del mismo origen. Al habilitar CORS, mantenga CorsRules con el mínimo privilegio.</t>
-        </is>
-      </c>
+          <t>SFTP: El punto de conexión SFTP no admite ACL similares a POSIX.</t>
+        </is>
+      </c>
+      <c r="E445" s="18" t="n"/>
       <c r="F445" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G445" t="inlineStr">
@@ -23538,7 +23534,7 @@
       <c r="K445" s="19" t="n"/>
       <c r="L445" s="19" t="inlineStr">
         <is>
-          <t>cef39812-bd46-43cb-aac8-ac199ebb91a3</t>
+          <t>9f89dc7b-33be-42a1-a27f-7b9e91be1f38</t>
         </is>
       </c>
       <c r="M445" s="20" t="n"/>
@@ -23565,12 +23561,12 @@
       </c>
       <c r="D446" s="18" t="inlineStr">
         <is>
-          <t>Determine cómo se deben cifrar los datos en reposo. Comprender el modelo de subprocesos para los datos.</t>
+          <t>Evite las políticas de CORS demasiado amplias</t>
         </is>
       </c>
       <c r="E446" s="18" t="inlineStr">
         <is>
-          <t>Los datos en reposo siempre están cifrados en el lado del servidor y, además, también pueden estar cifrados en el lado del cliente. El cifrado del lado del servidor puede realizarse mediante una clave administrada por la plataforma (predeterminada) o una clave administrada por el cliente. El cifrado del lado cliente puede producirse haciendo que el cliente proporcione una clave de cifrado y descifrado por blob a Azure Storage o controlando completamente el cifrado en el lado cliente. por lo tanto, no depende en absoluto de Azure Storage para obtener garantías de confidencialidad.</t>
+          <t>El almacenamiento es compatible con CORS (Cross-Origin Resource Sharing), es decir, una función HTTP que permite a las aplicaciones web de un dominio diferente relajar la política del mismo origen. Al habilitar CORS, mantenga CorsRules con el mínimo privilegio.</t>
         </is>
       </c>
       <c r="F446" s="18" t="inlineStr">
@@ -23593,7 +23589,7 @@
       <c r="K446" s="19" t="n"/>
       <c r="L446" s="19" t="inlineStr">
         <is>
-          <t>3d90cae2-cc88-4137-86f7-c0cbafe61464</t>
+          <t>cef39812-bd46-43cb-aac8-ac199ebb91a3</t>
         </is>
       </c>
       <c r="M446" s="20" t="n"/>
@@ -23620,13 +23616,17 @@
       </c>
       <c r="D447" s="18" t="inlineStr">
         <is>
-          <t>Determine qué cifrado de plataforma se debe usar o si se debe usar.</t>
-        </is>
-      </c>
-      <c r="E447" s="18" t="n"/>
+          <t>Determine cómo se deben cifrar los datos en reposo. Comprender el modelo de subprocesos para los datos.</t>
+        </is>
+      </c>
+      <c r="E447" s="18" t="inlineStr">
+        <is>
+          <t>Los datos en reposo siempre están cifrados en el lado del servidor y, además, también pueden estar cifrados en el lado del cliente. El cifrado del lado del servidor puede realizarse mediante una clave administrada por la plataforma (predeterminada) o una clave administrada por el cliente. El cifrado del lado cliente puede producirse haciendo que el cliente proporcione una clave de cifrado y descifrado por blob a Azure Storage o controlando completamente el cifrado en el lado cliente. por lo tanto, no depende en absoluto de Azure Storage para obtener garantías de confidencialidad.</t>
+        </is>
+      </c>
       <c r="F447" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G447" t="inlineStr">
@@ -23644,7 +23644,7 @@
       <c r="K447" s="19" t="n"/>
       <c r="L447" s="19" t="inlineStr">
         <is>
-          <t>8dd457e9-2713-48b8-8110-2cac6eae01e6</t>
+          <t>3d90cae2-cc88-4137-86f7-c0cbafe61464</t>
         </is>
       </c>
       <c r="M447" s="20" t="n"/>
@@ -23671,7 +23671,7 @@
       </c>
       <c r="D448" s="18" t="inlineStr">
         <is>
-          <t>Determine qué cifrado del lado del cliente se debe usar o si.</t>
+          <t>Determine qué cifrado de plataforma se debe usar o si se debe usar.</t>
         </is>
       </c>
       <c r="E448" s="18" t="n"/>
@@ -23695,7 +23695,7 @@
       <c r="K448" s="19" t="n"/>
       <c r="L448" s="19" t="inlineStr">
         <is>
-          <t>e842e52f-4721-4d92-ac1b-1cd521e54a29</t>
+          <t>8dd457e9-2713-48b8-8110-2cac6eae01e6</t>
         </is>
       </c>
       <c r="M448" s="20" t="n"/>
@@ -23722,17 +23722,13 @@
       </c>
       <c r="D449" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere si se necesita acceso público a blobs o si se puede deshabilitar para determinadas cuentas de almacenamiento. </t>
-        </is>
-      </c>
-      <c r="E449" s="18" t="inlineStr">
-        <is>
-          <t>Aproveche el Explorador de Resource Graph (resources | where type == 'microsoft.storage/storageaccounts' | where properties['allowBlobPublicAccess'] == true) para buscar cuentas de almacenamiento que permitan el acceso anónimo a blobs.</t>
-        </is>
-      </c>
+          <t>Determine qué cifrado del lado del cliente se debe usar o si.</t>
+        </is>
+      </c>
+      <c r="E449" s="18" t="n"/>
       <c r="F449" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G449" t="inlineStr">
@@ -23750,7 +23746,7 @@
       <c r="K449" s="19" t="n"/>
       <c r="L449" s="19" t="inlineStr">
         <is>
-          <t>659ae558-b937-4d49-a5e1-112dbd7ba012</t>
+          <t>e842e52f-4721-4d92-ac1b-1cd521e54a29</t>
         </is>
       </c>
       <c r="M449" s="20" t="n"/>
@@ -23762,28 +23758,32 @@
     <row r="450">
       <c r="A450" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Blob Storage Review</t>
         </is>
       </c>
       <c r="B450" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C450" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D450" s="18" t="inlineStr">
         <is>
-          <t>Implementar una política de control de errores a nivel global</t>
-        </is>
-      </c>
-      <c r="E450" s="18" t="n"/>
+          <t xml:space="preserve">Considere si se necesita acceso público a blobs o si se puede deshabilitar para determinadas cuentas de almacenamiento. </t>
+        </is>
+      </c>
+      <c r="E450" s="18" t="inlineStr">
+        <is>
+          <t>Aproveche el Explorador de Resource Graph (resources | where type == 'microsoft.storage/storageaccounts' | where properties['allowBlobPublicAccess'] == true) para buscar cuentas de almacenamiento que permitan el acceso anónimo a blobs.</t>
+        </is>
+      </c>
       <c r="F450" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G450" t="inlineStr">
@@ -23801,7 +23801,7 @@
       <c r="K450" s="19" t="n"/>
       <c r="L450" s="19" t="inlineStr">
         <is>
-          <t>d7941d4a-7b6f-458f-8714-2f8f8c059ad4</t>
+          <t>659ae558-b937-4d49-a5e1-112dbd7ba012</t>
         </is>
       </c>
       <c r="M450" s="20" t="n"/>
@@ -23828,7 +23828,7 @@
       </c>
       <c r="D451" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que todas las políticas de API incluyan un &lt;base/&gt; elemento.</t>
+          <t>Implementar una política de control de errores a nivel global</t>
         </is>
       </c>
       <c r="E451" s="18" t="n"/>
@@ -23852,7 +23852,7 @@
       <c r="K451" s="19" t="n"/>
       <c r="L451" s="19" t="inlineStr">
         <is>
-          <t>0b0c0765-ff37-4369-90bd-3eb23ce71b08</t>
+          <t>d7941d4a-7b6f-458f-8714-2f8f8c059ad4</t>
         </is>
       </c>
       <c r="M451" s="20" t="n"/>
@@ -23879,7 +23879,7 @@
       </c>
       <c r="D452" s="18" t="inlineStr">
         <is>
-          <t>Uso de fragmentos de políticas para evitar repetir las mismas definiciones de políticas en varias API</t>
+          <t>Asegúrese de que todas las políticas de API incluyan un &lt;base/&gt; elemento.</t>
         </is>
       </c>
       <c r="E452" s="18" t="n"/>
@@ -23903,7 +23903,7 @@
       <c r="K452" s="19" t="n"/>
       <c r="L452" s="19" t="inlineStr">
         <is>
-          <t>a5c45b03-93b6-42fe-b16b-8fccb6a79902</t>
+          <t>0b0c0765-ff37-4369-90bd-3eb23ce71b08</t>
         </is>
       </c>
       <c r="M452" s="20" t="n"/>
@@ -23930,7 +23930,7 @@
       </c>
       <c r="D453" s="18" t="inlineStr">
         <is>
-          <t>Si planeas monetizar tus API, revisa el artículo "Soporte de monetización" para conocer las prácticas recomendadas</t>
+          <t>Uso de fragmentos de políticas para evitar repetir las mismas definiciones de políticas en varias API</t>
         </is>
       </c>
       <c r="E453" s="18" t="n"/>
@@ -23954,7 +23954,7 @@
       <c r="K453" s="19" t="n"/>
       <c r="L453" s="19" t="inlineStr">
         <is>
-          <t>c3818a95-6ff3-4474-88dc-e809b46dad6a</t>
+          <t>a5c45b03-93b6-42fe-b16b-8fccb6a79902</t>
         </is>
       </c>
       <c r="M453" s="20" t="n"/>
@@ -23981,13 +23981,13 @@
       </c>
       <c r="D454" s="18" t="inlineStr">
         <is>
-          <t>Habilitación de la configuración de diagnóstico para exportar registros a Azure Monitor</t>
+          <t>Si planeas monetizar tus API, revisa el artículo "Soporte de monetización" para conocer las prácticas recomendadas</t>
         </is>
       </c>
       <c r="E454" s="18" t="n"/>
       <c r="F454" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G454" t="inlineStr">
@@ -24005,7 +24005,7 @@
       <c r="K454" s="19" t="n"/>
       <c r="L454" s="19" t="inlineStr">
         <is>
-          <t>a7d0840a-c8c4-4e83-adec-5ca578eb4049</t>
+          <t>c3818a95-6ff3-4474-88dc-e809b46dad6a</t>
         </is>
       </c>
       <c r="M454" s="20" t="n"/>
@@ -24032,13 +24032,13 @@
       </c>
       <c r="D455" s="18" t="inlineStr">
         <is>
-          <t>Habilitación de Application Insights para obtener telemetría más detallada</t>
+          <t>Habilitación de la configuración de diagnóstico para exportar registros a Azure Monitor</t>
         </is>
       </c>
       <c r="E455" s="18" t="n"/>
       <c r="F455" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G455" t="inlineStr">
@@ -24056,7 +24056,7 @@
       <c r="K455" s="19" t="n"/>
       <c r="L455" s="19" t="inlineStr">
         <is>
-          <t>8691fa38-45ed-4299-a247-fecd98d35deb</t>
+          <t>a7d0840a-c8c4-4e83-adec-5ca578eb4049</t>
         </is>
       </c>
       <c r="M455" s="20" t="n"/>
@@ -24083,13 +24083,13 @@
       </c>
       <c r="D456" s="18" t="inlineStr">
         <is>
-          <t>Configurar alertas sobre las métricas más críticas</t>
+          <t>Habilitación de Application Insights para obtener telemetría más detallada</t>
         </is>
       </c>
       <c r="E456" s="18" t="n"/>
       <c r="F456" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G456" t="inlineStr">
@@ -24107,7 +24107,7 @@
       <c r="K456" s="19" t="n"/>
       <c r="L456" s="19" t="inlineStr">
         <is>
-          <t>55fd27bb-76ac-4a91-bc37-049e885be6b7</t>
+          <t>8691fa38-45ed-4299-a247-fecd98d35deb</t>
         </is>
       </c>
       <c r="M456" s="20" t="n"/>
@@ -24124,7 +24124,7 @@
       </c>
       <c r="B457" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C457" s="18" t="inlineStr">
@@ -24134,7 +24134,7 @@
       </c>
       <c r="D457" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que los certificados SSL personalizados se almacenan en Azure Key Vault para que se pueda acceder a ellos y actualizarlos de forma segura</t>
+          <t>Configurar alertas sobre las métricas más críticas</t>
         </is>
       </c>
       <c r="E457" s="18" t="n"/>
@@ -24158,7 +24158,7 @@
       <c r="K457" s="19" t="n"/>
       <c r="L457" s="19" t="inlineStr">
         <is>
-          <t>39460bdb-156f-4dc2-a87f-1e8c11ab0998</t>
+          <t>55fd27bb-76ac-4a91-bc37-049e885be6b7</t>
         </is>
       </c>
       <c r="M457" s="20" t="n"/>
@@ -24185,7 +24185,7 @@
       </c>
       <c r="D458" s="18" t="inlineStr">
         <is>
-          <t>Protección de las solicitudes entrantes a las API (plano de datos) con Azure AD</t>
+          <t>Asegúrese de que los certificados SSL personalizados se almacenan en Azure Key Vault para que se pueda acceder a ellos y actualizarlos de forma segura</t>
         </is>
       </c>
       <c r="E458" s="18" t="n"/>
@@ -24209,7 +24209,7 @@
       <c r="K458" s="19" t="n"/>
       <c r="L458" s="19" t="inlineStr">
         <is>
-          <t>e9217997-5f6c-479d-8576-8f2adf706ec8</t>
+          <t>39460bdb-156f-4dc2-a87f-1e8c11ab0998</t>
         </is>
       </c>
       <c r="M458" s="20" t="n"/>
@@ -24236,13 +24236,13 @@
       </c>
       <c r="D459" s="18" t="inlineStr">
         <is>
-          <t>Uso de Azure AD para autenticar usuarios en el Portal de desarrollador</t>
+          <t>Protección de las solicitudes entrantes a las API (plano de datos) con Azure AD</t>
         </is>
       </c>
       <c r="E459" s="18" t="n"/>
       <c r="F459" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G459" t="inlineStr">
@@ -24260,7 +24260,7 @@
       <c r="K459" s="19" t="n"/>
       <c r="L459" s="19" t="inlineStr">
         <is>
-          <t>5e5f64ba-c90e-480e-8888-398d96cf0bfb</t>
+          <t>e9217997-5f6c-479d-8576-8f2adf706ec8</t>
         </is>
       </c>
       <c r="M459" s="20" t="n"/>
@@ -24287,7 +24287,7 @@
       </c>
       <c r="D460" s="18" t="inlineStr">
         <is>
-          <t>Crear grupos adecuados para controlar la visibilidad de los productos</t>
+          <t>Uso de Azure AD para autenticar usuarios en el Portal de desarrollador</t>
         </is>
       </c>
       <c r="E460" s="18" t="n"/>
@@ -24311,7 +24311,7 @@
       <c r="K460" s="19" t="n"/>
       <c r="L460" s="19" t="inlineStr">
         <is>
-          <t>f8e574ce-280f-49c8-b2ef-68279b081cf3</t>
+          <t>5e5f64ba-c90e-480e-8888-398d96cf0bfb</t>
         </is>
       </c>
       <c r="M460" s="20" t="n"/>
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B461" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C461" s="18" t="inlineStr">
@@ -24338,7 +24338,7 @@
       </c>
       <c r="D461" s="18" t="inlineStr">
         <is>
-          <t>Utilice la función Backends para eliminar las configuraciones redundantes de back-end de la API</t>
+          <t>Crear grupos adecuados para controlar la visibilidad de los productos</t>
         </is>
       </c>
       <c r="E461" s="18" t="n"/>
@@ -24362,7 +24362,7 @@
       <c r="K461" s="19" t="n"/>
       <c r="L461" s="19" t="inlineStr">
         <is>
-          <t>06862505-2d9a-4874-9491-2837b00a3475</t>
+          <t>f8e574ce-280f-49c8-b2ef-68279b081cf3</t>
         </is>
       </c>
       <c r="M461" s="20" t="n"/>
@@ -24389,7 +24389,7 @@
       </c>
       <c r="D462" s="18" t="inlineStr">
         <is>
-          <t>Usar valores con nombre para almacenar valores comunes que se pueden usar en políticas</t>
+          <t>Utilice la función Backends para eliminar las configuraciones redundantes de back-end de la API</t>
         </is>
       </c>
       <c r="E462" s="18" t="n"/>
@@ -24413,7 +24413,7 @@
       <c r="K462" s="19" t="n"/>
       <c r="L462" s="19" t="inlineStr">
         <is>
-          <t>03b125d5-b69b-4739-b7fd-84b86da4933e</t>
+          <t>06862505-2d9a-4874-9491-2837b00a3475</t>
         </is>
       </c>
       <c r="M462" s="20" t="n"/>
@@ -24430,7 +24430,7 @@
       </c>
       <c r="B463" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C463" s="18" t="inlineStr">
@@ -24440,7 +24440,7 @@
       </c>
       <c r="D463" s="18" t="inlineStr">
         <is>
-          <t>Implementación en varias regiones de Azure</t>
+          <t>Usar valores con nombre para almacenar valores comunes que se pueden usar en políticas</t>
         </is>
       </c>
       <c r="E463" s="18" t="n"/>
@@ -24464,7 +24464,7 @@
       <c r="K463" s="19" t="n"/>
       <c r="L463" s="19" t="inlineStr">
         <is>
-          <t>beae759e-4ddb-4326-bf26-47f87d3454b6</t>
+          <t>03b125d5-b69b-4739-b7fd-84b86da4933e</t>
         </is>
       </c>
       <c r="M463" s="20" t="n"/>
@@ -24491,7 +24491,7 @@
       </c>
       <c r="D464" s="18" t="inlineStr">
         <is>
-          <t>Implemente al menos dos unidades de escalado distribuidas en dos zonas de disponibilidad por región para obtener la mejor disponibilidad y rendimiento</t>
+          <t>Implementación en varias regiones de Azure</t>
         </is>
       </c>
       <c r="E464" s="18" t="n"/>
@@ -24515,7 +24515,7 @@
       <c r="K464" s="19" t="n"/>
       <c r="L464" s="19" t="inlineStr">
         <is>
-          <t>9c8d1664-dd9a-49d4-bd83-950af0af4044</t>
+          <t>beae759e-4ddb-4326-bf26-47f87d3454b6</t>
         </is>
       </c>
       <c r="M464" s="20" t="n"/>
@@ -24542,13 +24542,13 @@
       </c>
       <c r="D465" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que haya una rutina de copia de seguridad automatizada</t>
+          <t>Implemente al menos dos unidades de escalado distribuidas en dos zonas de disponibilidad por región para obtener la mejor disponibilidad y rendimiento</t>
         </is>
       </c>
       <c r="E465" s="18" t="n"/>
       <c r="F465" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G465" t="inlineStr">
@@ -24566,7 +24566,7 @@
       <c r="K465" s="19" t="n"/>
       <c r="L465" s="19" t="inlineStr">
         <is>
-          <t>8d2db6e8-85c6-4118-a52c-ae76a4f27934</t>
+          <t>9c8d1664-dd9a-49d4-bd83-950af0af4044</t>
         </is>
       </c>
       <c r="M465" s="20" t="n"/>
@@ -24583,7 +24583,7 @@
       </c>
       <c r="B466" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C466" s="18" t="inlineStr">
@@ -24593,13 +24593,13 @@
       </c>
       <c r="D466" s="18" t="inlineStr">
         <is>
-          <t>Si necesita iniciar sesión en niveles de alto rendimiento, tenga en cuenta la directiva de Event Hubs</t>
+          <t>Asegúrese de que haya una rutina de copia de seguridad automatizada</t>
         </is>
       </c>
       <c r="E466" s="18" t="n"/>
       <c r="F466" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G466" t="inlineStr">
@@ -24617,7 +24617,7 @@
       <c r="K466" s="19" t="n"/>
       <c r="L466" s="19" t="inlineStr">
         <is>
-          <t>8210699f-8d43-45c2-8f19-57e54134bd8f</t>
+          <t>8d2db6e8-85c6-4118-a52c-ae76a4f27934</t>
         </is>
       </c>
       <c r="M466" s="20" t="n"/>
@@ -24634,7 +24634,7 @@
       </c>
       <c r="B467" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C467" s="18" t="inlineStr">
@@ -24644,13 +24644,13 @@
       </c>
       <c r="D467" s="18" t="inlineStr">
         <is>
-          <t>Aplicación de directivas de limitación para controlar el número de solicitudes por segundo</t>
+          <t>Si necesita iniciar sesión en niveles de alto rendimiento, tenga en cuenta la directiva de Event Hubs</t>
         </is>
       </c>
       <c r="E467" s="18" t="n"/>
       <c r="F467" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G467" t="inlineStr">
@@ -24664,15 +24664,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J467" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/protect-apis-on-api-management/</t>
-        </is>
-      </c>
+      <c r="J467" s="13" t="n"/>
       <c r="K467" s="19" t="n"/>
       <c r="L467" s="19" t="inlineStr">
         <is>
-          <t>121bfc39-fa7b-4096-b93b-ab56c1bc0bed</t>
+          <t>8210699f-8d43-45c2-8f19-57e54134bd8f</t>
         </is>
       </c>
       <c r="M467" s="20" t="n"/>
@@ -24699,7 +24695,7 @@
       </c>
       <c r="D468" s="18" t="inlineStr">
         <is>
-          <t>Configurar el escalado automático para escalar horizontalmente el número de instancias cuando aumenta la carga</t>
+          <t>Aplicación de directivas de limitación para controlar el número de solicitudes por segundo</t>
         </is>
       </c>
       <c r="E468" s="18" t="n"/>
@@ -24719,11 +24715,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J468" s="13" t="n"/>
+      <c r="J468" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/protect-apis-on-api-management/</t>
+        </is>
+      </c>
       <c r="K468" s="19" t="n"/>
       <c r="L468" s="19" t="inlineStr">
         <is>
-          <t>bb5f356b-3daf-47a2-a9ee-867a8100bbd5</t>
+          <t>121bfc39-fa7b-4096-b93b-ab56c1bc0bed</t>
         </is>
       </c>
       <c r="M468" s="20" t="n"/>
@@ -24750,7 +24750,7 @@
       </c>
       <c r="D469" s="18" t="inlineStr">
         <is>
-          <t>Implemente puertas de enlace autohospedadas en las que Azure no tenga una región cercana a las API de back-end.</t>
+          <t>Configurar el escalado automático para escalar horizontalmente el número de instancias cuando aumenta la carga</t>
         </is>
       </c>
       <c r="E469" s="18" t="n"/>
@@ -24774,7 +24774,7 @@
       <c r="K469" s="19" t="n"/>
       <c r="L469" s="19" t="inlineStr">
         <is>
-          <t>84b94abb-59b6-4b9d-8587-3413669468e8</t>
+          <t>bb5f356b-3daf-47a2-a9ee-867a8100bbd5</t>
         </is>
       </c>
       <c r="M469" s="20" t="n"/>
@@ -24801,7 +24801,7 @@
       </c>
       <c r="D470" s="18" t="inlineStr">
         <is>
-          <t>Uso de Azure Front Door delante de APIM para la implementación en varias regiones</t>
+          <t>Implemente puertas de enlace autohospedadas en las que Azure no tenga una región cercana a las API de back-end.</t>
         </is>
       </c>
       <c r="E470" s="18" t="n"/>
@@ -24825,7 +24825,7 @@
       <c r="K470" s="19" t="n"/>
       <c r="L470" s="19" t="inlineStr">
         <is>
-          <t>7519e385-a88b-4d34-966b-6269d686e890</t>
+          <t>84b94abb-59b6-4b9d-8587-3413669468e8</t>
         </is>
       </c>
       <c r="M470" s="20" t="n"/>
@@ -24842,7 +24842,7 @@
       </c>
       <c r="B471" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C471" s="18" t="inlineStr">
@@ -24852,7 +24852,7 @@
       </c>
       <c r="D471" s="18" t="inlineStr">
         <is>
-          <t>Implementación del servicio dentro de una red virtual (VNet)</t>
+          <t>Uso de Azure Front Door delante de APIM para la implementación en varias regiones</t>
         </is>
       </c>
       <c r="E471" s="18" t="n"/>
@@ -24876,7 +24876,7 @@
       <c r="K471" s="19" t="n"/>
       <c r="L471" s="19" t="inlineStr">
         <is>
-          <t>cd45c90e-7690-4753-930b-bf290c69c074</t>
+          <t>7519e385-a88b-4d34-966b-6269d686e890</t>
         </is>
       </c>
       <c r="M471" s="20" t="n"/>
@@ -24903,7 +24903,7 @@
       </c>
       <c r="D472" s="18" t="inlineStr">
         <is>
-          <t>Implemente grupos de seguridad de red (NSG) en las subredes para restringir o supervisar el tráfico hacia/desde APIM.</t>
+          <t>Implementación del servicio dentro de una red virtual (VNet)</t>
         </is>
       </c>
       <c r="E472" s="18" t="n"/>
@@ -24927,7 +24927,7 @@
       <c r="K472" s="19" t="n"/>
       <c r="L472" s="19" t="inlineStr">
         <is>
-          <t>02661582-b3d1-48d1-9d7b-c6a918a0ca33</t>
+          <t>cd45c90e-7690-4753-930b-bf290c69c074</t>
         </is>
       </c>
       <c r="M472" s="20" t="n"/>
@@ -24954,7 +24954,7 @@
       </c>
       <c r="D473" s="18" t="inlineStr">
         <is>
-          <t>Implemente puntos de conexión privados para filtrar el tráfico entrante cuando APIM no se implemente en una red virtual.</t>
+          <t>Implemente grupos de seguridad de red (NSG) en las subredes para restringir o supervisar el tráfico hacia/desde APIM.</t>
         </is>
       </c>
       <c r="E473" s="18" t="n"/>
@@ -24978,7 +24978,7 @@
       <c r="K473" s="19" t="n"/>
       <c r="L473" s="19" t="inlineStr">
         <is>
-          <t>67437a28-2721-4a2c-becd-caa54c8237a5</t>
+          <t>02661582-b3d1-48d1-9d7b-c6a918a0ca33</t>
         </is>
       </c>
       <c r="M473" s="20" t="n"/>
@@ -25005,13 +25005,13 @@
       </c>
       <c r="D474" s="18" t="inlineStr">
         <is>
-          <t>Deshabilitar el acceso a la red pública</t>
+          <t>Implemente puntos de conexión privados para filtrar el tráfico entrante cuando APIM no se implemente en una red virtual.</t>
         </is>
       </c>
       <c r="E474" s="18" t="n"/>
       <c r="F474" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G474" t="inlineStr">
@@ -25029,7 +25029,7 @@
       <c r="K474" s="19" t="n"/>
       <c r="L474" s="19" t="inlineStr">
         <is>
-          <t>d698adbd-3288-44cb-b10a-9b572da395ae</t>
+          <t>67437a28-2721-4a2c-becd-caa54c8237a5</t>
         </is>
       </c>
       <c r="M474" s="20" t="n"/>
@@ -25046,7 +25046,7 @@
       </c>
       <c r="B475" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C475" s="18" t="inlineStr">
@@ -25056,13 +25056,13 @@
       </c>
       <c r="D475" s="18" t="inlineStr">
         <is>
-          <t>Simplifique la administración con scripts de automatización de PowerShell</t>
+          <t>Deshabilitar el acceso a la red pública</t>
         </is>
       </c>
       <c r="E475" s="18" t="n"/>
       <c r="F475" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G475" t="inlineStr">
@@ -25080,7 +25080,7 @@
       <c r="K475" s="19" t="n"/>
       <c r="L475" s="19" t="inlineStr">
         <is>
-          <t>0674d750-0c6f-4ac0-8717-ceec04d0bdbd</t>
+          <t>d698adbd-3288-44cb-b10a-9b572da395ae</t>
         </is>
       </c>
       <c r="M475" s="20" t="n"/>
@@ -25107,7 +25107,7 @@
       </c>
       <c r="D476" s="18" t="inlineStr">
         <is>
-          <t>Revise las prácticas recomendadas de DevOps desde el acelerador de zonas de aterrizaje de API de Cloud Adaption Framework</t>
+          <t>Simplifique la administración con scripts de automatización de PowerShell</t>
         </is>
       </c>
       <c r="E476" s="18" t="n"/>
@@ -25131,7 +25131,7 @@
       <c r="K476" s="19" t="n"/>
       <c r="L476" s="19" t="inlineStr">
         <is>
-          <t>c385bfcd-49fd-4786-81ba-cedbb4c57345</t>
+          <t>0674d750-0c6f-4ac0-8717-ceec04d0bdbd</t>
         </is>
       </c>
       <c r="M476" s="20" t="n"/>
@@ -25158,7 +25158,7 @@
       </c>
       <c r="D477" s="18" t="inlineStr">
         <is>
-          <t>Promover el uso de la extensión APIM de Visual Studio Code para un desarrollo de API más rápido</t>
+          <t>Revise las prácticas recomendadas de DevOps desde el acelerador de zonas de aterrizaje de API de Cloud Adaption Framework</t>
         </is>
       </c>
       <c r="E477" s="18" t="n"/>
@@ -25182,7 +25182,7 @@
       <c r="K477" s="19" t="n"/>
       <c r="L477" s="19" t="inlineStr">
         <is>
-          <t>6c3a27c0-197f-426c-9ffa-86fed51d9ab6</t>
+          <t>c385bfcd-49fd-4786-81ba-cedbb4c57345</t>
         </is>
       </c>
       <c r="M477" s="20" t="n"/>
@@ -25209,7 +25209,7 @@
       </c>
       <c r="D478" s="18" t="inlineStr">
         <is>
-          <t>Implemente DevOps y CI/CD en su flujo de trabajo</t>
+          <t>Promover el uso de la extensión APIM de Visual Studio Code para un desarrollo de API más rápido</t>
         </is>
       </c>
       <c r="E478" s="18" t="n"/>
@@ -25233,7 +25233,7 @@
       <c r="K478" s="19" t="n"/>
       <c r="L478" s="19" t="inlineStr">
         <is>
-          <t>354f1c03-8112-4965-85ad-c0074bddf231</t>
+          <t>6c3a27c0-197f-426c-9ffa-86fed51d9ab6</t>
         </is>
       </c>
       <c r="M478" s="20" t="n"/>
@@ -25250,7 +25250,7 @@
       </c>
       <c r="B479" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C479" s="18" t="inlineStr">
@@ -25260,7 +25260,7 @@
       </c>
       <c r="D479" s="18" t="inlineStr">
         <is>
-          <t>API seguras mediante la autenticación de certificados de cliente</t>
+          <t>Implemente DevOps y CI/CD en su flujo de trabajo</t>
         </is>
       </c>
       <c r="E479" s="18" t="n"/>
@@ -25284,7 +25284,7 @@
       <c r="K479" s="19" t="n"/>
       <c r="L479" s="19" t="inlineStr">
         <is>
-          <t>b6439493-426a-45f3-9697-cf65baee208d</t>
+          <t>354f1c03-8112-4965-85ad-c0074bddf231</t>
         </is>
       </c>
       <c r="M479" s="20" t="n"/>
@@ -25311,7 +25311,7 @@
       </c>
       <c r="D480" s="18" t="inlineStr">
         <is>
-          <t>Servicios de back-end seguros mediante la autenticación de certificados de cliente</t>
+          <t>API seguras mediante la autenticación de certificados de cliente</t>
         </is>
       </c>
       <c r="E480" s="18" t="n"/>
@@ -25335,7 +25335,7 @@
       <c r="K480" s="19" t="n"/>
       <c r="L480" s="19" t="inlineStr">
         <is>
-          <t>2a67d143-1033-4c0a-8732-680896478f08</t>
+          <t>b6439493-426a-45f3-9697-cf65baee208d</t>
         </is>
       </c>
       <c r="M480" s="20" t="n"/>
@@ -25362,7 +25362,7 @@
       </c>
       <c r="D481" s="18" t="inlineStr">
         <is>
-          <t>Revise el artículo "Recomendaciones para mitigar las 10 principales amenazas de seguridad de la API de OWASP" y compruebe qué es aplicable a sus API</t>
+          <t>Servicios de back-end seguros mediante la autenticación de certificados de cliente</t>
         </is>
       </c>
       <c r="E481" s="18" t="n"/>
@@ -25386,7 +25386,7 @@
       <c r="K481" s="19" t="n"/>
       <c r="L481" s="19" t="inlineStr">
         <is>
-          <t>074435f5-4a46-41ac-b521-d6114cb5d845</t>
+          <t>2a67d143-1033-4c0a-8732-680896478f08</t>
         </is>
       </c>
       <c r="M481" s="20" t="n"/>
@@ -25413,7 +25413,7 @@
       </c>
       <c r="D482" s="18" t="inlineStr">
         <is>
-          <t>Utilice la función Autorizaciones para simplificar la administración del token de OAuth 2.0 para las API de back-end</t>
+          <t>Revise el artículo "Recomendaciones para mitigar las 10 principales amenazas de seguridad de la API de OWASP" y compruebe qué es aplicable a sus API</t>
         </is>
       </c>
       <c r="E482" s="18" t="n"/>
@@ -25437,7 +25437,7 @@
       <c r="K482" s="19" t="n"/>
       <c r="L482" s="19" t="inlineStr">
         <is>
-          <t>5507c4b8-a7f8-41d6-9661-418c987100c9</t>
+          <t>074435f5-4a46-41ac-b521-d6114cb5d845</t>
         </is>
       </c>
       <c r="M482" s="20" t="n"/>
@@ -25464,13 +25464,13 @@
       </c>
       <c r="D483" s="18" t="inlineStr">
         <is>
-          <t>Utilice la versión más reciente de TLS al cifrar la información en tránsito. Deshabilite los protocolos y cifrados obsoletos e innecesarios cuando sea posible.</t>
+          <t>Utilice la función Autorizaciones para simplificar la administración del token de OAuth 2.0 para las API de back-end</t>
         </is>
       </c>
       <c r="E483" s="18" t="n"/>
       <c r="F483" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G483" t="inlineStr">
@@ -25488,7 +25488,7 @@
       <c r="K483" s="19" t="n"/>
       <c r="L483" s="19" t="inlineStr">
         <is>
-          <t>2deee033-b906-4bc2-9f26-c8d3699fe091</t>
+          <t>5507c4b8-a7f8-41d6-9661-418c987100c9</t>
         </is>
       </c>
       <c r="M483" s="20" t="n"/>
@@ -25515,7 +25515,7 @@
       </c>
       <c r="D484" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que los secretos (valores con nombre) se almacenan en Azure Key Vault para que se pueda acceder a ellos y actualizarlos de forma segura</t>
+          <t>Utilice la versión más reciente de TLS al cifrar la información en tránsito. Deshabilite los protocolos y cifrados obsoletos e innecesarios cuando sea posible.</t>
         </is>
       </c>
       <c r="E484" s="18" t="n"/>
@@ -25539,7 +25539,7 @@
       <c r="K484" s="19" t="n"/>
       <c r="L484" s="19" t="inlineStr">
         <is>
-          <t>f8af3d94-1d2b-4070-846f-849197524258</t>
+          <t>2deee033-b906-4bc2-9f26-c8d3699fe091</t>
         </is>
       </c>
       <c r="M484" s="20" t="n"/>
@@ -25566,13 +25566,13 @@
       </c>
       <c r="D485" s="18" t="inlineStr">
         <is>
-          <t>Uso de identidades administradas para autenticarse en otros recursos de Azure siempre que sea posible</t>
+          <t>Asegúrese de que los secretos (valores con nombre) se almacenan en Azure Key Vault para que se pueda acceder a ellos y actualizarlos de forma segura</t>
         </is>
       </c>
       <c r="E485" s="18" t="n"/>
       <c r="F485" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G485" t="inlineStr">
@@ -25590,7 +25590,7 @@
       <c r="K485" s="19" t="n"/>
       <c r="L485" s="19" t="inlineStr">
         <is>
-          <t>791abd8b-7706-4e31-9569-afefde724be3</t>
+          <t>f8af3d94-1d2b-4070-846f-849197524258</t>
         </is>
       </c>
       <c r="M485" s="20" t="n"/>
@@ -25617,13 +25617,13 @@
       </c>
       <c r="D486" s="18" t="inlineStr">
         <is>
-          <t>Uso del firewall de aplicaciones web (WAF) mediante la implementación de Application Gateway delante de APIM</t>
+          <t>Uso de identidades administradas para autenticarse en otros recursos de Azure siempre que sea posible</t>
         </is>
       </c>
       <c r="E486" s="18" t="n"/>
       <c r="F486" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G486" t="inlineStr">
@@ -25641,7 +25641,7 @@
       <c r="K486" s="19" t="n"/>
       <c r="L486" s="19" t="inlineStr">
         <is>
-          <t>220c4ca6-6688-476b-b2b5-425a78e6fb87</t>
+          <t>791abd8b-7706-4e31-9569-afefde724be3</t>
         </is>
       </c>
       <c r="M486" s="20" t="n"/>
@@ -25653,26 +25653,30 @@
     <row r="487">
       <c r="A487" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B487" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C487" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D487" s="18" t="inlineStr">
         <is>
-          <t>Azure Cache for Redis admite configuraciones con redundancia de zona en los niveles Premium y Enterprise. Una caché con redundancia de zona puede colocar sus nodos en diferentes zonas de disponibilidad de Azure en la misma región. Elimina la interrupción del centro de datos o de la zona de disponibilidad como único punto de error y aumenta la disponibilidad general de la memoria caché.</t>
+          <t>Uso del firewall de aplicaciones web (WAF) mediante la implementación de Application Gateway delante de APIM</t>
         </is>
       </c>
       <c r="E487" s="18" t="n"/>
-      <c r="F487" s="18" t="n"/>
+      <c r="F487" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
       <c r="G487" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -25688,7 +25692,7 @@
       <c r="K487" s="19" t="n"/>
       <c r="L487" s="19" t="inlineStr">
         <is>
-          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
+          <t>220c4ca6-6688-476b-b2b5-425a78e6fb87</t>
         </is>
       </c>
       <c r="M487" s="20" t="n"/>
@@ -25715,7 +25719,7 @@
       </c>
       <c r="D488" s="18" t="inlineStr">
         <is>
-          <t>Dado que los datos de caché se almacenan en la memoria, un error poco frecuente y no planeado de varios nodos puede hacer que se eliminen todos los datos. Para evitar la pérdida completa de datos, la persistencia de Redis permite tomar instantáneas periódicas de los datos en memoria y almacenarlas en la cuenta de almacenamiento.</t>
+          <t>Azure Cache for Redis admite configuraciones con redundancia de zona en los niveles Premium y Enterprise. Una caché con redundancia de zona puede colocar sus nodos en diferentes zonas de disponibilidad de Azure en la misma región. Elimina la interrupción del centro de datos o de la zona de disponibilidad como único punto de error y aumenta la disponibilidad general de la memoria caché.</t>
         </is>
       </c>
       <c r="E488" s="18" t="n"/>
@@ -25735,7 +25739,7 @@
       <c r="K488" s="19" t="n"/>
       <c r="L488" s="19" t="inlineStr">
         <is>
-          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
+          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
         </is>
       </c>
       <c r="M488" s="20" t="n"/>
@@ -25762,7 +25766,7 @@
       </c>
       <c r="D489" s="18" t="inlineStr">
         <is>
-          <t>Use una cuenta de almacenamiento con redundancia geográfica para conservar los datos de Azure Cache for Redis o con redundancia zonal donde la redundancia geográfica no esté disponible</t>
+          <t>Dado que los datos de caché se almacenan en la memoria, un error poco frecuente y no planeado de varios nodos puede hacer que se eliminen todos los datos. Para evitar la pérdida completa de datos, la persistencia de Redis permite tomar instantáneas periódicas de los datos en memoria y almacenarlas en la cuenta de almacenamiento.</t>
         </is>
       </c>
       <c r="E489" s="18" t="n"/>
@@ -25782,7 +25786,7 @@
       <c r="K489" s="19" t="n"/>
       <c r="L489" s="19" t="inlineStr">
         <is>
-          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
+          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
         </is>
       </c>
       <c r="M489" s="20" t="n"/>
@@ -25809,7 +25813,7 @@
       </c>
       <c r="D490" s="18" t="inlineStr">
         <is>
-          <t>La replicación geográfica es un mecanismo para vincular dos o más instancias de Azure Cache for Redis, que normalmente abarcan dos regiones de Azure. La replicación geográfica está diseñada principalmente para la recuperación ante desastres entre regiones. Dos instancias de caché de nivel Premium se conectan a través de la replicación geográfica de una manera que proporciona lecturas y escrituras en la caché principal, y esos datos se replican en la caché secundaria.</t>
+          <t>Use una cuenta de almacenamiento con redundancia geográfica para conservar los datos de Azure Cache for Redis o con redundancia zonal donde la redundancia geográfica no esté disponible</t>
         </is>
       </c>
       <c r="E490" s="18" t="n"/>
@@ -25829,7 +25833,7 @@
       <c r="K490" s="19" t="n"/>
       <c r="L490" s="19" t="inlineStr">
         <is>
-          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
+          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
         </is>
       </c>
       <c r="M490" s="20" t="n"/>
@@ -25839,17 +25843,46 @@
       <c r="Q490" s="20" t="n"/>
     </row>
     <row r="491">
-      <c r="A491" s="18" t="n"/>
-      <c r="B491" s="18" t="n"/>
-      <c r="C491" s="18" t="n"/>
-      <c r="D491" s="18" t="n"/>
+      <c r="A491" s="18" t="inlineStr">
+        <is>
+          <t>Redis Resiliency checklist</t>
+        </is>
+      </c>
+      <c r="B491" s="18" t="inlineStr">
+        <is>
+          <t>Fiabilidad</t>
+        </is>
+      </c>
+      <c r="C491" s="18" t="inlineStr">
+        <is>
+          <t>Redis</t>
+        </is>
+      </c>
+      <c r="D491" s="18" t="inlineStr">
+        <is>
+          <t>La replicación geográfica es un mecanismo para vincular dos o más instancias de Azure Cache for Redis, que normalmente abarcan dos regiones de Azure. La replicación geográfica está diseñada principalmente para la recuperación ante desastres entre regiones. Dos instancias de caché de nivel Premium se conectan a través de la replicación geográfica de una manera que proporciona lecturas y escrituras en la caché principal, y esos datos se replican en la caché secundaria.</t>
+        </is>
+      </c>
       <c r="E491" s="18" t="n"/>
       <c r="F491" s="18" t="n"/>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H491" s="18" t="n"/>
-      <c r="I491" s="13" t="n"/>
+      <c r="I491" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J491" s="13" t="n"/>
       <c r="K491" s="19" t="n"/>
-      <c r="L491" s="19" t="n"/>
+      <c r="L491" s="19" t="inlineStr">
+        <is>
+          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
+        </is>
+      </c>
       <c r="M491" s="20" t="n"/>
       <c r="N491" s="20" t="n"/>
       <c r="O491" s="20" t="n"/>
@@ -38853,7 +38886,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G491" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G492" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -39159,10 +39192,10 @@
     <hyperlink ref="I308" r:id="rId299"/>
     <hyperlink ref="I309" r:id="rId300"/>
     <hyperlink ref="I310" r:id="rId301"/>
-    <hyperlink ref="I321" r:id="rId302"/>
-    <hyperlink ref="I403" r:id="rId303"/>
+    <hyperlink ref="I311" r:id="rId302"/>
+    <hyperlink ref="I322" r:id="rId303"/>
     <hyperlink ref="I404" r:id="rId304"/>
-    <hyperlink ref="I408" r:id="rId305"/>
+    <hyperlink ref="I405" r:id="rId305"/>
     <hyperlink ref="I409" r:id="rId306"/>
     <hyperlink ref="I410" r:id="rId307"/>
     <hyperlink ref="I411" r:id="rId308"/>
@@ -39184,7 +39217,7 @@
     <hyperlink ref="I427" r:id="rId324"/>
     <hyperlink ref="I428" r:id="rId325"/>
     <hyperlink ref="I429" r:id="rId326"/>
-    <hyperlink ref="I431" r:id="rId327"/>
+    <hyperlink ref="I430" r:id="rId327"/>
     <hyperlink ref="I432" r:id="rId328"/>
     <hyperlink ref="I433" r:id="rId329"/>
     <hyperlink ref="I434" r:id="rId330"/>
@@ -39195,7 +39228,7 @@
     <hyperlink ref="I439" r:id="rId335"/>
     <hyperlink ref="I440" r:id="rId336"/>
     <hyperlink ref="I441" r:id="rId337"/>
-    <hyperlink ref="I443" r:id="rId338"/>
+    <hyperlink ref="I442" r:id="rId338"/>
     <hyperlink ref="I444" r:id="rId339"/>
     <hyperlink ref="I445" r:id="rId340"/>
     <hyperlink ref="I446" r:id="rId341"/>
@@ -39243,6 +39276,7 @@
     <hyperlink ref="I488" r:id="rId383"/>
     <hyperlink ref="I489" r:id="rId384"/>
     <hyperlink ref="I490" r:id="rId385"/>
+    <hyperlink ref="I491" r:id="rId386"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf.es.xlsx
+++ b/spreadsheet/macrofree/waf.es.xlsx
@@ -15897,28 +15897,32 @@
     <row r="303">
       <c r="A303" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B303" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C303" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D303" s="18" t="inlineStr">
         <is>
-          <t>Use un inquilino de Entra para administrar los recursos de Azure, a menos que tenga un requisito normativo o empresarial claro para varios inquilinos.</t>
-        </is>
-      </c>
-      <c r="E303" s="18" t="n"/>
+          <t>Uso de Key Vault para almacenar secretos</t>
+        </is>
+      </c>
+      <c r="E303" s="18" t="inlineStr">
+        <is>
+          <t>Use Azure Key Vault para almacenar los secretos que necesita la aplicación.  Key Vault proporciona un entorno seguro y auditado para almacenar secretos y está bien integrado con App Service a través del SDK de Key Vault o las referencias de Key Vault de App Service.</t>
+        </is>
+      </c>
       <c r="F303" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -15936,7 +15940,7 @@
       <c r="K303" s="19" t="n"/>
       <c r="L303" s="19" t="inlineStr">
         <is>
-          <t>70c15989-c726-42c7-b0d3-24b7375b9201</t>
+          <t>834ac932-223e-4ce8-8b12-3071a5416415</t>
         </is>
       </c>
       <c r="M303" s="20" t="n"/>
@@ -15948,28 +15952,32 @@
     <row r="304">
       <c r="A304" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B304" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C304" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D304" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que tiene un enfoque de automatización multiinquilino para administrar los inquilinos de Microsoft Entra ID</t>
-        </is>
-      </c>
-      <c r="E304" s="18" t="n"/>
+          <t>Uso de la identidad administrada para conectarse a Key Vault</t>
+        </is>
+      </c>
+      <c r="E304" s="18" t="inlineStr">
+        <is>
+          <t>Use una identidad administrada para conectarse a Key Vault mediante el SDK de Key Vault o a través de las referencias de Key Vault de App Service.</t>
+        </is>
+      </c>
       <c r="F304" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
@@ -15987,7 +15995,7 @@
       <c r="K304" s="19" t="n"/>
       <c r="L304" s="19" t="inlineStr">
         <is>
-          <t>6309957b-821a-43d1-b9d9-7fcf1802b747</t>
+          <t>833ea3ad-2c2d-4e73-8165-c3acbef4abe1</t>
         </is>
       </c>
       <c r="M304" s="20" t="n"/>
@@ -15999,28 +16007,32 @@
     <row r="305">
       <c r="A305" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B305" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C305" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D305" s="18" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Azure Lighthouse para la administración multiinquilino</t>
-        </is>
-      </c>
-      <c r="E305" s="18" t="n"/>
+          <t>Use Key Vault para almacenar el certificado TLS.</t>
+        </is>
+      </c>
+      <c r="E305" s="18" t="inlineStr">
+        <is>
+          <t>Almacene el certificado TLS de App Service en Key Vault.</t>
+        </is>
+      </c>
       <c r="F305" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
@@ -16038,7 +16050,7 @@
       <c r="K305" s="19" t="n"/>
       <c r="L305" s="19" t="inlineStr">
         <is>
-          <t>78e11934-499a-45ed-8ef7-aae5578f0ecf</t>
+          <t>f8d39fda-4776-4831-9c11-5775c2ea55b4</t>
         </is>
       </c>
       <c r="M305" s="20" t="n"/>
@@ -16050,25 +16062,29 @@
     <row r="306">
       <c r="A306" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B306" s="18" t="inlineStr">
         <is>
-          <t>Costar</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C306" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D306" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que el asociado usa Azure Lighthouse para administrar el inquilino</t>
-        </is>
-      </c>
-      <c r="E306" s="18" t="n"/>
+          <t>Aísle los sistemas que procesan información confidencial</t>
+        </is>
+      </c>
+      <c r="E306" s="18" t="inlineStr">
+        <is>
+          <t>Los sistemas que procesan información confidencial deben estar aislados.  Para ello, use planes del Servicio de aplicaciones o entornos del Servicio de aplicaciones independientes y considere la posibilidad de usar suscripciones o grupos de administración diferentes.</t>
+        </is>
+      </c>
       <c r="F306" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -16089,7 +16105,7 @@
       <c r="K306" s="19" t="n"/>
       <c r="L306" s="19" t="inlineStr">
         <is>
-          <t>5d82e6df-6f61-42f2-82e2-3132d293be3d</t>
+          <t>6ad48408-ee72-4734-a475-ba18fdbf590c</t>
         </is>
       </c>
       <c r="M306" s="20" t="n"/>
@@ -16101,7 +16117,7 @@
     <row r="307">
       <c r="A307" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B307" s="18" t="inlineStr">
@@ -16111,18 +16127,22 @@
       </c>
       <c r="C307" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D307" s="18" t="inlineStr">
         <is>
-          <t>Implemente un acceso de emergencia o cuentas de emergencia para evitar el bloqueo de cuentas en todo el inquilino</t>
-        </is>
-      </c>
-      <c r="E307" s="18" t="n"/>
+          <t>No almacene datos confidenciales en el disco local</t>
+        </is>
+      </c>
+      <c r="E307" s="18" t="inlineStr">
+        <is>
+          <t>Los discos locales de App Service no están cifrados y los datos confidenciales no deben almacenarse en ellos.  (Por ejemplo: D:\\Local y %TMP%).</t>
+        </is>
+      </c>
       <c r="F307" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
@@ -16136,15 +16156,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J307" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+      <c r="J307" s="13" t="n"/>
       <c r="K307" s="19" t="n"/>
       <c r="L307" s="19" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>e65de8e0-3f9b-4cbd-9682-66abca264f9a</t>
         </is>
       </c>
       <c r="M307" s="20" t="n"/>
@@ -16156,7 +16172,7 @@
     <row r="308">
       <c r="A308" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B308" s="18" t="inlineStr">
@@ -16166,15 +16182,19 @@
       </c>
       <c r="C308" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D308" s="18" t="inlineStr">
         <is>
-          <t>Integre los registros de identificador de Microsoft Entra con Azure Monitor central de la plataforma. Azure Monitor permite una única fuente de información en torno a los datos de registro y supervisión en Azure, lo que ofrece a las organizaciones opciones nativas en la nube para cumplir los requisitos relacionados con la recopilación y retención de registros.</t>
-        </is>
-      </c>
-      <c r="E308" s="18" t="n"/>
+          <t>Usar un proveedor de identidades establecido para la autenticación</t>
+        </is>
+      </c>
+      <c r="E308" s="18" t="inlineStr">
+        <is>
+          <t>En el caso de la aplicación web autenticada, use un proveedor de identidades bien establecido, como Azure AD o Azure AD B2C.  Aproveche el marco de aplicaciones de su elección para integrarse con este proveedor o use la característica de autenticación o autorización del Servicio de aplicaciones.</t>
+        </is>
+      </c>
       <c r="F308" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -16195,7 +16215,7 @@
       <c r="K308" s="19" t="n"/>
       <c r="L308" s="19" t="inlineStr">
         <is>
-          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
+          <t>919ca0b2-c121-459e-814b-933df574eccc</t>
         </is>
       </c>
       <c r="M308" s="20" t="n"/>
@@ -16207,7 +16227,7 @@
     <row r="309">
       <c r="A309" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B309" s="18" t="inlineStr">
@@ -16217,15 +16237,19 @@
       </c>
       <c r="C309" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D309" s="18" t="inlineStr">
         <is>
-          <t>Aplique un modelo RBAC que se alinee con su modelo operativo en la nube. Ámbito y asignación entre grupos de administración y suscripciones.</t>
-        </is>
-      </c>
-      <c r="E309" s="18" t="n"/>
+          <t>Implementación desde un entorno de confianza</t>
+        </is>
+      </c>
+      <c r="E309" s="18" t="inlineStr">
+        <is>
+          <t>Implemente código en App Service desde un entorno controlado y de confianza, como una canalización de implementación de DevOps bien administrada y segura. De este modo, se evita el código que no se ha controlado la versión y se ha comprobado que se implementará desde un host malintencionado.</t>
+        </is>
+      </c>
       <c r="F309" s="18" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -16242,15 +16266,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J309" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="J309" s="13" t="n"/>
       <c r="K309" s="19" t="n"/>
       <c r="L309" s="19" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>3f9bcbd4-6826-46ab-aa26-4f9a19aed9c5</t>
         </is>
       </c>
       <c r="M309" s="20" t="n"/>
@@ -16262,7 +16282,7 @@
     <row r="310">
       <c r="A310" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B310" s="18" t="inlineStr">
@@ -16272,18 +16292,22 @@
       </c>
       <c r="C310" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D310" s="18" t="inlineStr">
         <is>
-          <t>Aplicación de directivas de acceso condicional de Microsoft Entra ID para cualquier usuario con derechos en entornos de Azure</t>
-        </is>
-      </c>
-      <c r="E310" s="18" t="n"/>
+          <t>Deshabilitar la autenticación básica</t>
+        </is>
+      </c>
+      <c r="E310" s="18" t="inlineStr">
+        <is>
+          <t>Deshabilite la autenticación básica tanto para FTP/FTPS como para WebDeploy/SCM.  Esto deshabilita el acceso a estos servicios y exige el uso de puntos de conexión protegidos de Azure AD para la implementación.  Tenga en cuenta que el sitio de SCM también se puede abrir con credenciales de Azure AD.</t>
+        </is>
+      </c>
       <c r="F310" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
@@ -16297,15 +16321,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J310" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
-        </is>
-      </c>
+      <c r="J310" s="13" t="n"/>
       <c r="K310" s="19" t="n"/>
       <c r="L310" s="19" t="inlineStr">
         <is>
-          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
+          <t>5d04c2c3-919c-4a0b-8c12-159e114b933d</t>
         </is>
       </c>
       <c r="M310" s="20" t="n"/>
@@ -16317,7 +16337,7 @@
     <row r="311">
       <c r="A311" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B311" s="18" t="inlineStr">
@@ -16327,15 +16347,19 @@
       </c>
       <c r="C311" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D311" s="18" t="inlineStr">
         <is>
-          <t>Aplicación de la autenticación multifactor para cualquier usuario con derechos en los entornos de Azure</t>
-        </is>
-      </c>
-      <c r="E311" s="18" t="n"/>
+          <t>Uso de la identidad administrada para conectarse a los recursos</t>
+        </is>
+      </c>
+      <c r="E311" s="18" t="inlineStr">
+        <is>
+          <t>Siempre que sea posible, use Managed Identity para conectarse a los recursos protegidos de Azure AD.  Si esto no es posible, almacene los secretos en Key Vault y conéctese a Key Vault mediante una identidad administrada en su lugar.</t>
+        </is>
+      </c>
       <c r="F311" s="18" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -16352,15 +16376,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J311" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
-        </is>
-      </c>
+      <c r="J311" s="13" t="n"/>
       <c r="K311" s="19" t="n"/>
       <c r="L311" s="19" t="inlineStr">
         <is>
-          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
+          <t>f574eccc-d9bd-43ba-bcda-3b54eb2eb03d</t>
         </is>
       </c>
       <c r="M311" s="20" t="n"/>
@@ -16372,7 +16392,7 @@
     <row r="312">
       <c r="A312" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B312" s="18" t="inlineStr">
@@ -16382,18 +16402,22 @@
       </c>
       <c r="C312" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D312" s="18" t="inlineStr">
         <is>
-          <t>Aplique la administración de identidades privilegiadas (PIM) de Microsoft Entra ID para establecer el acceso permanente cero y los privilegios mínimos</t>
-        </is>
-      </c>
-      <c r="E312" s="18" t="n"/>
+          <t>Extracción de contenedores mediante una identidad administrada</t>
+        </is>
+      </c>
+      <c r="E312" s="18" t="inlineStr">
+        <is>
+          <t>Cuando use imágenes almacenadas en Azure Container Registry, extráigalas mediante una identidad administrada.</t>
+        </is>
+      </c>
       <c r="F312" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
@@ -16407,15 +16431,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J312" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+      <c r="J312" s="13" t="n"/>
       <c r="K312" s="19" t="n"/>
       <c r="L312" s="19" t="inlineStr">
         <is>
-          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
+          <t>d9a25827-18d2-4ddb-8072-5769ee6691a4</t>
         </is>
       </c>
       <c r="M312" s="20" t="n"/>
@@ -16427,7 +16447,7 @@
     <row r="313">
       <c r="A313" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B313" s="18" t="inlineStr">
@@ -16437,18 +16457,22 @@
       </c>
       <c r="C313" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D313" s="18" t="inlineStr">
         <is>
-          <t>Utilice solo el tipo de autenticación Cuenta profesional o educativa para todos los tipos de cuenta. Evite usar la cuenta de Microsoft</t>
-        </is>
-      </c>
-      <c r="E313" s="18" t="n"/>
+          <t>Envío de registros en tiempo de ejecución de App Service a Log Analytics</t>
+        </is>
+      </c>
+      <c r="E313" s="18" t="inlineStr">
+        <is>
+          <t>Al configurar las opciones de diagnóstico de App Service, puede enviar todos los datos de telemetría a Log Analytics como destino central para el registro y la supervisión. Esto le permite supervisar la actividad en tiempo de ejecución de App Service, como los registros HTTP, los registros de aplicaciones, los registros de plataforma, ...</t>
+        </is>
+      </c>
       <c r="F313" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
@@ -16462,15 +16486,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J313" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
-        </is>
-      </c>
+      <c r="J313" s="13" t="n"/>
       <c r="K313" s="19" t="n"/>
       <c r="L313" s="19" t="inlineStr">
         <is>
-          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
+          <t>47768314-c115-4775-a2ea-55b46ad48408</t>
         </is>
       </c>
       <c r="M313" s="20" t="n"/>
@@ -16482,7 +16502,7 @@
     <row r="314">
       <c r="A314" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B314" s="18" t="inlineStr">
@@ -16492,15 +16512,19 @@
       </c>
       <c r="C314" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D314" s="18" t="inlineStr">
         <is>
-          <t>Utilice solo grupos para asignar permisos. Agregue grupos locales al grupo solo de Azure-AD si ya existe un sistema de administración de grupos.</t>
-        </is>
-      </c>
-      <c r="E314" s="18" t="n"/>
+          <t>Envío de registros de actividad de App Service a Log Analytics</t>
+        </is>
+      </c>
+      <c r="E314" s="18" t="inlineStr">
+        <is>
+          <t>Configure una configuración de diagnóstico para enviar el registro de actividad a Log Analytics como destino central para el registro y la supervisión. Esto le permite supervisar la actividad del plano de control en el propio recurso de App Service.</t>
+        </is>
+      </c>
       <c r="F314" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -16517,15 +16541,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J314" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
-        </is>
-      </c>
+      <c r="J314" s="13" t="n"/>
       <c r="K314" s="19" t="n"/>
       <c r="L314" s="19" t="inlineStr">
         <is>
-          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
+          <t>ee72734b-475b-4a18-bdbf-590ce65de8e0</t>
         </is>
       </c>
       <c r="M314" s="20" t="n"/>
@@ -16537,7 +16557,7 @@
     <row r="315">
       <c r="A315" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B315" s="18" t="inlineStr">
@@ -16547,15 +16567,19 @@
       </c>
       <c r="C315" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D315" s="18" t="inlineStr">
         <is>
-          <t>Si Entra Domain Services está en uso, evalúe la compatibilidad de todas las cargas de trabajo</t>
-        </is>
-      </c>
-      <c r="E315" s="18" t="n"/>
+          <t>El acceso a la red saliente debe controlarse</t>
+        </is>
+      </c>
+      <c r="E315" s="18" t="inlineStr">
+        <is>
+          <t>Controle el acceso saliente a la red mediante una combinación de integración de red virtual regional, grupos de seguridad de red y UDR.  El tráfico debe enrutarse a una aplicación virtual de red, como Azure Firewall.  Asegúrese de supervisar los registros del cortafuegos.</t>
+        </is>
+      </c>
       <c r="F315" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -16572,15 +16596,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J315" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
-        </is>
-      </c>
+      <c r="J315" s="13" t="n"/>
       <c r="K315" s="19" t="n"/>
       <c r="L315" s="19" t="inlineStr">
         <is>
-          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
+          <t>c12159e1-14b9-433d-b574-ecccd9bd3baf</t>
         </is>
       </c>
       <c r="M315" s="20" t="n"/>
@@ -16592,7 +16612,7 @@
     <row r="316">
       <c r="A316" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B316" s="18" t="inlineStr">
@@ -16602,18 +16622,22 @@
       </c>
       <c r="C316" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D316" s="18" t="inlineStr">
         <is>
-          <t>Cuando sea necesario, use Microsoft Entra ID Application Proxy para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas (hospedadas en la nube o en el entorno local).</t>
-        </is>
-      </c>
-      <c r="E316" s="18" t="n"/>
+          <t>Garantizar una IP estable para las comunicaciones salientes hacia las direcciones de Internet</t>
+        </is>
+      </c>
+      <c r="E316" s="18" t="inlineStr">
+        <is>
+          <t>Puede proporcionar una dirección IP de salida estable mediante la integración de red virtual y una puerta de enlace NAT de red virtual o una aplicación virtual de red como Azure Firewall.  Esto permite a la parte receptora incluir en la lista de permitidos en función de la IP, en caso de que sea necesario.  Tenga en cuenta que para las comunicaciones con los servicios de Azure, a menudo no es necesario depender de la dirección IP y, en su lugar, se deben usar mecanismos como los puntos de conexión de servicio.  (Además, el uso de puntos de conexión privados en el extremo receptor evita que se produzca SNAT y proporciona un intervalo de IP de salida estable).</t>
+        </is>
+      </c>
       <c r="F316" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
@@ -16627,15 +16651,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J316" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
+      <c r="J316" s="13" t="n"/>
       <c r="K316" s="19" t="n"/>
       <c r="L316" s="19" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>cda3b54e-b2eb-403d-b9a2-582718d2ddb1</t>
         </is>
       </c>
       <c r="M316" s="20" t="n"/>
@@ -16647,7 +16667,7 @@
     <row r="317">
       <c r="A317" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B317" s="18" t="inlineStr">
@@ -16657,18 +16677,22 @@
       </c>
       <c r="C317" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D317" s="18" t="inlineStr">
         <is>
-          <t>Evite el uso de cuentas sincronizadas locales para las asignaciones de roles de identificador de Microsoft Entra.</t>
-        </is>
-      </c>
-      <c r="E317" s="18" t="n"/>
+          <t>El acceso a la red entrante debe controlarse</t>
+        </is>
+      </c>
+      <c r="E317" s="18" t="inlineStr">
+        <is>
+          <t>Controle el acceso entrante a la red mediante una combinación de restricciones de acceso al Servicio de aplicaciones, puntos de conexión de servicio o puntos de conexión privados. Se pueden requerir y configurar diferentes restricciones de acceso para la propia aplicación web y el sitio de SCM.</t>
+        </is>
+      </c>
       <c r="F317" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
@@ -16682,15 +16706,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J317" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
-        </is>
-      </c>
+      <c r="J317" s="13" t="n"/>
       <c r="K317" s="19" t="n"/>
       <c r="L317" s="19" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>0725769e-e669-41a4-a34a-c932223ece80</t>
         </is>
       </c>
       <c r="M317" s="20" t="n"/>
@@ -16702,7 +16722,7 @@
     <row r="318">
       <c r="A318" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B318" s="18" t="inlineStr">
@@ -16712,18 +16732,22 @@
       </c>
       <c r="C318" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D318" s="18" t="inlineStr">
         <is>
-          <t>Use una red DDoS o planes de protección IP para todas las direcciones IP públicas en las zonas de aterrizaje de la aplicación.</t>
-        </is>
-      </c>
-      <c r="E318" s="18" t="n"/>
+          <t>Uso de un WAF delante de App Service</t>
+        </is>
+      </c>
+      <c r="E318" s="18" t="inlineStr">
+        <is>
+          <t>Protéjase contra el tráfico entrante malintencionado mediante un firewall de aplicaciones web como Application Gateway o Azure Front Door.  Asegúrese de supervisar los registros del WAF.</t>
+        </is>
+      </c>
       <c r="F318" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
@@ -16737,15 +16761,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J318" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+      <c r="J318" s="13" t="n"/>
       <c r="K318" s="19" t="n"/>
       <c r="L318" s="19" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>b123071a-5416-4415-a33e-a3ad2c2de732</t>
         </is>
       </c>
       <c r="M318" s="20" t="n"/>
@@ -16757,7 +16777,7 @@
     <row r="319">
       <c r="A319" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B319" s="18" t="inlineStr">
@@ -16767,18 +16787,22 @@
       </c>
       <c r="C319" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D319" s="18" t="inlineStr">
         <is>
-          <t>Cuando use ExpressRoute Direct, configure MACsec para cifrar el tráfico en el nivel de capa dos entre los enrutadores de la organización y MSEE. El diagrama muestra este cifrado en el flujo.</t>
-        </is>
-      </c>
-      <c r="E319" s="18" t="n"/>
+          <t>Evite que se omita WAF</t>
+        </is>
+      </c>
+      <c r="E319" s="18" t="inlineStr">
+        <is>
+          <t>Asegúrese de que no se pueda omitir el WAF bloqueando el acceso solo al WAF.  Use una combinación de restricciones de acceso, puntos de conexión de servicio y puntos de conexión privados.</t>
+        </is>
+      </c>
       <c r="F319" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
@@ -16796,7 +16820,7 @@
       <c r="K319" s="19" t="n"/>
       <c r="L319" s="19" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>165c3acb-ef4a-4be1-b8d3-9fda47768314</t>
         </is>
       </c>
       <c r="M319" s="20" t="n"/>
@@ -16808,7 +16832,7 @@
     <row r="320">
       <c r="A320" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B320" s="18" t="inlineStr">
@@ -16818,18 +16842,22 @@
       </c>
       <c r="C320" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D320" s="18" t="inlineStr">
         <is>
-          <t>En escenarios en los que MACsec no es una opción (por ejemplo, no usar ExpressRoute Direct), use una puerta de enlace de VPN para establecer túneles IPsec a través del emparejamiento privado de ExpressRoute.</t>
-        </is>
-      </c>
-      <c r="E320" s="18" t="n"/>
+          <t>Establezca la directiva TLS mínima en 1.2</t>
+        </is>
+      </c>
+      <c r="E320" s="18" t="inlineStr">
+        <is>
+          <t>Establezca la directiva TLS mínima en 1.2 en la configuración de App Service.</t>
+        </is>
+      </c>
       <c r="F320" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
@@ -16843,15 +16871,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J320" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
-      <c r="K320" s="19" t="n"/>
+      <c r="J320" s="13" t="n"/>
+      <c r="K320" s="19" t="inlineStr">
+        <is>
+          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.MinTlsVersion&gt;=1.2) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L320" s="19" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>c115775c-2ea5-45b4-9ad4-8408ee72734b</t>
         </is>
       </c>
       <c r="M320" s="20" t="n"/>
@@ -16863,7 +16891,7 @@
     <row r="321">
       <c r="A321" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B321" s="18" t="inlineStr">
@@ -16873,18 +16901,22 @@
       </c>
       <c r="C321" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D321" s="18" t="inlineStr">
         <is>
-          <t>Aproveche un diseño de red basado en la topología de red radial tradicional para escenarios de red que requieren la máxima flexibilidad.</t>
-        </is>
-      </c>
-      <c r="E321" s="18" t="n"/>
+          <t>Usar solo HTTPS</t>
+        </is>
+      </c>
+      <c r="E321" s="18" t="inlineStr">
+        <is>
+          <t>Configure App Service para que use solo HTTPS.  Esto hace que App Service se redirija de HTTP a HTTPS.  Considere seriamente el uso de HTTP Strict Transport Security (HSTS) en su código o desde su WAF, que informa a los navegadores que solo se debe acceder al sitio mediante HTTPS.</t>
+        </is>
+      </c>
       <c r="F321" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
@@ -16898,15 +16930,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J321" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K321" s="19" t="n"/>
+      <c r="J321" s="13" t="n"/>
+      <c r="K321" s="19" t="inlineStr">
+        <is>
+          <t>where (type=='microsoft.web/sites' and (kind == 'app' or kind == 'app,linux' )) | extend compliant = (properties.httpsOnly==true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L321" s="19" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>475ba18f-dbf5-490c-b65d-e8e03f9bcbd4</t>
         </is>
       </c>
       <c r="M321" s="20" t="n"/>
@@ -16918,25 +16950,29 @@
     <row r="322">
       <c r="A322" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B322" s="18" t="inlineStr">
         <is>
-          <t>Costar</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C322" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D322" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que los servicios de redes compartidas, incluidas las puertas de enlace de ExpressRoute, las puertas de enlace de VPN y Azure Firewall o las aplicaciones virtuales de red de asociados en la red virtual del centro central. Si es necesario, implemente también servidores DNS.</t>
-        </is>
-      </c>
-      <c r="E322" s="18" t="n"/>
+          <t>Los comodines no deben usarse para CORS</t>
+        </is>
+      </c>
+      <c r="E322" s="18" t="inlineStr">
+        <is>
+          <t>No utilice caracteres comodín en la configuración de CORS, ya que esto permite que todos los orígenes accedan al servicio (lo que anula el propósito de CORS). En concreto, solo permite los orígenes que esperas poder acceder al servicio.</t>
+        </is>
+      </c>
       <c r="F322" s="18" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -16957,7 +16993,7 @@
       <c r="K322" s="19" t="n"/>
       <c r="L322" s="19" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>68266abc-a264-4f9a-89ae-d9c55d04c2c3</t>
         </is>
       </c>
       <c r="M322" s="20" t="n"/>
@@ -16969,28 +17005,32 @@
     <row r="323">
       <c r="A323" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B323" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C323" s="18" t="inlineStr">
         <is>
-          <t>NVA</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D323" s="18" t="inlineStr">
         <is>
-          <t>Al implementar tecnologías de redes de asociados o aplicaciones virtuales de red, siga las instrucciones del proveedor de asociados</t>
-        </is>
-      </c>
-      <c r="E323" s="18" t="n"/>
+          <t>Desactivar la depuración remota</t>
+        </is>
+      </c>
+      <c r="E323" s="18" t="inlineStr">
+        <is>
+          <t>La depuración remota no debe estar activada en producción, ya que esto abre puertos adicionales en el servicio, lo que aumenta la superficie expuesta a ataques. Tenga en cuenta que el servicio desactiva la depuración remota automáticamente después de 48 horas.</t>
+        </is>
+      </c>
       <c r="F323" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
@@ -17005,10 +17045,14 @@
         </is>
       </c>
       <c r="J323" s="13" t="n"/>
-      <c r="K323" s="19" t="n"/>
+      <c r="K323" s="19" t="inlineStr">
+        <is>
+          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.RemoteDebuggingEnabled == false) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L323" s="19" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>d9bd3baf-cda3-4b54-bb2e-b03dd9a25827</t>
         </is>
       </c>
       <c r="M323" s="20" t="n"/>
@@ -17020,7 +17064,7 @@
     <row r="324">
       <c r="A324" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B324" s="18" t="inlineStr">
@@ -17030,18 +17074,22 @@
       </c>
       <c r="C324" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D324" s="18" t="inlineStr">
         <is>
-          <t>Si necesita el tránsito entre ExpressRoute y las puertas de enlace de VPN en escenarios radiales, use Azure Route Server.</t>
-        </is>
-      </c>
-      <c r="E324" s="18" t="n"/>
+          <t>Habilitación de Defender for Cloud: Defender for App Service</t>
+        </is>
+      </c>
+      <c r="E324" s="18" t="inlineStr">
+        <is>
+          <t>Habilite Defender para App Service.  Esto (entre otras amenazas) detecta comunicaciones a direcciones IP maliciosas conocidas.  Revise las recomendaciones de Defender para App Service como parte de las operaciones.</t>
+        </is>
+      </c>
       <c r="F324" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
@@ -17059,7 +17107,7 @@
       <c r="K324" s="19" t="n"/>
       <c r="L324" s="19" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>18d2ddb1-0725-4769-be66-91a4834ac932</t>
         </is>
       </c>
       <c r="M324" s="20" t="n"/>
@@ -17071,7 +17119,7 @@
     <row r="325">
       <c r="A325" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B325" s="18" t="inlineStr">
@@ -17081,18 +17129,22 @@
       </c>
       <c r="C325" s="18" t="inlineStr">
         <is>
-          <t>ARS</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D325" s="18" t="inlineStr">
         <is>
-          <t>Si utiliza el servidor de rutas, utilice un prefijo /27 para la subred del servidor de rutas.</t>
-        </is>
-      </c>
-      <c r="E325" s="18" t="n"/>
+          <t>Habilitación del estándar de protección DDoS en la red virtual de WAF</t>
+        </is>
+      </c>
+      <c r="E325" s="18" t="inlineStr">
+        <is>
+          <t>Azure proporciona protección básica contra DDoS en su red, que se puede mejorar con funcionalidades inteligentes de DDoS Standard que aprenden sobre los patrones de tráfico normales y pueden detectar comportamientos inusuales. DDoS Standard se aplica a una red virtual, por lo que debe configurarse para el recurso de red delante de la aplicación, como Application Gateway o una aplicación virtual de red.</t>
+        </is>
+      </c>
       <c r="F325" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -17107,14 +17159,10 @@
         </is>
       </c>
       <c r="J325" s="13" t="n"/>
-      <c r="K325" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'RouteServerSubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="K325" s="19" t="n"/>
       <c r="L325" s="19" t="inlineStr">
         <is>
-          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
+          <t>223ece80-b123-4071-a541-6415833ea3ad</t>
         </is>
       </c>
       <c r="M325" s="20" t="n"/>
@@ -17126,25 +17174,29 @@
     <row r="326">
       <c r="A326" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B326" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C326" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D326" s="18" t="inlineStr">
         <is>
-          <t>En el caso de las arquitecturas de red con varias topologías en estrella tipo hub-and-spoke en las regiones de Azure, use emparejamientos de red virtual global entre las redes virtuales del centro para conectar las regiones entre sí.</t>
-        </is>
-      </c>
-      <c r="E326" s="18" t="n"/>
+          <t>Extracción de contenedores a través de una red virtual</t>
+        </is>
+      </c>
+      <c r="E326" s="18" t="inlineStr">
+        <is>
+          <t>Cuando use imágenes almacenadas en Azure Container Registry, extráigalas a través de una red virtual desde Azure Container Registry mediante su punto de conexión privado y la configuración de la aplicación "WEBSITE_PULL_IMAGE_OVER_VNET".</t>
+        </is>
+      </c>
       <c r="F326" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -17161,15 +17213,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J326" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+      <c r="J326" s="13" t="n"/>
       <c r="K326" s="19" t="n"/>
       <c r="L326" s="19" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>2c2de732-165c-43ac-aef4-abe1f8d39fda</t>
         </is>
       </c>
       <c r="M326" s="20" t="n"/>
@@ -17181,25 +17229,29 @@
     <row r="327">
       <c r="A327" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B327" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C327" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D327" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Monitor para redes para supervisar el estado de un extremo a otro de las redes en Azure.</t>
-        </is>
-      </c>
-      <c r="E327" s="18" t="n"/>
+          <t>Realizar una prueba de penetración</t>
+        </is>
+      </c>
+      <c r="E327" s="18" t="inlineStr">
+        <is>
+          <t>Realice una prueba de penetración en la aplicación web siguiendo las reglas de participación de las pruebas de penetración.</t>
+        </is>
+      </c>
       <c r="F327" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -17216,15 +17268,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J327" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+      <c r="J327" s="13" t="n"/>
       <c r="K327" s="19" t="n"/>
       <c r="L327" s="19" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>eb2eb03d-d9a2-4582-918d-2ddb10725769</t>
         </is>
       </c>
       <c r="M327" s="20" t="n"/>
@@ -17236,25 +17284,29 @@
     <row r="328">
       <c r="A328" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B328" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C328" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D328" s="18" t="inlineStr">
         <is>
-          <t>Al conectar redes virtuales de radio a la red virtual del centro central, tenga en cuenta los límites de emparejamiento de red virtual (500), el número máximo de prefijos que se pueden anunciar a través de ExpressRoute (1000)</t>
-        </is>
-      </c>
-      <c r="E328" s="18" t="n"/>
+          <t>Implementación de código validado</t>
+        </is>
+      </c>
+      <c r="E328" s="18" t="inlineStr">
+        <is>
+          <t>Implemente código de confianza que se haya validado y analizado en busca de vulnerabilidades de acuerdo con las prácticas de DevSecOps.</t>
+        </is>
+      </c>
       <c r="F328" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -17272,14 +17324,10 @@
         </is>
       </c>
       <c r="J328" s="13" t="n"/>
-      <c r="K328" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | summarize peeringcount = count() by id | extend compliant = (peeringcount &lt; 450) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K328" s="19" t="n"/>
       <c r="L328" s="19" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>19aed9c5-5d04-4c2c-9919-ca0b2c12159e</t>
         </is>
       </c>
       <c r="M328" s="20" t="n"/>
@@ -17291,28 +17339,32 @@
     <row r="329">
       <c r="A329" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B329" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C329" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D329" s="18" t="inlineStr">
         <is>
-          <t>Tenga en cuenta el límite de rutas por tabla de rutas (400).</t>
-        </is>
-      </c>
-      <c r="E329" s="18" t="n"/>
+          <t>Utilizar plataformas, lenguajes, protocolos y marcos actualizados</t>
+        </is>
+      </c>
+      <c r="E329" s="18" t="inlineStr">
+        <is>
+          <t>Utilice las versiones más recientes de plataformas, lenguajes de programación, protocolos y marcos compatibles.</t>
+        </is>
+      </c>
       <c r="F329" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -17327,14 +17379,10 @@
         </is>
       </c>
       <c r="J329" s="13" t="n"/>
-      <c r="K329" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/routetables' | mvexpand properties.routes | summarize routeCount = count() by id | extend compliant = (routeCount &lt; 360) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K329" s="19" t="n"/>
       <c r="L329" s="19" t="inlineStr">
         <is>
-          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
+          <t>114b933d-f574-4ecc-ad9b-d3bafcda3b54</t>
         </is>
       </c>
       <c r="M329" s="20" t="n"/>
@@ -17351,23 +17399,23 @@
       </c>
       <c r="B330" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C330" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D330" s="18" t="inlineStr">
         <is>
-          <t>Use la opción "Permitir tráfico a la red virtual remota" al configurar emparejamientos de red virtual</t>
+          <t>Use un inquilino de Entra para administrar los recursos de Azure, a menos que tenga un requisito normativo o empresarial claro para varios inquilinos.</t>
         </is>
       </c>
       <c r="E330" s="18" t="n"/>
       <c r="F330" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
@@ -17382,14 +17430,10 @@
         </is>
       </c>
       <c r="J330" s="13" t="n"/>
-      <c r="K330" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | project id, peeringName=properties_virtualNetworkPeerings.name, compliant = (properties_virtualNetworkPeerings.properties.allowVirtualNetworkAccess == True)</t>
-        </is>
-      </c>
+      <c r="K330" s="19" t="n"/>
       <c r="L330" s="19" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>70c15989-c726-42c7-b0d3-24b7375b9201</t>
         </is>
       </c>
       <c r="M330" s="20" t="n"/>
@@ -17406,23 +17450,23 @@
       </c>
       <c r="B331" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C331" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D331" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que ha investigado la posibilidad de usar ExpressRoute como conexión principal a Azure.</t>
+          <t>Asegúrese de que tiene un enfoque de automatización multiinquilino para administrar los inquilinos de Microsoft Entra ID</t>
         </is>
       </c>
       <c r="E331" s="18" t="n"/>
       <c r="F331" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
@@ -17436,15 +17480,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J331" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+      <c r="J331" s="13" t="n"/>
       <c r="K331" s="19" t="n"/>
       <c r="L331" s="19" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>6309957b-821a-43d1-b9d9-7fcf1802b747</t>
         </is>
       </c>
       <c r="M331" s="20" t="n"/>
@@ -17461,27 +17501,23 @@
       </c>
       <c r="B332" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C332" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D332" s="18" t="inlineStr">
         <is>
-          <t>Cuando use varios circuitos ExpressRoute o varias ubicaciones locales, asegúrese de optimizar el enrutamiento con atributos BGP, si se prefieren determinadas rutas de acceso.</t>
-        </is>
-      </c>
-      <c r="E332" s="18" t="inlineStr">
-        <is>
-          <t>Puede usar la anteposición de AS y los pesos de conexión para influir en el tráfico de Azure al entorno local, y la gama completa de atributos de BGP en sus propios enrutadores para influir en el tráfico del entorno local a Azure.</t>
-        </is>
-      </c>
+          <t>Aprovechamiento de Azure Lighthouse para la administración multiinquilino</t>
+        </is>
+      </c>
+      <c r="E332" s="18" t="n"/>
       <c r="F332" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
@@ -17495,15 +17531,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J332" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+      <c r="J332" s="13" t="n"/>
       <c r="K332" s="19" t="n"/>
       <c r="L332" s="19" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>78e11934-499a-45ed-8ef7-aae5578f0ecf</t>
         </is>
       </c>
       <c r="M332" s="20" t="n"/>
@@ -17520,17 +17552,17 @@
       </c>
       <c r="B333" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Costar</t>
         </is>
       </c>
       <c r="C333" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D333" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que usa la SKU correcta para las puertas de enlace de ExpressRoute/VPN en función de los requisitos de ancho de banda y rendimiento.</t>
+          <t>Asegúrese de que el asociado usa Azure Lighthouse para administrar el inquilino</t>
         </is>
       </c>
       <c r="E333" s="18" t="n"/>
@@ -17550,19 +17582,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J333" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K333" s="19" t="inlineStr">
-        <is>
-          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier !in ('Basic', 'Standard')| project name, id, subscriptionId, resourceGroup, compliant</t>
-        </is>
-      </c>
+      <c r="J333" s="13" t="n"/>
+      <c r="K333" s="19" t="n"/>
       <c r="L333" s="19" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>5d82e6df-6f61-42f2-82e2-3132d293be3d</t>
         </is>
       </c>
       <c r="M333" s="20" t="n"/>
@@ -17579,17 +17603,17 @@
       </c>
       <c r="B334" s="18" t="inlineStr">
         <is>
-          <t>Costar</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C334" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D334" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que usa circuitos ExpressRoute de datos ilimitados solo si alcanza el ancho de banda que justifica su costo.</t>
+          <t>Implemente un acceso de emergencia o cuentas de emergencia para evitar el bloqueo de cuentas en todo el inquilino</t>
         </is>
       </c>
       <c r="E334" s="18" t="n"/>
@@ -17609,15 +17633,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J334" s="13" t="n"/>
-      <c r="K334" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/expressroutecircuits' | extend compliant = (tolower(sku.family) == 'metereddata' or tolower(sku.tier) == 'local') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="J334" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+        </is>
+      </c>
+      <c r="K334" s="19" t="n"/>
       <c r="L334" s="19" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M334" s="20" t="n"/>
@@ -17634,23 +17658,23 @@
       </c>
       <c r="B335" s="18" t="inlineStr">
         <is>
-          <t>Costar</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C335" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D335" s="18" t="inlineStr">
         <is>
-          <t>Aproveche la SKU local de ExpressRoute para reducir el costo de los circuitos, si la ubicación de emparejamiento de los circuitos admite las regiones de Azure para la SKU local.</t>
+          <t>Integre los registros de identificador de Microsoft Entra con Azure Monitor central de la plataforma. Azure Monitor permite una única fuente de información en torno a los datos de registro y supervisión en Azure, lo que ofrece a las organizaciones opciones nativas en la nube para cumplir los requisitos relacionados con la recopilación y retención de registros.</t>
         </is>
       </c>
       <c r="E335" s="18" t="n"/>
       <c r="F335" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
@@ -17665,14 +17689,10 @@
         </is>
       </c>
       <c r="J335" s="13" t="n"/>
-      <c r="K335" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project id, gwid=tostring(properties.virtualNetworkGateway1.id), circuitid=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitid=tostring(id), circuitsku=sku.tier) on circuitid | project id=gwid, compliant = (circuitsku == 'Local') | summarize compliant=max(compliant) by id</t>
-        </is>
-      </c>
+      <c r="K335" s="19" t="n"/>
       <c r="L335" s="19" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
         </is>
       </c>
       <c r="M335" s="20" t="n"/>
@@ -17689,23 +17709,23 @@
       </c>
       <c r="B336" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C336" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D336" s="18" t="inlineStr">
         <is>
-          <t>Implemente una puerta de enlace de ExpressRoute con redundancia de zona en las regiones de Azure admitidas.</t>
+          <t>Aplique un modelo RBAC que se alinee con su modelo operativo en la nube. Ámbito y asignación entre grupos de administración y suscripciones.</t>
         </is>
       </c>
       <c r="E336" s="18" t="n"/>
       <c r="F336" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
@@ -17721,17 +17741,13 @@
       </c>
       <c r="J336" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K336" s="19" t="inlineStr">
-        <is>
-          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier contains 'AZ'| project name, id, subscriptionId, resourceGroup, Type, compliant</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
+      <c r="K336" s="19" t="n"/>
       <c r="L336" s="19" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M336" s="20" t="n"/>
@@ -17748,23 +17764,23 @@
       </c>
       <c r="B337" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C337" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D337" s="18" t="inlineStr">
         <is>
-          <t>En escenarios que requieren un ancho de banda superior a 10 Gbps o puertos dedicados de 10/100 Gbps, use ExpressRoute Direct.</t>
+          <t>Aplicación de directivas de acceso condicional de Microsoft Entra ID para cualquier usuario con derechos en entornos de Azure</t>
         </is>
       </c>
       <c r="E337" s="18" t="n"/>
       <c r="F337" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
@@ -17780,13 +17796,13 @@
       </c>
       <c r="J337" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="K337" s="19" t="n"/>
       <c r="L337" s="19" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
         </is>
       </c>
       <c r="M337" s="20" t="n"/>
@@ -17803,23 +17819,23 @@
       </c>
       <c r="B338" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C338" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D338" s="18" t="inlineStr">
         <is>
-          <t>Cuando se requiera una latencia baja o el rendimiento del entorno local a Azure sea superior a 10 Gbps, habilite FastPath para omitir la puerta de enlace de ExpressRoute de la ruta de acceso de datos.</t>
+          <t>Aplicación de la autenticación multifactor para cualquier usuario con derechos en los entornos de Azure</t>
         </is>
       </c>
       <c r="E338" s="18" t="n"/>
       <c r="F338" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
@@ -17835,13 +17851,13 @@
       </c>
       <c r="J338" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="K338" s="19" t="n"/>
       <c r="L338" s="19" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
         </is>
       </c>
       <c r="M338" s="20" t="n"/>
@@ -17858,17 +17874,17 @@
       </c>
       <c r="B339" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C339" s="18" t="inlineStr">
         <is>
-          <t>VPN</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D339" s="18" t="inlineStr">
         <is>
-          <t>Use puertas de enlace de VPN con redundancia de zona para conectar sucursales o ubicaciones remotas a Azure (donde estén disponibles).</t>
+          <t>Aplique la administración de identidades privilegiadas (PIM) de Microsoft Entra ID para establecer el acceso permanente cero y los privilegios mínimos</t>
         </is>
       </c>
       <c r="E339" s="18" t="n"/>
@@ -17890,17 +17906,13 @@
       </c>
       <c r="J339" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
-        </is>
-      </c>
-      <c r="K339" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworkgateways' | where properties.gatewayType == 'Vpn' | extend compliant = (tolower(properties.sku.name) contains 'az') | distinct id, compliant</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+        </is>
+      </c>
+      <c r="K339" s="19" t="n"/>
       <c r="L339" s="19" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
         </is>
       </c>
       <c r="M339" s="20" t="n"/>
@@ -17917,23 +17929,23 @@
       </c>
       <c r="B340" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C340" s="18" t="inlineStr">
         <is>
-          <t>VPN</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D340" s="18" t="inlineStr">
         <is>
-          <t>Use dispositivos VPN redundantes en las instalaciones (activo/activo o activo/pasivo).</t>
+          <t>Utilice solo el tipo de autenticación Cuenta profesional o educativa para todos los tipos de cuenta. Evite usar la cuenta de Microsoft</t>
         </is>
       </c>
       <c r="E340" s="18" t="n"/>
       <c r="F340" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
@@ -17949,13 +17961,13 @@
       </c>
       <c r="J340" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="K340" s="19" t="n"/>
       <c r="L340" s="19" t="inlineStr">
         <is>
-          <t>45866df8-cf85-4ca9-bbe2-65ec1478919e</t>
+          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
         </is>
       </c>
       <c r="M340" s="20" t="n"/>
@@ -17972,23 +17984,23 @@
       </c>
       <c r="B341" s="18" t="inlineStr">
         <is>
-          <t>Costar</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C341" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D341" s="18" t="inlineStr">
         <is>
-          <t>Si usa ExpressRoute Direct, considere la posibilidad de usar circuitos locales de ExpressRoute a las regiones locales de Azure para ahorrar costos</t>
+          <t>Utilice solo grupos para asignar permisos. Agregue grupos locales al grupo solo de Azure-AD si ya existe un sistema de administración de grupos.</t>
         </is>
       </c>
       <c r="E341" s="18" t="n"/>
       <c r="F341" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
@@ -18004,13 +18016,13 @@
       </c>
       <c r="J341" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="K341" s="19" t="n"/>
       <c r="L341" s="19" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M341" s="20" t="n"/>
@@ -18032,12 +18044,12 @@
       </c>
       <c r="C342" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D342" s="18" t="inlineStr">
         <is>
-          <t>Cuando se requiere aislamiento de tráfico o ancho de banda dedicado, por ejemplo, para separar entornos de producción y no de producción, use circuitos ExpressRoute diferentes. Le ayudará a garantizar dominios de enrutamiento aislados y a aliviar los riesgos de vecinos ruidosos.</t>
+          <t>Si Entra Domain Services está en uso, evalúe la compatibilidad de todas las cargas de trabajo</t>
         </is>
       </c>
       <c r="E342" s="18" t="n"/>
@@ -18059,13 +18071,13 @@
       </c>
       <c r="J342" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="K342" s="19" t="n"/>
       <c r="L342" s="19" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
         </is>
       </c>
       <c r="M342" s="20" t="n"/>
@@ -18082,17 +18094,17 @@
       </c>
       <c r="B343" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C343" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D343" s="18" t="inlineStr">
         <is>
-          <t>Supervise la disponibilidad y el uso de ExpressRoute mediante Express Route Insights integrado.</t>
+          <t>Cuando sea necesario, use Microsoft Entra ID Application Proxy para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas (hospedadas en la nube o en el entorno local).</t>
         </is>
       </c>
       <c r="E343" s="18" t="n"/>
@@ -18114,13 +18126,13 @@
       </c>
       <c r="J343" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="K343" s="19" t="n"/>
       <c r="L343" s="19" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M343" s="20" t="n"/>
@@ -18137,17 +18149,17 @@
       </c>
       <c r="B344" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C344" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D344" s="18" t="inlineStr">
         <is>
-          <t>Use el Monitor de conexión para la supervisión de la conectividad en toda la red, especialmente entre el entorno local y Azure.</t>
+          <t>Evite el uso de cuentas sincronizadas locales para las asignaciones de roles de identificador de Microsoft Entra.</t>
         </is>
       </c>
       <c r="E344" s="18" t="n"/>
@@ -18169,13 +18181,13 @@
       </c>
       <c r="J344" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="K344" s="19" t="n"/>
       <c r="L344" s="19" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M344" s="20" t="n"/>
@@ -18192,17 +18204,17 @@
       </c>
       <c r="B345" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C345" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D345" s="18" t="inlineStr">
         <is>
-          <t>Use circuitos ExpressRoute de diferentes ubicaciones de emparejamiento para obtener redundancia.</t>
+          <t>Use una red DDoS o planes de protección IP para todas las direcciones IP públicas en las zonas de aterrizaje de la aplicación.</t>
         </is>
       </c>
       <c r="E345" s="18" t="n"/>
@@ -18224,13 +18236,13 @@
       </c>
       <c r="J345" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="K345" s="19" t="n"/>
       <c r="L345" s="19" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M345" s="20" t="n"/>
@@ -18247,7 +18259,7 @@
       </c>
       <c r="B346" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C346" s="18" t="inlineStr">
@@ -18257,7 +18269,7 @@
       </c>
       <c r="D346" s="18" t="inlineStr">
         <is>
-          <t>Use VPN de sitio a sitio como conmutación por error de ExpressRoute, especialmente si solo usa un único circuito ExpressRoute.</t>
+          <t>Cuando use ExpressRoute Direct, configure MACsec para cifrar el tráfico en el nivel de capa dos entre los enrutadores de la organización y MSEE. El diagrama muestra este cifrado en el flujo.</t>
         </is>
       </c>
       <c r="E346" s="18" t="n"/>
@@ -18281,7 +18293,7 @@
       <c r="K346" s="19" t="n"/>
       <c r="L346" s="19" t="inlineStr">
         <is>
-          <t>cf3fe65c-fec0-495a-8edc-9675200f2add</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M346" s="20" t="n"/>
@@ -18298,7 +18310,7 @@
       </c>
       <c r="B347" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C347" s="18" t="inlineStr">
@@ -18308,13 +18320,13 @@
       </c>
       <c r="D347" s="18" t="inlineStr">
         <is>
-          <t>Si utiliza una tabla de rutas en GatewaySubnet, asegúrese de que las rutas de puerta de enlace se propagan.</t>
+          <t>En escenarios en los que MACsec no es una opción (por ejemplo, no usar ExpressRoute Direct), use una puerta de enlace de VPN para establecer túneles IPsec a través del emparejamiento privado de ExpressRoute.</t>
         </is>
       </c>
       <c r="E347" s="18" t="n"/>
       <c r="F347" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
@@ -18328,15 +18340,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J347" s="13" t="n"/>
-      <c r="K347" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,subnetName=tostring(subnets.name),routeTableId=tostring(subnets.properties.routeTable.id) | where subnetName == 'GatewaySubnet' | join kind=leftouter (Resources | where type == 'microsoft.network/routetables' | project routeTableName=name,routeTableId=id, disableBgpRoutePropagation=properties.disableBgpRoutePropagation) on routeTableId | project id,compliant = (disableBgpRoutePropagation == False or isnull(disableBgpRoutePropagation))</t>
-        </is>
-      </c>
+      <c r="J347" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
+      <c r="K347" s="19" t="n"/>
       <c r="L347" s="19" t="inlineStr">
         <is>
-          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M347" s="20" t="n"/>
@@ -18353,23 +18365,23 @@
       </c>
       <c r="B348" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C348" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D348" s="18" t="inlineStr">
         <is>
-          <t>Si usa ExpressRoute, el enrutamiento local debe ser dinámico: en caso de que se produzca un error de conexión, debe converger a la conexión restante del circuito. La carga debe compartirse entre ambas conexiones, idealmente como activa/activa, aunque también se admite activa/pasiva.</t>
+          <t>Aproveche un diseño de red basado en la topología de red radial tradicional para escenarios de red que requieren la máxima flexibilidad.</t>
         </is>
       </c>
       <c r="E348" s="18" t="n"/>
       <c r="F348" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
@@ -18383,11 +18395,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J348" s="13" t="n"/>
+      <c r="J348" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="K348" s="19" t="n"/>
       <c r="L348" s="19" t="inlineStr">
         <is>
-          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M348" s="20" t="n"/>
@@ -18404,17 +18420,17 @@
       </c>
       <c r="B349" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Costar</t>
         </is>
       </c>
       <c r="C349" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D349" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que no se usan espacios de direcciones IP superpuestos en las regiones de Azure y las ubicaciones locales</t>
+          <t>Asegúrese de que los servicios de redes compartidas, incluidas las puertas de enlace de ExpressRoute, las puertas de enlace de VPN y Azure Firewall o las aplicaciones virtuales de red de asociados en la red virtual del centro central. Si es necesario, implemente también servidores DNS.</t>
         </is>
       </c>
       <c r="E349" s="18" t="n"/>
@@ -18434,15 +18450,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J349" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+      <c r="J349" s="13" t="n"/>
       <c r="K349" s="19" t="n"/>
       <c r="L349" s="19" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M349" s="20" t="n"/>
@@ -18459,23 +18471,23 @@
       </c>
       <c r="B350" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C350" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>NVA</t>
         </is>
       </c>
       <c r="D350" s="18" t="inlineStr">
         <is>
-          <t>Utilice direcciones IP de los rangos de asignación de direcciones para Internet privadas (RFC 1918).</t>
+          <t>Al implementar tecnologías de redes de asociados o aplicaciones virtuales de red, siga las instrucciones del proveedor de asociados</t>
         </is>
       </c>
       <c r="E350" s="18" t="n"/>
       <c r="F350" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
@@ -18489,19 +18501,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J350" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K350" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | project name, id, location, resourceGroup, subscriptionId, cidr = addressPrefix | extend compliant = (cidr matches regex @'^(10\\.|172\\.(1[6-9]|2[0-9]|3[01])\\.|192\\.168\\.)')  | project id, compliant, cidr</t>
-        </is>
-      </c>
+      <c r="J350" s="13" t="n"/>
+      <c r="K350" s="19" t="n"/>
       <c r="L350" s="19" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M350" s="20" t="n"/>
@@ -18518,23 +18522,23 @@
       </c>
       <c r="B351" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C351" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D351" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que no se desperdicie espacio de direcciones IP, no cree redes virtuales innecesariamente grandes (por ejemplo, /16)</t>
+          <t>Si necesita el tránsito entre ExpressRoute y las puertas de enlace de VPN en escenarios radiales, use Azure Route Server.</t>
         </is>
       </c>
       <c r="E351" s="18" t="n"/>
       <c r="F351" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
@@ -18548,19 +18552,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J351" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K351" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | extend addressMask = split(addressPrefix,'/')[1] | extend compliant = addressMask &gt; 16 | project name, id, subscriptionId, resourceGroup, addressPrefix, compliant</t>
-        </is>
-      </c>
+      <c r="J351" s="13" t="n"/>
+      <c r="K351" s="19" t="n"/>
       <c r="L351" s="19" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M351" s="20" t="n"/>
@@ -18577,23 +18573,23 @@
       </c>
       <c r="B352" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C352" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ARS</t>
         </is>
       </c>
       <c r="D352" s="18" t="inlineStr">
         <is>
-          <t>Evite el uso de intervalos de direcciones IP superpuestos para los sitios de producción y recuperación ante desastres.</t>
+          <t>Si utiliza el servidor de rutas, utilice un prefijo /27 para la subred del servidor de rutas.</t>
         </is>
       </c>
       <c r="E352" s="18" t="n"/>
       <c r="F352" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
@@ -18607,15 +18603,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J352" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
-      <c r="K352" s="19" t="n"/>
+      <c r="J352" s="13" t="n"/>
+      <c r="K352" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'RouteServerSubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L352" s="19" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M352" s="20" t="n"/>
@@ -18632,17 +18628,17 @@
       </c>
       <c r="B353" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C353" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D353" s="18" t="inlineStr">
         <is>
-          <t>En entornos en los que la resolución de nombres en Azure es todo lo que se requiere, use Azure Private DNS para la resolución con una zona delegada para la resolución de nombres (como "azure.contoso.com").</t>
+          <t>En el caso de las arquitecturas de red con varias topologías en estrella tipo hub-and-spoke en las regiones de Azure, use emparejamientos de red virtual global entre las redes virtuales del centro para conectar las regiones entre sí.</t>
         </is>
       </c>
       <c r="E353" s="18" t="n"/>
@@ -18664,13 +18660,13 @@
       </c>
       <c r="J353" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="K353" s="19" t="n"/>
       <c r="L353" s="19" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M353" s="20" t="n"/>
@@ -18687,17 +18683,17 @@
       </c>
       <c r="B354" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C354" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D354" s="18" t="inlineStr">
         <is>
-          <t>En el caso de los entornos en los que se requiere la resolución de nombres en Azure y en el entorno local, considere la posibilidad de usar Azure DNS Private Resolver.</t>
+          <t>Use Azure Monitor para redes para supervisar el estado de un extremo a otro de las redes en Azure.</t>
         </is>
       </c>
       <c r="E354" s="18" t="n"/>
@@ -18719,13 +18715,13 @@
       </c>
       <c r="J354" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="K354" s="19" t="n"/>
       <c r="L354" s="19" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M354" s="20" t="n"/>
@@ -18742,23 +18738,23 @@
       </c>
       <c r="B355" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C355" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D355" s="18" t="inlineStr">
         <is>
-          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben utilizar su solución DNS preferida.</t>
+          <t>Al conectar redes virtuales de radio a la red virtual del centro central, tenga en cuenta los límites de emparejamiento de red virtual (500), el número máximo de prefijos que se pueden anunciar a través de ExpressRoute (1000)</t>
         </is>
       </c>
       <c r="E355" s="18" t="n"/>
       <c r="F355" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
@@ -18773,10 +18769,14 @@
         </is>
       </c>
       <c r="J355" s="13" t="n"/>
-      <c r="K355" s="19" t="n"/>
+      <c r="K355" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | summarize peeringcount = count() by id | extend compliant = (peeringcount &lt; 450) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L355" s="19" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M355" s="20" t="n"/>
@@ -18793,23 +18793,23 @@
       </c>
       <c r="B356" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C356" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D356" s="18" t="inlineStr">
         <is>
-          <t>Habilite el registro automático de Azure DNS para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
+          <t>Tenga en cuenta el límite de rutas por tabla de rutas (400).</t>
         </is>
       </c>
       <c r="E356" s="18" t="n"/>
       <c r="F356" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
@@ -18823,15 +18823,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J356" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
-      <c r="K356" s="19" t="n"/>
+      <c r="J356" s="13" t="n"/>
+      <c r="K356" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/routetables' | mvexpand properties.routes | summarize routeCount = count() by id | extend compliant = (routeCount &lt; 360) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L356" s="19" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
         </is>
       </c>
       <c r="M356" s="20" t="n"/>
@@ -18848,23 +18848,23 @@
       </c>
       <c r="B357" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C357" s="18" t="inlineStr">
         <is>
-          <t>Bastion</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D357" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar Azure Bastion para conectarse de forma segura a la red.</t>
+          <t>Use la opción "Permitir tráfico a la red virtual remota" al configurar emparejamientos de red virtual</t>
         </is>
       </c>
       <c r="E357" s="18" t="n"/>
       <c r="F357" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
@@ -18879,10 +18879,14 @@
         </is>
       </c>
       <c r="J357" s="13" t="n"/>
-      <c r="K357" s="19" t="n"/>
+      <c r="K357" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | project id, peeringName=properties_virtualNetworkPeerings.name, compliant = (properties_virtualNetworkPeerings.properties.allowVirtualNetworkAccess == True)</t>
+        </is>
+      </c>
       <c r="L357" s="19" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M357" s="20" t="n"/>
@@ -18899,17 +18903,17 @@
       </c>
       <c r="B358" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C358" s="18" t="inlineStr">
         <is>
-          <t>Bastion</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D358" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Bastion en una subred /26 o superior.</t>
+          <t>Asegúrese de que ha investigado la posibilidad de usar ExpressRoute como conexión principal a Azure.</t>
         </is>
       </c>
       <c r="E358" s="18" t="n"/>
@@ -18929,15 +18933,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J358" s="13" t="n"/>
-      <c r="K358" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureBastionSubnet' | extend compliant = (subnetPrefixLength &lt;= 26) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="J358" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
+      <c r="K358" s="19" t="n"/>
       <c r="L358" s="19" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M358" s="20" t="n"/>
@@ -18954,23 +18958,27 @@
       </c>
       <c r="B359" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C359" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D359" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado del tráfico Este/Oeste (si la organización lo requiere)</t>
-        </is>
-      </c>
-      <c r="E359" s="18" t="n"/>
+          <t>Cuando use varios circuitos ExpressRoute o varias ubicaciones locales, asegúrese de optimizar el enrutamiento con atributos BGP, si se prefieren determinadas rutas de acceso.</t>
+        </is>
+      </c>
+      <c r="E359" s="18" t="inlineStr">
+        <is>
+          <t>Puede usar la anteposición de AS y los pesos de conexión para influir en el tráfico de Azure al entorno local, y la gama completa de atributos de BGP en sus propios enrutadores para influir en el tráfico del entorno local a Azure.</t>
+        </is>
+      </c>
       <c r="F359" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
@@ -18986,13 +18994,13 @@
       </c>
       <c r="J359" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K359" s="19" t="n"/>
       <c r="L359" s="19" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M359" s="20" t="n"/>
@@ -19009,17 +19017,17 @@
       </c>
       <c r="B360" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C360" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D360" s="18" t="inlineStr">
         <is>
-          <t>Cree una directiva global de Azure Firewall para controlar la posición de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares satisfagan los requisitos de regiones específicas delegando directivas de firewall incrementales a los equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
+          <t>Asegúrese de que usa la SKU correcta para las puertas de enlace de ExpressRoute/VPN en función de los requisitos de ancho de banda y rendimiento.</t>
         </is>
       </c>
       <c r="E360" s="18" t="n"/>
@@ -19041,13 +19049,17 @@
       </c>
       <c r="J360" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K360" s="19" t="n"/>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
+      <c r="K360" s="19" t="inlineStr">
+        <is>
+          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier !in ('Basic', 'Standard')| project name, id, subscriptionId, resourceGroup, compliant</t>
+        </is>
+      </c>
       <c r="L360" s="19" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M360" s="20" t="n"/>
@@ -19064,23 +19076,23 @@
       </c>
       <c r="B361" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Costar</t>
         </is>
       </c>
       <c r="C361" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D361" s="18" t="inlineStr">
         <is>
-          <t>Configure los proveedores de seguridad SaaS de socios compatibles dentro de Firewall Manager si la organización desea utilizar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
+          <t>Asegúrese de que usa circuitos ExpressRoute de datos ilimitados solo si alcanza el ancho de banda que justifica su costo.</t>
         </is>
       </c>
       <c r="E361" s="18" t="n"/>
       <c r="F361" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
@@ -19094,15 +19106,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J361" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K361" s="19" t="n"/>
+      <c r="J361" s="13" t="n"/>
+      <c r="K361" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/expressroutecircuits' | extend compliant = (tolower(sku.family) == 'metereddata' or tolower(sku.tier) == 'local') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L361" s="19" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M361" s="20" t="n"/>
@@ -19119,23 +19131,23 @@
       </c>
       <c r="B362" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Costar</t>
         </is>
       </c>
       <c r="C362" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D362" s="18" t="inlineStr">
         <is>
-          <t>Use directivas de Azure Front Door y WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
+          <t>Aproveche la SKU local de ExpressRoute para reducir el costo de los circuitos, si la ubicación de emparejamiento de los circuitos admite las regiones de Azure para la SKU local.</t>
         </is>
       </c>
       <c r="E362" s="18" t="n"/>
       <c r="F362" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
@@ -19149,15 +19161,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J362" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
-      <c r="K362" s="19" t="n"/>
+      <c r="J362" s="13" t="n"/>
+      <c r="K362" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project id, gwid=tostring(properties.virtualNetworkGateway1.id), circuitid=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitid=tostring(id), circuitsku=sku.tier) on circuitid | project id=gwid, compliant = (circuitsku == 'Local') | summarize compliant=max(compliant) by id</t>
+        </is>
+      </c>
       <c r="L362" s="19" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M362" s="20" t="n"/>
@@ -19174,23 +19186,23 @@
       </c>
       <c r="B363" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C363" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D363" s="18" t="inlineStr">
         <is>
-          <t>Al usar Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas de WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
+          <t>Implemente una puerta de enlace de ExpressRoute con redundancia de zona en las regiones de Azure admitidas.</t>
         </is>
       </c>
       <c r="E363" s="18" t="n"/>
       <c r="F363" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
@@ -19206,13 +19218,17 @@
       </c>
       <c r="J363" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
-      <c r="K363" s="19" t="n"/>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
+      <c r="K363" s="19" t="inlineStr">
+        <is>
+          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier contains 'AZ'| project name, id, subscriptionId, resourceGroup, Type, compliant</t>
+        </is>
+      </c>
       <c r="L363" s="19" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M363" s="20" t="n"/>
@@ -19229,23 +19245,23 @@
       </c>
       <c r="B364" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C364" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D364" s="18" t="inlineStr">
         <is>
-          <t>La implementación de WAF y otros servidores proxy inversos son necesarios para las conexiones HTTP/S entrantes, impleméntelos dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que protegen y exponen a Internet.</t>
+          <t>En escenarios que requieren un ancho de banda superior a 10 Gbps o puertos dedicados de 10/100 Gbps, use ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="E364" s="18" t="n"/>
       <c r="F364" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G364" t="inlineStr">
@@ -19261,13 +19277,13 @@
       </c>
       <c r="J364" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K364" s="19" t="n"/>
       <c r="L364" s="19" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M364" s="20" t="n"/>
@@ -19284,23 +19300,23 @@
       </c>
       <c r="B365" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C365" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D365" s="18" t="inlineStr">
         <is>
-          <t>Use planes de protección IP o de red DDoS de Azure para ayudar a proteger los puntos de conexión de direcciones IP públicas dentro de las redes virtuales.</t>
+          <t>Cuando se requiera una latencia baja o el rendimiento del entorno local a Azure sea superior a 10 Gbps, habilite FastPath para omitir la puerta de enlace de ExpressRoute de la ruta de acceso de datos.</t>
         </is>
       </c>
       <c r="E365" s="18" t="n"/>
       <c r="F365" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
@@ -19316,13 +19332,13 @@
       </c>
       <c r="J365" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K365" s="19" t="n"/>
       <c r="L365" s="19" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M365" s="20" t="n"/>
@@ -19339,23 +19355,23 @@
       </c>
       <c r="B366" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C366" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>VPN</t>
         </is>
       </c>
       <c r="D366" s="18" t="inlineStr">
         <is>
-          <t>Use reglas de red basadas en FQDN y Azure Firewall con proxy DNS para filtrar el tráfico de salida a Internet a través de protocolos no admitidos por las reglas de aplicación.</t>
+          <t>Use puertas de enlace de VPN con redundancia de zona para conectar sucursales o ubicaciones remotas a Azure (donde estén disponibles).</t>
         </is>
       </c>
       <c r="E366" s="18" t="n"/>
       <c r="F366" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
@@ -19369,15 +19385,19 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J366" s="13" t="n"/>
+      <c r="J366" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+        </is>
+      </c>
       <c r="K366" s="19" t="inlineStr">
         <is>
-          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.dnsSettings.enableProxy == true) | distinct id,compliant</t>
+          <t>resources | where type=='microsoft.network/virtualnetworkgateways' | where properties.gatewayType == 'Vpn' | extend compliant = (tolower(properties.sku.name) contains 'az') | distinct id, compliant</t>
         </is>
       </c>
       <c r="L366" s="19" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M366" s="20" t="n"/>
@@ -19394,23 +19414,23 @@
       </c>
       <c r="B367" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C367" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>VPN</t>
         </is>
       </c>
       <c r="D367" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Firewall Premium para obtener seguridad y protección adicionales.</t>
+          <t>Use dispositivos VPN redundantes en las instalaciones (activo/activo o activo/pasivo).</t>
         </is>
       </c>
       <c r="E367" s="18" t="n"/>
       <c r="F367" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
@@ -19424,15 +19444,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J367" s="13" t="n"/>
-      <c r="K367" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.sku.tier == 'Premium') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="J367" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+        </is>
+      </c>
+      <c r="K367" s="19" t="n"/>
       <c r="L367" s="19" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>45866df8-cf85-4ca9-bbe2-65ec1478919e</t>
         </is>
       </c>
       <c r="M367" s="20" t="n"/>
@@ -19449,17 +19469,17 @@
       </c>
       <c r="B368" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Costar</t>
         </is>
       </c>
       <c r="C368" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D368" s="18" t="inlineStr">
         <is>
-          <t>Configure el modo de inteligencia sobre amenazas de Azure Firewall en Alerta y denegación para obtener protección adicional.</t>
+          <t>Si usa ExpressRoute Direct, considere la posibilidad de usar circuitos locales de ExpressRoute a las regiones locales de Azure para ahorrar costos</t>
         </is>
       </c>
       <c r="E368" s="18" t="n"/>
@@ -19479,15 +19499,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J368" s="13" t="n"/>
-      <c r="K368" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.threatIntelMode == 'Deny') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="J368" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
+      <c r="K368" s="19" t="n"/>
       <c r="L368" s="19" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M368" s="20" t="n"/>
@@ -19509,18 +19529,18 @@
       </c>
       <c r="C369" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D369" s="18" t="inlineStr">
         <is>
-          <t>Configure el modo IDPS de Azure Firewall en Denegar para obtener protección adicional.</t>
+          <t>Cuando se requiere aislamiento de tráfico o ancho de banda dedicado, por ejemplo, para separar entornos de producción y no de producción, use circuitos ExpressRoute diferentes. Le ayudará a garantizar dominios de enrutamiento aislados y a aliviar los riesgos de vecinos ruidosos.</t>
         </is>
       </c>
       <c r="E369" s="18" t="n"/>
       <c r="F369" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
@@ -19534,15 +19554,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J369" s="13" t="n"/>
-      <c r="K369" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.intrusionDetection.mode == 'Deny') | project id, compliant</t>
-        </is>
-      </c>
+      <c r="J369" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
+      <c r="K369" s="19" t="n"/>
       <c r="L369" s="19" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M369" s="20" t="n"/>
@@ -19559,23 +19579,23 @@
       </c>
       <c r="B370" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C370" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D370" s="18" t="inlineStr">
         <is>
-          <t>En el caso de las subredes de las redes virtuales que no están conectadas a Virtual WAN, adjunte una tabla de rutas para que el tráfico de Internet se redirija a Azure Firewall o a una aplicación virtual de red</t>
+          <t>Supervise la disponibilidad y el uso de ExpressRoute mediante Express Route Insights integrado.</t>
         </is>
       </c>
       <c r="E370" s="18" t="n"/>
       <c r="F370" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
@@ -19589,15 +19609,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J370" s="13" t="n"/>
-      <c r="K370" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,name,subnetId=tostring(subnets.id), subnetName=tostring(subnets.name),subnetRT=subnets.properties.routeTable.id | where not (subnetName in ('GatewaySubnet', 'AzureFirewallSubnet', 'RouteServerSubnet', 'AzureBastionSubnet')) | extend hasRT = isnotnull(subnetRT) | distinct id, hasRT, subnetId | join kind=fullouter (resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | extend isVWAN=(tolower(split(properties_virtualNetworkPeerings.name, '_')[0]) == 'remotevnettohubpeering') | mv-expand properties.subnets | project id, isVWAN, name, subnetId=tostring(properties_subnets.id), subnetName=tostring(properties_subnets.name) | summarize PeeredToVWAN=max(isVWAN) by id, subnetId | project id, subnetId, isVWANpeer = (PeeredToVWAN == true)) on subnetId | project id=iff(isnotempty(id), id, id1), subnetId=iff(isnotempty(subnetId), subnetId, subnetId1), hasRT, isVWANpeer | extend compliant = (hasRT==true or isVWANpeer==true) | distinct id, subnetId, compliant</t>
-        </is>
-      </c>
+      <c r="J370" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
+      <c r="K370" s="19" t="n"/>
       <c r="L370" s="19" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M370" s="20" t="n"/>
@@ -19614,23 +19634,23 @@
       </c>
       <c r="B371" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C371" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D371" s="18" t="inlineStr">
         <is>
-          <t>Evalúe y revise la configuración y la estrategia del tráfico saliente de la red antes del próximo cambio importante. El 30 de septiembre de 2025, se retirará el acceso saliente predeterminado para las nuevas implementaciones y solo se permitirán las configuraciones de acceso explícitas</t>
+          <t>Use el Monitor de conexión para la supervisión de la conectividad en toda la red, especialmente entre el entorno local y Azure.</t>
         </is>
       </c>
       <c r="E371" s="18" t="n"/>
       <c r="F371" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
@@ -19644,11 +19664,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J371" s="13" t="n"/>
+      <c r="J371" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K371" s="19" t="n"/>
       <c r="L371" s="19" t="inlineStr">
         <is>
-          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M371" s="20" t="n"/>
@@ -19665,23 +19689,23 @@
       </c>
       <c r="B372" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C372" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D372" s="18" t="inlineStr">
         <is>
-          <t>Agregue configuraciones de diagnóstico para guardar registros relacionados con DDoS para todas las direcciones IP públicas protegidas (DDoS IP o Protección de red).</t>
+          <t>Use circuitos ExpressRoute de diferentes ubicaciones de emparejamiento para obtener redundancia.</t>
         </is>
       </c>
       <c r="E372" s="18" t="n"/>
       <c r="F372" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
@@ -19697,13 +19721,13 @@
       </c>
       <c r="J372" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K372" s="19" t="n"/>
       <c r="L372" s="19" t="inlineStr">
         <is>
-          <t>b1c82a3f-2320-4dfa-8972-7ae4823c8930</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M372" s="20" t="n"/>
@@ -19720,17 +19744,17 @@
       </c>
       <c r="B373" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C373" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D373" s="18" t="inlineStr">
         <is>
-          <t>Agregue la configuración de diagnóstico para guardar registros, mediante la tabla de destino Recurso específico, para todas las implementaciones de Azure Firewall.</t>
+          <t>Use VPN de sitio a sitio como conmutación por error de ExpressRoute, especialmente si solo usa un único circuito ExpressRoute.</t>
         </is>
       </c>
       <c r="E373" s="18" t="n"/>
@@ -19750,15 +19774,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J373" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+      <c r="J373" s="13" t="n"/>
       <c r="K373" s="19" t="n"/>
       <c r="L373" s="19" t="inlineStr">
         <is>
-          <t>715d833d-4708-4527-90ac-1b142c7045ba</t>
+          <t>cf3fe65c-fec0-495a-8edc-9675200f2add</t>
         </is>
       </c>
       <c r="M373" s="20" t="n"/>
@@ -19775,23 +19795,23 @@
       </c>
       <c r="B374" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C374" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D374" s="18" t="inlineStr">
         <is>
-          <t>Migre de las reglas de Azure Firewall clásico (si existen) a la directiva de firewall.</t>
+          <t>Si utiliza una tabla de rutas en GatewaySubnet, asegúrese de que las rutas de puerta de enlace se propagan.</t>
         </is>
       </c>
       <c r="E374" s="18" t="n"/>
       <c r="F374" s="18" t="inlineStr">
         <is>
-          <t>Importante</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
@@ -19805,15 +19825,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J374" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K374" s="19" t="n"/>
+      <c r="J374" s="13" t="n"/>
+      <c r="K374" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,subnetName=tostring(subnets.name),routeTableId=tostring(subnets.properties.routeTable.id) | where subnetName == 'GatewaySubnet' | join kind=leftouter (Resources | where type == 'microsoft.network/routetables' | project routeTableName=name,routeTableId=id, disableBgpRoutePropagation=properties.disableBgpRoutePropagation) on routeTableId | project id,compliant = (disableBgpRoutePropagation == False or isnull(disableBgpRoutePropagation))</t>
+        </is>
+      </c>
       <c r="L374" s="19" t="inlineStr">
         <is>
-          <t>e960fc6b-4ab2-4db6-9609-3745135f9ffa</t>
+          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
         </is>
       </c>
       <c r="M374" s="20" t="n"/>
@@ -19830,17 +19850,17 @@
       </c>
       <c r="B375" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C375" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D375" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que la comunicación del plano de control para los servicios PaaS de Azure insertados en una red virtual no se interrumpa, por ejemplo, con una ruta 0.0.0.0/0 o una regla de grupo de seguridad de red que bloquee el tráfico del plano de control.</t>
+          <t>Si usa ExpressRoute, el enrutamiento local debe ser dinámico: en caso de que se produzca un error de conexión, debe converger a la conexión restante del circuito. La carga debe compartirse entre ambas conexiones, idealmente como activa/activa, aunque también se admite activa/pasiva.</t>
         </is>
       </c>
       <c r="E375" s="18" t="n"/>
@@ -19860,15 +19880,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J375" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
+      <c r="J375" s="13" t="n"/>
       <c r="K375" s="19" t="n"/>
       <c r="L375" s="19" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
         </is>
       </c>
       <c r="M375" s="20" t="n"/>
@@ -19895,13 +19911,13 @@
       </c>
       <c r="D376" s="18" t="inlineStr">
         <is>
-          <t>Acceda a los servicios PaaS de Azure desde el entorno local a través de puntos de conexión privados y emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la Internet pública.</t>
+          <t>Asegúrese de que no se usan espacios de direcciones IP superpuestos en las regiones de Azure y las ubicaciones locales</t>
         </is>
       </c>
       <c r="E376" s="18" t="n"/>
       <c r="F376" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
@@ -19917,13 +19933,13 @@
       </c>
       <c r="J376" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="K376" s="19" t="n"/>
       <c r="L376" s="19" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M376" s="20" t="n"/>
@@ -19950,13 +19966,13 @@
       </c>
       <c r="D377" s="18" t="inlineStr">
         <is>
-          <t>No habilite los puntos de conexión de servicio de red virtual de forma predeterminada en todas las subredes.</t>
+          <t>Utilice direcciones IP de los rangos de asignación de direcciones para Internet privadas (RFC 1918).</t>
         </is>
       </c>
       <c r="E377" s="18" t="n"/>
       <c r="F377" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
@@ -19972,17 +19988,17 @@
       </c>
       <c r="J377" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="K377" s="19" t="inlineStr">
         <is>
-          <t>resources | where type =~ 'microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets = properties.subnets | mv-expand subnets | project id = subnets.id, resourceGroup, VNet = name, serviceEndpoints = subnets.properties.serviceEndpoints, compliant = (isnull(subnets.properties.serviceEndpoints) or array_length(subnets.properties.serviceEndpoints) == 0) | order by compliant asc</t>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | project name, id, location, resourceGroup, subscriptionId, cidr = addressPrefix | extend compliant = (cidr matches regex @'^(10\\.|172\\.(1[6-9]|2[0-9]|3[01])\\.|192\\.168\\.)')  | project id, compliant, cidr</t>
         </is>
       </c>
       <c r="L377" s="19" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M377" s="20" t="n"/>
@@ -19999,23 +20015,23 @@
       </c>
       <c r="B378" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C378" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D378" s="18" t="inlineStr">
         <is>
-          <t>Filtre el tráfico de salida a los servicios PaaS de Azure mediante FQDN en lugar de direcciones IP en Azure Firewall o una aplicación virtual de red para evitar la filtración de datos. Si usa Private Link, puede bloquear todos los FQDN, de lo contrario, permita solo los servicios PaaS necesarios.</t>
+          <t>Asegúrese de que no se desperdicie espacio de direcciones IP, no cree redes virtuales innecesariamente grandes (por ejemplo, /16)</t>
         </is>
       </c>
       <c r="E378" s="18" t="n"/>
       <c r="F378" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
@@ -20031,13 +20047,17 @@
       </c>
       <c r="J378" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
-      <c r="K378" s="19" t="n"/>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K378" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | extend addressMask = split(addressPrefix,'/')[1] | extend compliant = addressMask &gt; 16 | project name, id, subscriptionId, resourceGroup, addressPrefix, compliant</t>
+        </is>
+      </c>
       <c r="L378" s="19" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M378" s="20" t="n"/>
@@ -20054,17 +20074,17 @@
       </c>
       <c r="B379" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C379" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D379" s="18" t="inlineStr">
         <is>
-          <t>Use un prefijo /26 para las subredes de Azure Firewall.</t>
+          <t>Evite el uso de intervalos de direcciones IP superpuestos para los sitios de producción y recuperación ante desastres.</t>
         </is>
       </c>
       <c r="E379" s="18" t="n"/>
@@ -20084,15 +20104,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J379" s="13" t="n"/>
-      <c r="K379" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureFirewallSubnet' | extend compliant = (subnetPrefixLength == 26) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="J379" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
+      <c r="K379" s="19" t="n"/>
       <c r="L379" s="19" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M379" s="20" t="n"/>
@@ -20109,23 +20129,23 @@
       </c>
       <c r="B380" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C380" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D380" s="18" t="inlineStr">
         <is>
-          <t>Use al menos un prefijo /27 para las subredes de puerta de enlace</t>
+          <t>En entornos en los que la resolución de nombres en Azure es todo lo que se requiere, use Azure Private DNS para la resolución con una zona delegada para la resolución de nombres (como "azure.contoso.com").</t>
         </is>
       </c>
       <c r="E380" s="18" t="n"/>
       <c r="F380" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
@@ -20139,15 +20159,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J380" s="13" t="n"/>
-      <c r="K380" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'GatewaySubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="J380" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
+      <c r="K380" s="19" t="n"/>
       <c r="L380" s="19" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M380" s="20" t="n"/>
@@ -20169,12 +20189,12 @@
       </c>
       <c r="C381" s="18" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D381" s="18" t="inlineStr">
         <is>
-          <t>No confíe en las reglas predeterminadas de entrada del grupo de seguridad de red que usan la etiqueta de servicio VirtualNetwork para limitar la conectividad.</t>
+          <t>En el caso de los entornos en los que se requiere la resolución de nombres en Azure y en el entorno local, considere la posibilidad de usar Azure DNS Private Resolver.</t>
         </is>
       </c>
       <c r="E381" s="18" t="n"/>
@@ -20194,15 +20214,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J381" s="13" t="n"/>
-      <c r="K381" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/networksecuritygroups' | mvexpand properties.securityRules | project id,name,ruleAction=properties_securityRules.properties.access,rulePriority=properties_securityRules.properties.priority,ruleDst=properties_securityRules.properties.destinationAddressPrefix,ruleSrc=properties_securityRules.properties.sourceAddressPrefix,ruleProt=properties_securityRules.properties.protocol,ruleDirection=properties_securityRules.properties.direction,rulePort=properties_securityRules.properties.destinationPortRange | summarize StarDenies=countif(ruleAction=='Deny' and ruleDst=='*' and ruleSrc=='*' and ruleProt=='*' and rulePort=='*') by id,tostring(ruleDirection) | where ruleDirection == 'Inbound' | project id,compliant=(StarDenies&gt;0) | union (resources | where type=='microsoft.network/networksecuritygroups' | where array_length(properties.securityRules)==0 | extend compliant=false | project id,compliant)</t>
-        </is>
-      </c>
+      <c r="J381" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+        </is>
+      </c>
+      <c r="K381" s="19" t="n"/>
       <c r="L381" s="19" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M381" s="20" t="n"/>
@@ -20219,23 +20239,23 @@
       </c>
       <c r="B382" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C382" s="18" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D382" s="18" t="inlineStr">
         <is>
-          <t>Use grupos de seguridad de red para ayudar a proteger el tráfico entre subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
+          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben utilizar su solución DNS preferida.</t>
         </is>
       </c>
       <c r="E382" s="18" t="n"/>
       <c r="F382" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
@@ -20249,15 +20269,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J382" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+      <c r="J382" s="13" t="n"/>
       <c r="K382" s="19" t="n"/>
       <c r="L382" s="19" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M382" s="20" t="n"/>
@@ -20274,23 +20290,23 @@
       </c>
       <c r="B383" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C383" s="18" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D383" s="18" t="inlineStr">
         <is>
-          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los grupos de seguridad de red de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
+          <t>Habilite el registro automático de Azure DNS para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
         </is>
       </c>
       <c r="E383" s="18" t="n"/>
       <c r="F383" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
@@ -20299,20 +20315,20 @@
         </is>
       </c>
       <c r="H383" s="18" t="n"/>
-      <c r="I383" s="13" t="n"/>
+      <c r="I383" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J383" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
-      <c r="K383" s="19" t="inlineStr">
-        <is>
-          <t>Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,name,subnetName=subnets.name,subnetNsg=subnets.properties.networkSecurityGroup | where not (subnetName in ('GatewaySubnet', 'AzureFirewallSubnet', 'RouteServerSubnet', 'AzureBastionSubnet')) | extend compliant = isnotnull(subnetNsg)</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
+      <c r="K383" s="19" t="n"/>
       <c r="L383" s="19" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M383" s="20" t="n"/>
@@ -20334,12 +20350,12 @@
       </c>
       <c r="C384" s="18" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>Bastion</t>
         </is>
       </c>
       <c r="D384" s="18" t="inlineStr">
         <is>
-          <t>Use grupos de seguridad de red y grupos de seguridad de aplicaciones para microsegmentar el tráfico dentro de la zona de aterrizaje y evitar el uso de una aplicación virtual de red central para filtrar los flujos de tráfico.</t>
+          <t>Considere la posibilidad de usar Azure Bastion para conectarse de forma segura a la red.</t>
         </is>
       </c>
       <c r="E384" s="18" t="n"/>
@@ -20359,15 +20375,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J384" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+      <c r="J384" s="13" t="n"/>
       <c r="K384" s="19" t="n"/>
       <c r="L384" s="19" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M384" s="20" t="n"/>
@@ -20389,12 +20401,12 @@
       </c>
       <c r="C385" s="18" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>Bastion</t>
         </is>
       </c>
       <c r="D385" s="18" t="inlineStr">
         <is>
-          <t>Habilite los registros de flujo de red virtual e introdúzcalos en Análisis de tráfico para obtener información sobre los flujos de tráfico internos y externos.</t>
+          <t>Use Azure Bastion en una subred /26 o superior.</t>
         </is>
       </c>
       <c r="E385" s="18" t="n"/>
@@ -20414,15 +20426,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J385" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
-      <c r="K385" s="19" t="n"/>
+      <c r="J385" s="13" t="n"/>
+      <c r="K385" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureBastionSubnet' | extend compliant = (subnetPrefixLength &lt;= 26) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L385" s="19" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M385" s="20" t="n"/>
@@ -20439,23 +20451,23 @@
       </c>
       <c r="B386" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C386" s="18" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D386" s="18" t="inlineStr">
         <is>
-          <t>Tenga en cuenta el límite de reglas de grupo de seguridad de red por grupo de seguridad de red (1000).</t>
+          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado del tráfico Este/Oeste (si la organización lo requiere)</t>
         </is>
       </c>
       <c r="E386" s="18" t="n"/>
       <c r="F386" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
@@ -20471,17 +20483,13 @@
       </c>
       <c r="J386" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="K386" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/networksecuritygroups' | project id, rules = array_length(properties.securityRules) | project id, compliant = (rules &lt; 900)</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K386" s="19" t="n"/>
       <c r="L386" s="19" t="inlineStr">
         <is>
-          <t>0390417d-53dc-44d9-b3f4-c8832f359b41</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M386" s="20" t="n"/>
@@ -20498,17 +20506,17 @@
       </c>
       <c r="B387" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C387" s="18" t="inlineStr">
         <is>
-          <t>VWAN</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D387" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de utilizar Virtual WAN para simplificar la administración de redes de Azure y asegúrese de que el escenario se describe explícitamente en la lista de diseños de enrutamiento de Virtual WAN</t>
+          <t>Cree una directiva global de Azure Firewall para controlar la posición de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares satisfagan los requisitos de regiones específicas delegando directivas de firewall incrementales a los equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
         </is>
       </c>
       <c r="E387" s="18" t="n"/>
@@ -20530,13 +20538,13 @@
       </c>
       <c r="J387" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="K387" s="19" t="n"/>
       <c r="L387" s="19" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M387" s="20" t="n"/>
@@ -20553,23 +20561,23 @@
       </c>
       <c r="B388" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C388" s="18" t="inlineStr">
         <is>
-          <t>VWAN</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D388" s="18" t="inlineStr">
         <is>
-          <t>Use un centro de conectividad de Virtual WAN por región de Azure para conectar varias zonas de aterrizaje entre sí en las regiones de Azure a través de una instancia global común de Azure Virtual WAN.</t>
+          <t>Configure los proveedores de seguridad SaaS de socios compatibles dentro de Firewall Manager si la organización desea utilizar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
         </is>
       </c>
       <c r="E388" s="18" t="n"/>
       <c r="F388" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
@@ -20583,11 +20591,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J388" s="13" t="n"/>
+      <c r="J388" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K388" s="19" t="n"/>
       <c r="L388" s="19" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M388" s="20" t="n"/>
@@ -20604,23 +20616,23 @@
       </c>
       <c r="B389" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C389" s="18" t="inlineStr">
         <is>
-          <t>VWAN</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D389" s="18" t="inlineStr">
         <is>
-          <t>Siga el principio "el tráfico de Azure permanece en Azure" para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
+          <t>Use directivas de Azure Front Door y WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
         </is>
       </c>
       <c r="E389" s="18" t="n"/>
       <c r="F389" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
@@ -20634,11 +20646,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J389" s="13" t="n"/>
+      <c r="J389" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="K389" s="19" t="n"/>
       <c r="L389" s="19" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M389" s="20" t="n"/>
@@ -20660,18 +20676,18 @@
       </c>
       <c r="C390" s="18" t="inlineStr">
         <is>
-          <t>VWAN</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D390" s="18" t="inlineStr">
         <is>
-          <t>Para la protección y el filtrado del tráfico de Internet saliente, implemente Azure Firewall en centros seguros</t>
+          <t>Al usar Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas de WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
         </is>
       </c>
       <c r="E390" s="18" t="n"/>
       <c r="F390" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
@@ -20687,17 +20703,13 @@
       </c>
       <c r="J390" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K390" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualhubs' | extend compliant = isnotnull(properties.azureFirewall.id) | project id, compliant</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
+      <c r="K390" s="19" t="n"/>
       <c r="L390" s="19" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M390" s="20" t="n"/>
@@ -20714,23 +20726,23 @@
       </c>
       <c r="B391" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C391" s="18" t="inlineStr">
         <is>
-          <t>VWAN</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D391" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que la arquitectura de red está dentro de los límites de Azure Virtual WAN.</t>
+          <t>La implementación de WAF y otros servidores proxy inversos son necesarios para las conexiones HTTP/S entrantes, impleméntelos dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que protegen y exponen a Internet.</t>
         </is>
       </c>
       <c r="E391" s="18" t="n"/>
       <c r="F391" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
@@ -20744,11 +20756,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J391" s="13" t="n"/>
+      <c r="J391" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="K391" s="19" t="n"/>
       <c r="L391" s="19" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M391" s="20" t="n"/>
@@ -20765,23 +20781,23 @@
       </c>
       <c r="B392" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C392" s="18" t="inlineStr">
         <is>
-          <t>VWAN</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D392" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights para Virtual WAN para supervisar la topología de un extremo a otro de Virtual WAN, el estado y las métricas clave.</t>
+          <t>Use planes de protección IP o de red DDoS de Azure para ayudar a proteger los puntos de conexión de direcciones IP públicas dentro de las redes virtuales.</t>
         </is>
       </c>
       <c r="E392" s="18" t="n"/>
       <c r="F392" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
@@ -20795,11 +20811,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J392" s="13" t="n"/>
+      <c r="J392" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K392" s="19" t="n"/>
       <c r="L392" s="19" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M392" s="20" t="n"/>
@@ -20816,23 +20836,23 @@
       </c>
       <c r="B393" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C393" s="18" t="inlineStr">
         <is>
-          <t>VWAN</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D393" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que las implementaciones de IaC no deshabiliten el tráfico de sucursal a sucursal en Virtual WAN, a menos que estos flujos se bloqueen explícitamente.</t>
+          <t>Use reglas de red basadas en FQDN y Azure Firewall con proxy DNS para filtrar el tráfico de salida a Internet a través de protocolos no admitidos por las reglas de aplicación.</t>
         </is>
       </c>
       <c r="E393" s="18" t="n"/>
       <c r="F393" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
@@ -20847,10 +20867,14 @@
         </is>
       </c>
       <c r="J393" s="13" t="n"/>
-      <c r="K393" s="19" t="n"/>
+      <c r="K393" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.dnsSettings.enableProxy == true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L393" s="19" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M393" s="20" t="n"/>
@@ -20867,23 +20891,23 @@
       </c>
       <c r="B394" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C394" s="18" t="inlineStr">
         <is>
-          <t>VWAN</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D394" s="18" t="inlineStr">
         <is>
-          <t>Use AS-Path como preferencia de enrutamiento del centro, ya que es más flexible que ExpressRoute o VPN.</t>
+          <t>Use Azure Firewall Premium para obtener seguridad y protección adicionales.</t>
         </is>
       </c>
       <c r="E394" s="18" t="n"/>
       <c r="F394" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
@@ -20898,10 +20922,14 @@
         </is>
       </c>
       <c r="J394" s="13" t="n"/>
-      <c r="K394" s="19" t="n"/>
+      <c r="K394" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.sku.tier == 'Premium') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L394" s="19" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M394" s="20" t="n"/>
@@ -20918,23 +20946,23 @@
       </c>
       <c r="B395" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C395" s="18" t="inlineStr">
         <is>
-          <t>VWAN</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D395" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que las implementaciones de IaC configuran la propagación basada en etiquetas en Virtual WAN, de lo contrario, la conectividad entre los centros virtuales se verá afectada.</t>
+          <t>Configure el modo de inteligencia sobre amenazas de Azure Firewall en Alerta y denegación para obtener protección adicional.</t>
         </is>
       </c>
       <c r="E395" s="18" t="n"/>
       <c r="F395" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
@@ -20949,10 +20977,14 @@
         </is>
       </c>
       <c r="J395" s="13" t="n"/>
-      <c r="K395" s="19" t="n"/>
+      <c r="K395" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.threatIntelMode == 'Deny') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L395" s="19" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M395" s="20" t="n"/>
@@ -20969,17 +21001,17 @@
       </c>
       <c r="B396" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C396" s="18" t="inlineStr">
         <is>
-          <t>VWAN</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D396" s="18" t="inlineStr">
         <is>
-          <t>Asigne suficiente espacio IP a los centros virtuales, idealmente un prefijo /23.</t>
+          <t>Configure el modo IDPS de Azure Firewall en Denegar para obtener protección adicional.</t>
         </is>
       </c>
       <c r="E396" s="18" t="n"/>
@@ -21000,10 +21032,14 @@
         </is>
       </c>
       <c r="J396" s="13" t="n"/>
-      <c r="K396" s="19" t="n"/>
+      <c r="K396" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.intrusionDetection.mode == 'Deny') | project id, compliant</t>
+        </is>
+      </c>
       <c r="L396" s="19" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M396" s="20" t="n"/>
@@ -21025,12 +21061,12 @@
       </c>
       <c r="C397" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D397" s="18" t="inlineStr">
         <is>
-          <t>Aproveche Azure Policy estratégicamente, defina controles para su entorno y use iniciativas de directivas para agrupar directivas relacionadas.</t>
+          <t>En el caso de las subredes de las redes virtuales que no están conectadas a Virtual WAN, adjunte una tabla de rutas para que el tráfico de Internet se redirija a Azure Firewall o a una aplicación virtual de red</t>
         </is>
       </c>
       <c r="E397" s="18" t="n"/>
@@ -21051,10 +21087,14 @@
         </is>
       </c>
       <c r="J397" s="13" t="n"/>
-      <c r="K397" s="19" t="n"/>
+      <c r="K397" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,name,subnetId=tostring(subnets.id), subnetName=tostring(subnets.name),subnetRT=subnets.properties.routeTable.id | where not (subnetName in ('GatewaySubnet', 'AzureFirewallSubnet', 'RouteServerSubnet', 'AzureBastionSubnet')) | extend hasRT = isnotnull(subnetRT) | distinct id, hasRT, subnetId | join kind=fullouter (resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | extend isVWAN=(tolower(split(properties_virtualNetworkPeerings.name, '_')[0]) == 'remotevnettohubpeering') | mv-expand properties.subnets | project id, isVWAN, name, subnetId=tostring(properties_subnets.id), subnetName=tostring(properties_subnets.name) | summarize PeeredToVWAN=max(isVWAN) by id, subnetId | project id, subnetId, isVWANpeer = (PeeredToVWAN == true)) on subnetId | project id=iff(isnotempty(id), id, id1), subnetId=iff(isnotempty(subnetId), subnetId, subnetId1), hasRT, isVWANpeer | extend compliant = (hasRT==true or isVWANpeer==true) | distinct id, subnetId, compliant</t>
+        </is>
+      </c>
       <c r="L397" s="19" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M397" s="20" t="n"/>
@@ -21071,23 +21111,23 @@
       </c>
       <c r="B398" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C398" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D398" s="18" t="inlineStr">
         <is>
-          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva "anexar" para aplicar el uso a través de Azure Policy.</t>
+          <t>Evalúe y revise la configuración y la estrategia del tráfico saliente de la red antes del próximo cambio importante. El 30 de septiembre de 2025, se retirará el acceso saliente predeterminado para las nuevas implementaciones y solo se permitirán las configuraciones de acceso explícitas</t>
         </is>
       </c>
       <c r="E398" s="18" t="n"/>
       <c r="F398" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
@@ -21105,7 +21145,7 @@
       <c r="K398" s="19" t="n"/>
       <c r="L398" s="19" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
         </is>
       </c>
       <c r="M398" s="20" t="n"/>
@@ -21127,18 +21167,18 @@
       </c>
       <c r="C399" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D399" s="18" t="inlineStr">
         <is>
-          <t>Asigne los requisitos normativos y de cumplimiento normativo a las definiciones de Azure Policy y a las asignaciones de roles de Azure.</t>
+          <t>Agregue configuraciones de diagnóstico para guardar registros relacionados con DDoS para todas las direcciones IP públicas protegidas (DDoS IP o Protección de red).</t>
         </is>
       </c>
       <c r="E399" s="18" t="n"/>
       <c r="F399" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
@@ -21152,11 +21192,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J399" s="13" t="n"/>
+      <c r="J399" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K399" s="19" t="n"/>
       <c r="L399" s="19" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>b1c82a3f-2320-4dfa-8972-7ae4823c8930</t>
         </is>
       </c>
       <c r="M399" s="20" t="n"/>
@@ -21173,17 +21217,17 @@
       </c>
       <c r="B400" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C400" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D400" s="18" t="inlineStr">
         <is>
-          <t>Establezca definiciones de Azure Policy en el grupo de administración raíz intermedio para que se puedan asignar en ámbitos heredados</t>
+          <t>Agregue la configuración de diagnóstico para guardar registros, mediante la tabla de destino Recurso específico, para todas las implementaciones de Azure Firewall.</t>
         </is>
       </c>
       <c r="E400" s="18" t="n"/>
@@ -21203,11 +21247,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J400" s="13" t="n"/>
+      <c r="J400" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K400" s="19" t="n"/>
       <c r="L400" s="19" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>715d833d-4708-4527-90ac-1b142c7045ba</t>
         </is>
       </c>
       <c r="M400" s="20" t="n"/>
@@ -21224,23 +21272,23 @@
       </c>
       <c r="B401" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C401" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D401" s="18" t="inlineStr">
         <is>
-          <t>Administre las asignaciones de directivas en el nivel más alto adecuado con exclusiones en los niveles inferiores, si es necesario.</t>
+          <t>Migre de las reglas de Azure Firewall clásico (si existen) a la directiva de firewall.</t>
         </is>
       </c>
       <c r="E401" s="18" t="n"/>
       <c r="F401" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Importante</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
@@ -21254,11 +21302,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J401" s="13" t="n"/>
+      <c r="J401" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K401" s="19" t="n"/>
       <c r="L401" s="19" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>e960fc6b-4ab2-4db6-9609-3745135f9ffa</t>
         </is>
       </c>
       <c r="M401" s="20" t="n"/>
@@ -21280,18 +21332,18 @@
       </c>
       <c r="C402" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D402" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Policy para controlar qué servicios pueden aprovisionar los usuarios en el nivel de suscripción o grupo de administración</t>
+          <t>Asegúrese de que la comunicación del plano de control para los servicios PaaS de Azure insertados en una red virtual no se interrumpa, por ejemplo, con una ruta 0.0.0.0/0 o una regla de grupo de seguridad de red que bloquee el tráfico del plano de control.</t>
         </is>
       </c>
       <c r="E402" s="18" t="n"/>
       <c r="F402" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
@@ -21305,11 +21357,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J402" s="13" t="n"/>
+      <c r="J402" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="K402" s="19" t="n"/>
       <c r="L402" s="19" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M402" s="20" t="n"/>
@@ -21331,12 +21387,12 @@
       </c>
       <c r="C403" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D403" s="18" t="inlineStr">
         <is>
-          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
+          <t>Acceda a los servicios PaaS de Azure desde el entorno local a través de puntos de conexión privados y emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la Internet pública.</t>
         </is>
       </c>
       <c r="E403" s="18" t="n"/>
@@ -21356,11 +21412,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J403" s="13" t="n"/>
+      <c r="J403" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K403" s="19" t="n"/>
       <c r="L403" s="19" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M403" s="20" t="n"/>
@@ -21382,19 +21442,15 @@
       </c>
       <c r="C404" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D404" s="18" t="inlineStr">
         <is>
-          <t>Asigne el rol integrado Colaborador de directivas de recursos en un ámbito determinado para habilitar la gobernanza de nivel de aplicación.</t>
-        </is>
-      </c>
-      <c r="E404" s="18" t="inlineStr">
-        <is>
-          <t>La asignación del rol Colaborador de directivas de recursos a ámbitos específicos le permite delegar la administración de directivas a los equipos pertinentes. Por ejemplo, un equipo de TI central puede supervisar las directivas a nivel de grupo de administración, mientras que los equipos de aplicaciones se encargan de las directivas de sus suscripciones, lo que permite la gobernanza distribuida con el cumplimiento de los estándares de la organización.</t>
-        </is>
-      </c>
+          <t>No habilite los puntos de conexión de servicio de red virtual de forma predeterminada en todas las subredes.</t>
+        </is>
+      </c>
+      <c r="E404" s="18" t="n"/>
       <c r="F404" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -21411,11 +21467,19 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J404" s="13" t="n"/>
-      <c r="K404" s="19" t="n"/>
+      <c r="J404" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
+      <c r="K404" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets = properties.subnets | mv-expand subnets | project id = subnets.id, resourceGroup, VNet = name, serviceEndpoints = subnets.properties.serviceEndpoints, compliant = (isnull(subnets.properties.serviceEndpoints) or array_length(subnets.properties.serviceEndpoints) == 0) | order by compliant asc</t>
+        </is>
+      </c>
       <c r="L404" s="19" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M404" s="20" t="n"/>
@@ -21437,12 +21501,12 @@
       </c>
       <c r="C405" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D405" s="18" t="inlineStr">
         <is>
-          <t>Limite el número de asignaciones de Azure Policy realizadas en el ámbito del grupo de administración raíz para evitar la administración a través de exclusiones en ámbitos heredados.</t>
+          <t>Filtre el tráfico de salida a los servicios PaaS de Azure mediante FQDN en lugar de direcciones IP en Azure Firewall o una aplicación virtual de red para evitar la filtración de datos. Si usa Private Link, puede bloquear todos los FQDN, de lo contrario, permita solo los servicios PaaS necesarios.</t>
         </is>
       </c>
       <c r="E405" s="18" t="n"/>
@@ -21462,11 +21526,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J405" s="13" t="n"/>
+      <c r="J405" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="K405" s="19" t="n"/>
       <c r="L405" s="19" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M405" s="20" t="n"/>
@@ -21488,18 +21556,18 @@
       </c>
       <c r="C406" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D406" s="18" t="inlineStr">
         <is>
-          <t>Si existen requisitos de soberanía de datos, se pueden implementar directivas de Azure para aplicarlos</t>
+          <t>Use un prefijo /26 para las subredes de Azure Firewall.</t>
         </is>
       </c>
       <c r="E406" s="18" t="n"/>
       <c r="F406" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
@@ -21513,15 +21581,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J406" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
-        </is>
-      </c>
-      <c r="K406" s="19" t="n"/>
+      <c r="J406" s="13" t="n"/>
+      <c r="K406" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureFirewallSubnet' | extend compliant = (subnetPrefixLength == 26) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L406" s="19" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M406" s="20" t="n"/>
@@ -21543,18 +21611,18 @@
       </c>
       <c r="C407" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D407" s="18" t="inlineStr">
         <is>
-          <t>En el caso de la Zona de Aterrizaje Soberana, la iniciativa política de referencia de la política de soberanía se despliega y asigna al nivel correcto de MG.</t>
+          <t>Use al menos un prefijo /27 para las subredes de puerta de enlace</t>
         </is>
       </c>
       <c r="E407" s="18" t="n"/>
       <c r="F407" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G407" t="inlineStr">
@@ -21569,10 +21637,14 @@
         </is>
       </c>
       <c r="J407" s="13" t="n"/>
-      <c r="K407" s="19" t="n"/>
+      <c r="K407" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'GatewaySubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L407" s="19" t="inlineStr">
         <is>
-          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M407" s="20" t="n"/>
@@ -21594,12 +21666,12 @@
       </c>
       <c r="C408" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>NSG</t>
         </is>
       </c>
       <c r="D408" s="18" t="inlineStr">
         <is>
-          <t>En el caso de la Zona de Aterrizaje Soberana, se documentan los objetivos de control soberano para el mapeo de políticas.</t>
+          <t>No confíe en las reglas predeterminadas de entrada del grupo de seguridad de red que usan la etiqueta de servicio VirtualNetwork para limitar la conectividad.</t>
         </is>
       </c>
       <c r="E408" s="18" t="n"/>
@@ -21620,10 +21692,14 @@
         </is>
       </c>
       <c r="J408" s="13" t="n"/>
-      <c r="K408" s="19" t="n"/>
+      <c r="K408" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/networksecuritygroups' | mvexpand properties.securityRules | project id,name,ruleAction=properties_securityRules.properties.access,rulePriority=properties_securityRules.properties.priority,ruleDst=properties_securityRules.properties.destinationAddressPrefix,ruleSrc=properties_securityRules.properties.sourceAddressPrefix,ruleProt=properties_securityRules.properties.protocol,ruleDirection=properties_securityRules.properties.direction,rulePort=properties_securityRules.properties.destinationPortRange | summarize StarDenies=countif(ruleAction=='Deny' and ruleDst=='*' and ruleSrc=='*' and ruleProt=='*' and rulePort=='*') by id,tostring(ruleDirection) | where ruleDirection == 'Inbound' | project id,compliant=(StarDenies&gt;0) | union (resources | where type=='microsoft.network/networksecuritygroups' | where array_length(properties.securityRules)==0 | extend compliant=false | project id,compliant)</t>
+        </is>
+      </c>
       <c r="L408" s="19" t="inlineStr">
         <is>
-          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M408" s="20" t="n"/>
@@ -21645,12 +21721,12 @@
       </c>
       <c r="C409" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>NSG</t>
         </is>
       </c>
       <c r="D409" s="18" t="inlineStr">
         <is>
-          <t>En el caso de la Zona de Aterrizaje Soberana, existe un proceso para el CRUD de "Objetivos de Control Soberano para el mapeo de políticas".</t>
+          <t>Use grupos de seguridad de red para ayudar a proteger el tráfico entre subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
         </is>
       </c>
       <c r="E409" s="18" t="n"/>
@@ -21665,12 +21741,20 @@
         </is>
       </c>
       <c r="H409" s="18" t="n"/>
-      <c r="I409" s="13" t="n"/>
-      <c r="J409" s="13" t="n"/>
+      <c r="I409" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J409" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="K409" s="19" t="n"/>
       <c r="L409" s="19" t="inlineStr">
         <is>
-          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M409" s="20" t="n"/>
@@ -21692,18 +21776,18 @@
       </c>
       <c r="C410" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>NSG</t>
         </is>
       </c>
       <c r="D410" s="18" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar etiquetas de automatización para iniciar o detener máquinas virtuales en su entorno para ahorrar costos.</t>
+          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los grupos de seguridad de red de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
         </is>
       </c>
       <c r="E410" s="18" t="n"/>
       <c r="F410" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G410" t="inlineStr">
@@ -21712,16 +21796,20 @@
         </is>
       </c>
       <c r="H410" s="18" t="n"/>
-      <c r="I410" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
-      <c r="J410" s="13" t="n"/>
-      <c r="K410" s="19" t="n"/>
+      <c r="I410" s="13" t="n"/>
+      <c r="J410" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
+      <c r="K410" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,name,subnetName=subnets.name,subnetNsg=subnets.properties.networkSecurityGroup | where not (subnetName in ('GatewaySubnet', 'AzureFirewallSubnet', 'RouteServerSubnet', 'AzureBastionSubnet')) | extend compliant = isnotnull(subnetNsg)</t>
+        </is>
+      </c>
       <c r="L410" s="19" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M410" s="20" t="n"/>
@@ -21738,17 +21826,17 @@
       </c>
       <c r="B411" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C411" s="18" t="inlineStr">
         <is>
-          <t>VMSS</t>
+          <t>NSG</t>
         </is>
       </c>
       <c r="D411" s="18" t="inlineStr">
         <is>
-          <t>Aproveche los conjuntos de escalado de máquinas virtuales de Azure para escalar horizontalmente y horizontalmente en función de la carga.</t>
+          <t>Use grupos de seguridad de red y grupos de seguridad de aplicaciones para microsegmentar el tráfico dentro de la zona de aterrizaje y evitar el uso de una aplicación virtual de red central para filtrar los flujos de tráfico.</t>
         </is>
       </c>
       <c r="E411" s="18" t="n"/>
@@ -21768,11 +21856,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J411" s="13" t="n"/>
+      <c r="J411" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="K411" s="19" t="n"/>
       <c r="L411" s="19" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M411" s="20" t="n"/>
@@ -21789,23 +21881,23 @@
       </c>
       <c r="B412" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C412" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>NSG</t>
         </is>
       </c>
       <c r="D412" s="18" t="inlineStr">
         <is>
-          <t>Agregue la configuración de diagnóstico para guardar los registros de WAF de los servicios de entrega de aplicaciones, como Azure Front Door y Azure Application Gateway. Revise periódicamente los registros para comprobar si hay ataques y detecciones de falsos positivos.</t>
+          <t>Habilite los registros de flujo de red virtual e introdúzcalos en Análisis de tráfico para obtener información sobre los flujos de tráfico internos y externos.</t>
         </is>
       </c>
       <c r="E412" s="18" t="n"/>
       <c r="F412" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G412" t="inlineStr">
@@ -21819,11 +21911,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J412" s="13" t="n"/>
+      <c r="J412" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="K412" s="19" t="n"/>
       <c r="L412" s="19" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M412" s="20" t="n"/>
@@ -21840,17 +21936,17 @@
       </c>
       <c r="B413" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C413" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>NSG</t>
         </is>
       </c>
       <c r="D413" s="18" t="inlineStr">
         <is>
-          <t>Envíe registros de WAF desde los servicios de entrega de aplicaciones, como Azure Front Door y Azure Application Gateway, a Microsoft Sentinel. Detecte ataques e integre la telemetría de WAF en su entorno general de Azure.</t>
+          <t>Tenga en cuenta el límite de reglas de grupo de seguridad de red por grupo de seguridad de red (1000).</t>
         </is>
       </c>
       <c r="E413" s="18" t="n"/>
@@ -21870,11 +21966,19 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J413" s="13" t="n"/>
-      <c r="K413" s="19" t="n"/>
+      <c r="J413" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="K413" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/networksecuritygroups' | project id, rules = array_length(properties.securityRules) | project id, compliant = (rules &lt; 900)</t>
+        </is>
+      </c>
       <c r="L413" s="19" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>0390417d-53dc-44d9-b3f4-c8832f359b41</t>
         </is>
       </c>
       <c r="M413" s="20" t="n"/>
@@ -21891,17 +21995,17 @@
       </c>
       <c r="B414" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C414" s="18" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>VWAN</t>
         </is>
       </c>
       <c r="D414" s="18" t="inlineStr">
         <is>
-          <t>Al usar Azure Backup, tenga en cuenta los diferentes tipos de copia de seguridad (GRS, ZRS Y LRS), ya que la configuración predeterminada es GRS</t>
+          <t>Considere la posibilidad de utilizar Virtual WAN para simplificar la administración de redes de Azure y asegúrese de que el escenario se describe explícitamente en la lista de diseños de enrutamiento de Virtual WAN</t>
         </is>
       </c>
       <c r="E414" s="18" t="n"/>
@@ -21921,11 +22025,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J414" s="13" t="n"/>
+      <c r="J414" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="K414" s="19" t="n"/>
       <c r="L414" s="19" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M414" s="20" t="n"/>
@@ -21942,17 +22050,17 @@
       </c>
       <c r="B415" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C415" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VWAN</t>
         </is>
       </c>
       <c r="D415" s="18" t="inlineStr">
         <is>
-          <t>Use un área de trabajo de registros de un único monitor para administrar las plataformas de forma centralizada, excepto cuando el control de acceso basado en rol de Azure (Azure RBAC), los requisitos de soberanía de datos o las directivas de retención de datos exijan áreas de trabajo independientes.</t>
+          <t>Use un centro de conectividad de Virtual WAN por región de Azure para conectar varias zonas de aterrizaje entre sí en las regiones de Azure a través de una instancia global común de Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="E415" s="18" t="n"/>
@@ -21972,15 +22080,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J415" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+      <c r="J415" s="13" t="n"/>
       <c r="K415" s="19" t="n"/>
       <c r="L415" s="19" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M415" s="20" t="n"/>
@@ -21997,23 +22101,23 @@
       </c>
       <c r="B416" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C416" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VWAN</t>
         </is>
       </c>
       <c r="D416" s="18" t="inlineStr">
         <is>
-          <t>Use los registros de Azure Monitor cuando los requisitos de retención de registros superen los dos años. Actualmente puede mantener los datos archivados durante un máximo de 7 años.</t>
+          <t>Siga el principio "el tráfico de Azure permanece en Azure" para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
         </is>
       </c>
       <c r="E416" s="18" t="n"/>
       <c r="F416" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G416" t="inlineStr">
@@ -22027,15 +22131,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J416" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="J416" s="13" t="n"/>
       <c r="K416" s="19" t="n"/>
       <c r="L416" s="19" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M416" s="20" t="n"/>
@@ -22052,17 +22152,17 @@
       </c>
       <c r="B417" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C417" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>VWAN</t>
         </is>
       </c>
       <c r="D417" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones.</t>
+          <t>Para la protección y el filtrado del tráfico de Internet saliente, implemente Azure Firewall en centros seguros</t>
         </is>
       </c>
       <c r="E417" s="18" t="n"/>
@@ -22084,13 +22184,17 @@
       </c>
       <c r="J417" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
-        </is>
-      </c>
-      <c r="K417" s="19" t="n"/>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K417" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualhubs' | extend compliant = isnotnull(properties.azureFirewall.id) | project id, compliant</t>
+        </is>
+      </c>
       <c r="L417" s="19" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M417" s="20" t="n"/>
@@ -22107,17 +22211,17 @@
       </c>
       <c r="B418" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C418" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>VWAN</t>
         </is>
       </c>
       <c r="D418" s="18" t="inlineStr">
         <is>
-          <t>Supervise el desfase de configuración de la máquina virtual (VM) invitada mediante Azure Policy. La habilitación de las capacidades de auditoría de configuración de invitado a través de la directiva ayuda a las cargas de trabajo del equipo de aplicaciones a consumir inmediatamente las capacidades de las funciones con poco esfuerzo.</t>
+          <t>Asegúrese de que la arquitectura de red está dentro de los límites de Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="E418" s="18" t="n"/>
@@ -22137,15 +22241,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J418" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="J418" s="13" t="n"/>
       <c r="K418" s="19" t="n"/>
       <c r="L418" s="19" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M418" s="20" t="n"/>
@@ -22167,12 +22267,12 @@
       </c>
       <c r="C419" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>VWAN</t>
         </is>
       </c>
       <c r="D419" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Update Manager como mecanismo de aplicación de revisiones para máquinas virtuales Windows y Linux en Azure.</t>
+          <t>Use Azure Monitor Insights para Virtual WAN para supervisar la topología de un extremo a otro de Virtual WAN, el estado y las métricas clave.</t>
         </is>
       </c>
       <c r="E419" s="18" t="n"/>
@@ -22192,15 +22292,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J419" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
-        </is>
-      </c>
+      <c r="J419" s="13" t="n"/>
       <c r="K419" s="19" t="n"/>
       <c r="L419" s="19" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M419" s="20" t="n"/>
@@ -22217,17 +22313,17 @@
       </c>
       <c r="B420" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C420" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>VWAN</t>
         </is>
       </c>
       <c r="D420" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Update Manager como mecanismo de aplicación de revisiones para máquinas virtuales Windows y Linux fuera de Azure mediante Azure Arc.</t>
+          <t>Asegúrese de que las implementaciones de IaC no deshabiliten el tráfico de sucursal a sucursal en Virtual WAN, a menos que estos flujos se bloqueen explícitamente.</t>
         </is>
       </c>
       <c r="E420" s="18" t="n"/>
@@ -22247,15 +22343,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J420" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
-        </is>
-      </c>
+      <c r="J420" s="13" t="n"/>
       <c r="K420" s="19" t="n"/>
       <c r="L420" s="19" t="inlineStr">
         <is>
-          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M420" s="20" t="n"/>
@@ -22272,17 +22364,17 @@
       </c>
       <c r="B421" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C421" s="18" t="inlineStr">
         <is>
-          <t>Network Watcher</t>
+          <t>VWAN</t>
         </is>
       </c>
       <c r="D421" s="18" t="inlineStr">
         <is>
-          <t>Utilice Network Watcher para supervisar de forma proactiva los flujos de tráfico</t>
+          <t>Use AS-Path como preferencia de enrutamiento del centro, ya que es más flexible que ExpressRoute o VPN.</t>
         </is>
       </c>
       <c r="E421" s="18" t="n"/>
@@ -22302,15 +22394,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J421" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
-        </is>
-      </c>
+      <c r="J421" s="13" t="n"/>
       <c r="K421" s="19" t="n"/>
       <c r="L421" s="19" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M421" s="20" t="n"/>
@@ -22327,17 +22415,17 @@
       </c>
       <c r="B422" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C422" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VWAN</t>
         </is>
       </c>
       <c r="D422" s="18" t="inlineStr">
         <is>
-          <t>Use un área de trabajo centralizada de Log Analytics de Azure Monitor para recopilar registros y métricas de los recursos de aplicaciones IaaS y PaaS y controlar el acceso a los registros con Azure RBAC.</t>
+          <t>Asegúrese de que las implementaciones de IaC configuran la propagación basada en etiquetas en Virtual WAN, de lo contrario, la conectividad entre los centros virtuales se verá afectada.</t>
         </is>
       </c>
       <c r="E422" s="18" t="n"/>
@@ -22361,7 +22449,7 @@
       <c r="K422" s="19" t="n"/>
       <c r="L422" s="19" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M422" s="20" t="n"/>
@@ -22378,23 +22466,23 @@
       </c>
       <c r="B423" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C423" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VWAN</t>
         </is>
       </c>
       <c r="D423" s="18" t="inlineStr">
         <is>
-          <t>Use los registros de Azure Monitor para obtener información e informes.</t>
+          <t>Asigne suficiente espacio IP a los centros virtuales, idealmente un prefijo /23.</t>
         </is>
       </c>
       <c r="E423" s="18" t="n"/>
       <c r="F423" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G423" t="inlineStr">
@@ -22412,7 +22500,7 @@
       <c r="K423" s="19" t="n"/>
       <c r="L423" s="19" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M423" s="20" t="n"/>
@@ -22429,23 +22517,23 @@
       </c>
       <c r="B424" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C424" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D424" s="18" t="inlineStr">
         <is>
-          <t>Use alertas de Azure Monitor para la generación de alertas operativas.</t>
+          <t>Aproveche Azure Policy estratégicamente, defina controles para su entorno y use iniciativas de directivas para agrupar directivas relacionadas.</t>
         </is>
       </c>
       <c r="E424" s="18" t="n"/>
       <c r="F424" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G424" t="inlineStr">
@@ -22463,7 +22551,7 @@
       <c r="K424" s="19" t="n"/>
       <c r="L424" s="19" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M424" s="20" t="n"/>
@@ -22480,17 +22568,17 @@
       </c>
       <c r="B425" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C425" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D425" s="18" t="inlineStr">
         <is>
-          <t>Al usar el seguimiento de cambios e inventario a través de cuentas de Azure Automation, asegúrese de que ha seleccionado las regiones admitidas para vincular el área de trabajo de Log Analytics y las cuentas de automatización.</t>
+          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva "anexar" para aplicar el uso a través de Azure Policy.</t>
         </is>
       </c>
       <c r="E425" s="18" t="n"/>
@@ -22514,7 +22602,7 @@
       <c r="K425" s="19" t="n"/>
       <c r="L425" s="19" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M425" s="20" t="n"/>
@@ -22536,12 +22624,12 @@
       </c>
       <c r="C426" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D426" s="18" t="inlineStr">
         <is>
-          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
+          <t>Asigne los requisitos normativos y de cumplimiento normativo a las definiciones de Azure Policy y a las asignaciones de roles de Azure.</t>
         </is>
       </c>
       <c r="E426" s="18" t="n"/>
@@ -22565,7 +22653,7 @@
       <c r="K426" s="19" t="n"/>
       <c r="L426" s="19" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M426" s="20" t="n"/>
@@ -22587,19 +22675,15 @@
       </c>
       <c r="C427" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D427" s="18" t="inlineStr">
         <is>
-          <t>Supervise el desfase de la configuración de seguridad de la máquina virtual a través de Azure Policy.</t>
-        </is>
-      </c>
-      <c r="E427" s="18" t="inlineStr">
-        <is>
-          <t>Las características de configuración de invitado de Azure Policy pueden auditar y corregir la configuración de la máquina (por ejemplo, el sistema operativo, la aplicación, el entorno) para asegurarse de que los recursos se alinean con las configuraciones esperadas, y Update Management puede aplicar la administración de revisiones para las máquinas virtuales.</t>
-        </is>
-      </c>
+          <t>Establezca definiciones de Azure Policy en el grupo de administración raíz intermedio para que se puedan asignar en ámbitos heredados</t>
+        </is>
+      </c>
+      <c r="E427" s="18" t="n"/>
       <c r="F427" s="18" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -22620,7 +22704,7 @@
       <c r="K427" s="19" t="n"/>
       <c r="L427" s="19" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M427" s="20" t="n"/>
@@ -22637,17 +22721,17 @@
       </c>
       <c r="B428" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C428" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D428" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Site Recovery para escenarios de recuperación ante desastres de Azure a Azure Virtual Machines. Esto le permite replicar cargas de trabajo en todas las regiones.</t>
+          <t>Administre las asignaciones de directivas en el nivel más alto adecuado con exclusiones en los niveles inferiores, si es necesario.</t>
         </is>
       </c>
       <c r="E428" s="18" t="n"/>
@@ -22671,7 +22755,7 @@
       <c r="K428" s="19" t="n"/>
       <c r="L428" s="19" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M428" s="20" t="n"/>
@@ -22688,23 +22772,23 @@
       </c>
       <c r="B429" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C429" s="18" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D429" s="18" t="inlineStr">
         <is>
-          <t>Use funcionalidades de copia de seguridad nativas de Azure o una solución de copia de seguridad de terceros compatible con Azure.</t>
+          <t>Use Azure Policy para controlar qué servicios pueden aprovisionar los usuarios en el nivel de suscripción o grupo de administración</t>
         </is>
       </c>
       <c r="E429" s="18" t="n"/>
       <c r="F429" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G429" t="inlineStr">
@@ -22722,7 +22806,7 @@
       <c r="K429" s="19" t="n"/>
       <c r="L429" s="19" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M429" s="20" t="n"/>
@@ -22739,23 +22823,23 @@
       </c>
       <c r="B430" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C430" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D430" s="18" t="inlineStr">
         <is>
-          <t>Aproveche las zonas de disponibilidad para las máquinas virtuales en las regiones en las que se admiten.</t>
+          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
         </is>
       </c>
       <c r="E430" s="18" t="n"/>
       <c r="F430" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G430" t="inlineStr">
@@ -22773,7 +22857,7 @@
       <c r="K430" s="19" t="n"/>
       <c r="L430" s="19" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M430" s="20" t="n"/>
@@ -22790,23 +22874,27 @@
       </c>
       <c r="B431" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C431" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D431" s="18" t="inlineStr">
         <is>
-          <t>Evite ejecutar una carga de trabajo de producción en una sola máquina virtual.</t>
-        </is>
-      </c>
-      <c r="E431" s="18" t="n"/>
+          <t>Asigne el rol integrado Colaborador de directivas de recursos en un ámbito determinado para habilitar la gobernanza de nivel de aplicación.</t>
+        </is>
+      </c>
+      <c r="E431" s="18" t="inlineStr">
+        <is>
+          <t>La asignación del rol Colaborador de directivas de recursos a ámbitos específicos le permite delegar la administración de directivas a los equipos pertinentes. Por ejemplo, un equipo de TI central puede supervisar las directivas a nivel de grupo de administración, mientras que los equipos de aplicaciones se encargan de las directivas de sus suscripciones, lo que permite la gobernanza distribuida con el cumplimiento de los estándares de la organización.</t>
+        </is>
+      </c>
       <c r="F431" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G431" t="inlineStr">
@@ -22824,7 +22912,7 @@
       <c r="K431" s="19" t="n"/>
       <c r="L431" s="19" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M431" s="20" t="n"/>
@@ -22841,17 +22929,17 @@
       </c>
       <c r="B432" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C432" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D432" s="18" t="inlineStr">
         <is>
-          <t>Azure Load Balancer y Application Gateway distribuyen el tráfico de red entrante entre varios recursos.</t>
+          <t>Limite el número de asignaciones de Azure Policy realizadas en el ámbito del grupo de administración raíz para evitar la administración a través de exclusiones en ámbitos heredados.</t>
         </is>
       </c>
       <c r="E432" s="18" t="n"/>
@@ -22875,7 +22963,7 @@
       <c r="K432" s="19" t="n"/>
       <c r="L432" s="19" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M432" s="20" t="n"/>
@@ -22897,18 +22985,18 @@
       </c>
       <c r="C433" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D433" s="18" t="inlineStr">
         <is>
-          <t>Uso de Azure Key Vault para almacenar los secretos y las credenciales</t>
+          <t>Si existen requisitos de soberanía de datos, se pueden implementar directivas de Azure para aplicarlos</t>
         </is>
       </c>
       <c r="E433" s="18" t="n"/>
       <c r="F433" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G433" t="inlineStr">
@@ -22922,11 +23010,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J433" s="13" t="n"/>
+      <c r="J433" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+        </is>
+      </c>
       <c r="K433" s="19" t="n"/>
       <c r="L433" s="19" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M433" s="20" t="n"/>
@@ -22948,12 +23040,12 @@
       </c>
       <c r="C434" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D434" s="18" t="inlineStr">
         <is>
-          <t>Use diferentes instancias de Azure Key Vaults para diferentes aplicaciones y regiones para evitar límites de escala de transacciones y restringir el acceso a los secretos.</t>
+          <t>En el caso de la Zona de Aterrizaje Soberana, la iniciativa política de referencia de la política de soberanía se despliega y asigna al nivel correcto de MG.</t>
         </is>
       </c>
       <c r="E434" s="18" t="n"/>
@@ -22974,14 +23066,10 @@
         </is>
       </c>
       <c r="J434" s="13" t="n"/>
-      <c r="K434" s="19" t="inlineStr">
-        <is>
-          <t>ResourceContainers | where type=='microsoft.resources/subscriptions'| parse id with '/subscriptions/' SubscriptionID| project subscriptionId, SubscriptionName = name| join kind=leftouter (Resources| where type == 'microsoft.keyvault/vaults'| project id, name, subscriptionId) on subscriptionId| join kind= leftouter (Resources| where type == 'microsoft.keyvault/vaults'| summarize ResourceCount = count() by subscriptionId) on subscriptionId| extend RCount = iff(isnull(ResourceCount), 0, ResourceCount)| project-away ResourceCount| extend compliant = (RCount &lt;&gt; 1)</t>
-        </is>
-      </c>
+      <c r="K434" s="19" t="n"/>
       <c r="L434" s="19" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
         </is>
       </c>
       <c r="M434" s="20" t="n"/>
@@ -23003,12 +23091,12 @@
       </c>
       <c r="C435" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D435" s="18" t="inlineStr">
         <is>
-          <t>Aprovisione Azure Key Vault con las directivas de eliminación temporal y purga habilitadas para permitir la protección de retención de los objetos eliminados.</t>
+          <t>En el caso de la Zona de Aterrizaje Soberana, se documentan los objetivos de control soberano para el mapeo de políticas.</t>
         </is>
       </c>
       <c r="E435" s="18" t="n"/>
@@ -23032,7 +23120,7 @@
       <c r="K435" s="19" t="n"/>
       <c r="L435" s="19" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
         </is>
       </c>
       <c r="M435" s="20" t="n"/>
@@ -23054,12 +23142,12 @@
       </c>
       <c r="C436" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D436" s="18" t="inlineStr">
         <is>
-          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar claves, secretos y certificados de forma permanente a roles de identificador personalizados especializados de Microsoft Entra.</t>
+          <t>En el caso de la Zona de Aterrizaje Soberana, existe un proceso para el CRUD de "Objetivos de Control Soberano para el mapeo de políticas".</t>
         </is>
       </c>
       <c r="E436" s="18" t="n"/>
@@ -23074,16 +23162,12 @@
         </is>
       </c>
       <c r="H436" s="18" t="n"/>
-      <c r="I436" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I436" s="13" t="n"/>
       <c r="J436" s="13" t="n"/>
       <c r="K436" s="19" t="n"/>
       <c r="L436" s="19" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
         </is>
       </c>
       <c r="M436" s="20" t="n"/>
@@ -23105,18 +23189,18 @@
       </c>
       <c r="C437" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D437" s="18" t="inlineStr">
         <is>
-          <t>Automatice el proceso de gestión y renovación de certificados con autoridades de certificación públicas para facilitar la administración.</t>
+          <t>Considere la posibilidad de usar etiquetas de automatización para iniciar o detener máquinas virtuales en su entorno para ahorrar costos.</t>
         </is>
       </c>
       <c r="E437" s="18" t="n"/>
       <c r="F437" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="G437" t="inlineStr">
@@ -23134,7 +23218,7 @@
       <c r="K437" s="19" t="n"/>
       <c r="L437" s="19" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M437" s="20" t="n"/>
@@ -23151,17 +23235,17 @@
       </c>
       <c r="B438" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C438" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>VMSS</t>
         </is>
       </c>
       <c r="D438" s="18" t="inlineStr">
         <is>
-          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
+          <t>Aproveche los conjuntos de escalado de máquinas virtuales de Azure para escalar horizontalmente y horizontalmente en función de la carga.</t>
         </is>
       </c>
       <c r="E438" s="18" t="n"/>
@@ -23185,7 +23269,7 @@
       <c r="K438" s="19" t="n"/>
       <c r="L438" s="19" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M438" s="20" t="n"/>
@@ -23202,23 +23286,23 @@
       </c>
       <c r="B439" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C439" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D439" s="18" t="inlineStr">
         <is>
-          <t>Habilite el firewall y el punto de conexión de servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
+          <t>Agregue la configuración de diagnóstico para guardar los registros de WAF de los servicios de entrega de aplicaciones, como Azure Front Door y Azure Application Gateway. Revise periódicamente los registros para comprobar si hay ataques y detecciones de falsos positivos.</t>
         </is>
       </c>
       <c r="E439" s="18" t="n"/>
       <c r="F439" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G439" t="inlineStr">
@@ -23236,7 +23320,7 @@
       <c r="K439" s="19" t="n"/>
       <c r="L439" s="19" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M439" s="20" t="n"/>
@@ -23253,17 +23337,17 @@
       </c>
       <c r="B440" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C440" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D440" s="18" t="inlineStr">
         <is>
-          <t>Use el área de trabajo de Log Analytics de Azure Monitor central de la plataforma para auditar el uso de claves, certificados y secretos en cada instancia de Key Vault.</t>
+          <t>Envíe registros de WAF desde los servicios de entrega de aplicaciones, como Azure Front Door y Azure Application Gateway, a Microsoft Sentinel. Detecte ataques e integre la telemetría de WAF en su entorno general de Azure.</t>
         </is>
       </c>
       <c r="E440" s="18" t="n"/>
@@ -23287,7 +23371,7 @@
       <c r="K440" s="19" t="n"/>
       <c r="L440" s="19" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M440" s="20" t="n"/>
@@ -23304,17 +23388,17 @@
       </c>
       <c r="B441" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C441" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="D441" s="18" t="inlineStr">
         <is>
-          <t>Delegue la creación de instancias de Key Vault y el acceso con privilegios, y use Azure Policy para aplicar una configuración coherente y compatible.</t>
+          <t>Al usar Azure Backup, tenga en cuenta los diferentes tipos de copia de seguridad (GRS, ZRS Y LRS), ya que la configuración predeterminada es GRS</t>
         </is>
       </c>
       <c r="E441" s="18" t="n"/>
@@ -23338,7 +23422,7 @@
       <c r="K441" s="19" t="n"/>
       <c r="L441" s="19" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M441" s="20" t="n"/>
@@ -23355,17 +23439,17 @@
       </c>
       <c r="B442" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C442" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D442" s="18" t="inlineStr">
         <is>
-          <t>Use una instancia de Azure Key Vault por aplicación, por entorno, por región.</t>
+          <t>Use un área de trabajo de registros de un único monitor para administrar las plataformas de forma centralizada, excepto cuando el control de acceso basado en rol de Azure (Azure RBAC), los requisitos de soberanía de datos o las directivas de retención de datos exijan áreas de trabajo independientes.</t>
         </is>
       </c>
       <c r="E442" s="18" t="n"/>
@@ -23385,11 +23469,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J442" s="13" t="n"/>
+      <c r="J442" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="K442" s="19" t="n"/>
       <c r="L442" s="19" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M442" s="20" t="n"/>
@@ -23406,17 +23494,17 @@
       </c>
       <c r="B443" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C443" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D443" s="18" t="inlineStr">
         <is>
-          <t>Si desea traer sus propias claves, es posible que esto no sea compatible con todos los servicios considerados. Implemente la mitigación pertinente para que las inconsistencias no obstaculicen los resultados deseados. Elija los pares de regiones y las regiones de recuperación ante desastres adecuados que minimicen la latencia.</t>
+          <t>Use los registros de Azure Monitor cuando los requisitos de retención de registros superen los dos años. Actualmente puede mantener los datos archivados durante un máximo de 7 años.</t>
         </is>
       </c>
       <c r="E443" s="18" t="n"/>
@@ -23436,11 +23524,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J443" s="13" t="n"/>
+      <c r="J443" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="K443" s="19" t="n"/>
       <c r="L443" s="19" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M443" s="20" t="n"/>
@@ -23457,17 +23549,17 @@
       </c>
       <c r="B444" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C444" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D444" s="18" t="inlineStr">
         <is>
-          <t>En el caso de la zona de aterrizaje soberana, use el HSM administrado de Azure Key Vault para almacenar los secretos y las credenciales.</t>
+          <t>Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones.</t>
         </is>
       </c>
       <c r="E444" s="18" t="n"/>
@@ -23487,11 +23579,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J444" s="13" t="n"/>
+      <c r="J444" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
+        </is>
+      </c>
       <c r="K444" s="19" t="n"/>
       <c r="L444" s="19" t="inlineStr">
         <is>
-          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M444" s="20" t="n"/>
@@ -23508,17 +23604,17 @@
       </c>
       <c r="B445" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C445" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D445" s="18" t="inlineStr">
         <is>
-          <t>Use las funcionalidades de informes de Microsoft Entra ID para generar informes de auditoría de control de acceso.</t>
+          <t>Supervise el desfase de configuración de la máquina virtual (VM) invitada mediante Azure Policy. La habilitación de las capacidades de auditoría de configuración de invitado a través de la directiva ayuda a las cargas de trabajo del equipo de aplicaciones a consumir inmediatamente las capacidades de las funciones con poco esfuerzo.</t>
         </is>
       </c>
       <c r="E445" s="18" t="n"/>
@@ -23538,11 +23634,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J445" s="13" t="n"/>
+      <c r="J445" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="K445" s="19" t="n"/>
       <c r="L445" s="19" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M445" s="20" t="n"/>
@@ -23559,23 +23659,23 @@
       </c>
       <c r="B446" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C446" s="18" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D446" s="18" t="inlineStr">
         <is>
-          <t>Habilite la administración de la posición de seguridad en la nube de Defender para todas las suscripciones.</t>
+          <t>Use Azure Update Manager como mecanismo de aplicación de revisiones para máquinas virtuales Windows y Linux en Azure.</t>
         </is>
       </c>
       <c r="E446" s="18" t="n"/>
       <c r="F446" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G446" t="inlineStr">
@@ -23589,11 +23689,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J446" s="13" t="n"/>
+      <c r="J446" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
+        </is>
+      </c>
       <c r="K446" s="19" t="n"/>
       <c r="L446" s="19" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M446" s="20" t="n"/>
@@ -23610,23 +23714,23 @@
       </c>
       <c r="B447" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C447" s="18" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D447" s="18" t="inlineStr">
         <is>
-          <t>Habilite un plan de protección de cargas de trabajo en la nube de Defender para servidores en todas las suscripciones.</t>
+          <t>Use Azure Update Manager como mecanismo de aplicación de revisiones para máquinas virtuales Windows y Linux fuera de Azure mediante Azure Arc.</t>
         </is>
       </c>
       <c r="E447" s="18" t="n"/>
       <c r="F447" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G447" t="inlineStr">
@@ -23640,11 +23744,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J447" s="13" t="n"/>
+      <c r="J447" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
+        </is>
+      </c>
       <c r="K447" s="19" t="n"/>
       <c r="L447" s="19" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
         </is>
       </c>
       <c r="M447" s="20" t="n"/>
@@ -23661,23 +23769,23 @@
       </c>
       <c r="B448" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C448" s="18" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Network Watcher</t>
         </is>
       </c>
       <c r="D448" s="18" t="inlineStr">
         <is>
-          <t>Habilite los planes de protección de cargas de trabajo en la nube de Defender para recursos de Azure en todas las suscripciones.</t>
+          <t>Utilice Network Watcher para supervisar de forma proactiva los flujos de tráfico</t>
         </is>
       </c>
       <c r="E448" s="18" t="n"/>
       <c r="F448" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G448" t="inlineStr">
@@ -23691,11 +23799,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J448" s="13" t="n"/>
+      <c r="J448" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+        </is>
+      </c>
       <c r="K448" s="19" t="n"/>
       <c r="L448" s="19" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M448" s="20" t="n"/>
@@ -23712,23 +23824,23 @@
       </c>
       <c r="B449" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C449" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D449" s="18" t="inlineStr">
         <is>
-          <t>Habilite Endpoint Protection en servidores IaaS.</t>
+          <t>Use un área de trabajo centralizada de Log Analytics de Azure Monitor para recopilar registros y métricas de los recursos de aplicaciones IaaS y PaaS y controlar el acceso a los registros con Azure RBAC.</t>
         </is>
       </c>
       <c r="E449" s="18" t="n"/>
       <c r="F449" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G449" t="inlineStr">
@@ -23746,7 +23858,7 @@
       <c r="K449" s="19" t="n"/>
       <c r="L449" s="19" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M449" s="20" t="n"/>
@@ -23763,17 +23875,17 @@
       </c>
       <c r="B450" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C450" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D450" s="18" t="inlineStr">
         <is>
-          <t>Supervise el desfase de revisiones del sistema operativo base a través de los registros de Azure Monitor y Defender for Cloud.</t>
+          <t>Use los registros de Azure Monitor para obtener información e informes.</t>
         </is>
       </c>
       <c r="E450" s="18" t="n"/>
@@ -23797,7 +23909,7 @@
       <c r="K450" s="19" t="n"/>
       <c r="L450" s="19" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M450" s="20" t="n"/>
@@ -23814,7 +23926,7 @@
       </c>
       <c r="B451" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C451" s="18" t="inlineStr">
@@ -23824,7 +23936,7 @@
       </c>
       <c r="D451" s="18" t="inlineStr">
         <is>
-          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Log Analytics de Azure Monitor.</t>
+          <t>Use alertas de Azure Monitor para la generación de alertas operativas.</t>
         </is>
       </c>
       <c r="E451" s="18" t="n"/>
@@ -23848,7 +23960,7 @@
       <c r="K451" s="19" t="n"/>
       <c r="L451" s="19" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M451" s="20" t="n"/>
@@ -23865,17 +23977,17 @@
       </c>
       <c r="B452" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C452" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D452" s="18" t="inlineStr">
         <is>
-          <t>En el caso de la zona de aterrizaje soberana, los registros de transparencia están habilitados en el inquilino de Entra ID.</t>
+          <t>Al usar el seguimiento de cambios e inventario a través de cuentas de Azure Automation, asegúrese de que ha seleccionado las regiones admitidas para vincular el área de trabajo de Log Analytics y las cuentas de automatización.</t>
         </is>
       </c>
       <c r="E452" s="18" t="n"/>
@@ -23899,7 +24011,7 @@
       <c r="K452" s="19" t="n"/>
       <c r="L452" s="19" t="inlineStr">
         <is>
-          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M452" s="20" t="n"/>
@@ -23921,12 +24033,12 @@
       </c>
       <c r="C453" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D453" s="18" t="inlineStr">
         <is>
-          <t>En el caso de la zona de aterrizaje soberana, la caja de seguridad del cliente está habilitada en el inquilino de Entra ID.</t>
+          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
         </is>
       </c>
       <c r="E453" s="18" t="n"/>
@@ -23950,7 +24062,7 @@
       <c r="K453" s="19" t="n"/>
       <c r="L453" s="19" t="inlineStr">
         <is>
-          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M453" s="20" t="n"/>
@@ -23972,18 +24084,22 @@
       </c>
       <c r="C454" s="18" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D454" s="18" t="inlineStr">
         <is>
-          <t>La transferencia segura a cuentas de almacenamiento debe estar habilitada</t>
-        </is>
-      </c>
-      <c r="E454" s="18" t="n"/>
+          <t>Supervise el desfase de la configuración de seguridad de la máquina virtual a través de Azure Policy.</t>
+        </is>
+      </c>
+      <c r="E454" s="18" t="inlineStr">
+        <is>
+          <t>Las características de configuración de invitado de Azure Policy pueden auditar y corregir la configuración de la máquina (por ejemplo, el sistema operativo, la aplicación, el entorno) para asegurarse de que los recursos se alinean con las configuraciones esperadas, y Update Management puede aplicar la administración de revisiones para las máquinas virtuales.</t>
+        </is>
+      </c>
       <c r="F454" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G454" t="inlineStr">
@@ -24001,7 +24117,7 @@
       <c r="K454" s="19" t="n"/>
       <c r="L454" s="19" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M454" s="20" t="n"/>
@@ -24018,23 +24134,23 @@
       </c>
       <c r="B455" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C455" s="18" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D455" s="18" t="inlineStr">
         <is>
-          <t>Habilite la eliminación temporal del contenedor para que la cuenta de almacenamiento recupere un contenedor eliminado y su contenido.</t>
+          <t>Use Azure Site Recovery para escenarios de recuperación ante desastres de Azure a Azure Virtual Machines. Esto le permite replicar cargas de trabajo en todas las regiones.</t>
         </is>
       </c>
       <c r="E455" s="18" t="n"/>
       <c r="F455" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G455" t="inlineStr">
@@ -24052,7 +24168,7 @@
       <c r="K455" s="19" t="n"/>
       <c r="L455" s="19" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M455" s="20" t="n"/>
@@ -24074,18 +24190,18 @@
       </c>
       <c r="C456" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="D456" s="18" t="inlineStr">
         <is>
-          <t>Use secretos de Key Vault para evitar codificar de forma rígida información confidencial, como credenciales (máquinas virtuales, contraseñas de usuario), certificados o claves.</t>
+          <t>Use funcionalidades de copia de seguridad nativas de Azure o una solución de copia de seguridad de terceros compatible con Azure.</t>
         </is>
       </c>
       <c r="E456" s="18" t="n"/>
       <c r="F456" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G456" t="inlineStr">
@@ -24103,7 +24219,7 @@
       <c r="K456" s="19" t="n"/>
       <c r="L456" s="19" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M456" s="20" t="n"/>
@@ -24115,28 +24231,28 @@
     <row r="457">
       <c r="A457" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B457" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C457" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D457" s="18" t="inlineStr">
         <is>
-          <t>Implementar una política de control de errores a nivel global</t>
+          <t>Aproveche las zonas de disponibilidad para las máquinas virtuales en las regiones en las que se admiten.</t>
         </is>
       </c>
       <c r="E457" s="18" t="n"/>
       <c r="F457" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G457" t="inlineStr">
@@ -24154,7 +24270,7 @@
       <c r="K457" s="19" t="n"/>
       <c r="L457" s="19" t="inlineStr">
         <is>
-          <t>d7941d4a-7b6f-458f-8714-2f8f8c059ad4</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M457" s="20" t="n"/>
@@ -24166,28 +24282,28 @@
     <row r="458">
       <c r="A458" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B458" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C458" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D458" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que todas las políticas de API incluyan un &lt;base/&gt; elemento.</t>
+          <t>Evite ejecutar una carga de trabajo de producción en una sola máquina virtual.</t>
         </is>
       </c>
       <c r="E458" s="18" t="n"/>
       <c r="F458" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G458" t="inlineStr">
@@ -24205,7 +24321,7 @@
       <c r="K458" s="19" t="n"/>
       <c r="L458" s="19" t="inlineStr">
         <is>
-          <t>0b0c0765-ff37-4369-90bd-3eb23ce71b08</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M458" s="20" t="n"/>
@@ -24217,22 +24333,22 @@
     <row r="459">
       <c r="A459" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B459" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C459" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D459" s="18" t="inlineStr">
         <is>
-          <t>Uso de fragmentos de políticas para evitar repetir las mismas definiciones de políticas en varias API</t>
+          <t>Azure Load Balancer y Application Gateway distribuyen el tráfico de red entrante entre varios recursos.</t>
         </is>
       </c>
       <c r="E459" s="18" t="n"/>
@@ -24256,7 +24372,7 @@
       <c r="K459" s="19" t="n"/>
       <c r="L459" s="19" t="inlineStr">
         <is>
-          <t>a5c45b03-93b6-42fe-b16b-8fccb6a79902</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M459" s="20" t="n"/>
@@ -24268,28 +24384,28 @@
     <row r="460">
       <c r="A460" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B460" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C460" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D460" s="18" t="inlineStr">
         <is>
-          <t>Si planeas monetizar tus API, revisa el artículo "Soporte de monetización" para conocer las prácticas recomendadas</t>
+          <t>Uso de Azure Key Vault para almacenar los secretos y las credenciales</t>
         </is>
       </c>
       <c r="E460" s="18" t="n"/>
       <c r="F460" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G460" t="inlineStr">
@@ -24307,7 +24423,7 @@
       <c r="K460" s="19" t="n"/>
       <c r="L460" s="19" t="inlineStr">
         <is>
-          <t>c3818a95-6ff3-4474-88dc-e809b46dad6a</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M460" s="20" t="n"/>
@@ -24319,28 +24435,28 @@
     <row r="461">
       <c r="A461" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B461" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C461" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D461" s="18" t="inlineStr">
         <is>
-          <t>Habilitación de la configuración de diagnóstico para exportar registros a Azure Monitor</t>
+          <t>Use diferentes instancias de Azure Key Vaults para diferentes aplicaciones y regiones para evitar límites de escala de transacciones y restringir el acceso a los secretos.</t>
         </is>
       </c>
       <c r="E461" s="18" t="n"/>
       <c r="F461" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G461" t="inlineStr">
@@ -24355,10 +24471,14 @@
         </is>
       </c>
       <c r="J461" s="13" t="n"/>
-      <c r="K461" s="19" t="n"/>
+      <c r="K461" s="19" t="inlineStr">
+        <is>
+          <t>ResourceContainers | where type=='microsoft.resources/subscriptions'| parse id with '/subscriptions/' SubscriptionID| project subscriptionId, SubscriptionName = name| join kind=leftouter (Resources| where type == 'microsoft.keyvault/vaults'| project id, name, subscriptionId) on subscriptionId| join kind= leftouter (Resources| where type == 'microsoft.keyvault/vaults'| summarize ResourceCount = count() by subscriptionId) on subscriptionId| extend RCount = iff(isnull(ResourceCount), 0, ResourceCount)| project-away ResourceCount| extend compliant = (RCount &lt;&gt; 1)</t>
+        </is>
+      </c>
       <c r="L461" s="19" t="inlineStr">
         <is>
-          <t>a7d0840a-c8c4-4e83-adec-5ca578eb4049</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M461" s="20" t="n"/>
@@ -24370,22 +24490,22 @@
     <row r="462">
       <c r="A462" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B462" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C462" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D462" s="18" t="inlineStr">
         <is>
-          <t>Habilitación de Application Insights para obtener telemetría más detallada</t>
+          <t>Aprovisione Azure Key Vault con las directivas de eliminación temporal y purga habilitadas para permitir la protección de retención de los objetos eliminados.</t>
         </is>
       </c>
       <c r="E462" s="18" t="n"/>
@@ -24409,7 +24529,7 @@
       <c r="K462" s="19" t="n"/>
       <c r="L462" s="19" t="inlineStr">
         <is>
-          <t>8691fa38-45ed-4299-a247-fecd98d35deb</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M462" s="20" t="n"/>
@@ -24421,28 +24541,28 @@
     <row r="463">
       <c r="A463" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B463" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C463" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D463" s="18" t="inlineStr">
         <is>
-          <t>Configurar alertas sobre las métricas más críticas</t>
+          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar claves, secretos y certificados de forma permanente a roles de identificador personalizados especializados de Microsoft Entra.</t>
         </is>
       </c>
       <c r="E463" s="18" t="n"/>
       <c r="F463" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G463" t="inlineStr">
@@ -24460,7 +24580,7 @@
       <c r="K463" s="19" t="n"/>
       <c r="L463" s="19" t="inlineStr">
         <is>
-          <t>55fd27bb-76ac-4a91-bc37-049e885be6b7</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M463" s="20" t="n"/>
@@ -24472,7 +24592,7 @@
     <row r="464">
       <c r="A464" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B464" s="18" t="inlineStr">
@@ -24482,18 +24602,18 @@
       </c>
       <c r="C464" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D464" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que los certificados SSL personalizados se almacenan en Azure Key Vault para que se pueda acceder a ellos y actualizarlos de forma segura</t>
+          <t>Automatice el proceso de gestión y renovación de certificados con autoridades de certificación públicas para facilitar la administración.</t>
         </is>
       </c>
       <c r="E464" s="18" t="n"/>
       <c r="F464" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G464" t="inlineStr">
@@ -24511,7 +24631,7 @@
       <c r="K464" s="19" t="n"/>
       <c r="L464" s="19" t="inlineStr">
         <is>
-          <t>39460bdb-156f-4dc2-a87f-1e8c11ab0998</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M464" s="20" t="n"/>
@@ -24523,7 +24643,7 @@
     <row r="465">
       <c r="A465" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B465" s="18" t="inlineStr">
@@ -24533,18 +24653,18 @@
       </c>
       <c r="C465" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D465" s="18" t="inlineStr">
         <is>
-          <t>Protección de las solicitudes entrantes a las API (plano de datos) con Azure AD</t>
+          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
         </is>
       </c>
       <c r="E465" s="18" t="n"/>
       <c r="F465" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G465" t="inlineStr">
@@ -24562,7 +24682,7 @@
       <c r="K465" s="19" t="n"/>
       <c r="L465" s="19" t="inlineStr">
         <is>
-          <t>e9217997-5f6c-479d-8576-8f2adf706ec8</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M465" s="20" t="n"/>
@@ -24574,7 +24694,7 @@
     <row r="466">
       <c r="A466" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B466" s="18" t="inlineStr">
@@ -24584,12 +24704,12 @@
       </c>
       <c r="C466" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D466" s="18" t="inlineStr">
         <is>
-          <t>Uso de Azure AD para autenticar usuarios en el Portal de desarrollador</t>
+          <t>Habilite el firewall y el punto de conexión de servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
         </is>
       </c>
       <c r="E466" s="18" t="n"/>
@@ -24613,7 +24733,7 @@
       <c r="K466" s="19" t="n"/>
       <c r="L466" s="19" t="inlineStr">
         <is>
-          <t>5e5f64ba-c90e-480e-8888-398d96cf0bfb</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M466" s="20" t="n"/>
@@ -24625,7 +24745,7 @@
     <row r="467">
       <c r="A467" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B467" s="18" t="inlineStr">
@@ -24635,12 +24755,12 @@
       </c>
       <c r="C467" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D467" s="18" t="inlineStr">
         <is>
-          <t>Crear grupos adecuados para controlar la visibilidad de los productos</t>
+          <t>Use el área de trabajo de Log Analytics de Azure Monitor central de la plataforma para auditar el uso de claves, certificados y secretos en cada instancia de Key Vault.</t>
         </is>
       </c>
       <c r="E467" s="18" t="n"/>
@@ -24664,7 +24784,7 @@
       <c r="K467" s="19" t="n"/>
       <c r="L467" s="19" t="inlineStr">
         <is>
-          <t>f8e574ce-280f-49c8-b2ef-68279b081cf3</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M467" s="20" t="n"/>
@@ -24676,22 +24796,22 @@
     <row r="468">
       <c r="A468" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B468" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C468" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D468" s="18" t="inlineStr">
         <is>
-          <t>Utilice la función Backends para eliminar las configuraciones redundantes de back-end de la API</t>
+          <t>Delegue la creación de instancias de Key Vault y el acceso con privilegios, y use Azure Policy para aplicar una configuración coherente y compatible.</t>
         </is>
       </c>
       <c r="E468" s="18" t="n"/>
@@ -24715,7 +24835,7 @@
       <c r="K468" s="19" t="n"/>
       <c r="L468" s="19" t="inlineStr">
         <is>
-          <t>06862505-2d9a-4874-9491-2837b00a3475</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M468" s="20" t="n"/>
@@ -24727,22 +24847,22 @@
     <row r="469">
       <c r="A469" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B469" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C469" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D469" s="18" t="inlineStr">
         <is>
-          <t>Usar valores con nombre para almacenar valores comunes que se pueden usar en políticas</t>
+          <t>Use una instancia de Azure Key Vault por aplicación, por entorno, por región.</t>
         </is>
       </c>
       <c r="E469" s="18" t="n"/>
@@ -24766,7 +24886,7 @@
       <c r="K469" s="19" t="n"/>
       <c r="L469" s="19" t="inlineStr">
         <is>
-          <t>03b125d5-b69b-4739-b7fd-84b86da4933e</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M469" s="20" t="n"/>
@@ -24778,22 +24898,22 @@
     <row r="470">
       <c r="A470" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B470" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C470" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D470" s="18" t="inlineStr">
         <is>
-          <t>Implementación en varias regiones de Azure</t>
+          <t>Si desea traer sus propias claves, es posible que esto no sea compatible con todos los servicios considerados. Implemente la mitigación pertinente para que las inconsistencias no obstaculicen los resultados deseados. Elija los pares de regiones y las regiones de recuperación ante desastres adecuados que minimicen la latencia.</t>
         </is>
       </c>
       <c r="E470" s="18" t="n"/>
@@ -24817,7 +24937,7 @@
       <c r="K470" s="19" t="n"/>
       <c r="L470" s="19" t="inlineStr">
         <is>
-          <t>beae759e-4ddb-4326-bf26-47f87d3454b6</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M470" s="20" t="n"/>
@@ -24829,22 +24949,22 @@
     <row r="471">
       <c r="A471" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B471" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C471" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D471" s="18" t="inlineStr">
         <is>
-          <t>Implemente al menos dos unidades de escalado distribuidas en dos zonas de disponibilidad por región para obtener la mejor disponibilidad y rendimiento</t>
+          <t>En el caso de la zona de aterrizaje soberana, use el HSM administrado de Azure Key Vault para almacenar los secretos y las credenciales.</t>
         </is>
       </c>
       <c r="E471" s="18" t="n"/>
@@ -24868,7 +24988,7 @@
       <c r="K471" s="19" t="n"/>
       <c r="L471" s="19" t="inlineStr">
         <is>
-          <t>9c8d1664-dd9a-49d4-bd83-950af0af4044</t>
+          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
         </is>
       </c>
       <c r="M471" s="20" t="n"/>
@@ -24880,28 +25000,28 @@
     <row r="472">
       <c r="A472" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B472" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C472" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D472" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que haya una rutina de copia de seguridad automatizada</t>
+          <t>Use las funcionalidades de informes de Microsoft Entra ID para generar informes de auditoría de control de acceso.</t>
         </is>
       </c>
       <c r="E472" s="18" t="n"/>
       <c r="F472" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G472" t="inlineStr">
@@ -24919,7 +25039,7 @@
       <c r="K472" s="19" t="n"/>
       <c r="L472" s="19" t="inlineStr">
         <is>
-          <t>8d2db6e8-85c6-4118-a52c-ae76a4f27934</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M472" s="20" t="n"/>
@@ -24931,28 +25051,28 @@
     <row r="473">
       <c r="A473" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B473" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C473" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="D473" s="18" t="inlineStr">
         <is>
-          <t>Si necesita iniciar sesión en niveles de alto rendimiento, tenga en cuenta la directiva de Event Hubs</t>
+          <t>Habilite la administración de la posición de seguridad en la nube de Defender para todas las suscripciones.</t>
         </is>
       </c>
       <c r="E473" s="18" t="n"/>
       <c r="F473" s="18" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G473" t="inlineStr">
@@ -24970,7 +25090,7 @@
       <c r="K473" s="19" t="n"/>
       <c r="L473" s="19" t="inlineStr">
         <is>
-          <t>8210699f-8d43-45c2-8f19-57e54134bd8f</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M473" s="20" t="n"/>
@@ -24982,28 +25102,28 @@
     <row r="474">
       <c r="A474" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B474" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C474" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="D474" s="18" t="inlineStr">
         <is>
-          <t>Aplicación de directivas de limitación para controlar el número de solicitudes por segundo</t>
+          <t>Habilite un plan de protección de cargas de trabajo en la nube de Defender para servidores en todas las suscripciones.</t>
         </is>
       </c>
       <c r="E474" s="18" t="n"/>
       <c r="F474" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G474" t="inlineStr">
@@ -25017,15 +25137,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J474" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/protect-apis-on-api-management/</t>
-        </is>
-      </c>
+      <c r="J474" s="13" t="n"/>
       <c r="K474" s="19" t="n"/>
       <c r="L474" s="19" t="inlineStr">
         <is>
-          <t>121bfc39-fa7b-4096-b93b-ab56c1bc0bed</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M474" s="20" t="n"/>
@@ -25037,28 +25153,28 @@
     <row r="475">
       <c r="A475" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B475" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C475" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="D475" s="18" t="inlineStr">
         <is>
-          <t>Configurar el escalado automático para escalar horizontalmente el número de instancias cuando aumenta la carga</t>
+          <t>Habilite los planes de protección de cargas de trabajo en la nube de Defender para recursos de Azure en todas las suscripciones.</t>
         </is>
       </c>
       <c r="E475" s="18" t="n"/>
       <c r="F475" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G475" t="inlineStr">
@@ -25076,7 +25192,7 @@
       <c r="K475" s="19" t="n"/>
       <c r="L475" s="19" t="inlineStr">
         <is>
-          <t>bb5f356b-3daf-47a2-a9ee-867a8100bbd5</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M475" s="20" t="n"/>
@@ -25088,28 +25204,28 @@
     <row r="476">
       <c r="A476" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B476" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C476" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D476" s="18" t="inlineStr">
         <is>
-          <t>Implemente puertas de enlace autohospedadas en las que Azure no tenga una región cercana a las API de back-end.</t>
+          <t>Habilite Endpoint Protection en servidores IaaS.</t>
         </is>
       </c>
       <c r="E476" s="18" t="n"/>
       <c r="F476" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G476" t="inlineStr">
@@ -25127,7 +25243,7 @@
       <c r="K476" s="19" t="n"/>
       <c r="L476" s="19" t="inlineStr">
         <is>
-          <t>84b94abb-59b6-4b9d-8587-3413669468e8</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M476" s="20" t="n"/>
@@ -25139,22 +25255,22 @@
     <row r="477">
       <c r="A477" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B477" s="18" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C477" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D477" s="18" t="inlineStr">
         <is>
-          <t>Uso de Azure Front Door delante de APIM para la implementación en varias regiones</t>
+          <t>Supervise el desfase de revisiones del sistema operativo base a través de los registros de Azure Monitor y Defender for Cloud.</t>
         </is>
       </c>
       <c r="E477" s="18" t="n"/>
@@ -25178,7 +25294,7 @@
       <c r="K477" s="19" t="n"/>
       <c r="L477" s="19" t="inlineStr">
         <is>
-          <t>7519e385-a88b-4d34-966b-6269d686e890</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M477" s="20" t="n"/>
@@ -25190,7 +25306,7 @@
     <row r="478">
       <c r="A478" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B478" s="18" t="inlineStr">
@@ -25200,12 +25316,12 @@
       </c>
       <c r="C478" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D478" s="18" t="inlineStr">
         <is>
-          <t>Implementación del servicio dentro de una red virtual (VNet)</t>
+          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Log Analytics de Azure Monitor.</t>
         </is>
       </c>
       <c r="E478" s="18" t="n"/>
@@ -25229,7 +25345,7 @@
       <c r="K478" s="19" t="n"/>
       <c r="L478" s="19" t="inlineStr">
         <is>
-          <t>cd45c90e-7690-4753-930b-bf290c69c074</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M478" s="20" t="n"/>
@@ -25241,7 +25357,7 @@
     <row r="479">
       <c r="A479" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B479" s="18" t="inlineStr">
@@ -25251,12 +25367,12 @@
       </c>
       <c r="C479" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D479" s="18" t="inlineStr">
         <is>
-          <t>Implemente grupos de seguridad de red (NSG) en las subredes para restringir o supervisar el tráfico hacia/desde APIM.</t>
+          <t>En el caso de la zona de aterrizaje soberana, los registros de transparencia están habilitados en el inquilino de Entra ID.</t>
         </is>
       </c>
       <c r="E479" s="18" t="n"/>
@@ -25280,7 +25396,7 @@
       <c r="K479" s="19" t="n"/>
       <c r="L479" s="19" t="inlineStr">
         <is>
-          <t>02661582-b3d1-48d1-9d7b-c6a918a0ca33</t>
+          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
         </is>
       </c>
       <c r="M479" s="20" t="n"/>
@@ -25292,7 +25408,7 @@
     <row r="480">
       <c r="A480" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B480" s="18" t="inlineStr">
@@ -25302,12 +25418,12 @@
       </c>
       <c r="C480" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D480" s="18" t="inlineStr">
         <is>
-          <t>Implemente puntos de conexión privados para filtrar el tráfico entrante cuando APIM no se implemente en una red virtual.</t>
+          <t>En el caso de la zona de aterrizaje soberana, la caja de seguridad del cliente está habilitada en el inquilino de Entra ID.</t>
         </is>
       </c>
       <c r="E480" s="18" t="n"/>
@@ -25331,7 +25447,7 @@
       <c r="K480" s="19" t="n"/>
       <c r="L480" s="19" t="inlineStr">
         <is>
-          <t>67437a28-2721-4a2c-becd-caa54c8237a5</t>
+          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
         </is>
       </c>
       <c r="M480" s="20" t="n"/>
@@ -25343,7 +25459,7 @@
     <row r="481">
       <c r="A481" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B481" s="18" t="inlineStr">
@@ -25353,12 +25469,12 @@
       </c>
       <c r="C481" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D481" s="18" t="inlineStr">
         <is>
-          <t>Deshabilitar el acceso a la red pública</t>
+          <t>La transferencia segura a cuentas de almacenamiento debe estar habilitada</t>
         </is>
       </c>
       <c r="E481" s="18" t="n"/>
@@ -25382,7 +25498,7 @@
       <c r="K481" s="19" t="n"/>
       <c r="L481" s="19" t="inlineStr">
         <is>
-          <t>d698adbd-3288-44cb-b10a-9b572da395ae</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M481" s="20" t="n"/>
@@ -25394,28 +25510,28 @@
     <row r="482">
       <c r="A482" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B482" s="18" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C482" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D482" s="18" t="inlineStr">
         <is>
-          <t>Simplifique la administración con scripts de automatización de PowerShell</t>
+          <t>Habilite la eliminación temporal del contenedor para que la cuenta de almacenamiento recupere un contenedor eliminado y su contenido.</t>
         </is>
       </c>
       <c r="E482" s="18" t="n"/>
       <c r="F482" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G482" t="inlineStr">
@@ -25433,7 +25549,7 @@
       <c r="K482" s="19" t="n"/>
       <c r="L482" s="19" t="inlineStr">
         <is>
-          <t>0674d750-0c6f-4ac0-8717-ceec04d0bdbd</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M482" s="20" t="n"/>
@@ -25445,7 +25561,7 @@
     <row r="483">
       <c r="A483" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B483" s="18" t="inlineStr">
@@ -25455,18 +25571,18 @@
       </c>
       <c r="C483" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D483" s="18" t="inlineStr">
         <is>
-          <t>Revise las prácticas recomendadas de DevOps desde el acelerador de zonas de aterrizaje de API de Cloud Adaption Framework</t>
+          <t>Use secretos de Key Vault para evitar codificar de forma rígida información confidencial, como credenciales (máquinas virtuales, contraseñas de usuario), certificados o claves.</t>
         </is>
       </c>
       <c r="E483" s="18" t="n"/>
       <c r="F483" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G483" t="inlineStr">
@@ -25484,7 +25600,7 @@
       <c r="K483" s="19" t="n"/>
       <c r="L483" s="19" t="inlineStr">
         <is>
-          <t>c385bfcd-49fd-4786-81ba-cedbb4c57345</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M483" s="20" t="n"/>
@@ -25511,7 +25627,7 @@
       </c>
       <c r="D484" s="18" t="inlineStr">
         <is>
-          <t>Promover el uso de la extensión APIM de Visual Studio Code para un desarrollo de API más rápido</t>
+          <t>Implementar una política de control de errores a nivel global</t>
         </is>
       </c>
       <c r="E484" s="18" t="n"/>
@@ -25535,7 +25651,7 @@
       <c r="K484" s="19" t="n"/>
       <c r="L484" s="19" t="inlineStr">
         <is>
-          <t>6c3a27c0-197f-426c-9ffa-86fed51d9ab6</t>
+          <t>d7941d4a-7b6f-458f-8714-2f8f8c059ad4</t>
         </is>
       </c>
       <c r="M484" s="20" t="n"/>
@@ -25562,7 +25678,7 @@
       </c>
       <c r="D485" s="18" t="inlineStr">
         <is>
-          <t>Implemente DevOps y CI/CD en su flujo de trabajo</t>
+          <t>Asegúrese de que todas las políticas de API incluyan un &lt;base/&gt; elemento.</t>
         </is>
       </c>
       <c r="E485" s="18" t="n"/>
@@ -25586,7 +25702,7 @@
       <c r="K485" s="19" t="n"/>
       <c r="L485" s="19" t="inlineStr">
         <is>
-          <t>354f1c03-8112-4965-85ad-c0074bddf231</t>
+          <t>0b0c0765-ff37-4369-90bd-3eb23ce71b08</t>
         </is>
       </c>
       <c r="M485" s="20" t="n"/>
@@ -25603,7 +25719,7 @@
       </c>
       <c r="B486" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C486" s="18" t="inlineStr">
@@ -25613,7 +25729,7 @@
       </c>
       <c r="D486" s="18" t="inlineStr">
         <is>
-          <t>API seguras mediante la autenticación de certificados de cliente</t>
+          <t>Uso de fragmentos de políticas para evitar repetir las mismas definiciones de políticas en varias API</t>
         </is>
       </c>
       <c r="E486" s="18" t="n"/>
@@ -25637,7 +25753,7 @@
       <c r="K486" s="19" t="n"/>
       <c r="L486" s="19" t="inlineStr">
         <is>
-          <t>b6439493-426a-45f3-9697-cf65baee208d</t>
+          <t>a5c45b03-93b6-42fe-b16b-8fccb6a79902</t>
         </is>
       </c>
       <c r="M486" s="20" t="n"/>
@@ -25654,7 +25770,7 @@
       </c>
       <c r="B487" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C487" s="18" t="inlineStr">
@@ -25664,7 +25780,7 @@
       </c>
       <c r="D487" s="18" t="inlineStr">
         <is>
-          <t>Servicios de back-end seguros mediante la autenticación de certificados de cliente</t>
+          <t>Si planeas monetizar tus API, revisa el artículo "Soporte de monetización" para conocer las prácticas recomendadas</t>
         </is>
       </c>
       <c r="E487" s="18" t="n"/>
@@ -25688,7 +25804,7 @@
       <c r="K487" s="19" t="n"/>
       <c r="L487" s="19" t="inlineStr">
         <is>
-          <t>2a67d143-1033-4c0a-8732-680896478f08</t>
+          <t>c3818a95-6ff3-4474-88dc-e809b46dad6a</t>
         </is>
       </c>
       <c r="M487" s="20" t="n"/>
@@ -25705,7 +25821,7 @@
       </c>
       <c r="B488" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C488" s="18" t="inlineStr">
@@ -25715,13 +25831,13 @@
       </c>
       <c r="D488" s="18" t="inlineStr">
         <is>
-          <t>Revise el artículo "Recomendaciones para mitigar las 10 principales amenazas de seguridad de la API de OWASP" y compruebe qué es aplicable a sus API</t>
+          <t>Habilitación de la configuración de diagnóstico para exportar registros a Azure Monitor</t>
         </is>
       </c>
       <c r="E488" s="18" t="n"/>
       <c r="F488" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G488" t="inlineStr">
@@ -25739,7 +25855,7 @@
       <c r="K488" s="19" t="n"/>
       <c r="L488" s="19" t="inlineStr">
         <is>
-          <t>074435f5-4a46-41ac-b521-d6114cb5d845</t>
+          <t>a7d0840a-c8c4-4e83-adec-5ca578eb4049</t>
         </is>
       </c>
       <c r="M488" s="20" t="n"/>
@@ -25756,7 +25872,7 @@
       </c>
       <c r="B489" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C489" s="18" t="inlineStr">
@@ -25766,7 +25882,7 @@
       </c>
       <c r="D489" s="18" t="inlineStr">
         <is>
-          <t>Utilice la función Autorizaciones para simplificar la administración del token de OAuth 2.0 para las API de back-end</t>
+          <t>Habilitación de Application Insights para obtener telemetría más detallada</t>
         </is>
       </c>
       <c r="E489" s="18" t="n"/>
@@ -25790,7 +25906,7 @@
       <c r="K489" s="19" t="n"/>
       <c r="L489" s="19" t="inlineStr">
         <is>
-          <t>5507c4b8-a7f8-41d6-9661-418c987100c9</t>
+          <t>8691fa38-45ed-4299-a247-fecd98d35deb</t>
         </is>
       </c>
       <c r="M489" s="20" t="n"/>
@@ -25807,7 +25923,7 @@
       </c>
       <c r="B490" s="18" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C490" s="18" t="inlineStr">
@@ -25817,7 +25933,7 @@
       </c>
       <c r="D490" s="18" t="inlineStr">
         <is>
-          <t>Utilice la versión más reciente de TLS al cifrar la información en tránsito. Deshabilite los protocolos y cifrados obsoletos e innecesarios cuando sea posible.</t>
+          <t>Configurar alertas sobre las métricas más críticas</t>
         </is>
       </c>
       <c r="E490" s="18" t="n"/>
@@ -25841,7 +25957,7 @@
       <c r="K490" s="19" t="n"/>
       <c r="L490" s="19" t="inlineStr">
         <is>
-          <t>2deee033-b906-4bc2-9f26-c8d3699fe091</t>
+          <t>55fd27bb-76ac-4a91-bc37-049e885be6b7</t>
         </is>
       </c>
       <c r="M490" s="20" t="n"/>
@@ -25868,7 +25984,7 @@
       </c>
       <c r="D491" s="18" t="inlineStr">
         <is>
-          <t>Asegúrese de que los secretos (valores con nombre) se almacenan en Azure Key Vault para que se pueda acceder a ellos y actualizarlos de forma segura</t>
+          <t>Asegúrese de que los certificados SSL personalizados se almacenan en Azure Key Vault para que se pueda acceder a ellos y actualizarlos de forma segura</t>
         </is>
       </c>
       <c r="E491" s="18" t="n"/>
@@ -25892,7 +26008,7 @@
       <c r="K491" s="19" t="n"/>
       <c r="L491" s="19" t="inlineStr">
         <is>
-          <t>f8af3d94-1d2b-4070-846f-849197524258</t>
+          <t>39460bdb-156f-4dc2-a87f-1e8c11ab0998</t>
         </is>
       </c>
       <c r="M491" s="20" t="n"/>
@@ -25919,13 +26035,13 @@
       </c>
       <c r="D492" s="18" t="inlineStr">
         <is>
-          <t>Uso de identidades administradas para autenticarse en otros recursos de Azure siempre que sea posible</t>
+          <t>Protección de las solicitudes entrantes a las API (plano de datos) con Azure AD</t>
         </is>
       </c>
       <c r="E492" s="18" t="n"/>
       <c r="F492" s="18" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G492" t="inlineStr">
@@ -25943,7 +26059,7 @@
       <c r="K492" s="19" t="n"/>
       <c r="L492" s="19" t="inlineStr">
         <is>
-          <t>791abd8b-7706-4e31-9569-afefde724be3</t>
+          <t>e9217997-5f6c-479d-8576-8f2adf706ec8</t>
         </is>
       </c>
       <c r="M492" s="20" t="n"/>
@@ -25970,13 +26086,13 @@
       </c>
       <c r="D493" s="18" t="inlineStr">
         <is>
-          <t>Uso del firewall de aplicaciones web (WAF) mediante la implementación de Application Gateway delante de APIM</t>
+          <t>Uso de Azure AD para autenticar usuarios en el Portal de desarrollador</t>
         </is>
       </c>
       <c r="E493" s="18" t="n"/>
       <c r="F493" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="G493" t="inlineStr">
@@ -25994,7 +26110,7 @@
       <c r="K493" s="19" t="n"/>
       <c r="L493" s="19" t="inlineStr">
         <is>
-          <t>220c4ca6-6688-476b-b2b5-425a78e6fb87</t>
+          <t>5e5f64ba-c90e-480e-8888-398d96cf0bfb</t>
         </is>
       </c>
       <c r="M493" s="20" t="n"/>
@@ -26004,17 +26120,50 @@
       <c r="Q493" s="20" t="n"/>
     </row>
     <row r="494">
-      <c r="A494" s="18" t="n"/>
-      <c r="B494" s="18" t="n"/>
-      <c r="C494" s="18" t="n"/>
-      <c r="D494" s="18" t="n"/>
+      <c r="A494" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B494" s="18" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C494" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D494" s="18" t="inlineStr">
+        <is>
+          <t>Crear grupos adecuados para controlar la visibilidad de los productos</t>
+        </is>
+      </c>
       <c r="E494" s="18" t="n"/>
-      <c r="F494" s="18" t="n"/>
+      <c r="F494" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H494" s="18" t="n"/>
-      <c r="I494" s="13" t="n"/>
+      <c r="I494" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J494" s="13" t="n"/>
       <c r="K494" s="19" t="n"/>
-      <c r="L494" s="19" t="n"/>
+      <c r="L494" s="19" t="inlineStr">
+        <is>
+          <t>f8e574ce-280f-49c8-b2ef-68279b081cf3</t>
+        </is>
+      </c>
       <c r="M494" s="20" t="n"/>
       <c r="N494" s="20" t="n"/>
       <c r="O494" s="20" t="n"/>
@@ -26022,17 +26171,50 @@
       <c r="Q494" s="20" t="n"/>
     </row>
     <row r="495">
-      <c r="A495" s="18" t="n"/>
-      <c r="B495" s="18" t="n"/>
-      <c r="C495" s="18" t="n"/>
-      <c r="D495" s="18" t="n"/>
+      <c r="A495" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B495" s="18" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="C495" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D495" s="18" t="inlineStr">
+        <is>
+          <t>Utilice la función Backends para eliminar las configuraciones redundantes de back-end de la API</t>
+        </is>
+      </c>
       <c r="E495" s="18" t="n"/>
-      <c r="F495" s="18" t="n"/>
+      <c r="F495" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H495" s="18" t="n"/>
-      <c r="I495" s="13" t="n"/>
+      <c r="I495" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J495" s="13" t="n"/>
       <c r="K495" s="19" t="n"/>
-      <c r="L495" s="19" t="n"/>
+      <c r="L495" s="19" t="inlineStr">
+        <is>
+          <t>06862505-2d9a-4874-9491-2837b00a3475</t>
+        </is>
+      </c>
       <c r="M495" s="20" t="n"/>
       <c r="N495" s="20" t="n"/>
       <c r="O495" s="20" t="n"/>
@@ -26040,17 +26222,50 @@
       <c r="Q495" s="20" t="n"/>
     </row>
     <row r="496">
-      <c r="A496" s="18" t="n"/>
-      <c r="B496" s="18" t="n"/>
-      <c r="C496" s="18" t="n"/>
-      <c r="D496" s="18" t="n"/>
+      <c r="A496" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B496" s="18" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="C496" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D496" s="18" t="inlineStr">
+        <is>
+          <t>Usar valores con nombre para almacenar valores comunes que se pueden usar en políticas</t>
+        </is>
+      </c>
       <c r="E496" s="18" t="n"/>
-      <c r="F496" s="18" t="n"/>
+      <c r="F496" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H496" s="18" t="n"/>
-      <c r="I496" s="13" t="n"/>
+      <c r="I496" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J496" s="13" t="n"/>
       <c r="K496" s="19" t="n"/>
-      <c r="L496" s="19" t="n"/>
+      <c r="L496" s="19" t="inlineStr">
+        <is>
+          <t>03b125d5-b69b-4739-b7fd-84b86da4933e</t>
+        </is>
+      </c>
       <c r="M496" s="20" t="n"/>
       <c r="N496" s="20" t="n"/>
       <c r="O496" s="20" t="n"/>
@@ -26058,17 +26273,50 @@
       <c r="Q496" s="20" t="n"/>
     </row>
     <row r="497">
-      <c r="A497" s="18" t="n"/>
-      <c r="B497" s="18" t="n"/>
-      <c r="C497" s="18" t="n"/>
-      <c r="D497" s="18" t="n"/>
+      <c r="A497" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B497" s="18" t="inlineStr">
+        <is>
+          <t>Fiabilidad</t>
+        </is>
+      </c>
+      <c r="C497" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D497" s="18" t="inlineStr">
+        <is>
+          <t>Implementación en varias regiones de Azure</t>
+        </is>
+      </c>
       <c r="E497" s="18" t="n"/>
-      <c r="F497" s="18" t="n"/>
+      <c r="F497" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H497" s="18" t="n"/>
-      <c r="I497" s="13" t="n"/>
+      <c r="I497" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J497" s="13" t="n"/>
       <c r="K497" s="19" t="n"/>
-      <c r="L497" s="19" t="n"/>
+      <c r="L497" s="19" t="inlineStr">
+        <is>
+          <t>beae759e-4ddb-4326-bf26-47f87d3454b6</t>
+        </is>
+      </c>
       <c r="M497" s="20" t="n"/>
       <c r="N497" s="20" t="n"/>
       <c r="O497" s="20" t="n"/>
@@ -26076,17 +26324,50 @@
       <c r="Q497" s="20" t="n"/>
     </row>
     <row r="498">
-      <c r="A498" s="18" t="n"/>
-      <c r="B498" s="18" t="n"/>
-      <c r="C498" s="18" t="n"/>
-      <c r="D498" s="18" t="n"/>
+      <c r="A498" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B498" s="18" t="inlineStr">
+        <is>
+          <t>Fiabilidad</t>
+        </is>
+      </c>
+      <c r="C498" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D498" s="18" t="inlineStr">
+        <is>
+          <t>Implemente al menos dos unidades de escalado distribuidas en dos zonas de disponibilidad por región para obtener la mejor disponibilidad y rendimiento</t>
+        </is>
+      </c>
       <c r="E498" s="18" t="n"/>
-      <c r="F498" s="18" t="n"/>
+      <c r="F498" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H498" s="18" t="n"/>
-      <c r="I498" s="13" t="n"/>
+      <c r="I498" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J498" s="13" t="n"/>
       <c r="K498" s="19" t="n"/>
-      <c r="L498" s="19" t="n"/>
+      <c r="L498" s="19" t="inlineStr">
+        <is>
+          <t>9c8d1664-dd9a-49d4-bd83-950af0af4044</t>
+        </is>
+      </c>
       <c r="M498" s="20" t="n"/>
       <c r="N498" s="20" t="n"/>
       <c r="O498" s="20" t="n"/>
@@ -26094,17 +26375,50 @@
       <c r="Q498" s="20" t="n"/>
     </row>
     <row r="499">
-      <c r="A499" s="18" t="n"/>
-      <c r="B499" s="18" t="n"/>
-      <c r="C499" s="18" t="n"/>
-      <c r="D499" s="18" t="n"/>
+      <c r="A499" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B499" s="18" t="inlineStr">
+        <is>
+          <t>Fiabilidad</t>
+        </is>
+      </c>
+      <c r="C499" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D499" s="18" t="inlineStr">
+        <is>
+          <t>Asegúrese de que haya una rutina de copia de seguridad automatizada</t>
+        </is>
+      </c>
       <c r="E499" s="18" t="n"/>
-      <c r="F499" s="18" t="n"/>
+      <c r="F499" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H499" s="18" t="n"/>
-      <c r="I499" s="13" t="n"/>
+      <c r="I499" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J499" s="13" t="n"/>
       <c r="K499" s="19" t="n"/>
-      <c r="L499" s="19" t="n"/>
+      <c r="L499" s="19" t="inlineStr">
+        <is>
+          <t>8d2db6e8-85c6-4118-a52c-ae76a4f27934</t>
+        </is>
+      </c>
       <c r="M499" s="20" t="n"/>
       <c r="N499" s="20" t="n"/>
       <c r="O499" s="20" t="n"/>
@@ -26112,17 +26426,50 @@
       <c r="Q499" s="20" t="n"/>
     </row>
     <row r="500">
-      <c r="A500" s="18" t="n"/>
-      <c r="B500" s="18" t="n"/>
-      <c r="C500" s="18" t="n"/>
-      <c r="D500" s="18" t="n"/>
+      <c r="A500" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B500" s="18" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="C500" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D500" s="18" t="inlineStr">
+        <is>
+          <t>Si necesita iniciar sesión en niveles de alto rendimiento, tenga en cuenta la directiva de Event Hubs</t>
+        </is>
+      </c>
       <c r="E500" s="18" t="n"/>
-      <c r="F500" s="18" t="n"/>
+      <c r="F500" s="18" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H500" s="18" t="n"/>
-      <c r="I500" s="13" t="n"/>
+      <c r="I500" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J500" s="13" t="n"/>
       <c r="K500" s="19" t="n"/>
-      <c r="L500" s="19" t="n"/>
+      <c r="L500" s="19" t="inlineStr">
+        <is>
+          <t>8210699f-8d43-45c2-8f19-57e54134bd8f</t>
+        </is>
+      </c>
       <c r="M500" s="20" t="n"/>
       <c r="N500" s="20" t="n"/>
       <c r="O500" s="20" t="n"/>
@@ -26130,17 +26477,54 @@
       <c r="Q500" s="20" t="n"/>
     </row>
     <row r="501">
-      <c r="A501" s="18" t="n"/>
-      <c r="B501" s="18" t="n"/>
-      <c r="C501" s="18" t="n"/>
-      <c r="D501" s="18" t="n"/>
+      <c r="A501" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B501" s="18" t="inlineStr">
+        <is>
+          <t>Rendimiento</t>
+        </is>
+      </c>
+      <c r="C501" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D501" s="18" t="inlineStr">
+        <is>
+          <t>Aplicación de directivas de limitación para controlar el número de solicitudes por segundo</t>
+        </is>
+      </c>
       <c r="E501" s="18" t="n"/>
-      <c r="F501" s="18" t="n"/>
+      <c r="F501" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H501" s="18" t="n"/>
-      <c r="I501" s="13" t="n"/>
-      <c r="J501" s="13" t="n"/>
+      <c r="I501" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J501" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/protect-apis-on-api-management/</t>
+        </is>
+      </c>
       <c r="K501" s="19" t="n"/>
-      <c r="L501" s="19" t="n"/>
+      <c r="L501" s="19" t="inlineStr">
+        <is>
+          <t>121bfc39-fa7b-4096-b93b-ab56c1bc0bed</t>
+        </is>
+      </c>
       <c r="M501" s="20" t="n"/>
       <c r="N501" s="20" t="n"/>
       <c r="O501" s="20" t="n"/>
@@ -26148,17 +26532,50 @@
       <c r="Q501" s="20" t="n"/>
     </row>
     <row r="502">
-      <c r="A502" s="18" t="n"/>
-      <c r="B502" s="18" t="n"/>
-      <c r="C502" s="18" t="n"/>
-      <c r="D502" s="18" t="n"/>
+      <c r="A502" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B502" s="18" t="inlineStr">
+        <is>
+          <t>Rendimiento</t>
+        </is>
+      </c>
+      <c r="C502" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D502" s="18" t="inlineStr">
+        <is>
+          <t>Configurar el escalado automático para escalar horizontalmente el número de instancias cuando aumenta la carga</t>
+        </is>
+      </c>
       <c r="E502" s="18" t="n"/>
-      <c r="F502" s="18" t="n"/>
+      <c r="F502" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H502" s="18" t="n"/>
-      <c r="I502" s="13" t="n"/>
+      <c r="I502" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J502" s="13" t="n"/>
       <c r="K502" s="19" t="n"/>
-      <c r="L502" s="19" t="n"/>
+      <c r="L502" s="19" t="inlineStr">
+        <is>
+          <t>bb5f356b-3daf-47a2-a9ee-867a8100bbd5</t>
+        </is>
+      </c>
       <c r="M502" s="20" t="n"/>
       <c r="N502" s="20" t="n"/>
       <c r="O502" s="20" t="n"/>
@@ -26166,17 +26583,50 @@
       <c r="Q502" s="20" t="n"/>
     </row>
     <row r="503">
-      <c r="A503" s="18" t="n"/>
-      <c r="B503" s="18" t="n"/>
-      <c r="C503" s="18" t="n"/>
-      <c r="D503" s="18" t="n"/>
+      <c r="A503" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B503" s="18" t="inlineStr">
+        <is>
+          <t>Rendimiento</t>
+        </is>
+      </c>
+      <c r="C503" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D503" s="18" t="inlineStr">
+        <is>
+          <t>Implemente puertas de enlace autohospedadas en las que Azure no tenga una región cercana a las API de back-end.</t>
+        </is>
+      </c>
       <c r="E503" s="18" t="n"/>
-      <c r="F503" s="18" t="n"/>
+      <c r="F503" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H503" s="18" t="n"/>
-      <c r="I503" s="13" t="n"/>
+      <c r="I503" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J503" s="13" t="n"/>
       <c r="K503" s="19" t="n"/>
-      <c r="L503" s="19" t="n"/>
+      <c r="L503" s="19" t="inlineStr">
+        <is>
+          <t>84b94abb-59b6-4b9d-8587-3413669468e8</t>
+        </is>
+      </c>
       <c r="M503" s="20" t="n"/>
       <c r="N503" s="20" t="n"/>
       <c r="O503" s="20" t="n"/>
@@ -26184,17 +26634,50 @@
       <c r="Q503" s="20" t="n"/>
     </row>
     <row r="504">
-      <c r="A504" s="18" t="n"/>
-      <c r="B504" s="18" t="n"/>
-      <c r="C504" s="18" t="n"/>
-      <c r="D504" s="18" t="n"/>
+      <c r="A504" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B504" s="18" t="inlineStr">
+        <is>
+          <t>Rendimiento</t>
+        </is>
+      </c>
+      <c r="C504" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D504" s="18" t="inlineStr">
+        <is>
+          <t>Uso de Azure Front Door delante de APIM para la implementación en varias regiones</t>
+        </is>
+      </c>
       <c r="E504" s="18" t="n"/>
-      <c r="F504" s="18" t="n"/>
+      <c r="F504" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H504" s="18" t="n"/>
-      <c r="I504" s="13" t="n"/>
+      <c r="I504" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J504" s="13" t="n"/>
       <c r="K504" s="19" t="n"/>
-      <c r="L504" s="19" t="n"/>
+      <c r="L504" s="19" t="inlineStr">
+        <is>
+          <t>7519e385-a88b-4d34-966b-6269d686e890</t>
+        </is>
+      </c>
       <c r="M504" s="20" t="n"/>
       <c r="N504" s="20" t="n"/>
       <c r="O504" s="20" t="n"/>
@@ -26202,17 +26685,50 @@
       <c r="Q504" s="20" t="n"/>
     </row>
     <row r="505">
-      <c r="A505" s="18" t="n"/>
-      <c r="B505" s="18" t="n"/>
-      <c r="C505" s="18" t="n"/>
-      <c r="D505" s="18" t="n"/>
+      <c r="A505" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B505" s="18" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C505" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D505" s="18" t="inlineStr">
+        <is>
+          <t>Implementación del servicio dentro de una red virtual (VNet)</t>
+        </is>
+      </c>
       <c r="E505" s="18" t="n"/>
-      <c r="F505" s="18" t="n"/>
+      <c r="F505" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H505" s="18" t="n"/>
-      <c r="I505" s="13" t="n"/>
+      <c r="I505" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J505" s="13" t="n"/>
       <c r="K505" s="19" t="n"/>
-      <c r="L505" s="19" t="n"/>
+      <c r="L505" s="19" t="inlineStr">
+        <is>
+          <t>cd45c90e-7690-4753-930b-bf290c69c074</t>
+        </is>
+      </c>
       <c r="M505" s="20" t="n"/>
       <c r="N505" s="20" t="n"/>
       <c r="O505" s="20" t="n"/>
@@ -26220,17 +26736,50 @@
       <c r="Q505" s="20" t="n"/>
     </row>
     <row r="506">
-      <c r="A506" s="18" t="n"/>
-      <c r="B506" s="18" t="n"/>
-      <c r="C506" s="18" t="n"/>
-      <c r="D506" s="18" t="n"/>
+      <c r="A506" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B506" s="18" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C506" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D506" s="18" t="inlineStr">
+        <is>
+          <t>Implemente grupos de seguridad de red (NSG) en las subredes para restringir o supervisar el tráfico hacia/desde APIM.</t>
+        </is>
+      </c>
       <c r="E506" s="18" t="n"/>
-      <c r="F506" s="18" t="n"/>
+      <c r="F506" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H506" s="18" t="n"/>
-      <c r="I506" s="13" t="n"/>
+      <c r="I506" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J506" s="13" t="n"/>
       <c r="K506" s="19" t="n"/>
-      <c r="L506" s="19" t="n"/>
+      <c r="L506" s="19" t="inlineStr">
+        <is>
+          <t>02661582-b3d1-48d1-9d7b-c6a918a0ca33</t>
+        </is>
+      </c>
       <c r="M506" s="20" t="n"/>
       <c r="N506" s="20" t="n"/>
       <c r="O506" s="20" t="n"/>
@@ -26238,17 +26787,50 @@
       <c r="Q506" s="20" t="n"/>
     </row>
     <row r="507">
-      <c r="A507" s="18" t="n"/>
-      <c r="B507" s="18" t="n"/>
-      <c r="C507" s="18" t="n"/>
-      <c r="D507" s="18" t="n"/>
+      <c r="A507" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B507" s="18" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C507" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D507" s="18" t="inlineStr">
+        <is>
+          <t>Implemente puntos de conexión privados para filtrar el tráfico entrante cuando APIM no se implemente en una red virtual.</t>
+        </is>
+      </c>
       <c r="E507" s="18" t="n"/>
-      <c r="F507" s="18" t="n"/>
+      <c r="F507" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H507" s="18" t="n"/>
-      <c r="I507" s="13" t="n"/>
+      <c r="I507" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J507" s="13" t="n"/>
       <c r="K507" s="19" t="n"/>
-      <c r="L507" s="19" t="n"/>
+      <c r="L507" s="19" t="inlineStr">
+        <is>
+          <t>67437a28-2721-4a2c-becd-caa54c8237a5</t>
+        </is>
+      </c>
       <c r="M507" s="20" t="n"/>
       <c r="N507" s="20" t="n"/>
       <c r="O507" s="20" t="n"/>
@@ -26256,17 +26838,50 @@
       <c r="Q507" s="20" t="n"/>
     </row>
     <row r="508">
-      <c r="A508" s="18" t="n"/>
-      <c r="B508" s="18" t="n"/>
-      <c r="C508" s="18" t="n"/>
-      <c r="D508" s="18" t="n"/>
+      <c r="A508" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B508" s="18" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C508" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D508" s="18" t="inlineStr">
+        <is>
+          <t>Deshabilitar el acceso a la red pública</t>
+        </is>
+      </c>
       <c r="E508" s="18" t="n"/>
-      <c r="F508" s="18" t="n"/>
+      <c r="F508" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H508" s="18" t="n"/>
-      <c r="I508" s="13" t="n"/>
+      <c r="I508" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J508" s="13" t="n"/>
       <c r="K508" s="19" t="n"/>
-      <c r="L508" s="19" t="n"/>
+      <c r="L508" s="19" t="inlineStr">
+        <is>
+          <t>d698adbd-3288-44cb-b10a-9b572da395ae</t>
+        </is>
+      </c>
       <c r="M508" s="20" t="n"/>
       <c r="N508" s="20" t="n"/>
       <c r="O508" s="20" t="n"/>
@@ -26274,17 +26889,50 @@
       <c r="Q508" s="20" t="n"/>
     </row>
     <row r="509">
-      <c r="A509" s="18" t="n"/>
-      <c r="B509" s="18" t="n"/>
-      <c r="C509" s="18" t="n"/>
-      <c r="D509" s="18" t="n"/>
+      <c r="A509" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B509" s="18" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="C509" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D509" s="18" t="inlineStr">
+        <is>
+          <t>Simplifique la administración con scripts de automatización de PowerShell</t>
+        </is>
+      </c>
       <c r="E509" s="18" t="n"/>
-      <c r="F509" s="18" t="n"/>
+      <c r="F509" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H509" s="18" t="n"/>
-      <c r="I509" s="13" t="n"/>
+      <c r="I509" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J509" s="13" t="n"/>
       <c r="K509" s="19" t="n"/>
-      <c r="L509" s="19" t="n"/>
+      <c r="L509" s="19" t="inlineStr">
+        <is>
+          <t>0674d750-0c6f-4ac0-8717-ceec04d0bdbd</t>
+        </is>
+      </c>
       <c r="M509" s="20" t="n"/>
       <c r="N509" s="20" t="n"/>
       <c r="O509" s="20" t="n"/>
@@ -26292,17 +26940,50 @@
       <c r="Q509" s="20" t="n"/>
     </row>
     <row r="510">
-      <c r="A510" s="18" t="n"/>
-      <c r="B510" s="18" t="n"/>
-      <c r="C510" s="18" t="n"/>
-      <c r="D510" s="18" t="n"/>
+      <c r="A510" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B510" s="18" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="C510" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D510" s="18" t="inlineStr">
+        <is>
+          <t>Revise las prácticas recomendadas de DevOps desde el acelerador de zonas de aterrizaje de API de Cloud Adaption Framework</t>
+        </is>
+      </c>
       <c r="E510" s="18" t="n"/>
-      <c r="F510" s="18" t="n"/>
+      <c r="F510" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H510" s="18" t="n"/>
-      <c r="I510" s="13" t="n"/>
+      <c r="I510" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J510" s="13" t="n"/>
       <c r="K510" s="19" t="n"/>
-      <c r="L510" s="19" t="n"/>
+      <c r="L510" s="19" t="inlineStr">
+        <is>
+          <t>c385bfcd-49fd-4786-81ba-cedbb4c57345</t>
+        </is>
+      </c>
       <c r="M510" s="20" t="n"/>
       <c r="N510" s="20" t="n"/>
       <c r="O510" s="20" t="n"/>
@@ -26310,17 +26991,50 @@
       <c r="Q510" s="20" t="n"/>
     </row>
     <row r="511">
-      <c r="A511" s="18" t="n"/>
-      <c r="B511" s="18" t="n"/>
-      <c r="C511" s="18" t="n"/>
-      <c r="D511" s="18" t="n"/>
+      <c r="A511" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B511" s="18" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="C511" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D511" s="18" t="inlineStr">
+        <is>
+          <t>Promover el uso de la extensión APIM de Visual Studio Code para un desarrollo de API más rápido</t>
+        </is>
+      </c>
       <c r="E511" s="18" t="n"/>
-      <c r="F511" s="18" t="n"/>
+      <c r="F511" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H511" s="18" t="n"/>
-      <c r="I511" s="13" t="n"/>
+      <c r="I511" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J511" s="13" t="n"/>
       <c r="K511" s="19" t="n"/>
-      <c r="L511" s="19" t="n"/>
+      <c r="L511" s="19" t="inlineStr">
+        <is>
+          <t>6c3a27c0-197f-426c-9ffa-86fed51d9ab6</t>
+        </is>
+      </c>
       <c r="M511" s="20" t="n"/>
       <c r="N511" s="20" t="n"/>
       <c r="O511" s="20" t="n"/>
@@ -26328,17 +27042,50 @@
       <c r="Q511" s="20" t="n"/>
     </row>
     <row r="512">
-      <c r="A512" s="18" t="n"/>
-      <c r="B512" s="18" t="n"/>
-      <c r="C512" s="18" t="n"/>
-      <c r="D512" s="18" t="n"/>
+      <c r="A512" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B512" s="18" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="C512" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D512" s="18" t="inlineStr">
+        <is>
+          <t>Implemente DevOps y CI/CD en su flujo de trabajo</t>
+        </is>
+      </c>
       <c r="E512" s="18" t="n"/>
-      <c r="F512" s="18" t="n"/>
+      <c r="F512" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H512" s="18" t="n"/>
-      <c r="I512" s="13" t="n"/>
+      <c r="I512" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J512" s="13" t="n"/>
       <c r="K512" s="19" t="n"/>
-      <c r="L512" s="19" t="n"/>
+      <c r="L512" s="19" t="inlineStr">
+        <is>
+          <t>354f1c03-8112-4965-85ad-c0074bddf231</t>
+        </is>
+      </c>
       <c r="M512" s="20" t="n"/>
       <c r="N512" s="20" t="n"/>
       <c r="O512" s="20" t="n"/>
@@ -26346,17 +27093,50 @@
       <c r="Q512" s="20" t="n"/>
     </row>
     <row r="513">
-      <c r="A513" s="18" t="n"/>
-      <c r="B513" s="18" t="n"/>
-      <c r="C513" s="18" t="n"/>
-      <c r="D513" s="18" t="n"/>
+      <c r="A513" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B513" s="18" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C513" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D513" s="18" t="inlineStr">
+        <is>
+          <t>API seguras mediante la autenticación de certificados de cliente</t>
+        </is>
+      </c>
       <c r="E513" s="18" t="n"/>
-      <c r="F513" s="18" t="n"/>
+      <c r="F513" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H513" s="18" t="n"/>
-      <c r="I513" s="13" t="n"/>
+      <c r="I513" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J513" s="13" t="n"/>
       <c r="K513" s="19" t="n"/>
-      <c r="L513" s="19" t="n"/>
+      <c r="L513" s="19" t="inlineStr">
+        <is>
+          <t>b6439493-426a-45f3-9697-cf65baee208d</t>
+        </is>
+      </c>
       <c r="M513" s="20" t="n"/>
       <c r="N513" s="20" t="n"/>
       <c r="O513" s="20" t="n"/>
@@ -26364,17 +27144,50 @@
       <c r="Q513" s="20" t="n"/>
     </row>
     <row r="514">
-      <c r="A514" s="18" t="n"/>
-      <c r="B514" s="18" t="n"/>
-      <c r="C514" s="18" t="n"/>
-      <c r="D514" s="18" t="n"/>
+      <c r="A514" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B514" s="18" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C514" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D514" s="18" t="inlineStr">
+        <is>
+          <t>Servicios de back-end seguros mediante la autenticación de certificados de cliente</t>
+        </is>
+      </c>
       <c r="E514" s="18" t="n"/>
-      <c r="F514" s="18" t="n"/>
+      <c r="F514" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H514" s="18" t="n"/>
-      <c r="I514" s="13" t="n"/>
+      <c r="I514" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J514" s="13" t="n"/>
       <c r="K514" s="19" t="n"/>
-      <c r="L514" s="19" t="n"/>
+      <c r="L514" s="19" t="inlineStr">
+        <is>
+          <t>2a67d143-1033-4c0a-8732-680896478f08</t>
+        </is>
+      </c>
       <c r="M514" s="20" t="n"/>
       <c r="N514" s="20" t="n"/>
       <c r="O514" s="20" t="n"/>
@@ -26382,17 +27195,50 @@
       <c r="Q514" s="20" t="n"/>
     </row>
     <row r="515">
-      <c r="A515" s="18" t="n"/>
-      <c r="B515" s="18" t="n"/>
-      <c r="C515" s="18" t="n"/>
-      <c r="D515" s="18" t="n"/>
+      <c r="A515" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B515" s="18" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C515" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D515" s="18" t="inlineStr">
+        <is>
+          <t>Revise el artículo "Recomendaciones para mitigar las 10 principales amenazas de seguridad de la API de OWASP" y compruebe qué es aplicable a sus API</t>
+        </is>
+      </c>
       <c r="E515" s="18" t="n"/>
-      <c r="F515" s="18" t="n"/>
+      <c r="F515" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H515" s="18" t="n"/>
-      <c r="I515" s="13" t="n"/>
+      <c r="I515" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J515" s="13" t="n"/>
       <c r="K515" s="19" t="n"/>
-      <c r="L515" s="19" t="n"/>
+      <c r="L515" s="19" t="inlineStr">
+        <is>
+          <t>074435f5-4a46-41ac-b521-d6114cb5d845</t>
+        </is>
+      </c>
       <c r="M515" s="20" t="n"/>
       <c r="N515" s="20" t="n"/>
       <c r="O515" s="20" t="n"/>
@@ -26400,17 +27246,50 @@
       <c r="Q515" s="20" t="n"/>
     </row>
     <row r="516">
-      <c r="A516" s="18" t="n"/>
-      <c r="B516" s="18" t="n"/>
-      <c r="C516" s="18" t="n"/>
-      <c r="D516" s="18" t="n"/>
+      <c r="A516" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B516" s="18" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C516" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D516" s="18" t="inlineStr">
+        <is>
+          <t>Utilice la función Autorizaciones para simplificar la administración del token de OAuth 2.0 para las API de back-end</t>
+        </is>
+      </c>
       <c r="E516" s="18" t="n"/>
-      <c r="F516" s="18" t="n"/>
+      <c r="F516" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H516" s="18" t="n"/>
-      <c r="I516" s="13" t="n"/>
+      <c r="I516" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J516" s="13" t="n"/>
       <c r="K516" s="19" t="n"/>
-      <c r="L516" s="19" t="n"/>
+      <c r="L516" s="19" t="inlineStr">
+        <is>
+          <t>5507c4b8-a7f8-41d6-9661-418c987100c9</t>
+        </is>
+      </c>
       <c r="M516" s="20" t="n"/>
       <c r="N516" s="20" t="n"/>
       <c r="O516" s="20" t="n"/>
@@ -26418,17 +27297,50 @@
       <c r="Q516" s="20" t="n"/>
     </row>
     <row r="517">
-      <c r="A517" s="18" t="n"/>
-      <c r="B517" s="18" t="n"/>
-      <c r="C517" s="18" t="n"/>
-      <c r="D517" s="18" t="n"/>
+      <c r="A517" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B517" s="18" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C517" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D517" s="18" t="inlineStr">
+        <is>
+          <t>Utilice la versión más reciente de TLS al cifrar la información en tránsito. Deshabilite los protocolos y cifrados obsoletos e innecesarios cuando sea posible.</t>
+        </is>
+      </c>
       <c r="E517" s="18" t="n"/>
-      <c r="F517" s="18" t="n"/>
+      <c r="F517" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H517" s="18" t="n"/>
-      <c r="I517" s="13" t="n"/>
+      <c r="I517" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J517" s="13" t="n"/>
       <c r="K517" s="19" t="n"/>
-      <c r="L517" s="19" t="n"/>
+      <c r="L517" s="19" t="inlineStr">
+        <is>
+          <t>2deee033-b906-4bc2-9f26-c8d3699fe091</t>
+        </is>
+      </c>
       <c r="M517" s="20" t="n"/>
       <c r="N517" s="20" t="n"/>
       <c r="O517" s="20" t="n"/>
@@ -26436,17 +27348,50 @@
       <c r="Q517" s="20" t="n"/>
     </row>
     <row r="518">
-      <c r="A518" s="18" t="n"/>
-      <c r="B518" s="18" t="n"/>
-      <c r="C518" s="18" t="n"/>
-      <c r="D518" s="18" t="n"/>
+      <c r="A518" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B518" s="18" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C518" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D518" s="18" t="inlineStr">
+        <is>
+          <t>Asegúrese de que los secretos (valores con nombre) se almacenan en Azure Key Vault para que se pueda acceder a ellos y actualizarlos de forma segura</t>
+        </is>
+      </c>
       <c r="E518" s="18" t="n"/>
-      <c r="F518" s="18" t="n"/>
+      <c r="F518" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H518" s="18" t="n"/>
-      <c r="I518" s="13" t="n"/>
+      <c r="I518" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J518" s="13" t="n"/>
       <c r="K518" s="19" t="n"/>
-      <c r="L518" s="19" t="n"/>
+      <c r="L518" s="19" t="inlineStr">
+        <is>
+          <t>f8af3d94-1d2b-4070-846f-849197524258</t>
+        </is>
+      </c>
       <c r="M518" s="20" t="n"/>
       <c r="N518" s="20" t="n"/>
       <c r="O518" s="20" t="n"/>
@@ -26454,17 +27399,50 @@
       <c r="Q518" s="20" t="n"/>
     </row>
     <row r="519">
-      <c r="A519" s="18" t="n"/>
-      <c r="B519" s="18" t="n"/>
-      <c r="C519" s="18" t="n"/>
-      <c r="D519" s="18" t="n"/>
+      <c r="A519" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B519" s="18" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C519" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D519" s="18" t="inlineStr">
+        <is>
+          <t>Uso de identidades administradas para autenticarse en otros recursos de Azure siempre que sea posible</t>
+        </is>
+      </c>
       <c r="E519" s="18" t="n"/>
-      <c r="F519" s="18" t="n"/>
+      <c r="F519" s="18" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H519" s="18" t="n"/>
-      <c r="I519" s="13" t="n"/>
+      <c r="I519" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J519" s="13" t="n"/>
       <c r="K519" s="19" t="n"/>
-      <c r="L519" s="19" t="n"/>
+      <c r="L519" s="19" t="inlineStr">
+        <is>
+          <t>791abd8b-7706-4e31-9569-afefde724be3</t>
+        </is>
+      </c>
       <c r="M519" s="20" t="n"/>
       <c r="N519" s="20" t="n"/>
       <c r="O519" s="20" t="n"/>
@@ -26472,17 +27450,50 @@
       <c r="Q519" s="20" t="n"/>
     </row>
     <row r="520">
-      <c r="A520" s="18" t="n"/>
-      <c r="B520" s="18" t="n"/>
-      <c r="C520" s="18" t="n"/>
-      <c r="D520" s="18" t="n"/>
+      <c r="A520" s="18" t="inlineStr">
+        <is>
+          <t>Azure API Management Review</t>
+        </is>
+      </c>
+      <c r="B520" s="18" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C520" s="18" t="inlineStr">
+        <is>
+          <t>APIM</t>
+        </is>
+      </c>
+      <c r="D520" s="18" t="inlineStr">
+        <is>
+          <t>Uso del firewall de aplicaciones web (WAF) mediante la implementación de Application Gateway delante de APIM</t>
+        </is>
+      </c>
       <c r="E520" s="18" t="n"/>
-      <c r="F520" s="18" t="n"/>
+      <c r="F520" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="H520" s="18" t="n"/>
-      <c r="I520" s="13" t="n"/>
+      <c r="I520" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J520" s="13" t="n"/>
       <c r="K520" s="19" t="n"/>
-      <c r="L520" s="19" t="n"/>
+      <c r="L520" s="19" t="inlineStr">
+        <is>
+          <t>220c4ca6-6688-476b-b2b5-425a78e6fb87</t>
+        </is>
+      </c>
       <c r="M520" s="20" t="n"/>
       <c r="N520" s="20" t="n"/>
       <c r="O520" s="20" t="n"/>
@@ -38964,7 +39975,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G494" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G521" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -39248,58 +40259,58 @@
     <hyperlink ref="I380" r:id="rId277"/>
     <hyperlink ref="I381" r:id="rId278"/>
     <hyperlink ref="I382" r:id="rId279"/>
-    <hyperlink ref="I384" r:id="rId280"/>
-    <hyperlink ref="I385" r:id="rId281"/>
-    <hyperlink ref="I386" r:id="rId282"/>
-    <hyperlink ref="I387" r:id="rId283"/>
-    <hyperlink ref="I388" r:id="rId284"/>
-    <hyperlink ref="I389" r:id="rId285"/>
-    <hyperlink ref="I390" r:id="rId286"/>
-    <hyperlink ref="I391" r:id="rId287"/>
-    <hyperlink ref="I392" r:id="rId288"/>
-    <hyperlink ref="I393" r:id="rId289"/>
-    <hyperlink ref="I394" r:id="rId290"/>
-    <hyperlink ref="I395" r:id="rId291"/>
-    <hyperlink ref="I396" r:id="rId292"/>
-    <hyperlink ref="I397" r:id="rId293"/>
-    <hyperlink ref="I398" r:id="rId294"/>
-    <hyperlink ref="I399" r:id="rId295"/>
-    <hyperlink ref="I400" r:id="rId296"/>
-    <hyperlink ref="I401" r:id="rId297"/>
-    <hyperlink ref="I402" r:id="rId298"/>
-    <hyperlink ref="I403" r:id="rId299"/>
-    <hyperlink ref="I404" r:id="rId300"/>
-    <hyperlink ref="I405" r:id="rId301"/>
-    <hyperlink ref="I406" r:id="rId302"/>
-    <hyperlink ref="I407" r:id="rId303"/>
-    <hyperlink ref="I408" r:id="rId304"/>
-    <hyperlink ref="I410" r:id="rId305"/>
-    <hyperlink ref="I411" r:id="rId306"/>
-    <hyperlink ref="I412" r:id="rId307"/>
-    <hyperlink ref="I413" r:id="rId308"/>
-    <hyperlink ref="I414" r:id="rId309"/>
-    <hyperlink ref="I415" r:id="rId310"/>
-    <hyperlink ref="I416" r:id="rId311"/>
-    <hyperlink ref="I417" r:id="rId312"/>
-    <hyperlink ref="I418" r:id="rId313"/>
-    <hyperlink ref="I419" r:id="rId314"/>
-    <hyperlink ref="I420" r:id="rId315"/>
-    <hyperlink ref="I421" r:id="rId316"/>
-    <hyperlink ref="I422" r:id="rId317"/>
-    <hyperlink ref="I423" r:id="rId318"/>
-    <hyperlink ref="I424" r:id="rId319"/>
-    <hyperlink ref="I425" r:id="rId320"/>
-    <hyperlink ref="I426" r:id="rId321"/>
-    <hyperlink ref="I427" r:id="rId322"/>
-    <hyperlink ref="I428" r:id="rId323"/>
-    <hyperlink ref="I429" r:id="rId324"/>
-    <hyperlink ref="I430" r:id="rId325"/>
-    <hyperlink ref="I431" r:id="rId326"/>
-    <hyperlink ref="I432" r:id="rId327"/>
-    <hyperlink ref="I433" r:id="rId328"/>
-    <hyperlink ref="I434" r:id="rId329"/>
-    <hyperlink ref="I435" r:id="rId330"/>
-    <hyperlink ref="I436" r:id="rId331"/>
+    <hyperlink ref="I383" r:id="rId280"/>
+    <hyperlink ref="I384" r:id="rId281"/>
+    <hyperlink ref="I385" r:id="rId282"/>
+    <hyperlink ref="I386" r:id="rId283"/>
+    <hyperlink ref="I387" r:id="rId284"/>
+    <hyperlink ref="I388" r:id="rId285"/>
+    <hyperlink ref="I389" r:id="rId286"/>
+    <hyperlink ref="I390" r:id="rId287"/>
+    <hyperlink ref="I391" r:id="rId288"/>
+    <hyperlink ref="I392" r:id="rId289"/>
+    <hyperlink ref="I393" r:id="rId290"/>
+    <hyperlink ref="I394" r:id="rId291"/>
+    <hyperlink ref="I395" r:id="rId292"/>
+    <hyperlink ref="I396" r:id="rId293"/>
+    <hyperlink ref="I397" r:id="rId294"/>
+    <hyperlink ref="I398" r:id="rId295"/>
+    <hyperlink ref="I399" r:id="rId296"/>
+    <hyperlink ref="I400" r:id="rId297"/>
+    <hyperlink ref="I401" r:id="rId298"/>
+    <hyperlink ref="I402" r:id="rId299"/>
+    <hyperlink ref="I403" r:id="rId300"/>
+    <hyperlink ref="I404" r:id="rId301"/>
+    <hyperlink ref="I405" r:id="rId302"/>
+    <hyperlink ref="I406" r:id="rId303"/>
+    <hyperlink ref="I407" r:id="rId304"/>
+    <hyperlink ref="I408" r:id="rId305"/>
+    <hyperlink ref="I409" r:id="rId306"/>
+    <hyperlink ref="I411" r:id="rId307"/>
+    <hyperlink ref="I412" r:id="rId308"/>
+    <hyperlink ref="I413" r:id="rId309"/>
+    <hyperlink ref="I414" r:id="rId310"/>
+    <hyperlink ref="I415" r:id="rId311"/>
+    <hyperlink ref="I416" r:id="rId312"/>
+    <hyperlink ref="I417" r:id="rId313"/>
+    <hyperlink ref="I418" r:id="rId314"/>
+    <hyperlink ref="I419" r:id="rId315"/>
+    <hyperlink ref="I420" r:id="rId316"/>
+    <hyperlink ref="I421" r:id="rId317"/>
+    <hyperlink ref="I422" r:id="rId318"/>
+    <hyperlink ref="I423" r:id="rId319"/>
+    <hyperlink ref="I424" r:id="rId320"/>
+    <hyperlink ref="I425" r:id="rId321"/>
+    <hyperlink ref="I426" r:id="rId322"/>
+    <hyperlink ref="I427" r:id="rId323"/>
+    <hyperlink ref="I428" r:id="rId324"/>
+    <hyperlink ref="I429" r:id="rId325"/>
+    <hyperlink ref="I430" r:id="rId326"/>
+    <hyperlink ref="I431" r:id="rId327"/>
+    <hyperlink ref="I432" r:id="rId328"/>
+    <hyperlink ref="I433" r:id="rId329"/>
+    <hyperlink ref="I434" r:id="rId330"/>
+    <hyperlink ref="I435" r:id="rId331"/>
     <hyperlink ref="I437" r:id="rId332"/>
     <hyperlink ref="I438" r:id="rId333"/>
     <hyperlink ref="I439" r:id="rId334"/>
@@ -39357,6 +40368,33 @@
     <hyperlink ref="I491" r:id="rId386"/>
     <hyperlink ref="I492" r:id="rId387"/>
     <hyperlink ref="I493" r:id="rId388"/>
+    <hyperlink ref="I494" r:id="rId389"/>
+    <hyperlink ref="I495" r:id="rId390"/>
+    <hyperlink ref="I496" r:id="rId391"/>
+    <hyperlink ref="I497" r:id="rId392"/>
+    <hyperlink ref="I498" r:id="rId393"/>
+    <hyperlink ref="I499" r:id="rId394"/>
+    <hyperlink ref="I500" r:id="rId395"/>
+    <hyperlink ref="I501" r:id="rId396"/>
+    <hyperlink ref="I502" r:id="rId397"/>
+    <hyperlink ref="I503" r:id="rId398"/>
+    <hyperlink ref="I504" r:id="rId399"/>
+    <hyperlink ref="I505" r:id="rId400"/>
+    <hyperlink ref="I506" r:id="rId401"/>
+    <hyperlink ref="I507" r:id="rId402"/>
+    <hyperlink ref="I508" r:id="rId403"/>
+    <hyperlink ref="I509" r:id="rId404"/>
+    <hyperlink ref="I510" r:id="rId405"/>
+    <hyperlink ref="I511" r:id="rId406"/>
+    <hyperlink ref="I512" r:id="rId407"/>
+    <hyperlink ref="I513" r:id="rId408"/>
+    <hyperlink ref="I514" r:id="rId409"/>
+    <hyperlink ref="I515" r:id="rId410"/>
+    <hyperlink ref="I516" r:id="rId411"/>
+    <hyperlink ref="I517" r:id="rId412"/>
+    <hyperlink ref="I518" r:id="rId413"/>
+    <hyperlink ref="I519" r:id="rId414"/>
+    <hyperlink ref="I520" r:id="rId415"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>
